--- a/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20190429.xlsx
+++ b/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20190429.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="12915"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pin-map'!$B$15:$S$79</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="559">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,10 +384,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC_IN10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2150,22 +2146,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Current Transducer Out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power 별 Plasma limit 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>H/W Version V1.0 : 00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Not used</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Plasma Pulse 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2203,10 +2187,6 @@
   </si>
   <si>
     <t>GPIO_EXTI14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HW Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2228,6 +2208,30 @@
   <si>
     <t>+5V OP-AMP Output
 기본은 GPIO_EXTI0으로 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW_IS_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FET_T_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN_PW_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FW_CT_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_IN10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDC_IN_AD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2797,7 +2801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3499,78 +3503,93 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3589,20 +3608,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3900,7 +3907,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3935,7 +3942,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4146,8 +4153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4166,7 +4173,7 @@
     <col min="13" max="13" width="44.625" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="25.25" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.125" style="5" customWidth="1"/>
     <col min="17" max="17" width="24.125" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.625" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="27.25" style="1" bestFit="1" customWidth="1"/>
@@ -4175,18 +4182,18 @@
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -4197,10 +4204,10 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="261" t="s">
+      <c r="B3" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="262"/>
+      <c r="C3" s="256"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -4228,10 +4235,10 @@
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="263" t="s">
+      <c r="B4" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="264"/>
+      <c r="C4" s="258"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -4247,7 +4254,7 @@
         <v>48000000</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>76</v>
@@ -4257,14 +4264,14 @@
         <v>48000000</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="263" t="s">
+      <c r="B5" s="257" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="264"/>
+      <c r="C5" s="258"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -4275,31 +4282,31 @@
         <v>6</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H5" s="30">
         <f>H3*1</f>
         <v>48000000</v>
       </c>
       <c r="I5" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="N5" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>238</v>
       </c>
       <c r="O5" s="30">
         <f>O3*1</f>
         <v>48000000</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="263" t="s">
+      <c r="B6" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="264"/>
+      <c r="C6" s="258"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -4308,14 +4315,14 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H6" s="30">
         <v>16000000</v>
       </c>
       <c r="I6" s="12"/>
       <c r="N6" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O6" s="30">
         <v>16000000</v>
@@ -4323,10 +4330,10 @@
       <c r="P6" s="12"/>
     </row>
     <row r="7" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="265" t="s">
+      <c r="B7" s="259" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="266"/>
+      <c r="C7" s="260"/>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
@@ -4340,7 +4347,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>77</v>
@@ -4350,18 +4357,18 @@
         <v>2</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E8" s="87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F8" s="5">
         <v>8</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H8" s="3">
         <v>80000</v>
@@ -4377,20 +4384,20 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E9" s="87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F9" s="5">
         <v>8</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H9" s="32">
         <f>H6/H8-1</f>
         <v>199</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N9" s="31" t="s">
         <v>79</v>
@@ -4400,18 +4407,18 @@
         <v>199</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E10" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F10" s="81">
         <v>20</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H10" s="3">
         <v>50</v>
@@ -4427,13 +4434,13 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E11" s="87" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F11" s="81">
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H11" s="32">
         <f>H10*H9/100</f>
@@ -4451,13 +4458,13 @@
     </row>
     <row r="12" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" s="88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F12" s="81">
         <v>1</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H12" s="4">
         <f>1/H8</f>
@@ -4475,73 +4482,73 @@
     </row>
     <row r="13" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="257" t="s">
+      <c r="B14" s="250" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="253"/>
-      <c r="D14" s="253" t="s">
+      <c r="C14" s="251"/>
+      <c r="D14" s="251" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="253" t="s">
+      <c r="E14" s="251" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="254"/>
-      <c r="G14" s="243" t="s">
+      <c r="F14" s="271"/>
+      <c r="G14" s="261" t="s">
+        <v>405</v>
+      </c>
+      <c r="H14" s="262"/>
+      <c r="I14" s="261" t="s">
         <v>406</v>
       </c>
-      <c r="H14" s="244"/>
-      <c r="I14" s="243" t="s">
-        <v>407</v>
-      </c>
-      <c r="J14" s="245"/>
-      <c r="K14" s="245"/>
-      <c r="L14" s="245"/>
-      <c r="M14" s="246"/>
-      <c r="N14" s="243" t="s">
+      <c r="J14" s="263"/>
+      <c r="K14" s="263"/>
+      <c r="L14" s="263"/>
+      <c r="M14" s="264"/>
+      <c r="N14" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="245"/>
-      <c r="P14" s="244" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q14" s="247"/>
-      <c r="R14" s="247"/>
-      <c r="S14" s="248"/>
+      <c r="O14" s="263"/>
+      <c r="P14" s="262" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q14" s="265"/>
+      <c r="R14" s="265"/>
+      <c r="S14" s="266"/>
     </row>
     <row r="15" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="120" t="s">
         <v>100</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>381</v>
-      </c>
-      <c r="D15" s="258"/>
+        <v>380</v>
+      </c>
+      <c r="D15" s="252"/>
       <c r="E15" s="121" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="F15" s="122" t="s">
-        <v>165</v>
-      </c>
       <c r="G15" s="150" t="s">
+        <v>407</v>
+      </c>
+      <c r="H15" s="151" t="s">
         <v>408</v>
       </c>
-      <c r="H15" s="151" t="s">
+      <c r="I15" s="152" t="s">
         <v>409</v>
       </c>
-      <c r="I15" s="152" t="s">
+      <c r="J15" s="153" t="s">
+        <v>407</v>
+      </c>
+      <c r="K15" s="153" t="s">
         <v>410</v>
       </c>
-      <c r="J15" s="153" t="s">
-        <v>408</v>
-      </c>
-      <c r="K15" s="153" t="s">
+      <c r="L15" s="153" t="s">
         <v>411</v>
       </c>
-      <c r="L15" s="153" t="s">
+      <c r="M15" s="154" t="s">
         <v>412</v>
-      </c>
-      <c r="M15" s="154" t="s">
-        <v>413</v>
       </c>
       <c r="N15" s="123" t="s">
         <v>0</v>
@@ -4559,7 +4566,7 @@
         <v>15</v>
       </c>
       <c r="S15" s="122" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
@@ -4567,15 +4574,15 @@
         <v>1</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="255" t="s">
+      <c r="E16" s="248" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="256"/>
+      <c r="F16" s="249"/>
       <c r="G16" s="35"/>
       <c r="H16" s="155"/>
       <c r="I16" s="156"/>
@@ -4595,7 +4602,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="116" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D17" s="99" t="s">
         <v>42</v>
@@ -4607,10 +4614,10 @@
         <v>95</v>
       </c>
       <c r="G17" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="H17" s="159" t="s">
         <v>414</v>
-      </c>
-      <c r="H17" s="159" t="s">
-        <v>415</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>36</v>
@@ -4624,10 +4631,10 @@
       <c r="L17" s="3"/>
       <c r="M17" s="12"/>
       <c r="N17" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O17" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>36</v>
@@ -4645,7 +4652,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="116" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D18" s="105" t="s">
         <v>72</v>
@@ -4657,10 +4664,10 @@
         <v>87</v>
       </c>
       <c r="G18" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H18" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H18" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>36</v>
@@ -4677,13 +4684,13 @@
         <v>87</v>
       </c>
       <c r="O18" s="95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P18" s="95" t="s">
         <v>36</v>
       </c>
       <c r="Q18" s="95" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R18" s="95" t="s">
         <v>36</v>
@@ -4695,7 +4702,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="116" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D19" s="105" t="s">
         <v>73</v>
@@ -4707,10 +4714,10 @@
         <v>88</v>
       </c>
       <c r="G19" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H19" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H19" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>36</v>
@@ -4727,13 +4734,13 @@
         <v>88</v>
       </c>
       <c r="O19" s="95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P19" s="95" t="s">
         <v>36</v>
       </c>
       <c r="Q19" s="95" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R19" s="95" t="s">
         <v>36</v>
@@ -4745,7 +4752,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="117" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D20" s="105" t="s">
         <v>89</v>
@@ -4757,10 +4764,10 @@
         <v>92</v>
       </c>
       <c r="G20" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H20" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H20" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>36</v>
@@ -4777,13 +4784,13 @@
         <v>92</v>
       </c>
       <c r="O20" s="95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P20" s="95" t="s">
         <v>36</v>
       </c>
       <c r="Q20" s="95" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R20" s="95" t="s">
         <v>36</v>
@@ -4795,7 +4802,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="117" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D21" s="105" t="s">
         <v>90</v>
@@ -4807,10 +4814,10 @@
         <v>96</v>
       </c>
       <c r="G21" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H21" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H21" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>36</v>
@@ -4827,13 +4834,13 @@
         <v>96</v>
       </c>
       <c r="O21" s="95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P21" s="95" t="s">
         <v>36</v>
       </c>
       <c r="Q21" s="95" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R21" s="95" t="s">
         <v>36</v>
@@ -4845,29 +4852,29 @@
         <v>7</v>
       </c>
       <c r="C22" s="110" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D22" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="259" t="s">
+      <c r="E22" s="253" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="260"/>
+      <c r="F22" s="254"/>
       <c r="G22" s="77" t="s">
+        <v>417</v>
+      </c>
+      <c r="H22" s="160" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="161" t="s">
+        <v>417</v>
+      </c>
+      <c r="J22" s="162" t="s">
         <v>418</v>
       </c>
-      <c r="H22" s="160" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="161" t="s">
-        <v>418</v>
-      </c>
-      <c r="J22" s="162" t="s">
+      <c r="K22" s="40" t="s">
         <v>419</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>420</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="12"/>
@@ -4881,7 +4888,7 @@
         <v>91</v>
       </c>
       <c r="Q22" s="110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R22" s="110" t="s">
         <v>25</v>
@@ -4893,7 +4900,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D23" s="99" t="s">
         <v>21</v>
@@ -4902,50 +4909,50 @@
         <v>101</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>102</v>
+        <v>557</v>
       </c>
       <c r="G23" s="163" t="s">
+        <v>420</v>
+      </c>
+      <c r="H23" s="164" t="s">
         <v>421</v>
       </c>
-      <c r="H23" s="164" t="s">
+      <c r="I23" s="165" t="s">
         <v>422</v>
       </c>
-      <c r="I23" s="165" t="s">
+      <c r="J23" s="166" t="s">
         <v>423</v>
       </c>
-      <c r="J23" s="166" t="s">
+      <c r="K23" s="167" t="s">
         <v>424</v>
-      </c>
-      <c r="K23" s="167" t="s">
-        <v>425</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="N23" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S23" s="26"/>
+        <v>425</v>
+      </c>
+      <c r="N23" s="97" t="s">
+        <v>557</v>
+      </c>
+      <c r="O23" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q23" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23" s="39"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="100">
         <v>9</v>
       </c>
       <c r="C24" s="118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>20</v>
@@ -4954,33 +4961,33 @@
         <v>101</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G24" s="66" t="s">
+        <v>426</v>
+      </c>
+      <c r="H24" s="168" t="s">
+        <v>421</v>
+      </c>
+      <c r="I24" s="161" t="s">
         <v>427</v>
       </c>
-      <c r="H24" s="168" t="s">
-        <v>422</v>
-      </c>
-      <c r="I24" s="161" t="s">
+      <c r="J24" s="162" t="s">
         <v>428</v>
       </c>
-      <c r="J24" s="162" t="s">
-        <v>429</v>
-      </c>
       <c r="K24" s="40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="12"/>
       <c r="N24" s="77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O24" s="40" t="s">
         <v>18</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>308</v>
+        <v>553</v>
       </c>
       <c r="Q24" s="80" t="s">
         <v>36</v>
@@ -4988,128 +4995,120 @@
       <c r="R24" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="S24" s="39" t="s">
-        <v>541</v>
-      </c>
+      <c r="S24" s="39"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="100">
         <v>10</v>
       </c>
       <c r="C25" s="118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H25" s="168" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I25" s="161" t="s">
+        <v>429</v>
+      </c>
+      <c r="J25" s="162" t="s">
         <v>430</v>
       </c>
-      <c r="J25" s="162" t="s">
-        <v>431</v>
-      </c>
       <c r="K25" s="40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="12"/>
       <c r="N25" s="77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O25" s="40" t="s">
         <v>18</v>
       </c>
       <c r="P25" s="40" t="s">
-        <v>307</v>
+        <v>554</v>
       </c>
       <c r="Q25" s="80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R25" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="S25" s="39" t="s">
-        <v>541</v>
-      </c>
+      <c r="S25" s="39"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="100">
         <v>11</v>
       </c>
       <c r="C26" s="118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E26" s="99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G26" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H26" s="168" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I26" s="161" t="s">
+        <v>431</v>
+      </c>
+      <c r="J26" s="162" t="s">
         <v>432</v>
       </c>
-      <c r="J26" s="162" t="s">
-        <v>433</v>
-      </c>
       <c r="K26" s="40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="12"/>
       <c r="N26" s="77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O26" s="40" t="s">
         <v>18</v>
       </c>
       <c r="P26" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q26" s="40" t="s">
-        <v>538</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="Q26" s="40"/>
       <c r="R26" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="S26" s="236" t="s">
-        <v>539</v>
-      </c>
+      <c r="S26" s="236"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="18">
         <v>12</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D27" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="249" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="250"/>
+        <v>106</v>
+      </c>
+      <c r="E27" s="267" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="268"/>
       <c r="G27" s="18"/>
       <c r="H27" s="169"/>
       <c r="I27" s="18"/>
@@ -5129,15 +5128,15 @@
         <v>13</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D28" s="111" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="249" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="250"/>
+        <v>107</v>
+      </c>
+      <c r="E28" s="267" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="268"/>
       <c r="G28" s="18"/>
       <c r="H28" s="169"/>
       <c r="I28" s="18"/>
@@ -5157,22 +5156,22 @@
         <v>14</v>
       </c>
       <c r="C29" s="118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D29" s="99" t="s">
         <v>63</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G29" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H29" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H29" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I29" s="17" t="s">
         <v>36</v>
@@ -5186,10 +5185,10 @@
       <c r="L29" s="3"/>
       <c r="M29" s="12"/>
       <c r="N29" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O29" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>36</v>
@@ -5207,103 +5206,97 @@
         <v>15</v>
       </c>
       <c r="C30" s="118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>64</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G30" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="H30" s="170" t="s">
+        <v>421</v>
+      </c>
+      <c r="I30" s="171" t="s">
         <v>434</v>
       </c>
-      <c r="H30" s="170" t="s">
-        <v>422</v>
-      </c>
-      <c r="I30" s="171" t="s">
+      <c r="J30" s="172" t="s">
         <v>435</v>
       </c>
-      <c r="J30" s="172" t="s">
+      <c r="K30" s="75" t="s">
         <v>436</v>
-      </c>
-      <c r="K30" s="75" t="s">
-        <v>437</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="12"/>
       <c r="N30" s="76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O30" s="170" t="s">
-        <v>535</v>
-      </c>
-      <c r="P30" s="171" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q30" s="172" t="s">
-        <v>552</v>
-      </c>
-      <c r="R30" s="75" t="s">
-        <v>437</v>
-      </c>
-      <c r="S30" s="236" t="s">
-        <v>540</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="P30" s="278" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q30" s="172"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="236"/>
     </row>
     <row r="31" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="124">
         <v>16</v>
       </c>
       <c r="C31" s="125" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D31" s="126" t="s">
         <v>65</v>
       </c>
       <c r="E31" s="127" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F31" s="128" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G31" s="76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H31" s="170" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I31" s="171" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J31" s="172" t="s">
+        <v>435</v>
+      </c>
+      <c r="K31" s="75" t="s">
         <v>436</v>
-      </c>
-      <c r="K31" s="75" t="s">
-        <v>437</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="12"/>
       <c r="N31" s="76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O31" s="170" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P31" s="171" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q31" s="172" t="s">
+        <v>435</v>
+      </c>
+      <c r="R31" s="75" t="s">
         <v>436</v>
       </c>
-      <c r="R31" s="75" t="s">
-        <v>437</v>
-      </c>
       <c r="S31" s="236" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
@@ -5311,22 +5304,22 @@
         <v>17</v>
       </c>
       <c r="C32" s="133" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D32" s="134" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32" s="135" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G32" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H32" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H32" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I32" s="17" t="s">
         <v>36</v>
@@ -5340,10 +5333,10 @@
       <c r="L32" s="3"/>
       <c r="M32" s="12"/>
       <c r="N32" s="136" t="s">
+        <v>242</v>
+      </c>
+      <c r="O32" s="137" t="s">
         <v>243</v>
-      </c>
-      <c r="O32" s="137" t="s">
-        <v>244</v>
       </c>
       <c r="P32" s="137" t="s">
         <v>36</v>
@@ -5361,15 +5354,15 @@
         <v>18</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D33" s="111" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="249" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="250"/>
+        <v>135</v>
+      </c>
+      <c r="E33" s="267" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="268"/>
       <c r="G33" s="18"/>
       <c r="H33" s="169"/>
       <c r="I33" s="18"/>
@@ -5389,15 +5382,15 @@
         <v>19</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D34" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="249" t="s">
+      <c r="E34" s="267" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="250"/>
+      <c r="F34" s="268"/>
       <c r="G34" s="18"/>
       <c r="H34" s="169"/>
       <c r="I34" s="18"/>
@@ -5417,22 +5410,22 @@
         <v>20</v>
       </c>
       <c r="C35" s="118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D35" s="99" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G35" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H35" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H35" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I35" s="17" t="s">
         <v>36</v>
@@ -5446,10 +5439,10 @@
       <c r="L35" s="3"/>
       <c r="M35" s="12"/>
       <c r="N35" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O35" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>36</v>
@@ -5467,22 +5460,22 @@
         <v>21</v>
       </c>
       <c r="C36" s="118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D36" s="99" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G36" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H36" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H36" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I36" s="17" t="s">
         <v>36</v>
@@ -5496,11 +5489,11 @@
       <c r="L36" s="3"/>
       <c r="M36" s="12"/>
       <c r="N36" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O36" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="O36" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="P36" s="6" t="s">
         <v>36</v>
       </c>
@@ -5513,26 +5506,26 @@
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="2:19" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B37" s="275">
+      <c r="B37" s="245">
         <v>22</v>
       </c>
       <c r="C37" s="118" t="s">
-        <v>386</v>
-      </c>
-      <c r="D37" s="276" t="s">
+        <v>385</v>
+      </c>
+      <c r="D37" s="246" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G37" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H37" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H37" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>36</v>
@@ -5546,51 +5539,51 @@
       <c r="L37" s="3"/>
       <c r="M37" s="12"/>
       <c r="N37" s="234" t="s">
+        <v>531</v>
+      </c>
+      <c r="O37" s="231" t="s">
+        <v>244</v>
+      </c>
+      <c r="P37" s="235" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q37" s="232" t="s">
+        <v>36</v>
+      </c>
+      <c r="R37" s="232" t="s">
+        <v>36</v>
+      </c>
+      <c r="S37" s="233" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" s="114" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B38" s="245">
+        <v>23</v>
+      </c>
+      <c r="C38" s="118" t="s">
+        <v>385</v>
+      </c>
+      <c r="D38" s="246" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="O37" s="231" t="s">
-        <v>245</v>
-      </c>
-      <c r="P37" s="235" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q37" s="232" t="s">
-        <v>36</v>
-      </c>
-      <c r="R37" s="232" t="s">
-        <v>36</v>
-      </c>
-      <c r="S37" s="233" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" s="114" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B38" s="275">
-        <v>23</v>
-      </c>
-      <c r="C38" s="118" t="s">
-        <v>386</v>
-      </c>
-      <c r="D38" s="276" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>533</v>
-      </c>
       <c r="F38" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G38" s="173" t="s">
+        <v>438</v>
+      </c>
+      <c r="H38" s="174" t="s">
+        <v>421</v>
+      </c>
+      <c r="I38" s="175" t="s">
         <v>439</v>
       </c>
-      <c r="H38" s="174" t="s">
-        <v>422</v>
-      </c>
-      <c r="I38" s="175" t="s">
+      <c r="J38" s="176" t="s">
         <v>440</v>
-      </c>
-      <c r="J38" s="176" t="s">
-        <v>441</v>
       </c>
       <c r="K38" s="177" t="s">
         <v>36</v>
@@ -5598,13 +5591,13 @@
       <c r="L38" s="3"/>
       <c r="M38" s="12"/>
       <c r="N38" s="234" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O38" s="231" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P38" s="235" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q38" s="232" t="s">
         <v>36</v>
@@ -5613,7 +5606,7 @@
         <v>36</v>
       </c>
       <c r="S38" s="233" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
@@ -5621,28 +5614,28 @@
         <v>24</v>
       </c>
       <c r="C39" s="118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D39" s="99" t="s">
         <v>60</v>
       </c>
       <c r="E39" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="37" t="s">
-        <v>129</v>
-      </c>
       <c r="G39" s="173" t="s">
+        <v>441</v>
+      </c>
+      <c r="H39" s="174" t="s">
+        <v>421</v>
+      </c>
+      <c r="I39" s="175" t="s">
         <v>442</v>
       </c>
-      <c r="H39" s="174" t="s">
-        <v>422</v>
-      </c>
-      <c r="I39" s="175" t="s">
-        <v>443</v>
-      </c>
       <c r="J39" s="176" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K39" s="177" t="s">
         <v>36</v>
@@ -5650,10 +5643,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="12"/>
       <c r="N39" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O39" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>36</v>
@@ -5671,94 +5664,94 @@
         <v>25</v>
       </c>
       <c r="C40" s="118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D40" s="99" t="s">
         <v>29</v>
       </c>
       <c r="E40" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="F40" s="37" t="s">
-        <v>131</v>
-      </c>
       <c r="G40" s="163" t="s">
+        <v>443</v>
+      </c>
+      <c r="H40" s="178" t="s">
+        <v>421</v>
+      </c>
+      <c r="I40" s="165" t="s">
         <v>444</v>
       </c>
-      <c r="H40" s="178" t="s">
-        <v>422</v>
-      </c>
-      <c r="I40" s="165" t="s">
+      <c r="J40" s="166" t="s">
         <v>445</v>
       </c>
-      <c r="J40" s="166" t="s">
-        <v>446</v>
-      </c>
       <c r="K40" s="167" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L40" s="179"/>
       <c r="M40" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S40" s="26"/>
+    </row>
+    <row r="41" spans="2:19" ht="33" x14ac:dyDescent="0.3">
+      <c r="B41" s="245">
+        <v>26</v>
+      </c>
+      <c r="C41" s="118" t="s">
+        <v>385</v>
+      </c>
+      <c r="D41" s="246" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="66" t="s">
+        <v>426</v>
+      </c>
+      <c r="H41" s="168" t="s">
+        <v>421</v>
+      </c>
+      <c r="I41" s="161" t="s">
         <v>447</v>
       </c>
-      <c r="N40" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R40" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S40" s="26"/>
-    </row>
-    <row r="41" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B41" s="275">
-        <v>26</v>
-      </c>
-      <c r="C41" s="118" t="s">
-        <v>386</v>
-      </c>
-      <c r="D41" s="276" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="G41" s="66" t="s">
-        <v>427</v>
-      </c>
-      <c r="H41" s="168" t="s">
-        <v>422</v>
-      </c>
-      <c r="I41" s="161" t="s">
+      <c r="J41" s="162" t="s">
         <v>448</v>
       </c>
-      <c r="J41" s="162" t="s">
-        <v>449</v>
-      </c>
       <c r="K41" s="40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L41" s="179"/>
       <c r="M41" s="12"/>
       <c r="N41" s="234" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O41" s="231" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P41" s="235" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="Q41" s="232" t="s">
         <v>36</v>
@@ -5766,8 +5759,8 @@
       <c r="R41" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="S41" s="277" t="s">
-        <v>557</v>
+      <c r="S41" s="247" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="2:19" ht="33" x14ac:dyDescent="0.3">
@@ -5775,41 +5768,41 @@
         <v>27</v>
       </c>
       <c r="C42" s="118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D42" s="99" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G42" s="77" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H42" s="168" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I42" s="171" t="s">
+        <v>449</v>
+      </c>
+      <c r="J42" s="172" t="s">
         <v>450</v>
       </c>
-      <c r="J42" s="172" t="s">
+      <c r="K42" s="180" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="181" t="s">
         <v>451</v>
-      </c>
-      <c r="K42" s="180" t="s">
-        <v>36</v>
-      </c>
-      <c r="L42" s="181" t="s">
-        <v>452</v>
       </c>
       <c r="M42" s="182"/>
       <c r="N42" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O42" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O42" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P42" s="6" t="s">
         <v>36</v>
@@ -5827,7 +5820,7 @@
         <v>28</v>
       </c>
       <c r="C43" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D43" s="99" t="s">
         <v>27</v>
@@ -5839,10 +5832,10 @@
         <v>101</v>
       </c>
       <c r="G43" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H43" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H43" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I43" s="17" t="s">
         <v>36</v>
@@ -5856,10 +5849,10 @@
       <c r="L43" s="3"/>
       <c r="M43" s="12"/>
       <c r="N43" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O43" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O43" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P43" s="6" t="s">
         <v>36</v>
@@ -5877,22 +5870,22 @@
         <v>29</v>
       </c>
       <c r="C44" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D44" s="99" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G44" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H44" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H44" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I44" s="17" t="s">
         <v>36</v>
@@ -5906,10 +5899,10 @@
       <c r="L44" s="3"/>
       <c r="M44" s="12"/>
       <c r="N44" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O44" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P44" s="6" t="s">
         <v>36</v>
@@ -5927,22 +5920,22 @@
         <v>30</v>
       </c>
       <c r="C45" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D45" s="99" t="s">
         <v>61</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G45" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H45" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H45" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I45" s="17" t="s">
         <v>36</v>
@@ -5956,10 +5949,10 @@
       <c r="L45" s="3"/>
       <c r="M45" s="12"/>
       <c r="N45" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O45" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P45" s="6" t="s">
         <v>36</v>
@@ -5977,15 +5970,15 @@
         <v>31</v>
       </c>
       <c r="C46" s="111" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D46" s="111" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" s="249" t="s">
-        <v>115</v>
-      </c>
-      <c r="F46" s="250"/>
+        <v>135</v>
+      </c>
+      <c r="E46" s="267" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="268"/>
       <c r="G46" s="18"/>
       <c r="H46" s="169"/>
       <c r="I46" s="18"/>
@@ -6005,15 +5998,15 @@
         <v>32</v>
       </c>
       <c r="C47" s="112" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D47" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="251" t="s">
+      <c r="E47" s="269" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="252"/>
+      <c r="F47" s="270"/>
       <c r="G47" s="18"/>
       <c r="H47" s="169"/>
       <c r="I47" s="18"/>
@@ -6029,48 +6022,48 @@
       <c r="S47" s="38"/>
     </row>
     <row r="48" spans="2:19" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B48" s="273">
+      <c r="B48" s="243">
         <v>33</v>
       </c>
       <c r="C48" s="145" t="s">
-        <v>384</v>
-      </c>
-      <c r="D48" s="274" t="s">
+        <v>383</v>
+      </c>
+      <c r="D48" s="244" t="s">
         <v>68</v>
       </c>
       <c r="E48" s="146" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F48" s="147" t="s">
         <v>101</v>
       </c>
       <c r="G48" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H48" s="168" t="s">
+        <v>452</v>
+      </c>
+      <c r="I48" s="161" t="s">
         <v>453</v>
       </c>
-      <c r="I48" s="161" t="s">
-        <v>454</v>
-      </c>
       <c r="J48" s="162" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K48" s="40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L48" s="183"/>
       <c r="M48" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N48" s="97" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O48" s="80" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P48" s="80" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="Q48" s="80" t="s">
         <v>36</v>
@@ -6079,7 +6072,7 @@
         <v>36</v>
       </c>
       <c r="S48" s="237" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="33" x14ac:dyDescent="0.3">
@@ -6087,51 +6080,51 @@
         <v>34</v>
       </c>
       <c r="C49" s="119" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>69</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G49" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H49" s="168" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I49" s="184" t="s">
+        <v>455</v>
+      </c>
+      <c r="J49" s="185" t="s">
         <v>456</v>
       </c>
-      <c r="J49" s="185" t="s">
-        <v>457</v>
-      </c>
       <c r="K49" s="40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L49" s="179"/>
       <c r="M49" s="12"/>
       <c r="N49" s="97" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O49" s="80" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P49" s="80" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q49" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="R49" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="S49" s="237" t="s">
         <v>393</v>
-      </c>
-      <c r="Q49" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="R49" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="S49" s="237" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="50" spans="2:19" ht="49.5" x14ac:dyDescent="0.3">
@@ -6139,42 +6132,42 @@
         <v>35</v>
       </c>
       <c r="C50" s="119" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>70</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G50" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H50" s="168" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I50" s="186" t="s">
+        <v>457</v>
+      </c>
+      <c r="J50" s="185" t="s">
         <v>458</v>
       </c>
-      <c r="J50" s="185" t="s">
-        <v>459</v>
-      </c>
       <c r="K50" s="40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L50" s="179"/>
       <c r="M50" s="12"/>
       <c r="N50" s="97" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O50" s="80" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P50" s="80" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q50" s="80" t="s">
         <v>36</v>
@@ -6183,7 +6176,7 @@
         <v>36</v>
       </c>
       <c r="S50" s="237" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="2:19" ht="33" x14ac:dyDescent="0.3">
@@ -6191,39 +6184,39 @@
         <v>36</v>
       </c>
       <c r="C51" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D51" s="99" t="s">
         <v>34</v>
       </c>
       <c r="E51" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="G51" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H51" s="168" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I51" s="186" t="s">
+        <v>459</v>
+      </c>
+      <c r="J51" s="185" t="s">
         <v>460</v>
       </c>
-      <c r="J51" s="185" t="s">
-        <v>461</v>
-      </c>
       <c r="K51" s="40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L51" s="179"/>
       <c r="M51" s="12"/>
       <c r="N51" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O51" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O51" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P51" s="6" t="s">
         <v>36</v>
@@ -6241,39 +6234,39 @@
         <v>37</v>
       </c>
       <c r="C52" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D52" s="99" t="s">
         <v>30</v>
       </c>
       <c r="E52" s="99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G52" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H52" s="168" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I52" s="186" t="s">
+        <v>461</v>
+      </c>
+      <c r="J52" s="185" t="s">
         <v>462</v>
       </c>
-      <c r="J52" s="185" t="s">
-        <v>463</v>
-      </c>
       <c r="K52" s="40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L52" s="179"/>
       <c r="M52" s="12"/>
       <c r="N52" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O52" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O52" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P52" s="6" t="s">
         <v>36</v>
@@ -6291,43 +6284,43 @@
         <v>38</v>
       </c>
       <c r="C53" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D53" s="99" t="s">
         <v>31</v>
       </c>
       <c r="E53" s="99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G53" s="163" t="s">
+        <v>463</v>
+      </c>
+      <c r="H53" s="164" t="s">
+        <v>421</v>
+      </c>
+      <c r="I53" s="165" t="s">
         <v>464</v>
       </c>
-      <c r="H53" s="164" t="s">
-        <v>422</v>
-      </c>
-      <c r="I53" s="165" t="s">
+      <c r="J53" s="166" t="s">
         <v>465</v>
       </c>
-      <c r="J53" s="166" t="s">
-        <v>466</v>
-      </c>
       <c r="K53" s="167" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L53" s="187" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N53" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O53" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P53" s="6" t="s">
         <v>36</v>
@@ -6345,22 +6338,22 @@
         <v>39</v>
       </c>
       <c r="C54" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D54" s="99" t="s">
         <v>32</v>
       </c>
       <c r="E54" s="99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G54" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H54" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H54" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I54" s="17" t="s">
         <v>36</v>
@@ -6374,10 +6367,10 @@
       <c r="L54" s="3"/>
       <c r="M54" s="12"/>
       <c r="N54" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O54" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P54" s="6" t="s">
         <v>36</v>
@@ -6395,22 +6388,22 @@
         <v>40</v>
       </c>
       <c r="C55" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D55" s="99" t="s">
         <v>33</v>
       </c>
       <c r="E55" s="99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G55" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H55" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H55" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I55" s="17" t="s">
         <v>36</v>
@@ -6424,10 +6417,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="12"/>
       <c r="N55" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O55" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O55" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P55" s="6" t="s">
         <v>36</v>
@@ -6445,51 +6438,51 @@
         <v>41</v>
       </c>
       <c r="C56" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D56" s="21" t="s">
         <v>67</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F56" s="103" t="s">
         <v>101</v>
       </c>
       <c r="G56" s="78" t="s">
+        <v>466</v>
+      </c>
+      <c r="H56" s="188" t="s">
         <v>467</v>
       </c>
-      <c r="H56" s="188" t="s">
+      <c r="I56" s="189" t="s">
         <v>468</v>
       </c>
-      <c r="I56" s="189" t="s">
+      <c r="J56" s="190" t="s">
         <v>469</v>
       </c>
-      <c r="J56" s="190" t="s">
-        <v>470</v>
-      </c>
       <c r="K56" s="79" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="12"/>
       <c r="N56" s="78" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O56" s="79" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P56" s="79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q56" s="79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R56" s="79" t="s">
         <v>19</v>
       </c>
       <c r="S56" s="238" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="57" spans="2:19" ht="33" x14ac:dyDescent="0.3">
@@ -6497,51 +6490,51 @@
         <v>42</v>
       </c>
       <c r="C57" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D57" s="43" t="s">
         <v>55</v>
       </c>
       <c r="E57" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F57" s="45" t="s">
         <v>101</v>
       </c>
       <c r="G57" s="47" t="s">
+        <v>470</v>
+      </c>
+      <c r="H57" s="191" t="s">
         <v>471</v>
       </c>
-      <c r="H57" s="191" t="s">
+      <c r="I57" s="192" t="s">
+        <v>470</v>
+      </c>
+      <c r="J57" s="193" t="s">
         <v>472</v>
       </c>
-      <c r="I57" s="192" t="s">
-        <v>471</v>
-      </c>
-      <c r="J57" s="193" t="s">
+      <c r="K57" s="48" t="s">
         <v>473</v>
-      </c>
-      <c r="K57" s="48" t="s">
-        <v>474</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="12"/>
       <c r="N57" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="43" t="s">
         <v>51</v>
       </c>
       <c r="P57" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q57" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R57" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S57" s="239" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="58" spans="2:19" ht="33" x14ac:dyDescent="0.3">
@@ -6549,51 +6542,51 @@
         <v>43</v>
       </c>
       <c r="C58" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D58" s="43" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F58" s="45" t="s">
         <v>101</v>
       </c>
       <c r="G58" s="47" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H58" s="191" t="s">
+        <v>471</v>
+      </c>
+      <c r="I58" s="192" t="s">
+        <v>474</v>
+      </c>
+      <c r="J58" s="193" t="s">
         <v>472</v>
       </c>
-      <c r="I58" s="192" t="s">
-        <v>475</v>
-      </c>
-      <c r="J58" s="193" t="s">
+      <c r="K58" s="48" t="s">
         <v>473</v>
-      </c>
-      <c r="K58" s="48" t="s">
-        <v>474</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="12"/>
       <c r="N58" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="43" t="s">
         <v>51</v>
       </c>
       <c r="P58" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q58" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R58" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S58" s="239" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="59" spans="2:19" ht="33" x14ac:dyDescent="0.3">
@@ -6601,51 +6594,51 @@
         <v>44</v>
       </c>
       <c r="C59" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D59" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E59" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="F59" s="42" t="s">
-        <v>148</v>
-      </c>
       <c r="G59" s="78" t="s">
+        <v>475</v>
+      </c>
+      <c r="H59" s="188" t="s">
+        <v>467</v>
+      </c>
+      <c r="I59" s="189" t="s">
         <v>476</v>
       </c>
-      <c r="H59" s="188" t="s">
-        <v>468</v>
-      </c>
-      <c r="I59" s="189" t="s">
-        <v>477</v>
-      </c>
       <c r="J59" s="190" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K59" s="79" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="12"/>
       <c r="N59" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="O59" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="P59" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q59" s="79" t="s">
         <v>178</v>
-      </c>
-      <c r="O59" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="P59" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q59" s="79" t="s">
-        <v>179</v>
       </c>
       <c r="R59" s="79" t="s">
         <v>19</v>
       </c>
       <c r="S59" s="238" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="60" spans="2:19" ht="33" x14ac:dyDescent="0.3">
@@ -6653,39 +6646,39 @@
         <v>45</v>
       </c>
       <c r="C60" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D60" s="99" t="s">
         <v>35</v>
       </c>
       <c r="E60" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="F60" s="37" t="s">
-        <v>150</v>
-      </c>
       <c r="G60" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H60" s="168" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I60" s="161" t="s">
+        <v>477</v>
+      </c>
+      <c r="J60" s="162" t="s">
         <v>478</v>
       </c>
-      <c r="J60" s="162" t="s">
-        <v>479</v>
-      </c>
       <c r="K60" s="40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="12"/>
       <c r="N60" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O60" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O60" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>36</v>
@@ -6703,31 +6696,31 @@
         <v>46</v>
       </c>
       <c r="C61" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D61" s="110" t="s">
         <v>53</v>
       </c>
       <c r="E61" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F61" s="49" t="s">
         <v>101</v>
       </c>
       <c r="G61" s="194" t="s">
+        <v>479</v>
+      </c>
+      <c r="H61" s="195" t="s">
+        <v>471</v>
+      </c>
+      <c r="I61" s="196" t="s">
+        <v>479</v>
+      </c>
+      <c r="J61" s="197" t="s">
         <v>480</v>
       </c>
-      <c r="H61" s="195" t="s">
-        <v>472</v>
-      </c>
-      <c r="I61" s="196" t="s">
-        <v>480</v>
-      </c>
-      <c r="J61" s="197" t="s">
-        <v>481</v>
-      </c>
       <c r="K61" s="198" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="12"/>
@@ -6744,7 +6737,7 @@
         <v>52</v>
       </c>
       <c r="R61" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S61" s="52"/>
     </row>
@@ -6753,15 +6746,15 @@
         <v>47</v>
       </c>
       <c r="C62" s="111" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D62" s="111" t="s">
-        <v>136</v>
-      </c>
-      <c r="E62" s="249" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62" s="250"/>
+        <v>135</v>
+      </c>
+      <c r="E62" s="267" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" s="268"/>
       <c r="G62" s="18"/>
       <c r="H62" s="169"/>
       <c r="I62" s="18"/>
@@ -6781,15 +6774,15 @@
         <v>48</v>
       </c>
       <c r="C63" s="112" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D63" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="251" t="s">
+      <c r="E63" s="269" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="252"/>
+      <c r="F63" s="270"/>
       <c r="G63" s="18"/>
       <c r="H63" s="169"/>
       <c r="I63" s="18"/>
@@ -6809,31 +6802,31 @@
         <v>49</v>
       </c>
       <c r="C64" s="131" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D64" s="140" t="s">
         <v>49</v>
       </c>
       <c r="E64" s="140" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F64" s="141" t="s">
         <v>101</v>
       </c>
       <c r="G64" s="194" t="s">
+        <v>481</v>
+      </c>
+      <c r="H64" s="195" t="s">
+        <v>471</v>
+      </c>
+      <c r="I64" s="196" t="s">
+        <v>481</v>
+      </c>
+      <c r="J64" s="197" t="s">
+        <v>480</v>
+      </c>
+      <c r="K64" s="198" t="s">
         <v>482</v>
-      </c>
-      <c r="H64" s="195" t="s">
-        <v>472</v>
-      </c>
-      <c r="I64" s="196" t="s">
-        <v>482</v>
-      </c>
-      <c r="J64" s="197" t="s">
-        <v>481</v>
-      </c>
-      <c r="K64" s="198" t="s">
-        <v>483</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="12"/>
@@ -6850,7 +6843,7 @@
         <v>52</v>
       </c>
       <c r="R64" s="143" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S64" s="144"/>
     </row>
@@ -6859,43 +6852,43 @@
         <v>50</v>
       </c>
       <c r="C65" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G65" s="77" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H65" s="168" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I65" s="161" t="s">
+        <v>483</v>
+      </c>
+      <c r="J65" s="162" t="s">
+        <v>465</v>
+      </c>
+      <c r="K65" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="L65" s="183" t="s">
         <v>484</v>
       </c>
-      <c r="J65" s="162" t="s">
-        <v>466</v>
-      </c>
-      <c r="K65" s="40" t="s">
-        <v>425</v>
-      </c>
-      <c r="L65" s="183" t="s">
+      <c r="M65" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="M65" s="12" t="s">
-        <v>486</v>
-      </c>
       <c r="N65" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O65" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O65" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>36</v>
@@ -6913,22 +6906,22 @@
         <v>51</v>
       </c>
       <c r="C66" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D66" s="94" t="s">
         <v>41</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G66" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H66" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H66" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I66" s="17" t="s">
         <v>36</v>
@@ -6942,10 +6935,10 @@
       <c r="L66" s="3"/>
       <c r="M66" s="12"/>
       <c r="N66" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O66" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O66" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P66" s="6" t="s">
         <v>36</v>
@@ -6963,22 +6956,22 @@
         <v>52</v>
       </c>
       <c r="C67" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D67" s="94" t="s">
         <v>38</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G67" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H67" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H67" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I67" s="17" t="s">
         <v>36</v>
@@ -6992,10 +6985,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="12"/>
       <c r="N67" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O67" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O67" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P67" s="6" t="s">
         <v>36</v>
@@ -7013,22 +7006,22 @@
         <v>53</v>
       </c>
       <c r="C68" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D68" s="99" t="s">
         <v>37</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G68" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H68" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H68" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I68" s="17" t="s">
         <v>36</v>
@@ -7042,10 +7035,10 @@
       <c r="L68" s="3"/>
       <c r="M68" s="12"/>
       <c r="N68" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O68" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O68" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P68" s="6" t="s">
         <v>36</v>
@@ -7063,22 +7056,22 @@
         <v>54</v>
       </c>
       <c r="C69" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G69" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H69" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H69" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I69" s="17" t="s">
         <v>36</v>
@@ -7092,10 +7085,10 @@
       <c r="L69" s="3"/>
       <c r="M69" s="12"/>
       <c r="N69" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O69" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O69" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P69" s="6" t="s">
         <v>36</v>
@@ -7113,22 +7106,22 @@
         <v>55</v>
       </c>
       <c r="C70" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D70" s="99" t="s">
         <v>47</v>
       </c>
       <c r="E70" s="99" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F70" s="115" t="s">
         <v>101</v>
       </c>
       <c r="G70" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H70" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H70" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I70" s="17" t="s">
         <v>36</v>
@@ -7142,10 +7135,10 @@
       <c r="L70" s="3"/>
       <c r="M70" s="12"/>
       <c r="N70" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O70" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O70" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P70" s="6" t="s">
         <v>36</v>
@@ -7163,41 +7156,41 @@
         <v>56</v>
       </c>
       <c r="C71" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G71" s="199" t="s">
+        <v>486</v>
+      </c>
+      <c r="H71" s="178" t="s">
         <v>487</v>
       </c>
-      <c r="H71" s="178" t="s">
+      <c r="I71" s="200" t="s">
         <v>488</v>
       </c>
-      <c r="I71" s="200" t="s">
+      <c r="J71" s="201" t="s">
         <v>489</v>
       </c>
-      <c r="J71" s="201" t="s">
-        <v>490</v>
-      </c>
       <c r="K71" s="202" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N71" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O71" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O71" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P71" s="6" t="s">
         <v>36</v>
@@ -7215,22 +7208,22 @@
         <v>57</v>
       </c>
       <c r="C72" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G72" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H72" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H72" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I72" s="17" t="s">
         <v>36</v>
@@ -7244,10 +7237,10 @@
       <c r="L72" s="3"/>
       <c r="M72" s="12"/>
       <c r="N72" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O72" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="O72" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="P72" s="6" t="s">
         <v>36</v>
@@ -7265,53 +7258,53 @@
         <v>58</v>
       </c>
       <c r="C73" s="119" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G73" s="199" t="s">
+        <v>491</v>
+      </c>
+      <c r="H73" s="178" t="s">
+        <v>487</v>
+      </c>
+      <c r="I73" s="200" t="s">
         <v>492</v>
       </c>
-      <c r="H73" s="178" t="s">
-        <v>488</v>
-      </c>
-      <c r="I73" s="200" t="s">
-        <v>493</v>
-      </c>
       <c r="J73" s="201" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K73" s="202" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N73" s="77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O73" s="40" t="s">
         <v>18</v>
       </c>
       <c r="P73" s="40" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="Q73" s="40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R73" s="40" t="s">
         <v>19</v>
       </c>
       <c r="S73" s="240" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="74" spans="2:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7319,22 +7312,22 @@
         <v>59</v>
       </c>
       <c r="C74" s="119" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>58</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G74" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H74" s="159" t="s">
         <v>416</v>
-      </c>
-      <c r="H74" s="159" t="s">
-        <v>417</v>
       </c>
       <c r="I74" s="17" t="s">
         <v>36</v>
@@ -7348,22 +7341,22 @@
       <c r="L74" s="179"/>
       <c r="M74" s="12"/>
       <c r="N74" s="129" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O74" s="130" t="s">
         <v>18</v>
       </c>
       <c r="P74" s="130" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q74" s="130" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R74" s="130" t="s">
         <v>19</v>
       </c>
       <c r="S74" s="241" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.3">
@@ -7371,32 +7364,32 @@
         <v>60</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D75" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="E75" s="249" t="s">
-        <v>160</v>
-      </c>
-      <c r="F75" s="250"/>
+        <v>141</v>
+      </c>
+      <c r="E75" s="267" t="s">
+        <v>159</v>
+      </c>
+      <c r="F75" s="268"/>
       <c r="G75" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H75" s="169"/>
       <c r="I75" s="203" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J75" s="204"/>
       <c r="K75" s="148"/>
       <c r="L75" s="179"/>
       <c r="M75" s="12"/>
       <c r="N75" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O75" s="92"/>
       <c r="P75" s="92" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q75" s="92"/>
       <c r="R75" s="92"/>
@@ -7407,55 +7400,55 @@
         <v>61</v>
       </c>
       <c r="C76" s="119" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G76" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H76" s="168" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I76" s="161" t="s">
+        <v>494</v>
+      </c>
+      <c r="J76" s="162" t="s">
         <v>495</v>
       </c>
-      <c r="J76" s="162" t="s">
+      <c r="K76" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="L76" s="119" t="s">
         <v>496</v>
       </c>
-      <c r="K76" s="40" t="s">
-        <v>425</v>
-      </c>
-      <c r="L76" s="119" t="s">
+      <c r="M76" s="12" t="s">
         <v>497</v>
-      </c>
-      <c r="M76" s="12" t="s">
-        <v>498</v>
       </c>
       <c r="N76" s="66" t="s">
         <v>17</v>
       </c>
       <c r="O76" s="40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P76" s="40" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="Q76" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R76" s="40" t="s">
         <v>25</v>
       </c>
       <c r="S76" s="236" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="77" spans="2:19" ht="49.5" x14ac:dyDescent="0.3">
@@ -7463,53 +7456,53 @@
         <v>62</v>
       </c>
       <c r="C77" s="119" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G77" s="199" t="s">
+        <v>498</v>
+      </c>
+      <c r="H77" s="178" t="s">
+        <v>487</v>
+      </c>
+      <c r="I77" s="205" t="s">
         <v>499</v>
       </c>
-      <c r="H77" s="178" t="s">
-        <v>488</v>
-      </c>
-      <c r="I77" s="205" t="s">
-        <v>500</v>
-      </c>
       <c r="J77" s="206" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K77" s="207" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L77" s="183"/>
       <c r="M77" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N77" s="66" t="s">
         <v>17</v>
       </c>
       <c r="O77" s="40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P77" s="40" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="Q77" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R77" s="40" t="s">
         <v>25</v>
       </c>
       <c r="S77" s="242" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.3">
@@ -7517,15 +7510,15 @@
         <v>63</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E78" s="249" t="s">
-        <v>115</v>
-      </c>
-      <c r="F78" s="250"/>
+        <v>135</v>
+      </c>
+      <c r="E78" s="267" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78" s="268"/>
       <c r="G78" s="18"/>
       <c r="H78" s="169"/>
       <c r="I78" s="18"/>
@@ -7545,15 +7538,15 @@
         <v>64</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="251" t="s">
+      <c r="E79" s="269" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="252"/>
+      <c r="F79" s="270"/>
       <c r="G79" s="19"/>
       <c r="H79" s="209"/>
       <c r="I79" s="19"/>
@@ -7570,114 +7563,114 @@
     </row>
     <row r="83" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G83" s="163" t="s">
+        <v>420</v>
+      </c>
+      <c r="H83" s="164" t="s">
         <v>421</v>
       </c>
-      <c r="H83" s="164" t="s">
+      <c r="I83" s="165" t="s">
         <v>422</v>
       </c>
-      <c r="I83" s="165" t="s">
+      <c r="J83" s="166" t="s">
         <v>423</v>
       </c>
-      <c r="J83" s="166" t="s">
+      <c r="K83" s="167" t="s">
         <v>424</v>
-      </c>
-      <c r="K83" s="167" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="84" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="199" t="s">
+        <v>486</v>
+      </c>
+      <c r="H84" s="178" t="s">
         <v>487</v>
       </c>
-      <c r="H84" s="178" t="s">
+      <c r="I84" s="200" t="s">
         <v>488</v>
       </c>
-      <c r="I84" s="200" t="s">
+      <c r="J84" s="201" t="s">
         <v>489</v>
       </c>
-      <c r="J84" s="201" t="s">
-        <v>490</v>
-      </c>
       <c r="K84" s="202" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="85" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="163" t="s">
+        <v>443</v>
+      </c>
+      <c r="H85" s="178" t="s">
+        <v>421</v>
+      </c>
+      <c r="I85" s="165" t="s">
         <v>444</v>
       </c>
-      <c r="H85" s="178" t="s">
-        <v>422</v>
-      </c>
-      <c r="I85" s="165" t="s">
+      <c r="J85" s="166" t="s">
         <v>445</v>
       </c>
-      <c r="J85" s="166" t="s">
-        <v>446</v>
-      </c>
       <c r="K85" s="167" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="86" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="199" t="s">
+        <v>491</v>
+      </c>
+      <c r="H86" s="178" t="s">
+        <v>487</v>
+      </c>
+      <c r="I86" s="200" t="s">
         <v>492</v>
       </c>
-      <c r="H86" s="178" t="s">
-        <v>488</v>
-      </c>
-      <c r="I86" s="200" t="s">
-        <v>493</v>
-      </c>
       <c r="J86" s="201" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K86" s="202" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="87" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="163" t="s">
+        <v>463</v>
+      </c>
+      <c r="H87" s="164" t="s">
+        <v>421</v>
+      </c>
+      <c r="I87" s="165" t="s">
         <v>464</v>
       </c>
-      <c r="H87" s="164" t="s">
-        <v>422</v>
-      </c>
-      <c r="I87" s="165" t="s">
+      <c r="J87" s="166" t="s">
         <v>465</v>
       </c>
-      <c r="J87" s="166" t="s">
-        <v>466</v>
-      </c>
       <c r="K87" s="167" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="88" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="199" t="s">
+        <v>498</v>
+      </c>
+      <c r="H88" s="178" t="s">
+        <v>487</v>
+      </c>
+      <c r="I88" s="205" t="s">
         <v>499</v>
       </c>
-      <c r="H88" s="178" t="s">
-        <v>488</v>
-      </c>
-      <c r="I88" s="205" t="s">
-        <v>500</v>
-      </c>
       <c r="J88" s="206" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K88" s="207" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="5:11" x14ac:dyDescent="0.3">
@@ -7711,15 +7704,6 @@
   </sheetData>
   <autoFilter ref="B15:S79"/>
   <mergeCells count="25">
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="P14:S14"/>
@@ -7736,6 +7720,15 @@
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7765,56 +7758,56 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D7" s="56"/>
       <c r="E7" s="63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G7" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="H7" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>232</v>
-      </c>
       <c r="J7" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" s="64" t="s">
         <v>215</v>
-      </c>
-      <c r="K7" s="64" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D8" s="69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" s="59">
         <v>8000000</v>
@@ -7832,15 +7825,15 @@
         <v>8000000</v>
       </c>
       <c r="J8" s="59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K8" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D9" s="69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" s="59">
         <v>2</v>
@@ -7862,7 +7855,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D10" s="69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="59">
         <f>E8/E9</f>
@@ -7885,15 +7878,15 @@
         <v>4000000</v>
       </c>
       <c r="J10" s="59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K10" s="60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D11" s="69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E11" s="59">
         <v>12</v>
@@ -7915,7 +7908,7 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D12" s="69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E12" s="59">
         <f>E10*E11</f>
@@ -7938,15 +7931,15 @@
         <v>48000000</v>
       </c>
       <c r="J12" s="59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K12" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D13" s="69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E13" s="59">
         <v>1</v>
@@ -7968,7 +7961,7 @@
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E14" s="61">
         <f>E12/E13</f>
@@ -7991,23 +7984,23 @@
         <v>48000000</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K14" s="62"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C16" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D18" s="67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E18" s="57">
         <v>1</v>
@@ -8029,7 +8022,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D19" s="68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E19" s="59">
         <f>E14/E18</f>
@@ -8052,15 +8045,15 @@
         <v>48000000</v>
       </c>
       <c r="J19" s="59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K19" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D20" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E20" s="59">
         <v>1</v>
@@ -8079,12 +8072,12 @@
       </c>
       <c r="J20" s="59"/>
       <c r="K20" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E21" s="61">
         <f>E19*E20</f>
@@ -8107,34 +8100,34 @@
         <v>48000000</v>
       </c>
       <c r="J21" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
         <v>196</v>
-      </c>
-      <c r="K21" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="L21" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="65"/>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D26" s="67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E26" s="57">
         <v>16000000</v>
@@ -8152,15 +8145,15 @@
         <v>1000000</v>
       </c>
       <c r="J26" s="57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K26" s="58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D27" s="71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E27" s="61">
         <f>(E21/E26)-1</f>
@@ -8184,7 +8177,7 @@
       </c>
       <c r="J27" s="61"/>
       <c r="K27" s="73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
@@ -8192,13 +8185,13 @@
     </row>
     <row r="29" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D29" s="55"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D30" s="67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E30" s="57">
         <v>24000</v>
@@ -8216,13 +8209,13 @@
         <v>80000</v>
       </c>
       <c r="J30" s="57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K30" s="58"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D31" s="68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E31" s="59">
         <f>INT(E26/E30-1)</f>
@@ -8246,12 +8239,12 @@
       </c>
       <c r="J31" s="59"/>
       <c r="K31" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D32" s="68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E32" s="72">
         <f>E26/(65535+1)</f>
@@ -8274,15 +8267,15 @@
         <v>15.2587890625</v>
       </c>
       <c r="J32" s="59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K32" s="60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" s="68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E33" s="72">
         <f>E26/(0+1)</f>
@@ -8305,15 +8298,15 @@
         <v>1000000</v>
       </c>
       <c r="J33" s="59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K33" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D34" s="68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E34" s="59">
         <v>50</v>
@@ -8331,7 +8324,7 @@
         <v>50</v>
       </c>
       <c r="J34" s="59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K34" s="60"/>
     </row>
@@ -8361,7 +8354,7 @@
       </c>
       <c r="J35" s="61"/>
       <c r="K35" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.3">
@@ -8414,45 +8407,45 @@
   <sheetData>
     <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="82" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="2:13" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="106" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C3" s="107" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D3" s="107" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="F3" s="108" t="s">
         <v>331</v>
       </c>
-      <c r="E3" s="107" t="s">
-        <v>325</v>
-      </c>
-      <c r="F3" s="108" t="s">
-        <v>332</v>
-      </c>
       <c r="G3" s="109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H3" s="106" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I3" s="107" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J3" s="107" t="s">
+        <v>330</v>
+      </c>
+      <c r="K3" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="L3" s="108" t="s">
         <v>331</v>
       </c>
-      <c r="K3" s="107" t="s">
-        <v>325</v>
-      </c>
-      <c r="L3" s="108" t="s">
-        <v>332</v>
-      </c>
       <c r="M3" s="109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -8460,31 +8453,31 @@
         <v>1</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E4" s="83"/>
       <c r="F4" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" s="84"/>
       <c r="H4" s="90">
         <v>2</v>
       </c>
       <c r="I4" s="88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J4" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K4" s="59"/>
       <c r="L4" s="83" t="s">
+        <v>338</v>
+      </c>
+      <c r="M4" s="84" t="s">
         <v>339</v>
-      </c>
-      <c r="M4" s="84" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -8492,35 +8485,35 @@
         <v>3</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F5" s="88" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G5" s="87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H5" s="90">
         <v>4</v>
       </c>
       <c r="I5" s="88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K5" s="59"/>
       <c r="L5" s="88" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M5" s="87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
@@ -8528,33 +8521,33 @@
         <v>5</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E6" s="88"/>
       <c r="F6" s="88" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H6" s="90">
         <v>6</v>
       </c>
       <c r="I6" s="88" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J6" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K6" s="59"/>
       <c r="L6" s="88" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M6" s="87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
@@ -8562,33 +8555,33 @@
         <v>7</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E7" s="88"/>
       <c r="F7" s="88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G7" s="87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H7" s="90">
         <v>8</v>
       </c>
       <c r="I7" s="88" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K7" s="59"/>
       <c r="L7" s="88" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M7" s="87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
@@ -8596,33 +8589,33 @@
         <v>9</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E8" s="83"/>
       <c r="F8" s="83" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H8" s="90">
         <v>10</v>
       </c>
       <c r="I8" s="88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K8" s="59"/>
       <c r="L8" s="83" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M8" s="87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
@@ -8630,28 +8623,28 @@
         <v>11</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E9" s="83"/>
       <c r="F9" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G9" s="84"/>
       <c r="H9" s="90">
         <v>12</v>
       </c>
       <c r="I9" s="88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K9" s="59"/>
       <c r="L9" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M9" s="84"/>
     </row>
@@ -8660,28 +8653,28 @@
         <v>13</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E10" s="83"/>
       <c r="F10" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G10" s="84"/>
       <c r="H10" s="90">
         <v>14</v>
       </c>
       <c r="I10" s="88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J10" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K10" s="59"/>
       <c r="L10" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M10" s="84"/>
     </row>
@@ -8690,28 +8683,28 @@
         <v>15</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E11" s="83"/>
       <c r="F11" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G11" s="84"/>
       <c r="H11" s="90">
         <v>16</v>
       </c>
       <c r="I11" s="88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J11" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K11" s="59"/>
       <c r="L11" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M11" s="84"/>
     </row>
@@ -8720,28 +8713,28 @@
         <v>17</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E12" s="83"/>
       <c r="F12" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G12" s="84"/>
       <c r="H12" s="90">
         <v>18</v>
       </c>
       <c r="I12" s="88" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J12" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K12" s="59"/>
       <c r="L12" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M12" s="84"/>
     </row>
@@ -8750,28 +8743,28 @@
         <v>19</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E13" s="88"/>
       <c r="F13" s="88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="90">
         <v>20</v>
       </c>
       <c r="I13" s="88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J13" s="88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K13" s="59"/>
       <c r="L13" s="88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M13" s="87"/>
     </row>
@@ -8780,31 +8773,31 @@
         <v>21</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E14" s="88"/>
       <c r="F14" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G14" s="87"/>
       <c r="H14" s="90">
         <v>22</v>
       </c>
       <c r="I14" s="88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J14" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K14" s="59"/>
       <c r="L14" s="83" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M14" s="87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -8812,28 +8805,28 @@
         <v>23</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D15" s="88" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E15" s="88"/>
       <c r="F15" s="88" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G15" s="87"/>
       <c r="H15" s="90">
         <v>24</v>
       </c>
       <c r="I15" s="88" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J15" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M15" s="87"/>
     </row>
@@ -8842,31 +8835,31 @@
         <v>25</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E16" s="83"/>
       <c r="F16" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G16" s="84"/>
       <c r="H16" s="90">
         <v>26</v>
       </c>
       <c r="I16" s="88" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J16" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K16" s="59"/>
       <c r="L16" s="83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M16" s="87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -8874,31 +8867,31 @@
         <v>27</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D17" s="88" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E17" s="83"/>
       <c r="F17" s="88" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G17" s="84"/>
       <c r="H17" s="90">
         <v>28</v>
       </c>
       <c r="I17" s="88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J17" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K17" s="59"/>
       <c r="L17" s="88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M17" s="87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -8906,33 +8899,33 @@
         <v>29</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E18" s="83"/>
       <c r="F18" s="83" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G18" s="87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H18" s="90">
         <v>30</v>
       </c>
       <c r="I18" s="88" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J18" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K18" s="59"/>
       <c r="L18" s="83" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M18" s="87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -8940,33 +8933,33 @@
         <v>31</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E19" s="83"/>
       <c r="F19" s="83" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G19" s="87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H19" s="90">
         <v>32</v>
       </c>
       <c r="I19" s="88" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J19" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K19" s="59"/>
       <c r="L19" s="83" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M19" s="87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
@@ -8974,28 +8967,28 @@
         <v>33</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E20" s="83"/>
       <c r="F20" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G20" s="84"/>
       <c r="H20" s="90">
         <v>34</v>
       </c>
       <c r="I20" s="88" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J20" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K20" s="59"/>
       <c r="L20" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M20" s="84"/>
     </row>
@@ -9004,28 +8997,28 @@
         <v>35</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E21" s="83"/>
       <c r="F21" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G21" s="84"/>
       <c r="H21" s="90">
         <v>36</v>
       </c>
       <c r="I21" s="88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J21" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K21" s="59"/>
       <c r="L21" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M21" s="84"/>
     </row>
@@ -9034,31 +9027,31 @@
         <v>37</v>
       </c>
       <c r="C22" s="88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E22" s="83"/>
       <c r="F22" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G22" s="84"/>
       <c r="H22" s="90">
         <v>38</v>
       </c>
       <c r="I22" s="88" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J22" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K22" s="59"/>
       <c r="L22" s="83" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M22" s="87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9066,72 +9059,72 @@
         <v>39</v>
       </c>
       <c r="C23" s="89" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D23" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E23" s="85"/>
       <c r="F23" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G23" s="86"/>
       <c r="H23" s="91">
         <v>40</v>
       </c>
       <c r="I23" s="89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J23" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K23" s="61"/>
       <c r="L23" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M23" s="86"/>
     </row>
     <row r="25" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="82" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="2:13" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="106" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C26" s="107" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D26" s="107" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="F26" s="108" t="s">
         <v>331</v>
       </c>
-      <c r="E26" s="107" t="s">
-        <v>325</v>
-      </c>
-      <c r="F26" s="108" t="s">
-        <v>332</v>
-      </c>
       <c r="G26" s="109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H26" s="106" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I26" s="107" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J26" s="107" t="s">
+        <v>330</v>
+      </c>
+      <c r="K26" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="L26" s="108" t="s">
         <v>331</v>
       </c>
-      <c r="K26" s="107" t="s">
-        <v>325</v>
-      </c>
-      <c r="L26" s="108" t="s">
-        <v>332</v>
-      </c>
       <c r="M26" s="109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
@@ -9139,32 +9132,32 @@
         <v>1</v>
       </c>
       <c r="C27" s="88" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D27" s="113" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E27" s="113" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F27" s="88" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G27" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H27" s="90">
         <v>2</v>
       </c>
       <c r="I27" s="88" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J27" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K27" s="59"/>
       <c r="L27" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M27" s="87"/>
     </row>
@@ -9173,30 +9166,30 @@
         <v>3</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D28" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E28" s="83"/>
       <c r="F28" s="83" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G28" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H28" s="90">
         <v>4</v>
       </c>
       <c r="I28" s="88" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J28" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K28" s="59"/>
       <c r="L28" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M28" s="84"/>
     </row>
@@ -9205,33 +9198,33 @@
         <v>5</v>
       </c>
       <c r="C29" s="88" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D29" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E29" s="83"/>
       <c r="F29" s="83" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G29" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H29" s="90">
         <v>6</v>
       </c>
       <c r="I29" s="88" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J29" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K29" s="59"/>
       <c r="L29" s="83" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M29" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
@@ -9239,28 +9232,28 @@
         <v>7</v>
       </c>
       <c r="C30" s="88" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D30" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E30" s="83"/>
       <c r="F30" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G30" s="84"/>
       <c r="H30" s="90">
         <v>8</v>
       </c>
       <c r="I30" s="88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J30" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K30" s="59"/>
       <c r="L30" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M30" s="84"/>
     </row>
@@ -9269,30 +9262,30 @@
         <v>9</v>
       </c>
       <c r="C31" s="88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D31" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E31" s="83"/>
       <c r="F31" s="83" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G31" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H31" s="90">
         <v>10</v>
       </c>
       <c r="I31" s="88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J31" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K31" s="59"/>
       <c r="L31" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M31" s="84"/>
     </row>
@@ -9301,30 +9294,30 @@
         <v>11</v>
       </c>
       <c r="C32" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D32" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E32" s="83"/>
       <c r="F32" s="83" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G32" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H32" s="90">
         <v>12</v>
       </c>
       <c r="I32" s="88" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J32" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K32" s="59"/>
       <c r="L32" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M32" s="84"/>
     </row>
@@ -9333,35 +9326,35 @@
         <v>13</v>
       </c>
       <c r="C33" s="88" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D33" s="113" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E33" s="113" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F33" s="88" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G33" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H33" s="90">
         <v>14</v>
       </c>
       <c r="I33" s="88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J33" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K33" s="59"/>
       <c r="L33" s="88" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M33" s="87" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
@@ -9369,33 +9362,33 @@
         <v>15</v>
       </c>
       <c r="C34" s="88" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D34" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E34" s="83"/>
       <c r="F34" s="83" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G34" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H34" s="90">
         <v>16</v>
       </c>
       <c r="I34" s="88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J34" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K34" s="59"/>
       <c r="L34" s="83" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M34" s="87" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
@@ -9403,30 +9396,30 @@
         <v>17</v>
       </c>
       <c r="C35" s="88" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D35" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E35" s="83"/>
       <c r="F35" s="83" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G35" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H35" s="90">
         <v>18</v>
       </c>
       <c r="I35" s="88" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J35" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K35" s="59"/>
       <c r="L35" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M35" s="84"/>
     </row>
@@ -9435,30 +9428,30 @@
         <v>19</v>
       </c>
       <c r="C36" s="88" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E36" s="83"/>
       <c r="F36" s="83" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G36" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H36" s="90">
         <v>20</v>
       </c>
       <c r="I36" s="88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J36" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K36" s="59"/>
       <c r="L36" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M36" s="84"/>
     </row>
@@ -9467,35 +9460,35 @@
         <v>21</v>
       </c>
       <c r="C37" s="88" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D37" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E37" s="83"/>
       <c r="F37" s="83" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G37" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H37" s="90">
         <v>22</v>
       </c>
       <c r="I37" s="88" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J37" s="88" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K37" s="88" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L37" s="83" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M37" s="88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
@@ -9503,35 +9496,35 @@
         <v>23</v>
       </c>
       <c r="C38" s="88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D38" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E38" s="83"/>
       <c r="F38" s="83" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G38" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H38" s="90">
         <v>24</v>
       </c>
       <c r="I38" s="88" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J38" s="88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K38" s="88" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L38" s="83" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M38" s="88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
@@ -9539,28 +9532,28 @@
         <v>25</v>
       </c>
       <c r="C39" s="88" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D39" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E39" s="83"/>
       <c r="F39" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G39" s="84"/>
       <c r="H39" s="90">
         <v>26</v>
       </c>
       <c r="I39" s="88" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J39" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K39" s="59"/>
       <c r="L39" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M39" s="84"/>
     </row>
@@ -9569,33 +9562,33 @@
         <v>27</v>
       </c>
       <c r="C40" s="88" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D40" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E40" s="83"/>
       <c r="F40" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G40" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H40" s="90">
         <v>28</v>
       </c>
       <c r="I40" s="88" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J40" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K40" s="59"/>
       <c r="L40" s="83" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M40" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
@@ -9603,33 +9596,33 @@
         <v>29</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D41" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E41" s="83"/>
       <c r="F41" s="83" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G41" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H41" s="90">
         <v>30</v>
       </c>
       <c r="I41" s="88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J41" s="88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K41" s="59"/>
       <c r="L41" s="83" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M41" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
@@ -9637,33 +9630,33 @@
         <v>31</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D42" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E42" s="83"/>
       <c r="F42" s="83" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G42" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H42" s="90">
         <v>32</v>
       </c>
       <c r="I42" s="88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J42" s="88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K42" s="59"/>
       <c r="L42" s="83" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M42" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
@@ -9671,32 +9664,32 @@
         <v>33</v>
       </c>
       <c r="C43" s="88" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D43" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E43" s="83"/>
       <c r="F43" s="83" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G43" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H43" s="90">
         <v>34</v>
       </c>
       <c r="I43" s="88" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J43" s="88" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K43" s="88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L43" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M43" s="84"/>
     </row>
@@ -9705,30 +9698,30 @@
         <v>35</v>
       </c>
       <c r="C44" s="88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D44" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E44" s="83"/>
       <c r="F44" s="83" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G44" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H44" s="90">
         <v>36</v>
       </c>
       <c r="I44" s="88" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J44" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K44" s="59"/>
       <c r="L44" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M44" s="84"/>
     </row>
@@ -9737,28 +9730,28 @@
         <v>37</v>
       </c>
       <c r="C45" s="88" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D45" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E45" s="83"/>
       <c r="F45" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G45" s="84"/>
       <c r="H45" s="90">
         <v>38</v>
       </c>
       <c r="I45" s="88" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J45" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K45" s="59"/>
       <c r="L45" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M45" s="84"/>
     </row>
@@ -9767,28 +9760,28 @@
         <v>39</v>
       </c>
       <c r="C46" s="89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D46" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E46" s="85"/>
       <c r="F46" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G46" s="86"/>
       <c r="H46" s="91">
         <v>40</v>
       </c>
       <c r="I46" s="89" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J46" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K46" s="61"/>
       <c r="L46" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M46" s="86"/>
     </row>
@@ -9817,59 +9810,59 @@
   <sheetData>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="269" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="271" t="s">
+      <c r="B3" s="274" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="276" t="s">
+        <v>520</v>
+      </c>
+      <c r="D3" s="277"/>
+      <c r="E3" s="272" t="s">
         <v>521</v>
       </c>
-      <c r="D3" s="272"/>
-      <c r="E3" s="267" t="s">
+      <c r="F3" s="273"/>
+      <c r="H3" s="274" t="s">
+        <v>319</v>
+      </c>
+      <c r="I3" s="276" t="s">
+        <v>520</v>
+      </c>
+      <c r="J3" s="277"/>
+      <c r="K3" s="272" t="s">
+        <v>521</v>
+      </c>
+      <c r="L3" s="273"/>
+    </row>
+    <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="275"/>
+      <c r="C4" s="223" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="212" t="s">
+        <v>502</v>
+      </c>
+      <c r="E4" s="229" t="s">
+        <v>519</v>
+      </c>
+      <c r="F4" s="230" t="s">
         <v>522</v>
       </c>
-      <c r="F3" s="268"/>
-      <c r="H3" s="269" t="s">
-        <v>320</v>
-      </c>
-      <c r="I3" s="271" t="s">
-        <v>521</v>
-      </c>
-      <c r="J3" s="272"/>
-      <c r="K3" s="267" t="s">
+      <c r="H4" s="275"/>
+      <c r="I4" s="223" t="s">
+        <v>303</v>
+      </c>
+      <c r="J4" s="212" t="s">
+        <v>502</v>
+      </c>
+      <c r="K4" s="229" t="s">
+        <v>519</v>
+      </c>
+      <c r="L4" s="230" t="s">
         <v>522</v>
-      </c>
-      <c r="L3" s="268"/>
-    </row>
-    <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="270"/>
-      <c r="C4" s="223" t="s">
-        <v>520</v>
-      </c>
-      <c r="D4" s="212" t="s">
-        <v>503</v>
-      </c>
-      <c r="E4" s="229" t="s">
-        <v>520</v>
-      </c>
-      <c r="F4" s="230" t="s">
-        <v>523</v>
-      </c>
-      <c r="H4" s="270"/>
-      <c r="I4" s="223" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" s="212" t="s">
-        <v>503</v>
-      </c>
-      <c r="K4" s="229" t="s">
-        <v>520</v>
-      </c>
-      <c r="L4" s="230" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
@@ -9877,31 +9870,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="224" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D5" s="225" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E5" s="219" t="s">
+        <v>523</v>
+      </c>
+      <c r="F5" s="213" t="s">
         <v>524</v>
-      </c>
-      <c r="F5" s="213" t="s">
-        <v>525</v>
       </c>
       <c r="H5" s="216">
         <v>2</v>
       </c>
       <c r="I5" s="224" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J5" s="225" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K5" s="219" t="s">
+        <v>523</v>
+      </c>
+      <c r="L5" s="213" t="s">
         <v>524</v>
-      </c>
-      <c r="L5" s="213" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -9909,31 +9902,31 @@
         <v>3</v>
       </c>
       <c r="C6" s="226" t="s">
+        <v>503</v>
+      </c>
+      <c r="D6" s="87" t="s">
         <v>504</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="E6" s="220" t="s">
         <v>505</v>
       </c>
-      <c r="E6" s="220" t="s">
-        <v>506</v>
-      </c>
       <c r="F6" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H6" s="217">
         <v>4</v>
       </c>
       <c r="I6" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="J6" s="87" t="s">
         <v>506</v>
       </c>
-      <c r="J6" s="87" t="s">
-        <v>507</v>
-      </c>
       <c r="K6" s="220" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L6" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -9941,31 +9934,31 @@
         <v>5</v>
       </c>
       <c r="C7" s="226" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D7" s="87" t="s">
+        <v>504</v>
+      </c>
+      <c r="E7" s="220" t="s">
         <v>505</v>
       </c>
-      <c r="E7" s="220" t="s">
-        <v>506</v>
-      </c>
       <c r="F7" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H7" s="217">
         <v>6</v>
       </c>
       <c r="I7" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="J7" s="87" t="s">
         <v>506</v>
       </c>
-      <c r="J7" s="87" t="s">
-        <v>507</v>
-      </c>
       <c r="K7" s="220" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L7" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -9973,31 +9966,31 @@
         <v>7</v>
       </c>
       <c r="C8" s="226" t="s">
+        <v>508</v>
+      </c>
+      <c r="D8" s="87" t="s">
         <v>509</v>
       </c>
-      <c r="D8" s="87" t="s">
-        <v>510</v>
-      </c>
       <c r="E8" s="220" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H8" s="217">
         <v>8</v>
       </c>
       <c r="I8" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="J8" s="87" t="s">
         <v>506</v>
       </c>
-      <c r="J8" s="87" t="s">
-        <v>507</v>
-      </c>
       <c r="K8" s="220" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L8" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -10005,31 +9998,31 @@
         <v>9</v>
       </c>
       <c r="C9" s="226" t="s">
+        <v>512</v>
+      </c>
+      <c r="D9" s="87" t="s">
         <v>513</v>
       </c>
-      <c r="D9" s="87" t="s">
-        <v>514</v>
-      </c>
       <c r="E9" s="220" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F9" s="87" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H9" s="217">
         <v>10</v>
       </c>
       <c r="I9" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="J9" s="87" t="s">
         <v>506</v>
       </c>
-      <c r="J9" s="87" t="s">
-        <v>507</v>
-      </c>
       <c r="K9" s="220" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L9" s="87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -10037,10 +10030,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="226" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D10" s="87" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E10" s="221"/>
       <c r="F10" s="214"/>
@@ -10048,10 +10041,10 @@
         <v>12</v>
       </c>
       <c r="I10" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="J10" s="87" t="s">
         <v>506</v>
-      </c>
-      <c r="J10" s="87" t="s">
-        <v>507</v>
       </c>
       <c r="K10" s="221"/>
       <c r="L10" s="214"/>
@@ -10061,10 +10054,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="226" t="s">
+        <v>515</v>
+      </c>
+      <c r="D11" s="87" t="s">
         <v>516</v>
-      </c>
-      <c r="D11" s="87" t="s">
-        <v>517</v>
       </c>
       <c r="E11" s="221"/>
       <c r="F11" s="214"/>
@@ -10072,10 +10065,10 @@
         <v>14</v>
       </c>
       <c r="I11" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="J11" s="87" t="s">
         <v>506</v>
-      </c>
-      <c r="J11" s="87" t="s">
-        <v>507</v>
       </c>
       <c r="K11" s="221"/>
       <c r="L11" s="214"/>
@@ -10085,10 +10078,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="226" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E12" s="221"/>
       <c r="F12" s="214"/>
@@ -10096,10 +10089,10 @@
         <v>16</v>
       </c>
       <c r="I12" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="J12" s="87" t="s">
         <v>506</v>
-      </c>
-      <c r="J12" s="87" t="s">
-        <v>507</v>
       </c>
       <c r="K12" s="221"/>
       <c r="L12" s="214"/>
@@ -10109,10 +10102,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="226" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E13" s="221"/>
       <c r="F13" s="214"/>
@@ -10120,10 +10113,10 @@
         <v>18</v>
       </c>
       <c r="I13" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="J13" s="87" t="s">
         <v>506</v>
-      </c>
-      <c r="J13" s="87" t="s">
-        <v>507</v>
       </c>
       <c r="K13" s="221"/>
       <c r="L13" s="214"/>
@@ -10133,10 +10126,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="227" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D14" s="228" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E14" s="222"/>
       <c r="F14" s="215"/>
@@ -10144,38 +10137,38 @@
         <v>20</v>
       </c>
       <c r="I14" s="227" t="s">
+        <v>505</v>
+      </c>
+      <c r="J14" s="228" t="s">
         <v>506</v>
-      </c>
-      <c r="J14" s="228" t="s">
-        <v>507</v>
       </c>
       <c r="K14" s="222"/>
       <c r="L14" s="215"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="211" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C15" s="5"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="211" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="211" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="211" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C18" s="5"/>
       <c r="E18" s="5"/>

--- a/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20190429.xlsx
+++ b/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20190429.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="562">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,10 +511,6 @@
   <si>
     <t>TIM3_CH4, USART3_RTS,
 TIM14_CH1, TIM1_CH3N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI2_SCK, USART3_TX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -688,10 +684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPIO_IN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USART1_TX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1309,10 +1301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Main PCB ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Main MCU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1549,23 +1537,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPIO_EXTI14_Rising&amp;Falling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GPIO_EXTI13_Rising&amp;Falling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GPIO_EXTI12_Rising&amp;Falling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPIO_EXTI13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여분의 GPIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2142,14 +2118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIM3_CH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H/W Version V1.0 : 00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Plasma Pulse 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2158,10 +2126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+5V 4.7K Pull-up Origin : High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Power On 시 무조건 ON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2178,39 +2142,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PULLUP2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PULLUP1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPIO_EXTI14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPIO_EXTI12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본은 GPIO_EXTI6으로 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본은 GPIO_EXTI7으로 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+5V OP-AMP Output
-기본은 GPIO_EXTI0으로 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PW_IS_AD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2232,6 +2167,82 @@
   </si>
   <si>
     <t>VDC_IN_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_SCK, USART3_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS_RESET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULL-DOWN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS_SLEEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS_FSYNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC power down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB12_LIMIT_SW_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB13_LIMIT_SW_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH : interrupt
+Low : normal State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB7_GPIO_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB6_BIAS_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN_PWR</t>
+  </si>
+  <si>
+    <t>PA6_FAN_PWR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2801,7 +2812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3161,9 +3172,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3479,18 +3487,9 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3515,7 +3514,52 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3608,8 +3652,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4151,10 +4201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S95"/>
+  <dimension ref="B1:W95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4182,18 +4232,18 @@
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="22" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -4204,10 +4254,10 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="256"/>
+      <c r="C3" s="267"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -4235,10 +4285,10 @@
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="257" t="s">
+      <c r="B4" s="268" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="258"/>
+      <c r="C4" s="269"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -4254,7 +4304,7 @@
         <v>48000000</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>76</v>
@@ -4264,14 +4314,14 @@
         <v>48000000</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="258"/>
+      <c r="C5" s="269"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -4282,31 +4332,31 @@
         <v>6</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H5" s="30">
         <f>H3*1</f>
         <v>48000000</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O5" s="30">
         <f>O3*1</f>
         <v>48000000</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="257" t="s">
+      <c r="B6" s="268" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="258"/>
+      <c r="C6" s="269"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -4315,14 +4365,14 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H6" s="30">
         <v>16000000</v>
       </c>
       <c r="I6" s="12"/>
       <c r="N6" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O6" s="30">
         <v>16000000</v>
@@ -4330,10 +4380,10 @@
       <c r="P6" s="12"/>
     </row>
     <row r="7" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="259" t="s">
+      <c r="B7" s="270" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="260"/>
+      <c r="C7" s="271"/>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
@@ -4347,7 +4397,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>77</v>
@@ -4357,18 +4407,18 @@
         <v>2</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E8" s="87" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F8" s="5">
         <v>8</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H8" s="3">
         <v>80000</v>
@@ -4384,20 +4434,20 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E9" s="87" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F9" s="5">
         <v>8</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H9" s="32">
         <f>H6/H8-1</f>
         <v>199</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N9" s="31" t="s">
         <v>79</v>
@@ -4407,18 +4457,18 @@
         <v>199</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E10" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F10" s="81">
         <v>20</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H10" s="3">
         <v>50</v>
@@ -4434,13 +4484,13 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E11" s="87" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F11" s="81">
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H11" s="32">
         <f>H10*H9/100</f>
@@ -4458,13 +4508,13 @@
     </row>
     <row r="12" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" s="88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F12" s="81">
         <v>1</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H12" s="4">
         <f>1/H8</f>
@@ -4482,73 +4532,73 @@
     </row>
     <row r="13" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="250" t="s">
+      <c r="B14" s="261" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="251"/>
-      <c r="D14" s="251" t="s">
+      <c r="C14" s="262"/>
+      <c r="D14" s="262" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="251" t="s">
+      <c r="E14" s="262" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="271"/>
-      <c r="G14" s="261" t="s">
-        <v>405</v>
-      </c>
-      <c r="H14" s="262"/>
-      <c r="I14" s="261" t="s">
-        <v>406</v>
-      </c>
-      <c r="J14" s="263"/>
-      <c r="K14" s="263"/>
-      <c r="L14" s="263"/>
-      <c r="M14" s="264"/>
-      <c r="N14" s="261" t="s">
+      <c r="F14" s="282"/>
+      <c r="G14" s="272" t="s">
+        <v>399</v>
+      </c>
+      <c r="H14" s="273"/>
+      <c r="I14" s="272" t="s">
+        <v>400</v>
+      </c>
+      <c r="J14" s="274"/>
+      <c r="K14" s="274"/>
+      <c r="L14" s="274"/>
+      <c r="M14" s="275"/>
+      <c r="N14" s="272" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="263"/>
-      <c r="P14" s="262" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q14" s="265"/>
-      <c r="R14" s="265"/>
-      <c r="S14" s="266"/>
+      <c r="O14" s="274"/>
+      <c r="P14" s="273" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q14" s="276"/>
+      <c r="R14" s="276"/>
+      <c r="S14" s="277"/>
     </row>
     <row r="15" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="120" t="s">
         <v>100</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>380</v>
-      </c>
-      <c r="D15" s="252"/>
+        <v>377</v>
+      </c>
+      <c r="D15" s="263"/>
       <c r="E15" s="121" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="122" t="s">
-        <v>164</v>
-      </c>
-      <c r="G15" s="150" t="s">
-        <v>407</v>
-      </c>
-      <c r="H15" s="151" t="s">
-        <v>408</v>
-      </c>
-      <c r="I15" s="152" t="s">
-        <v>409</v>
-      </c>
-      <c r="J15" s="153" t="s">
-        <v>407</v>
-      </c>
-      <c r="K15" s="153" t="s">
-        <v>410</v>
-      </c>
-      <c r="L15" s="153" t="s">
-        <v>411</v>
-      </c>
-      <c r="M15" s="154" t="s">
-        <v>412</v>
+      <c r="G15" s="149" t="s">
+        <v>401</v>
+      </c>
+      <c r="H15" s="150" t="s">
+        <v>402</v>
+      </c>
+      <c r="I15" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="J15" s="152" t="s">
+        <v>401</v>
+      </c>
+      <c r="K15" s="152" t="s">
+        <v>404</v>
+      </c>
+      <c r="L15" s="152" t="s">
+        <v>405</v>
+      </c>
+      <c r="M15" s="153" t="s">
+        <v>406</v>
       </c>
       <c r="N15" s="123" t="s">
         <v>0</v>
@@ -4566,7 +4616,7 @@
         <v>15</v>
       </c>
       <c r="S15" s="122" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
@@ -4574,22 +4624,22 @@
         <v>1</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="248" t="s">
+      <c r="E16" s="259" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="249"/>
+      <c r="F16" s="260"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="158"/>
+      <c r="M16" s="157"/>
       <c r="N16" s="35"/>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
@@ -4602,7 +4652,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="116" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D17" s="99" t="s">
         <v>42</v>
@@ -4614,10 +4664,10 @@
         <v>95</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="H17" s="159" t="s">
-        <v>414</v>
+        <v>407</v>
+      </c>
+      <c r="H17" s="158" t="s">
+        <v>408</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>36</v>
@@ -4631,10 +4681,10 @@
       <c r="L17" s="3"/>
       <c r="M17" s="12"/>
       <c r="N17" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>36</v>
@@ -4652,7 +4702,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="116" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D18" s="105" t="s">
         <v>72</v>
@@ -4664,10 +4714,10 @@
         <v>87</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H18" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H18" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>36</v>
@@ -4684,13 +4734,13 @@
         <v>87</v>
       </c>
       <c r="O18" s="95" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P18" s="95" t="s">
         <v>36</v>
       </c>
       <c r="Q18" s="95" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R18" s="95" t="s">
         <v>36</v>
@@ -4702,7 +4752,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="116" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D19" s="105" t="s">
         <v>73</v>
@@ -4714,10 +4764,10 @@
         <v>88</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H19" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H19" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>36</v>
@@ -4734,13 +4784,13 @@
         <v>88</v>
       </c>
       <c r="O19" s="95" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P19" s="95" t="s">
         <v>36</v>
       </c>
       <c r="Q19" s="95" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R19" s="95" t="s">
         <v>36</v>
@@ -4752,7 +4802,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="117" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D20" s="105" t="s">
         <v>89</v>
@@ -4764,10 +4814,10 @@
         <v>92</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H20" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H20" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>36</v>
@@ -4784,13 +4834,13 @@
         <v>92</v>
       </c>
       <c r="O20" s="95" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P20" s="95" t="s">
         <v>36</v>
       </c>
       <c r="Q20" s="95" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="R20" s="95" t="s">
         <v>36</v>
@@ -4802,7 +4852,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="117" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D21" s="105" t="s">
         <v>90</v>
@@ -4814,10 +4864,10 @@
         <v>96</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H21" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H21" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>36</v>
@@ -4834,13 +4884,13 @@
         <v>96</v>
       </c>
       <c r="O21" s="95" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P21" s="95" t="s">
         <v>36</v>
       </c>
       <c r="Q21" s="95" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="R21" s="95" t="s">
         <v>36</v>
@@ -4852,29 +4902,29 @@
         <v>7</v>
       </c>
       <c r="C22" s="110" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D22" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="253" t="s">
+      <c r="E22" s="264" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="254"/>
+      <c r="F22" s="265"/>
       <c r="G22" s="77" t="s">
-        <v>417</v>
-      </c>
-      <c r="H22" s="160" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="161" t="s">
-        <v>417</v>
-      </c>
-      <c r="J22" s="162" t="s">
-        <v>418</v>
+        <v>411</v>
+      </c>
+      <c r="H22" s="159" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="160" t="s">
+        <v>411</v>
+      </c>
+      <c r="J22" s="161" t="s">
+        <v>412</v>
       </c>
       <c r="K22" s="40" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="12"/>
@@ -4888,7 +4938,7 @@
         <v>91</v>
       </c>
       <c r="Q22" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R22" s="110" t="s">
         <v>25</v>
@@ -4900,7 +4950,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="118" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D23" s="99" t="s">
         <v>21</v>
@@ -4909,35 +4959,35 @@
         <v>101</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>557</v>
-      </c>
-      <c r="G23" s="163" t="s">
-        <v>420</v>
-      </c>
-      <c r="H23" s="164" t="s">
-        <v>421</v>
-      </c>
-      <c r="I23" s="165" t="s">
-        <v>422</v>
-      </c>
-      <c r="J23" s="166" t="s">
-        <v>423</v>
-      </c>
-      <c r="K23" s="167" t="s">
-        <v>424</v>
+        <v>541</v>
+      </c>
+      <c r="G23" s="162" t="s">
+        <v>414</v>
+      </c>
+      <c r="H23" s="163" t="s">
+        <v>415</v>
+      </c>
+      <c r="I23" s="164" t="s">
+        <v>416</v>
+      </c>
+      <c r="J23" s="165" t="s">
+        <v>417</v>
+      </c>
+      <c r="K23" s="166" t="s">
+        <v>418</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="12" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="N23" s="97" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="O23" s="40" t="s">
         <v>18</v>
       </c>
       <c r="P23" s="40" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="Q23" s="80" t="s">
         <v>36</v>
@@ -4952,7 +5002,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="118" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>20</v>
@@ -4964,19 +5014,19 @@
         <v>102</v>
       </c>
       <c r="G24" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="H24" s="168" t="s">
+        <v>420</v>
+      </c>
+      <c r="H24" s="167" t="s">
+        <v>415</v>
+      </c>
+      <c r="I24" s="160" t="s">
         <v>421</v>
       </c>
-      <c r="I24" s="161" t="s">
-        <v>427</v>
-      </c>
-      <c r="J24" s="162" t="s">
-        <v>428</v>
+      <c r="J24" s="161" t="s">
+        <v>422</v>
       </c>
       <c r="K24" s="40" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="12"/>
@@ -4987,7 +5037,7 @@
         <v>18</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="Q24" s="80" t="s">
         <v>36</v>
@@ -5002,7 +5052,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="118" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>16</v>
@@ -5014,19 +5064,19 @@
         <v>103</v>
       </c>
       <c r="G25" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="H25" s="168" t="s">
-        <v>421</v>
-      </c>
-      <c r="I25" s="161" t="s">
-        <v>429</v>
-      </c>
-      <c r="J25" s="162" t="s">
-        <v>430</v>
+        <v>420</v>
+      </c>
+      <c r="H25" s="167" t="s">
+        <v>415</v>
+      </c>
+      <c r="I25" s="160" t="s">
+        <v>423</v>
+      </c>
+      <c r="J25" s="161" t="s">
+        <v>424</v>
       </c>
       <c r="K25" s="40" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="12"/>
@@ -5037,10 +5087,10 @@
         <v>18</v>
       </c>
       <c r="P25" s="40" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="Q25" s="80" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="R25" s="80" t="s">
         <v>36</v>
@@ -5052,7 +5102,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="118" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>71</v>
@@ -5061,59 +5111,59 @@
         <v>105</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G26" s="66" t="s">
+        <v>420</v>
+      </c>
+      <c r="H26" s="167" t="s">
+        <v>415</v>
+      </c>
+      <c r="I26" s="160" t="s">
+        <v>425</v>
+      </c>
+      <c r="J26" s="161" t="s">
         <v>426</v>
       </c>
-      <c r="H26" s="168" t="s">
-        <v>421</v>
-      </c>
-      <c r="I26" s="161" t="s">
-        <v>431</v>
-      </c>
-      <c r="J26" s="162" t="s">
-        <v>432</v>
-      </c>
       <c r="K26" s="40" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="12"/>
       <c r="N26" s="77" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O26" s="40" t="s">
         <v>18</v>
       </c>
       <c r="P26" s="40" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="Q26" s="40"/>
       <c r="R26" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="S26" s="236"/>
+      <c r="S26" s="234"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="18">
         <v>12</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D27" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="267" t="s">
+      <c r="E27" s="278" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="268"/>
+      <c r="F27" s="279"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="169"/>
+      <c r="H27" s="168"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="148"/>
-      <c r="K27" s="148"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="147"/>
       <c r="L27" s="3"/>
       <c r="M27" s="12"/>
       <c r="N27" s="18"/>
@@ -5128,20 +5178,20 @@
         <v>13</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D28" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="267" t="s">
+      <c r="E28" s="278" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="268"/>
+      <c r="F28" s="279"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="169"/>
+      <c r="H28" s="168"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
       <c r="L28" s="3"/>
       <c r="M28" s="12"/>
       <c r="N28" s="18"/>
@@ -5156,7 +5206,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="118" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D29" s="99" t="s">
         <v>63</v>
@@ -5168,10 +5218,10 @@
         <v>110</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H29" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H29" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I29" s="17" t="s">
         <v>36</v>
@@ -5185,10 +5235,10 @@
       <c r="L29" s="3"/>
       <c r="M29" s="12"/>
       <c r="N29" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>36</v>
@@ -5206,7 +5256,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="118" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>64</v>
@@ -5218,41 +5268,41 @@
         <v>111</v>
       </c>
       <c r="G30" s="76" t="s">
-        <v>433</v>
-      </c>
-      <c r="H30" s="170" t="s">
-        <v>421</v>
-      </c>
-      <c r="I30" s="171" t="s">
-        <v>434</v>
-      </c>
-      <c r="J30" s="172" t="s">
-        <v>435</v>
+        <v>427</v>
+      </c>
+      <c r="H30" s="169" t="s">
+        <v>415</v>
+      </c>
+      <c r="I30" s="170" t="s">
+        <v>428</v>
+      </c>
+      <c r="J30" s="171" t="s">
+        <v>429</v>
       </c>
       <c r="K30" s="75" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="12"/>
       <c r="N30" s="76" t="s">
-        <v>433</v>
-      </c>
-      <c r="O30" s="170" t="s">
-        <v>534</v>
-      </c>
-      <c r="P30" s="278" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q30" s="172"/>
+        <v>427</v>
+      </c>
+      <c r="O30" s="169" t="s">
+        <v>528</v>
+      </c>
+      <c r="P30" s="243" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q30" s="171"/>
       <c r="R30" s="75"/>
-      <c r="S30" s="236"/>
+      <c r="S30" s="234"/>
     </row>
     <row r="31" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="124">
         <v>16</v>
       </c>
       <c r="C31" s="125" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D31" s="126" t="s">
         <v>65</v>
@@ -5264,62 +5314,50 @@
         <v>112</v>
       </c>
       <c r="G31" s="76" t="s">
-        <v>433</v>
-      </c>
-      <c r="H31" s="170" t="s">
-        <v>421</v>
-      </c>
-      <c r="I31" s="171" t="s">
-        <v>437</v>
-      </c>
-      <c r="J31" s="172" t="s">
-        <v>435</v>
+        <v>427</v>
+      </c>
+      <c r="H31" s="169" t="s">
+        <v>415</v>
+      </c>
+      <c r="I31" s="170" t="s">
+        <v>431</v>
+      </c>
+      <c r="J31" s="171" t="s">
+        <v>429</v>
       </c>
       <c r="K31" s="75" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="76" t="s">
-        <v>433</v>
-      </c>
-      <c r="O31" s="170" t="s">
-        <v>421</v>
-      </c>
-      <c r="P31" s="171" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q31" s="172" t="s">
-        <v>435</v>
-      </c>
-      <c r="R31" s="75" t="s">
-        <v>436</v>
-      </c>
-      <c r="S31" s="236" t="s">
-        <v>537</v>
-      </c>
+      <c r="N31" s="244"/>
+      <c r="O31" s="245"/>
+      <c r="P31" s="246"/>
+      <c r="Q31" s="247"/>
+      <c r="R31" s="248"/>
+      <c r="S31" s="249"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="132">
+      <c r="B32" s="131">
         <v>17</v>
       </c>
-      <c r="C32" s="133" t="s">
-        <v>385</v>
-      </c>
-      <c r="D32" s="134" t="s">
+      <c r="C32" s="132" t="s">
+        <v>382</v>
+      </c>
+      <c r="D32" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="134" t="s">
+      <c r="E32" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="135" t="s">
+      <c r="F32" s="134" t="s">
         <v>113</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H32" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H32" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I32" s="17" t="s">
         <v>36</v>
@@ -5332,42 +5370,42 @@
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="12"/>
-      <c r="N32" s="136" t="s">
-        <v>242</v>
-      </c>
-      <c r="O32" s="137" t="s">
-        <v>243</v>
-      </c>
-      <c r="P32" s="137" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q32" s="137" t="s">
-        <v>36</v>
-      </c>
-      <c r="R32" s="137" t="s">
-        <v>36</v>
-      </c>
-      <c r="S32" s="138"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="N32" s="135" t="s">
+        <v>240</v>
+      </c>
+      <c r="O32" s="136" t="s">
+        <v>241</v>
+      </c>
+      <c r="P32" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="S32" s="137"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="18">
         <v>18</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D33" s="111" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="267" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="278" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="268"/>
+      <c r="F33" s="279"/>
       <c r="G33" s="18"/>
-      <c r="H33" s="169"/>
+      <c r="H33" s="168"/>
       <c r="I33" s="18"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
       <c r="L33" s="3"/>
       <c r="M33" s="12"/>
       <c r="N33" s="18"/>
@@ -5377,25 +5415,25 @@
       <c r="R33" s="111"/>
       <c r="S33" s="28"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="18">
         <v>19</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D34" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="267" t="s">
+      <c r="E34" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="268"/>
+      <c r="F34" s="279"/>
       <c r="G34" s="18"/>
-      <c r="H34" s="169"/>
+      <c r="H34" s="168"/>
       <c r="I34" s="18"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="147"/>
       <c r="L34" s="3"/>
       <c r="M34" s="12"/>
       <c r="N34" s="18"/>
@@ -5405,12 +5443,12 @@
       <c r="R34" s="111"/>
       <c r="S34" s="28"/>
     </row>
-    <row r="35" spans="2:19" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" ht="33" x14ac:dyDescent="0.3">
       <c r="B35" s="16">
         <v>20</v>
       </c>
       <c r="C35" s="118" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D35" s="99" t="s">
         <v>22</v>
@@ -5422,10 +5460,10 @@
         <v>115</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H35" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H35" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I35" s="17" t="s">
         <v>36</v>
@@ -5439,10 +5477,10 @@
       <c r="L35" s="3"/>
       <c r="M35" s="12"/>
       <c r="N35" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>36</v>
@@ -5455,12 +5493,12 @@
       </c>
       <c r="S35" s="26"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="16">
         <v>21</v>
       </c>
       <c r="C36" s="118" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D36" s="99" t="s">
         <v>23</v>
@@ -5472,10 +5510,10 @@
         <v>116</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H36" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H36" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I36" s="17" t="s">
         <v>36</v>
@@ -5489,10 +5527,10 @@
       <c r="L36" s="3"/>
       <c r="M36" s="12"/>
       <c r="N36" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P36" s="6" t="s">
         <v>36</v>
@@ -5505,27 +5543,27 @@
       </c>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="2:19" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B37" s="245">
+    <row r="37" spans="2:23" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B37" s="241">
         <v>22</v>
       </c>
       <c r="C37" s="118" t="s">
-        <v>385</v>
-      </c>
-      <c r="D37" s="246" t="s">
+        <v>382</v>
+      </c>
+      <c r="D37" s="242" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F37" s="37" t="s">
         <v>117</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H37" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H37" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>36</v>
@@ -5538,83 +5576,78 @@
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="12"/>
-      <c r="N37" s="234" t="s">
-        <v>531</v>
-      </c>
-      <c r="O37" s="231" t="s">
-        <v>244</v>
-      </c>
-      <c r="P37" s="235" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q37" s="232" t="s">
-        <v>36</v>
-      </c>
-      <c r="R37" s="232" t="s">
-        <v>36</v>
-      </c>
-      <c r="S37" s="233" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" s="114" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B38" s="245">
+      <c r="N37" s="233" t="s">
+        <v>525</v>
+      </c>
+      <c r="O37" s="230" t="s">
+        <v>242</v>
+      </c>
+      <c r="P37" s="289" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q37" s="231" t="s">
+        <v>36</v>
+      </c>
+      <c r="R37" s="231" t="s">
+        <v>36</v>
+      </c>
+      <c r="S37" s="232" t="s">
+        <v>536</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" s="114" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B38" s="241">
         <v>23</v>
       </c>
       <c r="C38" s="118" t="s">
-        <v>385</v>
-      </c>
-      <c r="D38" s="246" t="s">
+        <v>382</v>
+      </c>
+      <c r="D38" s="242" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F38" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G38" s="173" t="s">
-        <v>438</v>
-      </c>
-      <c r="H38" s="174" t="s">
-        <v>421</v>
-      </c>
-      <c r="I38" s="175" t="s">
-        <v>439</v>
-      </c>
-      <c r="J38" s="176" t="s">
-        <v>440</v>
-      </c>
-      <c r="K38" s="177" t="s">
+      <c r="G38" s="172" t="s">
+        <v>432</v>
+      </c>
+      <c r="H38" s="173" t="s">
+        <v>415</v>
+      </c>
+      <c r="I38" s="174" t="s">
+        <v>433</v>
+      </c>
+      <c r="J38" s="175" t="s">
+        <v>434</v>
+      </c>
+      <c r="K38" s="176" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="234" t="s">
-        <v>533</v>
-      </c>
-      <c r="O38" s="231" t="s">
-        <v>244</v>
-      </c>
-      <c r="P38" s="235" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q38" s="232" t="s">
-        <v>36</v>
-      </c>
-      <c r="R38" s="232" t="s">
-        <v>36</v>
-      </c>
-      <c r="S38" s="233" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="N38" s="290" t="s">
+        <v>527</v>
+      </c>
+      <c r="O38" s="119" t="s">
+        <v>242</v>
+      </c>
+      <c r="P38" s="254"/>
+      <c r="Q38" s="256"/>
+      <c r="R38" s="256"/>
+      <c r="S38" s="257"/>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="16">
         <v>24</v>
       </c>
       <c r="C39" s="118" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D39" s="99" t="s">
         <v>60</v>
@@ -5625,28 +5658,28 @@
       <c r="F39" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="173" t="s">
-        <v>441</v>
-      </c>
-      <c r="H39" s="174" t="s">
-        <v>421</v>
-      </c>
-      <c r="I39" s="175" t="s">
-        <v>442</v>
-      </c>
-      <c r="J39" s="176" t="s">
-        <v>440</v>
-      </c>
-      <c r="K39" s="177" t="s">
+      <c r="G39" s="172" t="s">
+        <v>435</v>
+      </c>
+      <c r="H39" s="173" t="s">
+        <v>415</v>
+      </c>
+      <c r="I39" s="174" t="s">
+        <v>436</v>
+      </c>
+      <c r="J39" s="175" t="s">
+        <v>434</v>
+      </c>
+      <c r="K39" s="176" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="12"/>
       <c r="N39" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>36</v>
@@ -5659,12 +5692,12 @@
       </c>
       <c r="S39" s="26"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="16">
         <v>25</v>
       </c>
       <c r="C40" s="118" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D40" s="99" t="s">
         <v>29</v>
@@ -5675,30 +5708,30 @@
       <c r="F40" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="163" t="s">
-        <v>443</v>
-      </c>
-      <c r="H40" s="178" t="s">
-        <v>421</v>
-      </c>
-      <c r="I40" s="165" t="s">
-        <v>444</v>
-      </c>
-      <c r="J40" s="166" t="s">
-        <v>445</v>
-      </c>
-      <c r="K40" s="167" t="s">
-        <v>424</v>
-      </c>
-      <c r="L40" s="179"/>
+      <c r="G40" s="162" t="s">
+        <v>437</v>
+      </c>
+      <c r="H40" s="177" t="s">
+        <v>415</v>
+      </c>
+      <c r="I40" s="164" t="s">
+        <v>438</v>
+      </c>
+      <c r="J40" s="165" t="s">
+        <v>439</v>
+      </c>
+      <c r="K40" s="166" t="s">
+        <v>418</v>
+      </c>
+      <c r="L40" s="178"/>
       <c r="M40" s="12" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>36</v>
@@ -5711,64 +5744,64 @@
       </c>
       <c r="S40" s="26"/>
     </row>
-    <row r="41" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B41" s="245">
+    <row r="41" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="B41" s="241">
         <v>26</v>
       </c>
       <c r="C41" s="118" t="s">
-        <v>385</v>
-      </c>
-      <c r="D41" s="246" t="s">
+        <v>382</v>
+      </c>
+      <c r="D41" s="242" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F41" s="37" t="s">
         <v>131</v>
       </c>
       <c r="G41" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="H41" s="168" t="s">
-        <v>421</v>
-      </c>
-      <c r="I41" s="161" t="s">
-        <v>447</v>
-      </c>
-      <c r="J41" s="162" t="s">
-        <v>448</v>
+        <v>420</v>
+      </c>
+      <c r="H41" s="167" t="s">
+        <v>415</v>
+      </c>
+      <c r="I41" s="160" t="s">
+        <v>441</v>
+      </c>
+      <c r="J41" s="161" t="s">
+        <v>442</v>
       </c>
       <c r="K41" s="40" t="s">
-        <v>424</v>
-      </c>
-      <c r="L41" s="179"/>
+        <v>418</v>
+      </c>
+      <c r="L41" s="178"/>
       <c r="M41" s="12"/>
-      <c r="N41" s="234" t="s">
-        <v>536</v>
-      </c>
-      <c r="O41" s="231" t="s">
-        <v>244</v>
-      </c>
-      <c r="P41" s="235" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q41" s="232" t="s">
-        <v>36</v>
-      </c>
-      <c r="R41" s="232" t="s">
-        <v>36</v>
-      </c>
-      <c r="S41" s="247" t="s">
+      <c r="N41" s="252" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41" s="40" t="s">
+        <v>549</v>
+      </c>
+      <c r="P41" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q41" s="250" t="s">
+        <v>36</v>
+      </c>
+      <c r="R41" s="80" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" ht="33" x14ac:dyDescent="0.3">
+      <c r="S41" s="39" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" ht="33" x14ac:dyDescent="0.3">
       <c r="B42" s="16">
         <v>27</v>
       </c>
       <c r="C42" s="118" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D42" s="99" t="s">
         <v>26</v>
@@ -5777,50 +5810,50 @@
         <v>132</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G42" s="77" t="s">
-        <v>433</v>
-      </c>
-      <c r="H42" s="168" t="s">
-        <v>421</v>
-      </c>
-      <c r="I42" s="171" t="s">
-        <v>449</v>
-      </c>
-      <c r="J42" s="172" t="s">
-        <v>450</v>
-      </c>
-      <c r="K42" s="180" t="s">
-        <v>36</v>
-      </c>
-      <c r="L42" s="181" t="s">
-        <v>451</v>
-      </c>
-      <c r="M42" s="182"/>
-      <c r="N42" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="O42" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q42" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R42" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S42" s="26"/>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+      <c r="H42" s="167" t="s">
+        <v>415</v>
+      </c>
+      <c r="I42" s="170" t="s">
+        <v>443</v>
+      </c>
+      <c r="J42" s="171" t="s">
+        <v>444</v>
+      </c>
+      <c r="K42" s="179" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="180" t="s">
+        <v>445</v>
+      </c>
+      <c r="M42" s="181"/>
+      <c r="N42" s="252" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" s="40" t="s">
+        <v>549</v>
+      </c>
+      <c r="P42" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q42" s="250" t="s">
+        <v>36</v>
+      </c>
+      <c r="R42" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="S42" s="39"/>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="16">
         <v>28</v>
       </c>
       <c r="C43" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D43" s="99" t="s">
         <v>27</v>
@@ -5832,10 +5865,10 @@
         <v>101</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H43" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H43" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I43" s="17" t="s">
         <v>36</v>
@@ -5848,44 +5881,44 @@
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="12"/>
-      <c r="N43" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="O43" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R43" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S43" s="26"/>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="N43" s="252" t="s">
+        <v>17</v>
+      </c>
+      <c r="O43" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="P43" s="40" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q43" s="250" t="s">
+        <v>36</v>
+      </c>
+      <c r="R43" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="S43" s="39"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="16">
         <v>29</v>
       </c>
       <c r="C44" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D44" s="99" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="99" t="s">
-        <v>133</v>
+        <v>543</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H44" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H44" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I44" s="17" t="s">
         <v>36</v>
@@ -5898,44 +5931,44 @@
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="12"/>
-      <c r="N44" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R44" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S44" s="26"/>
-    </row>
-    <row r="45" spans="2:19" ht="33" x14ac:dyDescent="0.3">
+      <c r="N44" s="251" t="s">
+        <v>544</v>
+      </c>
+      <c r="O44" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="P44" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q44" s="250" t="s">
+        <v>36</v>
+      </c>
+      <c r="R44" s="250" t="s">
+        <v>36</v>
+      </c>
+      <c r="S44" s="39"/>
+    </row>
+    <row r="45" spans="2:23" ht="33" x14ac:dyDescent="0.3">
       <c r="B45" s="16">
         <v>30</v>
       </c>
       <c r="C45" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D45" s="99" t="s">
         <v>61</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H45" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H45" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I45" s="17" t="s">
         <v>36</v>
@@ -5948,43 +5981,43 @@
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="12"/>
-      <c r="N45" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R45" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S45" s="26"/>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="N45" s="251" t="s">
+        <v>545</v>
+      </c>
+      <c r="O45" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="P45" s="40" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q45" s="250" t="s">
+        <v>36</v>
+      </c>
+      <c r="R45" s="250" t="s">
+        <v>36</v>
+      </c>
+      <c r="S45" s="39"/>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="18">
         <v>31</v>
       </c>
       <c r="C46" s="111" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D46" s="111" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="267" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="278" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="268"/>
+      <c r="F46" s="279"/>
       <c r="G46" s="18"/>
-      <c r="H46" s="169"/>
+      <c r="H46" s="168"/>
       <c r="I46" s="18"/>
-      <c r="J46" s="148"/>
-      <c r="K46" s="148"/>
-      <c r="L46" s="179"/>
+      <c r="J46" s="147"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="178"/>
       <c r="M46" s="12"/>
       <c r="N46" s="18"/>
       <c r="O46" s="111"/>
@@ -5993,26 +6026,26 @@
       <c r="R46" s="111"/>
       <c r="S46" s="28"/>
     </row>
-    <row r="47" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="19">
         <v>32</v>
       </c>
       <c r="C47" s="112" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D47" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="269" t="s">
+      <c r="E47" s="280" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="270"/>
+      <c r="F47" s="281"/>
       <c r="G47" s="18"/>
-      <c r="H47" s="169"/>
+      <c r="H47" s="168"/>
       <c r="I47" s="18"/>
-      <c r="J47" s="148"/>
-      <c r="K47" s="148"/>
-      <c r="L47" s="179"/>
+      <c r="J47" s="147"/>
+      <c r="K47" s="147"/>
+      <c r="L47" s="178"/>
       <c r="M47" s="12"/>
       <c r="N47" s="19"/>
       <c r="O47" s="112"/>
@@ -6021,58 +6054,58 @@
       <c r="R47" s="112"/>
       <c r="S47" s="38"/>
     </row>
-    <row r="48" spans="2:19" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B48" s="243">
+    <row r="48" spans="2:23" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="239">
         <v>33</v>
       </c>
-      <c r="C48" s="145" t="s">
-        <v>383</v>
-      </c>
-      <c r="D48" s="244" t="s">
+      <c r="C48" s="144" t="s">
+        <v>380</v>
+      </c>
+      <c r="D48" s="240" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="146" t="s">
-        <v>136</v>
-      </c>
-      <c r="F48" s="147" t="s">
+      <c r="E48" s="145" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" s="146" t="s">
         <v>101</v>
       </c>
       <c r="G48" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="H48" s="168" t="s">
-        <v>452</v>
-      </c>
-      <c r="I48" s="161" t="s">
-        <v>453</v>
-      </c>
-      <c r="J48" s="162" t="s">
-        <v>450</v>
+        <v>420</v>
+      </c>
+      <c r="H48" s="167" t="s">
+        <v>446</v>
+      </c>
+      <c r="I48" s="160" t="s">
+        <v>447</v>
+      </c>
+      <c r="J48" s="161" t="s">
+        <v>444</v>
       </c>
       <c r="K48" s="40" t="s">
-        <v>424</v>
-      </c>
-      <c r="L48" s="183"/>
+        <v>418</v>
+      </c>
+      <c r="L48" s="182"/>
       <c r="M48" s="12" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="N48" s="97" t="s">
-        <v>391</v>
-      </c>
-      <c r="O48" s="80" t="s">
-        <v>243</v>
-      </c>
-      <c r="P48" s="80" t="s">
-        <v>549</v>
+        <v>387</v>
+      </c>
+      <c r="O48" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="P48" s="40" t="s">
+        <v>555</v>
       </c>
       <c r="Q48" s="80" t="s">
         <v>36</v>
       </c>
       <c r="R48" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="S48" s="237" t="s">
-        <v>393</v>
+        <v>552</v>
+      </c>
+      <c r="S48" s="258" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="33" x14ac:dyDescent="0.3">
@@ -6080,51 +6113,51 @@
         <v>34</v>
       </c>
       <c r="C49" s="119" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>69</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G49" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="H49" s="168" t="s">
-        <v>452</v>
-      </c>
-      <c r="I49" s="184" t="s">
-        <v>455</v>
-      </c>
-      <c r="J49" s="185" t="s">
-        <v>456</v>
+        <v>420</v>
+      </c>
+      <c r="H49" s="167" t="s">
+        <v>446</v>
+      </c>
+      <c r="I49" s="183" t="s">
+        <v>449</v>
+      </c>
+      <c r="J49" s="184" t="s">
+        <v>450</v>
       </c>
       <c r="K49" s="40" t="s">
-        <v>424</v>
-      </c>
-      <c r="L49" s="179"/>
+        <v>418</v>
+      </c>
+      <c r="L49" s="178"/>
       <c r="M49" s="12"/>
       <c r="N49" s="97" t="s">
-        <v>390</v>
-      </c>
-      <c r="O49" s="80" t="s">
-        <v>243</v>
-      </c>
-      <c r="P49" s="80" t="s">
-        <v>392</v>
+        <v>386</v>
+      </c>
+      <c r="O49" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="P49" s="40" t="s">
+        <v>556</v>
       </c>
       <c r="Q49" s="80" t="s">
         <v>36</v>
       </c>
       <c r="R49" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="S49" s="237" t="s">
-        <v>393</v>
+        <v>552</v>
+      </c>
+      <c r="S49" s="258" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="50" spans="2:19" ht="49.5" x14ac:dyDescent="0.3">
@@ -6132,109 +6165,87 @@
         <v>35</v>
       </c>
       <c r="C50" s="119" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>70</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G50" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="H50" s="168" t="s">
-        <v>421</v>
-      </c>
-      <c r="I50" s="186" t="s">
-        <v>457</v>
-      </c>
-      <c r="J50" s="185" t="s">
-        <v>458</v>
+        <v>420</v>
+      </c>
+      <c r="H50" s="167" t="s">
+        <v>415</v>
+      </c>
+      <c r="I50" s="185" t="s">
+        <v>451</v>
+      </c>
+      <c r="J50" s="184" t="s">
+        <v>452</v>
       </c>
       <c r="K50" s="40" t="s">
-        <v>419</v>
-      </c>
-      <c r="L50" s="179"/>
+        <v>413</v>
+      </c>
+      <c r="L50" s="178"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="97" t="s">
-        <v>389</v>
-      </c>
-      <c r="O50" s="80" t="s">
-        <v>243</v>
-      </c>
-      <c r="P50" s="80" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q50" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="R50" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="S50" s="237" t="s">
-        <v>393</v>
-      </c>
+      <c r="N50" s="253"/>
+      <c r="O50" s="254"/>
+      <c r="P50" s="254"/>
+      <c r="Q50" s="254"/>
+      <c r="R50" s="254"/>
+      <c r="S50" s="257"/>
     </row>
     <row r="51" spans="2:19" ht="33" x14ac:dyDescent="0.3">
       <c r="B51" s="16">
         <v>36</v>
       </c>
       <c r="C51" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D51" s="99" t="s">
         <v>34</v>
       </c>
       <c r="E51" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="G51" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="H51" s="168" t="s">
-        <v>421</v>
-      </c>
-      <c r="I51" s="186" t="s">
-        <v>459</v>
-      </c>
-      <c r="J51" s="185" t="s">
-        <v>460</v>
+        <v>420</v>
+      </c>
+      <c r="H51" s="167" t="s">
+        <v>415</v>
+      </c>
+      <c r="I51" s="185" t="s">
+        <v>453</v>
+      </c>
+      <c r="J51" s="184" t="s">
+        <v>454</v>
       </c>
       <c r="K51" s="40" t="s">
-        <v>419</v>
-      </c>
-      <c r="L51" s="179"/>
+        <v>413</v>
+      </c>
+      <c r="L51" s="178"/>
       <c r="M51" s="12"/>
-      <c r="N51" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="O51" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="P51" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q51" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R51" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S51" s="26"/>
+      <c r="N51" s="255"/>
+      <c r="O51" s="256"/>
+      <c r="P51" s="256"/>
+      <c r="Q51" s="256"/>
+      <c r="R51" s="256"/>
+      <c r="S51" s="257"/>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B52" s="16">
         <v>37</v>
       </c>
       <c r="C52" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D52" s="99" t="s">
         <v>30</v>
@@ -6246,45 +6257,35 @@
         <v>101</v>
       </c>
       <c r="G52" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="H52" s="168" t="s">
-        <v>421</v>
-      </c>
-      <c r="I52" s="186" t="s">
-        <v>461</v>
-      </c>
-      <c r="J52" s="185" t="s">
-        <v>462</v>
+        <v>420</v>
+      </c>
+      <c r="H52" s="167" t="s">
+        <v>415</v>
+      </c>
+      <c r="I52" s="185" t="s">
+        <v>455</v>
+      </c>
+      <c r="J52" s="184" t="s">
+        <v>456</v>
       </c>
       <c r="K52" s="40" t="s">
-        <v>419</v>
-      </c>
-      <c r="L52" s="179"/>
+        <v>413</v>
+      </c>
+      <c r="L52" s="178"/>
       <c r="M52" s="12"/>
-      <c r="N52" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="O52" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="P52" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q52" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R52" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S52" s="26"/>
+      <c r="N52" s="255"/>
+      <c r="O52" s="256"/>
+      <c r="P52" s="256"/>
+      <c r="Q52" s="256"/>
+      <c r="R52" s="256"/>
+      <c r="S52" s="257"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B53" s="16">
         <v>38</v>
       </c>
       <c r="C53" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D53" s="99" t="s">
         <v>31</v>
@@ -6295,65 +6296,55 @@
       <c r="F53" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G53" s="163" t="s">
-        <v>463</v>
-      </c>
-      <c r="H53" s="164" t="s">
-        <v>421</v>
-      </c>
-      <c r="I53" s="165" t="s">
-        <v>464</v>
-      </c>
-      <c r="J53" s="166" t="s">
-        <v>465</v>
-      </c>
-      <c r="K53" s="167" t="s">
-        <v>424</v>
-      </c>
-      <c r="L53" s="187" t="s">
-        <v>433</v>
+      <c r="G53" s="162" t="s">
+        <v>457</v>
+      </c>
+      <c r="H53" s="163" t="s">
+        <v>415</v>
+      </c>
+      <c r="I53" s="164" t="s">
+        <v>458</v>
+      </c>
+      <c r="J53" s="165" t="s">
+        <v>459</v>
+      </c>
+      <c r="K53" s="166" t="s">
+        <v>418</v>
+      </c>
+      <c r="L53" s="186" t="s">
+        <v>427</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="N53" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="P53" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q53" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R53" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S53" s="26"/>
+        <v>440</v>
+      </c>
+      <c r="N53" s="255"/>
+      <c r="O53" s="256"/>
+      <c r="P53" s="256"/>
+      <c r="Q53" s="256"/>
+      <c r="R53" s="256"/>
+      <c r="S53" s="257"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B54" s="16">
         <v>39</v>
       </c>
       <c r="C54" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D54" s="99" t="s">
         <v>32</v>
       </c>
       <c r="E54" s="99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H54" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H54" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I54" s="17" t="s">
         <v>36</v>
@@ -6366,44 +6357,34 @@
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="12"/>
-      <c r="N54" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="P54" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q54" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R54" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S54" s="26"/>
+      <c r="N54" s="255"/>
+      <c r="O54" s="256"/>
+      <c r="P54" s="256"/>
+      <c r="Q54" s="256"/>
+      <c r="R54" s="256"/>
+      <c r="S54" s="257"/>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B55" s="16">
         <v>40</v>
       </c>
       <c r="C55" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D55" s="99" t="s">
         <v>33</v>
       </c>
       <c r="E55" s="99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H55" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H55" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I55" s="17" t="s">
         <v>36</v>
@@ -6416,73 +6397,63 @@
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="12"/>
-      <c r="N55" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="O55" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="P55" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q55" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R55" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S55" s="26"/>
+      <c r="N55" s="255"/>
+      <c r="O55" s="256"/>
+      <c r="P55" s="256"/>
+      <c r="Q55" s="256"/>
+      <c r="R55" s="256"/>
+      <c r="S55" s="257"/>
     </row>
     <row r="56" spans="2:19" ht="33" x14ac:dyDescent="0.3">
       <c r="B56" s="101">
         <v>41</v>
       </c>
       <c r="C56" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D56" s="21" t="s">
         <v>67</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F56" s="103" t="s">
         <v>101</v>
       </c>
       <c r="G56" s="78" t="s">
-        <v>466</v>
-      </c>
-      <c r="H56" s="188" t="s">
-        <v>467</v>
-      </c>
-      <c r="I56" s="189" t="s">
-        <v>468</v>
-      </c>
-      <c r="J56" s="190" t="s">
-        <v>469</v>
+        <v>460</v>
+      </c>
+      <c r="H56" s="187" t="s">
+        <v>461</v>
+      </c>
+      <c r="I56" s="188" t="s">
+        <v>462</v>
+      </c>
+      <c r="J56" s="189" t="s">
+        <v>463</v>
       </c>
       <c r="K56" s="79" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="12"/>
-      <c r="N56" s="78" t="s">
+      <c r="N56" s="291" t="s">
+        <v>174</v>
+      </c>
+      <c r="O56" s="119" t="s">
+        <v>242</v>
+      </c>
+      <c r="P56" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q56" s="119" t="s">
         <v>176</v>
       </c>
-      <c r="O56" s="79" t="s">
-        <v>244</v>
-      </c>
-      <c r="P56" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q56" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="R56" s="79" t="s">
+      <c r="R56" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="S56" s="238" t="s">
-        <v>538</v>
+      <c r="S56" s="249" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="57" spans="2:19" ht="33" x14ac:dyDescent="0.3">
@@ -6490,51 +6461,51 @@
         <v>42</v>
       </c>
       <c r="C57" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D57" s="43" t="s">
         <v>55</v>
       </c>
       <c r="E57" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F57" s="45" t="s">
         <v>101</v>
       </c>
       <c r="G57" s="47" t="s">
-        <v>470</v>
-      </c>
-      <c r="H57" s="191" t="s">
-        <v>471</v>
-      </c>
-      <c r="I57" s="192" t="s">
-        <v>470</v>
-      </c>
-      <c r="J57" s="193" t="s">
-        <v>472</v>
+        <v>464</v>
+      </c>
+      <c r="H57" s="190" t="s">
+        <v>465</v>
+      </c>
+      <c r="I57" s="191" t="s">
+        <v>464</v>
+      </c>
+      <c r="J57" s="192" t="s">
+        <v>466</v>
       </c>
       <c r="K57" s="48" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="12"/>
       <c r="N57" s="47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O57" s="43" t="s">
         <v>51</v>
       </c>
       <c r="P57" s="43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q57" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R57" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="S57" s="239" t="s">
-        <v>539</v>
+        <v>169</v>
+      </c>
+      <c r="S57" s="235" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="58" spans="2:19" ht="33" x14ac:dyDescent="0.3">
@@ -6542,51 +6513,51 @@
         <v>43</v>
       </c>
       <c r="C58" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D58" s="43" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F58" s="45" t="s">
         <v>101</v>
       </c>
       <c r="G58" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="H58" s="191" t="s">
-        <v>471</v>
-      </c>
-      <c r="I58" s="192" t="s">
-        <v>474</v>
-      </c>
-      <c r="J58" s="193" t="s">
-        <v>472</v>
+        <v>468</v>
+      </c>
+      <c r="H58" s="190" t="s">
+        <v>465</v>
+      </c>
+      <c r="I58" s="191" t="s">
+        <v>468</v>
+      </c>
+      <c r="J58" s="192" t="s">
+        <v>466</v>
       </c>
       <c r="K58" s="48" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="12"/>
       <c r="N58" s="47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O58" s="43" t="s">
         <v>51</v>
       </c>
       <c r="P58" s="43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q58" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R58" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="S58" s="239" t="s">
-        <v>539</v>
+        <v>169</v>
+      </c>
+      <c r="S58" s="235" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="59" spans="2:19" ht="33" x14ac:dyDescent="0.3">
@@ -6594,51 +6565,51 @@
         <v>44</v>
       </c>
       <c r="C59" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D59" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E59" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="42" t="s">
-        <v>147</v>
-      </c>
       <c r="G59" s="78" t="s">
-        <v>475</v>
-      </c>
-      <c r="H59" s="188" t="s">
-        <v>467</v>
-      </c>
-      <c r="I59" s="189" t="s">
-        <v>476</v>
-      </c>
-      <c r="J59" s="190" t="s">
         <v>469</v>
       </c>
+      <c r="H59" s="187" t="s">
+        <v>461</v>
+      </c>
+      <c r="I59" s="188" t="s">
+        <v>470</v>
+      </c>
+      <c r="J59" s="189" t="s">
+        <v>463</v>
+      </c>
       <c r="K59" s="79" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="12"/>
-      <c r="N59" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="O59" s="79" t="s">
-        <v>244</v>
-      </c>
-      <c r="P59" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q59" s="79" t="s">
+      <c r="N59" s="291" t="s">
+        <v>175</v>
+      </c>
+      <c r="O59" s="119" t="s">
+        <v>242</v>
+      </c>
+      <c r="P59" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="R59" s="79" t="s">
+      <c r="Q59" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="R59" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="S59" s="238" t="s">
-        <v>538</v>
+      <c r="S59" s="249" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="60" spans="2:19" ht="33" x14ac:dyDescent="0.3">
@@ -6646,39 +6617,39 @@
         <v>45</v>
       </c>
       <c r="C60" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D60" s="99" t="s">
         <v>35</v>
       </c>
       <c r="E60" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="F60" s="37" t="s">
-        <v>149</v>
-      </c>
       <c r="G60" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="H60" s="168" t="s">
-        <v>452</v>
-      </c>
-      <c r="I60" s="161" t="s">
-        <v>477</v>
-      </c>
-      <c r="J60" s="162" t="s">
-        <v>478</v>
+        <v>420</v>
+      </c>
+      <c r="H60" s="167" t="s">
+        <v>446</v>
+      </c>
+      <c r="I60" s="160" t="s">
+        <v>471</v>
+      </c>
+      <c r="J60" s="161" t="s">
+        <v>472</v>
       </c>
       <c r="K60" s="40" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="12"/>
       <c r="N60" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>36</v>
@@ -6696,31 +6667,31 @@
         <v>46</v>
       </c>
       <c r="C61" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D61" s="110" t="s">
         <v>53</v>
       </c>
       <c r="E61" s="110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F61" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="194" t="s">
-        <v>479</v>
-      </c>
-      <c r="H61" s="195" t="s">
-        <v>471</v>
-      </c>
-      <c r="I61" s="196" t="s">
-        <v>479</v>
-      </c>
-      <c r="J61" s="197" t="s">
-        <v>480</v>
-      </c>
-      <c r="K61" s="198" t="s">
+      <c r="G61" s="193" t="s">
         <v>473</v>
+      </c>
+      <c r="H61" s="194" t="s">
+        <v>465</v>
+      </c>
+      <c r="I61" s="195" t="s">
+        <v>473</v>
+      </c>
+      <c r="J61" s="196" t="s">
+        <v>474</v>
+      </c>
+      <c r="K61" s="197" t="s">
+        <v>467</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="12"/>
@@ -6737,7 +6708,7 @@
         <v>52</v>
       </c>
       <c r="R61" s="53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S61" s="52"/>
     </row>
@@ -6746,20 +6717,20 @@
         <v>47</v>
       </c>
       <c r="C62" s="111" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D62" s="111" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" s="267" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="278" t="s">
         <v>114</v>
       </c>
-      <c r="F62" s="268"/>
+      <c r="F62" s="279"/>
       <c r="G62" s="18"/>
-      <c r="H62" s="169"/>
+      <c r="H62" s="168"/>
       <c r="I62" s="18"/>
-      <c r="J62" s="148"/>
-      <c r="K62" s="148"/>
+      <c r="J62" s="147"/>
+      <c r="K62" s="147"/>
       <c r="L62" s="3"/>
       <c r="M62" s="12"/>
       <c r="N62" s="18"/>
@@ -6774,20 +6745,20 @@
         <v>48</v>
       </c>
       <c r="C63" s="112" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D63" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="269" t="s">
+      <c r="E63" s="280" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="270"/>
+      <c r="F63" s="281"/>
       <c r="G63" s="18"/>
-      <c r="H63" s="169"/>
+      <c r="H63" s="168"/>
       <c r="I63" s="18"/>
-      <c r="J63" s="148"/>
-      <c r="K63" s="148"/>
+      <c r="J63" s="147"/>
+      <c r="K63" s="147"/>
       <c r="L63" s="3"/>
       <c r="M63" s="12"/>
       <c r="N63" s="19"/>
@@ -6798,97 +6769,97 @@
       <c r="S63" s="38"/>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B64" s="139">
+      <c r="B64" s="138">
         <v>49</v>
       </c>
-      <c r="C64" s="131" t="s">
-        <v>383</v>
-      </c>
-      <c r="D64" s="140" t="s">
+      <c r="C64" s="130" t="s">
+        <v>380</v>
+      </c>
+      <c r="D64" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="140" t="s">
-        <v>166</v>
-      </c>
-      <c r="F64" s="141" t="s">
+      <c r="E64" s="139" t="s">
+        <v>165</v>
+      </c>
+      <c r="F64" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="G64" s="194" t="s">
-        <v>481</v>
-      </c>
-      <c r="H64" s="195" t="s">
-        <v>471</v>
-      </c>
-      <c r="I64" s="196" t="s">
-        <v>481</v>
-      </c>
-      <c r="J64" s="197" t="s">
-        <v>480</v>
-      </c>
-      <c r="K64" s="198" t="s">
-        <v>482</v>
+      <c r="G64" s="193" t="s">
+        <v>475</v>
+      </c>
+      <c r="H64" s="194" t="s">
+        <v>465</v>
+      </c>
+      <c r="I64" s="195" t="s">
+        <v>475</v>
+      </c>
+      <c r="J64" s="196" t="s">
+        <v>474</v>
+      </c>
+      <c r="K64" s="197" t="s">
+        <v>476</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="12"/>
-      <c r="N64" s="142" t="s">
+      <c r="N64" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="O64" s="140" t="s">
+      <c r="O64" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="P64" s="140" t="s">
+      <c r="P64" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="Q64" s="140" t="s">
+      <c r="Q64" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="R64" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="S64" s="144"/>
+      <c r="R64" s="142" t="s">
+        <v>168</v>
+      </c>
+      <c r="S64" s="143"/>
     </row>
     <row r="65" spans="2:19" ht="33" x14ac:dyDescent="0.3">
       <c r="B65" s="16">
         <v>50</v>
       </c>
       <c r="C65" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G65" s="77" t="s">
-        <v>433</v>
-      </c>
-      <c r="H65" s="168" t="s">
-        <v>421</v>
-      </c>
-      <c r="I65" s="161" t="s">
-        <v>483</v>
-      </c>
-      <c r="J65" s="162" t="s">
-        <v>465</v>
+        <v>427</v>
+      </c>
+      <c r="H65" s="167" t="s">
+        <v>415</v>
+      </c>
+      <c r="I65" s="160" t="s">
+        <v>477</v>
+      </c>
+      <c r="J65" s="161" t="s">
+        <v>459</v>
       </c>
       <c r="K65" s="40" t="s">
-        <v>424</v>
-      </c>
-      <c r="L65" s="183" t="s">
-        <v>484</v>
+        <v>418</v>
+      </c>
+      <c r="L65" s="182" t="s">
+        <v>478</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="N65" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>36</v>
@@ -6906,22 +6877,22 @@
         <v>51</v>
       </c>
       <c r="C66" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D66" s="94" t="s">
         <v>41</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H66" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H66" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I66" s="17" t="s">
         <v>36</v>
@@ -6935,10 +6906,10 @@
       <c r="L66" s="3"/>
       <c r="M66" s="12"/>
       <c r="N66" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P66" s="6" t="s">
         <v>36</v>
@@ -6956,22 +6927,22 @@
         <v>52</v>
       </c>
       <c r="C67" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D67" s="94" t="s">
         <v>38</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H67" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H67" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I67" s="17" t="s">
         <v>36</v>
@@ -6985,10 +6956,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="12"/>
       <c r="N67" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P67" s="6" t="s">
         <v>36</v>
@@ -7006,22 +6977,22 @@
         <v>53</v>
       </c>
       <c r="C68" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D68" s="99" t="s">
         <v>37</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H68" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H68" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I68" s="17" t="s">
         <v>36</v>
@@ -7035,10 +7006,10 @@
       <c r="L68" s="3"/>
       <c r="M68" s="12"/>
       <c r="N68" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P68" s="6" t="s">
         <v>36</v>
@@ -7056,22 +7027,22 @@
         <v>54</v>
       </c>
       <c r="C69" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H69" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H69" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I69" s="17" t="s">
         <v>36</v>
@@ -7085,10 +7056,10 @@
       <c r="L69" s="3"/>
       <c r="M69" s="12"/>
       <c r="N69" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P69" s="6" t="s">
         <v>36</v>
@@ -7106,22 +7077,22 @@
         <v>55</v>
       </c>
       <c r="C70" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D70" s="99" t="s">
         <v>47</v>
       </c>
       <c r="E70" s="99" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F70" s="115" t="s">
         <v>101</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H70" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H70" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I70" s="17" t="s">
         <v>36</v>
@@ -7135,10 +7106,10 @@
       <c r="L70" s="3"/>
       <c r="M70" s="12"/>
       <c r="N70" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P70" s="6" t="s">
         <v>36</v>
@@ -7156,41 +7127,41 @@
         <v>56</v>
       </c>
       <c r="C71" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G71" s="199" t="s">
-        <v>486</v>
-      </c>
-      <c r="H71" s="178" t="s">
-        <v>487</v>
-      </c>
-      <c r="I71" s="200" t="s">
-        <v>488</v>
-      </c>
-      <c r="J71" s="201" t="s">
-        <v>489</v>
-      </c>
-      <c r="K71" s="202" t="s">
-        <v>419</v>
+      <c r="G71" s="198" t="s">
+        <v>480</v>
+      </c>
+      <c r="H71" s="177" t="s">
+        <v>481</v>
+      </c>
+      <c r="I71" s="199" t="s">
+        <v>482</v>
+      </c>
+      <c r="J71" s="200" t="s">
+        <v>483</v>
+      </c>
+      <c r="K71" s="201" t="s">
+        <v>413</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="12" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="N71" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P71" s="6" t="s">
         <v>36</v>
@@ -7208,22 +7179,22 @@
         <v>57</v>
       </c>
       <c r="C72" s="119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H72" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H72" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I72" s="17" t="s">
         <v>36</v>
@@ -7237,10 +7208,10 @@
       <c r="L72" s="3"/>
       <c r="M72" s="12"/>
       <c r="N72" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P72" s="6" t="s">
         <v>36</v>
@@ -7258,76 +7229,72 @@
         <v>58</v>
       </c>
       <c r="C73" s="119" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G73" s="199" t="s">
-        <v>491</v>
-      </c>
-      <c r="H73" s="178" t="s">
-        <v>487</v>
-      </c>
-      <c r="I73" s="200" t="s">
-        <v>492</v>
-      </c>
-      <c r="J73" s="201" t="s">
-        <v>489</v>
-      </c>
-      <c r="K73" s="202" t="s">
-        <v>419</v>
+      <c r="G73" s="198" t="s">
+        <v>485</v>
+      </c>
+      <c r="H73" s="177" t="s">
+        <v>481</v>
+      </c>
+      <c r="I73" s="199" t="s">
+        <v>486</v>
+      </c>
+      <c r="J73" s="200" t="s">
+        <v>483</v>
+      </c>
+      <c r="K73" s="201" t="s">
+        <v>413</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="N73" s="77" t="s">
-        <v>172</v>
+        <v>484</v>
+      </c>
+      <c r="N73" s="66" t="s">
+        <v>17</v>
       </c>
       <c r="O73" s="40" t="s">
-        <v>18</v>
+        <v>388</v>
       </c>
       <c r="P73" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q73" s="40" t="s">
-        <v>329</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="Q73" s="40"/>
       <c r="R73" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="S73" s="240" t="s">
-        <v>540</v>
-      </c>
+      <c r="S73" s="236"/>
     </row>
     <row r="74" spans="2:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="100">
         <v>59</v>
       </c>
       <c r="C74" s="119" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>58</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H74" s="159" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="H74" s="158" t="s">
+        <v>410</v>
       </c>
       <c r="I74" s="17" t="s">
         <v>36</v>
@@ -7338,58 +7305,54 @@
       <c r="K74" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="179"/>
+      <c r="L74" s="178"/>
       <c r="M74" s="12"/>
-      <c r="N74" s="129" t="s">
-        <v>172</v>
-      </c>
-      <c r="O74" s="130" t="s">
-        <v>18</v>
-      </c>
-      <c r="P74" s="130" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q74" s="130" t="s">
-        <v>329</v>
-      </c>
-      <c r="R74" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="S74" s="241" t="s">
-        <v>540</v>
-      </c>
+      <c r="N74" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="O74" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="P74" s="129" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q74" s="129"/>
+      <c r="R74" s="129" t="s">
+        <v>553</v>
+      </c>
+      <c r="S74" s="237"/>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B75" s="18">
         <v>60</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D75" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="E75" s="267" t="s">
-        <v>159</v>
-      </c>
-      <c r="F75" s="268"/>
+        <v>140</v>
+      </c>
+      <c r="E75" s="278" t="s">
+        <v>158</v>
+      </c>
+      <c r="F75" s="279"/>
       <c r="G75" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="H75" s="169"/>
-      <c r="I75" s="203" t="s">
-        <v>493</v>
-      </c>
-      <c r="J75" s="204"/>
-      <c r="K75" s="148"/>
-      <c r="L75" s="179"/>
+        <v>487</v>
+      </c>
+      <c r="H75" s="168"/>
+      <c r="I75" s="202" t="s">
+        <v>487</v>
+      </c>
+      <c r="J75" s="203"/>
+      <c r="K75" s="147"/>
+      <c r="L75" s="178"/>
       <c r="M75" s="12"/>
       <c r="N75" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O75" s="92"/>
       <c r="P75" s="92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q75" s="92"/>
       <c r="R75" s="92"/>
@@ -7400,55 +7363,55 @@
         <v>61</v>
       </c>
       <c r="C76" s="119" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G76" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="H76" s="168" t="s">
-        <v>421</v>
-      </c>
-      <c r="I76" s="161" t="s">
-        <v>494</v>
-      </c>
-      <c r="J76" s="162" t="s">
-        <v>495</v>
+        <v>420</v>
+      </c>
+      <c r="H76" s="167" t="s">
+        <v>415</v>
+      </c>
+      <c r="I76" s="160" t="s">
+        <v>488</v>
+      </c>
+      <c r="J76" s="161" t="s">
+        <v>489</v>
       </c>
       <c r="K76" s="40" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L76" s="119" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="N76" s="66" t="s">
         <v>17</v>
       </c>
       <c r="O76" s="40" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="P76" s="40" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="Q76" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R76" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S76" s="236" t="s">
-        <v>541</v>
+      <c r="S76" s="234" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="77" spans="2:19" ht="49.5" x14ac:dyDescent="0.3">
@@ -7456,53 +7419,53 @@
         <v>62</v>
       </c>
       <c r="C77" s="119" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G77" s="199" t="s">
-        <v>498</v>
-      </c>
-      <c r="H77" s="178" t="s">
-        <v>487</v>
-      </c>
-      <c r="I77" s="205" t="s">
-        <v>499</v>
-      </c>
-      <c r="J77" s="206" t="s">
-        <v>495</v>
-      </c>
-      <c r="K77" s="207" t="s">
-        <v>419</v>
-      </c>
-      <c r="L77" s="183"/>
+      <c r="G77" s="198" t="s">
+        <v>492</v>
+      </c>
+      <c r="H77" s="177" t="s">
+        <v>481</v>
+      </c>
+      <c r="I77" s="204" t="s">
+        <v>493</v>
+      </c>
+      <c r="J77" s="205" t="s">
+        <v>489</v>
+      </c>
+      <c r="K77" s="206" t="s">
+        <v>413</v>
+      </c>
+      <c r="L77" s="182"/>
       <c r="M77" s="12" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="N77" s="66" t="s">
         <v>17</v>
       </c>
       <c r="O77" s="40" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="P77" s="40" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="Q77" s="40" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="R77" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S77" s="242" t="s">
-        <v>542</v>
+      <c r="S77" s="238" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.3">
@@ -7510,21 +7473,21 @@
         <v>63</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E78" s="267" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" s="278" t="s">
         <v>114</v>
       </c>
-      <c r="F78" s="268"/>
+      <c r="F78" s="279"/>
       <c r="G78" s="18"/>
-      <c r="H78" s="169"/>
+      <c r="H78" s="168"/>
       <c r="I78" s="18"/>
-      <c r="J78" s="148"/>
-      <c r="K78" s="148"/>
-      <c r="L78" s="208"/>
+      <c r="J78" s="147"/>
+      <c r="K78" s="147"/>
+      <c r="L78" s="207"/>
       <c r="M78" s="12"/>
       <c r="N78" s="18"/>
       <c r="O78" s="92"/>
@@ -7538,21 +7501,21 @@
         <v>64</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="269" t="s">
+      <c r="E79" s="280" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="270"/>
+      <c r="F79" s="281"/>
       <c r="G79" s="19"/>
-      <c r="H79" s="209"/>
+      <c r="H79" s="208"/>
       <c r="I79" s="19"/>
-      <c r="J79" s="149"/>
-      <c r="K79" s="149"/>
-      <c r="L79" s="210"/>
+      <c r="J79" s="148"/>
+      <c r="K79" s="148"/>
+      <c r="L79" s="209"/>
       <c r="M79" s="24"/>
       <c r="N79" s="19"/>
       <c r="O79" s="93"/>
@@ -7562,115 +7525,115 @@
       <c r="S79" s="38"/>
     </row>
     <row r="83" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G83" s="163" t="s">
-        <v>420</v>
-      </c>
-      <c r="H83" s="164" t="s">
-        <v>421</v>
-      </c>
-      <c r="I83" s="165" t="s">
-        <v>422</v>
-      </c>
-      <c r="J83" s="166" t="s">
-        <v>423</v>
-      </c>
-      <c r="K83" s="167" t="s">
-        <v>424</v>
+      <c r="G83" s="162" t="s">
+        <v>414</v>
+      </c>
+      <c r="H83" s="163" t="s">
+        <v>415</v>
+      </c>
+      <c r="I83" s="164" t="s">
+        <v>416</v>
+      </c>
+      <c r="J83" s="165" t="s">
+        <v>417</v>
+      </c>
+      <c r="K83" s="166" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="84" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="199" t="s">
-        <v>486</v>
-      </c>
-      <c r="H84" s="178" t="s">
-        <v>487</v>
-      </c>
-      <c r="I84" s="200" t="s">
-        <v>488</v>
-      </c>
-      <c r="J84" s="201" t="s">
-        <v>489</v>
-      </c>
-      <c r="K84" s="202" t="s">
-        <v>419</v>
+      <c r="G84" s="198" t="s">
+        <v>480</v>
+      </c>
+      <c r="H84" s="177" t="s">
+        <v>481</v>
+      </c>
+      <c r="I84" s="199" t="s">
+        <v>482</v>
+      </c>
+      <c r="J84" s="200" t="s">
+        <v>483</v>
+      </c>
+      <c r="K84" s="201" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="163" t="s">
-        <v>443</v>
-      </c>
-      <c r="H85" s="178" t="s">
-        <v>421</v>
-      </c>
-      <c r="I85" s="165" t="s">
-        <v>444</v>
-      </c>
-      <c r="J85" s="166" t="s">
-        <v>445</v>
-      </c>
-      <c r="K85" s="167" t="s">
-        <v>424</v>
+      <c r="G85" s="162" t="s">
+        <v>437</v>
+      </c>
+      <c r="H85" s="177" t="s">
+        <v>415</v>
+      </c>
+      <c r="I85" s="164" t="s">
+        <v>438</v>
+      </c>
+      <c r="J85" s="165" t="s">
+        <v>439</v>
+      </c>
+      <c r="K85" s="166" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="199" t="s">
-        <v>491</v>
-      </c>
-      <c r="H86" s="178" t="s">
-        <v>487</v>
-      </c>
-      <c r="I86" s="200" t="s">
-        <v>492</v>
-      </c>
-      <c r="J86" s="201" t="s">
-        <v>489</v>
-      </c>
-      <c r="K86" s="202" t="s">
-        <v>419</v>
+      <c r="G86" s="198" t="s">
+        <v>485</v>
+      </c>
+      <c r="H86" s="177" t="s">
+        <v>481</v>
+      </c>
+      <c r="I86" s="199" t="s">
+        <v>486</v>
+      </c>
+      <c r="J86" s="200" t="s">
+        <v>483</v>
+      </c>
+      <c r="K86" s="201" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="163" t="s">
-        <v>463</v>
-      </c>
-      <c r="H87" s="164" t="s">
-        <v>421</v>
-      </c>
-      <c r="I87" s="165" t="s">
-        <v>464</v>
-      </c>
-      <c r="J87" s="166" t="s">
-        <v>465</v>
-      </c>
-      <c r="K87" s="167" t="s">
-        <v>424</v>
+      <c r="G87" s="162" t="s">
+        <v>457</v>
+      </c>
+      <c r="H87" s="163" t="s">
+        <v>415</v>
+      </c>
+      <c r="I87" s="164" t="s">
+        <v>458</v>
+      </c>
+      <c r="J87" s="165" t="s">
+        <v>459</v>
+      </c>
+      <c r="K87" s="166" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="199" t="s">
-        <v>498</v>
-      </c>
-      <c r="H88" s="178" t="s">
-        <v>487</v>
-      </c>
-      <c r="I88" s="205" t="s">
-        <v>499</v>
-      </c>
-      <c r="J88" s="206" t="s">
-        <v>495</v>
-      </c>
-      <c r="K88" s="207" t="s">
-        <v>419</v>
+      <c r="G88" s="198" t="s">
+        <v>492</v>
+      </c>
+      <c r="H88" s="177" t="s">
+        <v>481</v>
+      </c>
+      <c r="I88" s="204" t="s">
+        <v>493</v>
+      </c>
+      <c r="J88" s="205" t="s">
+        <v>489</v>
+      </c>
+      <c r="K88" s="206" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="89" spans="5:11" x14ac:dyDescent="0.3">
@@ -7758,56 +7721,56 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="65" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D7" s="56"/>
       <c r="E7" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="J7" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>230</v>
-      </c>
-      <c r="H7" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="J7" s="63" t="s">
-        <v>214</v>
-      </c>
       <c r="K7" s="64" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D8" s="69" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E8" s="59">
         <v>8000000</v>
@@ -7825,15 +7788,15 @@
         <v>8000000</v>
       </c>
       <c r="J8" s="59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K8" s="60" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D9" s="69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E9" s="59">
         <v>2</v>
@@ -7855,7 +7818,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D10" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E10" s="59">
         <f>E8/E9</f>
@@ -7878,15 +7841,15 @@
         <v>4000000</v>
       </c>
       <c r="J10" s="59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K10" s="60" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D11" s="69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E11" s="59">
         <v>12</v>
@@ -7908,7 +7871,7 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D12" s="69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E12" s="59">
         <f>E10*E11</f>
@@ -7931,15 +7894,15 @@
         <v>48000000</v>
       </c>
       <c r="J12" s="59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K12" s="60" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D13" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E13" s="59">
         <v>1</v>
@@ -7961,7 +7924,7 @@
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="70" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E14" s="61">
         <f>E12/E13</f>
@@ -7984,23 +7947,23 @@
         <v>48000000</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K14" s="62"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C16" s="65" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="65" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D18" s="67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E18" s="57">
         <v>1</v>
@@ -8022,7 +7985,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D19" s="68" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E19" s="59">
         <f>E14/E18</f>
@@ -8045,15 +8008,15 @@
         <v>48000000</v>
       </c>
       <c r="J19" s="59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K19" s="60" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D20" s="69" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E20" s="59">
         <v>1</v>
@@ -8072,12 +8035,12 @@
       </c>
       <c r="J20" s="59"/>
       <c r="K20" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="70" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E21" s="61">
         <f>E19*E20</f>
@@ -8100,34 +8063,34 @@
         <v>48000000</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K21" s="62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="65" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="65"/>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D26" s="67" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E26" s="57">
         <v>16000000</v>
@@ -8145,15 +8108,15 @@
         <v>1000000</v>
       </c>
       <c r="J26" s="57" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K26" s="58" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D27" s="71" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E27" s="61">
         <f>(E21/E26)-1</f>
@@ -8177,7 +8140,7 @@
       </c>
       <c r="J27" s="61"/>
       <c r="K27" s="73" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
@@ -8185,13 +8148,13 @@
     </row>
     <row r="29" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D29" s="55"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D30" s="67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E30" s="57">
         <v>24000</v>
@@ -8209,13 +8172,13 @@
         <v>80000</v>
       </c>
       <c r="J30" s="57" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K30" s="58"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D31" s="68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E31" s="59">
         <f>INT(E26/E30-1)</f>
@@ -8239,12 +8202,12 @@
       </c>
       <c r="J31" s="59"/>
       <c r="K31" s="74" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D32" s="68" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E32" s="72">
         <f>E26/(65535+1)</f>
@@ -8267,15 +8230,15 @@
         <v>15.2587890625</v>
       </c>
       <c r="J32" s="59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K32" s="60" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" s="68" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E33" s="72">
         <f>E26/(0+1)</f>
@@ -8298,15 +8261,15 @@
         <v>1000000</v>
       </c>
       <c r="J33" s="59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K33" s="60" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D34" s="68" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E34" s="59">
         <v>50</v>
@@ -8324,7 +8287,7 @@
         <v>50</v>
       </c>
       <c r="J34" s="59" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K34" s="60"/>
     </row>
@@ -8354,7 +8317,7 @@
       </c>
       <c r="J35" s="61"/>
       <c r="K35" s="73" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.3">
@@ -8407,45 +8370,45 @@
   <sheetData>
     <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="82" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="2:13" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="106" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C3" s="107" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D3" s="107" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E3" s="107" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F3" s="108" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G3" s="109" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H3" s="106" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I3" s="107" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J3" s="107" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K3" s="107" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L3" s="108" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M3" s="109" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -8453,31 +8416,31 @@
         <v>1</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E4" s="83"/>
       <c r="F4" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G4" s="84"/>
       <c r="H4" s="90">
         <v>2</v>
       </c>
       <c r="I4" s="88" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J4" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K4" s="59"/>
       <c r="L4" s="83" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M4" s="84" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -8485,35 +8448,35 @@
         <v>3</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F5" s="88" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G5" s="87" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H5" s="90">
         <v>4</v>
       </c>
       <c r="I5" s="88" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K5" s="59"/>
       <c r="L5" s="88" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M5" s="87" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
@@ -8521,33 +8484,33 @@
         <v>5</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E6" s="88"/>
       <c r="F6" s="88" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H6" s="90">
         <v>6</v>
       </c>
       <c r="I6" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J6" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K6" s="59"/>
       <c r="L6" s="88" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M6" s="87" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
@@ -8555,33 +8518,33 @@
         <v>7</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E7" s="88"/>
       <c r="F7" s="88" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G7" s="87" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H7" s="90">
         <v>8</v>
       </c>
       <c r="I7" s="88" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K7" s="59"/>
       <c r="L7" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M7" s="87" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
@@ -8589,33 +8552,33 @@
         <v>9</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E8" s="83"/>
       <c r="F8" s="83" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H8" s="90">
         <v>10</v>
       </c>
       <c r="I8" s="88" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K8" s="59"/>
       <c r="L8" s="83" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M8" s="87" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
@@ -8623,28 +8586,28 @@
         <v>11</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E9" s="83"/>
       <c r="F9" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G9" s="84"/>
       <c r="H9" s="90">
         <v>12</v>
       </c>
       <c r="I9" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K9" s="59"/>
       <c r="L9" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M9" s="84"/>
     </row>
@@ -8653,28 +8616,28 @@
         <v>13</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E10" s="83"/>
       <c r="F10" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G10" s="84"/>
       <c r="H10" s="90">
         <v>14</v>
       </c>
       <c r="I10" s="88" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J10" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K10" s="59"/>
       <c r="L10" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M10" s="84"/>
     </row>
@@ -8683,28 +8646,28 @@
         <v>15</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E11" s="83"/>
       <c r="F11" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G11" s="84"/>
       <c r="H11" s="90">
         <v>16</v>
       </c>
       <c r="I11" s="88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J11" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K11" s="59"/>
       <c r="L11" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M11" s="84"/>
     </row>
@@ -8713,28 +8676,28 @@
         <v>17</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E12" s="83"/>
       <c r="F12" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G12" s="84"/>
       <c r="H12" s="90">
         <v>18</v>
       </c>
       <c r="I12" s="88" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J12" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K12" s="59"/>
       <c r="L12" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M12" s="84"/>
     </row>
@@ -8743,28 +8706,28 @@
         <v>19</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E13" s="88"/>
       <c r="F13" s="88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="90">
         <v>20</v>
       </c>
       <c r="I13" s="88" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J13" s="88" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K13" s="59"/>
       <c r="L13" s="88" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M13" s="87"/>
     </row>
@@ -8773,31 +8736,31 @@
         <v>21</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E14" s="88"/>
       <c r="F14" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G14" s="87"/>
       <c r="H14" s="90">
         <v>22</v>
       </c>
       <c r="I14" s="88" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J14" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K14" s="59"/>
       <c r="L14" s="83" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M14" s="87" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -8805,28 +8768,28 @@
         <v>23</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D15" s="88" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E15" s="88"/>
       <c r="F15" s="88" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G15" s="87"/>
       <c r="H15" s="90">
         <v>24</v>
       </c>
       <c r="I15" s="88" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J15" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M15" s="87"/>
     </row>
@@ -8835,31 +8798,31 @@
         <v>25</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E16" s="83"/>
       <c r="F16" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G16" s="84"/>
       <c r="H16" s="90">
         <v>26</v>
       </c>
       <c r="I16" s="88" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J16" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K16" s="59"/>
       <c r="L16" s="83" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M16" s="87" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -8867,31 +8830,31 @@
         <v>27</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D17" s="88" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E17" s="83"/>
       <c r="F17" s="88" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G17" s="84"/>
       <c r="H17" s="90">
         <v>28</v>
       </c>
       <c r="I17" s="88" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J17" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K17" s="59"/>
       <c r="L17" s="88" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M17" s="87" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -8899,33 +8862,33 @@
         <v>29</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E18" s="83"/>
       <c r="F18" s="83" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G18" s="87" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H18" s="90">
         <v>30</v>
       </c>
       <c r="I18" s="88" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J18" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K18" s="59"/>
       <c r="L18" s="83" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M18" s="87" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -8933,33 +8896,33 @@
         <v>31</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E19" s="83"/>
       <c r="F19" s="83" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G19" s="87" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H19" s="90">
         <v>32</v>
       </c>
       <c r="I19" s="88" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J19" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K19" s="59"/>
       <c r="L19" s="83" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M19" s="87" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
@@ -8967,28 +8930,28 @@
         <v>33</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E20" s="83"/>
       <c r="F20" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G20" s="84"/>
       <c r="H20" s="90">
         <v>34</v>
       </c>
       <c r="I20" s="88" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J20" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K20" s="59"/>
       <c r="L20" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M20" s="84"/>
     </row>
@@ -8997,28 +8960,28 @@
         <v>35</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E21" s="83"/>
       <c r="F21" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G21" s="84"/>
       <c r="H21" s="90">
         <v>36</v>
       </c>
       <c r="I21" s="88" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J21" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K21" s="59"/>
       <c r="L21" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M21" s="84"/>
     </row>
@@ -9027,31 +8990,31 @@
         <v>37</v>
       </c>
       <c r="C22" s="88" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E22" s="83"/>
       <c r="F22" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G22" s="84"/>
       <c r="H22" s="90">
         <v>38</v>
       </c>
       <c r="I22" s="88" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J22" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K22" s="59"/>
       <c r="L22" s="83" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M22" s="87" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9059,72 +9022,72 @@
         <v>39</v>
       </c>
       <c r="C23" s="89" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D23" s="85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E23" s="85"/>
       <c r="F23" s="85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G23" s="86"/>
       <c r="H23" s="91">
         <v>40</v>
       </c>
       <c r="I23" s="89" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J23" s="85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K23" s="61"/>
       <c r="L23" s="85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M23" s="86"/>
     </row>
     <row r="25" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="82" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="2:13" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="106" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C26" s="107" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D26" s="107" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E26" s="107" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F26" s="108" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G26" s="109" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H26" s="106" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I26" s="107" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J26" s="107" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K26" s="107" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L26" s="108" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M26" s="109" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
@@ -9132,32 +9095,32 @@
         <v>1</v>
       </c>
       <c r="C27" s="88" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D27" s="113" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E27" s="113" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F27" s="88" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G27" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H27" s="90">
         <v>2</v>
       </c>
       <c r="I27" s="88" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J27" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K27" s="59"/>
       <c r="L27" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M27" s="87"/>
     </row>
@@ -9166,30 +9129,30 @@
         <v>3</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D28" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E28" s="83"/>
       <c r="F28" s="83" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G28" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H28" s="90">
         <v>4</v>
       </c>
       <c r="I28" s="88" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J28" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K28" s="59"/>
       <c r="L28" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M28" s="84"/>
     </row>
@@ -9198,33 +9161,33 @@
         <v>5</v>
       </c>
       <c r="C29" s="88" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D29" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E29" s="83"/>
       <c r="F29" s="83" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G29" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H29" s="90">
         <v>6</v>
       </c>
       <c r="I29" s="88" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J29" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K29" s="59"/>
       <c r="L29" s="83" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M29" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
@@ -9232,28 +9195,28 @@
         <v>7</v>
       </c>
       <c r="C30" s="88" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D30" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E30" s="83"/>
       <c r="F30" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G30" s="84"/>
       <c r="H30" s="90">
         <v>8</v>
       </c>
       <c r="I30" s="88" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J30" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K30" s="59"/>
       <c r="L30" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M30" s="84"/>
     </row>
@@ -9262,30 +9225,30 @@
         <v>9</v>
       </c>
       <c r="C31" s="88" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D31" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E31" s="83"/>
       <c r="F31" s="83" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G31" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H31" s="90">
         <v>10</v>
       </c>
       <c r="I31" s="88" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J31" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K31" s="59"/>
       <c r="L31" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M31" s="84"/>
     </row>
@@ -9294,30 +9257,30 @@
         <v>11</v>
       </c>
       <c r="C32" s="88" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D32" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E32" s="83"/>
       <c r="F32" s="83" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G32" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H32" s="90">
         <v>12</v>
       </c>
       <c r="I32" s="88" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J32" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K32" s="59"/>
       <c r="L32" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M32" s="84"/>
     </row>
@@ -9326,35 +9289,35 @@
         <v>13</v>
       </c>
       <c r="C33" s="88" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D33" s="113" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E33" s="113" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F33" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G33" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H33" s="90">
         <v>14</v>
       </c>
       <c r="I33" s="88" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J33" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K33" s="59"/>
       <c r="L33" s="88" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M33" s="87" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
@@ -9362,33 +9325,33 @@
         <v>15</v>
       </c>
       <c r="C34" s="88" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D34" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E34" s="83"/>
       <c r="F34" s="83" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G34" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H34" s="90">
         <v>16</v>
       </c>
       <c r="I34" s="88" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J34" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K34" s="59"/>
       <c r="L34" s="83" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M34" s="87" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
@@ -9396,30 +9359,30 @@
         <v>17</v>
       </c>
       <c r="C35" s="88" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D35" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E35" s="83"/>
       <c r="F35" s="83" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G35" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H35" s="90">
         <v>18</v>
       </c>
       <c r="I35" s="88" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J35" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K35" s="59"/>
       <c r="L35" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M35" s="84"/>
     </row>
@@ -9428,30 +9391,30 @@
         <v>19</v>
       </c>
       <c r="C36" s="88" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E36" s="83"/>
       <c r="F36" s="83" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G36" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H36" s="90">
         <v>20</v>
       </c>
       <c r="I36" s="88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J36" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K36" s="59"/>
       <c r="L36" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M36" s="84"/>
     </row>
@@ -9460,35 +9423,35 @@
         <v>21</v>
       </c>
       <c r="C37" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D37" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E37" s="83"/>
       <c r="F37" s="83" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G37" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H37" s="90">
         <v>22</v>
       </c>
       <c r="I37" s="88" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J37" s="88" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K37" s="88" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L37" s="83" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M37" s="88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
@@ -9496,35 +9459,35 @@
         <v>23</v>
       </c>
       <c r="C38" s="88" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D38" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E38" s="83"/>
       <c r="F38" s="83" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G38" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H38" s="90">
         <v>24</v>
       </c>
       <c r="I38" s="88" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J38" s="88" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K38" s="88" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L38" s="83" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M38" s="88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
@@ -9532,28 +9495,28 @@
         <v>25</v>
       </c>
       <c r="C39" s="88" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D39" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E39" s="83"/>
       <c r="F39" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G39" s="84"/>
       <c r="H39" s="90">
         <v>26</v>
       </c>
       <c r="I39" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J39" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K39" s="59"/>
       <c r="L39" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M39" s="84"/>
     </row>
@@ -9562,33 +9525,33 @@
         <v>27</v>
       </c>
       <c r="C40" s="88" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D40" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E40" s="83"/>
       <c r="F40" s="83" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G40" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H40" s="90">
         <v>28</v>
       </c>
       <c r="I40" s="88" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J40" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K40" s="59"/>
       <c r="L40" s="83" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M40" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
@@ -9596,33 +9559,33 @@
         <v>29</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D41" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E41" s="83"/>
       <c r="F41" s="83" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G41" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H41" s="90">
         <v>30</v>
       </c>
       <c r="I41" s="88" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J41" s="88" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K41" s="59"/>
       <c r="L41" s="83" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M41" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
@@ -9630,33 +9593,33 @@
         <v>31</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D42" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E42" s="83"/>
       <c r="F42" s="83" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G42" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H42" s="90">
         <v>32</v>
       </c>
       <c r="I42" s="88" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J42" s="88" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K42" s="59"/>
       <c r="L42" s="83" t="s">
+        <v>370</v>
+      </c>
+      <c r="M42" s="87" t="s">
         <v>373</v>
-      </c>
-      <c r="M42" s="87" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
@@ -9664,32 +9627,32 @@
         <v>33</v>
       </c>
       <c r="C43" s="88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D43" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E43" s="83"/>
       <c r="F43" s="83" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G43" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H43" s="90">
         <v>34</v>
       </c>
       <c r="I43" s="88" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J43" s="88" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K43" s="88" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L43" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M43" s="84"/>
     </row>
@@ -9698,30 +9661,30 @@
         <v>35</v>
       </c>
       <c r="C44" s="88" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D44" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E44" s="83"/>
       <c r="F44" s="83" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G44" s="87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H44" s="90">
         <v>36</v>
       </c>
       <c r="I44" s="88" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J44" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K44" s="59"/>
       <c r="L44" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M44" s="84"/>
     </row>
@@ -9730,28 +9693,28 @@
         <v>37</v>
       </c>
       <c r="C45" s="88" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D45" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E45" s="83"/>
       <c r="F45" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G45" s="84"/>
       <c r="H45" s="90">
         <v>38</v>
       </c>
       <c r="I45" s="88" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J45" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K45" s="59"/>
       <c r="L45" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M45" s="84"/>
     </row>
@@ -9760,28 +9723,28 @@
         <v>39</v>
       </c>
       <c r="C46" s="89" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D46" s="85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E46" s="85"/>
       <c r="F46" s="85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G46" s="86"/>
       <c r="H46" s="91">
         <v>40</v>
       </c>
       <c r="I46" s="89" t="s">
+        <v>300</v>
+      </c>
+      <c r="J46" s="85" t="s">
         <v>302</v>
-      </c>
-      <c r="J46" s="85" t="s">
-        <v>304</v>
       </c>
       <c r="K46" s="61"/>
       <c r="L46" s="85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M46" s="86"/>
     </row>
@@ -9810,365 +9773,365 @@
   <sheetData>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="285" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="287" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3" s="288"/>
+      <c r="E3" s="283" t="s">
+        <v>515</v>
+      </c>
+      <c r="F3" s="284"/>
+      <c r="H3" s="285" t="s">
+        <v>317</v>
+      </c>
+      <c r="I3" s="287" t="s">
+        <v>514</v>
+      </c>
+      <c r="J3" s="288"/>
+      <c r="K3" s="283" t="s">
+        <v>515</v>
+      </c>
+      <c r="L3" s="284"/>
+    </row>
+    <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="286"/>
+      <c r="C4" s="222" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4" s="211" t="s">
+        <v>496</v>
+      </c>
+      <c r="E4" s="228" t="s">
+        <v>513</v>
+      </c>
+      <c r="F4" s="229" t="s">
+        <v>516</v>
+      </c>
+      <c r="H4" s="286"/>
+      <c r="I4" s="222" t="s">
+        <v>301</v>
+      </c>
+      <c r="J4" s="211" t="s">
+        <v>496</v>
+      </c>
+      <c r="K4" s="228" t="s">
+        <v>513</v>
+      </c>
+      <c r="L4" s="229" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="215">
+        <v>1</v>
+      </c>
+      <c r="C5" s="223" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5" s="224" t="s">
+        <v>495</v>
+      </c>
+      <c r="E5" s="218" t="s">
+        <v>517</v>
+      </c>
+      <c r="F5" s="212" t="s">
+        <v>518</v>
+      </c>
+      <c r="H5" s="215">
+        <v>2</v>
+      </c>
+      <c r="I5" s="223" t="s">
+        <v>495</v>
+      </c>
+      <c r="J5" s="224" t="s">
+        <v>495</v>
+      </c>
+      <c r="K5" s="218" t="s">
+        <v>517</v>
+      </c>
+      <c r="L5" s="212" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="216">
+        <v>3</v>
+      </c>
+      <c r="C6" s="225" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>498</v>
+      </c>
+      <c r="E6" s="219" t="s">
+        <v>499</v>
+      </c>
+      <c r="F6" s="87" t="s">
+        <v>499</v>
+      </c>
+      <c r="H6" s="216">
+        <v>4</v>
+      </c>
+      <c r="I6" s="225" t="s">
+        <v>499</v>
+      </c>
+      <c r="J6" s="87" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="274" t="s">
-        <v>319</v>
-      </c>
-      <c r="C3" s="276" t="s">
+      <c r="K6" s="219" t="s">
+        <v>499</v>
+      </c>
+      <c r="L6" s="87" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="216">
+        <v>5</v>
+      </c>
+      <c r="C7" s="225" t="s">
+        <v>501</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>498</v>
+      </c>
+      <c r="E7" s="219" t="s">
+        <v>499</v>
+      </c>
+      <c r="F7" s="87" t="s">
+        <v>499</v>
+      </c>
+      <c r="H7" s="216">
+        <v>6</v>
+      </c>
+      <c r="I7" s="225" t="s">
+        <v>499</v>
+      </c>
+      <c r="J7" s="87" t="s">
+        <v>500</v>
+      </c>
+      <c r="K7" s="219" t="s">
+        <v>499</v>
+      </c>
+      <c r="L7" s="87" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="216">
+        <v>7</v>
+      </c>
+      <c r="C8" s="225" t="s">
+        <v>502</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>503</v>
+      </c>
+      <c r="E8" s="219" t="s">
+        <v>503</v>
+      </c>
+      <c r="F8" s="87" t="s">
+        <v>519</v>
+      </c>
+      <c r="H8" s="216">
+        <v>8</v>
+      </c>
+      <c r="I8" s="225" t="s">
+        <v>499</v>
+      </c>
+      <c r="J8" s="87" t="s">
+        <v>500</v>
+      </c>
+      <c r="K8" s="219" t="s">
+        <v>499</v>
+      </c>
+      <c r="L8" s="87" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="216">
+        <v>9</v>
+      </c>
+      <c r="C9" s="225" t="s">
+        <v>506</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>507</v>
+      </c>
+      <c r="E9" s="219" t="s">
+        <v>507</v>
+      </c>
+      <c r="F9" s="87" t="s">
         <v>520</v>
       </c>
-      <c r="D3" s="277"/>
-      <c r="E3" s="272" t="s">
-        <v>521</v>
-      </c>
-      <c r="F3" s="273"/>
-      <c r="H3" s="274" t="s">
-        <v>319</v>
-      </c>
-      <c r="I3" s="276" t="s">
-        <v>520</v>
-      </c>
-      <c r="J3" s="277"/>
-      <c r="K3" s="272" t="s">
-        <v>521</v>
-      </c>
-      <c r="L3" s="273"/>
-    </row>
-    <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="275"/>
-      <c r="C4" s="223" t="s">
-        <v>519</v>
-      </c>
-      <c r="D4" s="212" t="s">
-        <v>502</v>
-      </c>
-      <c r="E4" s="229" t="s">
-        <v>519</v>
-      </c>
-      <c r="F4" s="230" t="s">
+      <c r="H9" s="216">
+        <v>10</v>
+      </c>
+      <c r="I9" s="225" t="s">
+        <v>499</v>
+      </c>
+      <c r="J9" s="87" t="s">
+        <v>500</v>
+      </c>
+      <c r="K9" s="219" t="s">
+        <v>499</v>
+      </c>
+      <c r="L9" s="87" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="216">
+        <v>11</v>
+      </c>
+      <c r="C10" s="225" t="s">
+        <v>508</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>508</v>
+      </c>
+      <c r="E10" s="220"/>
+      <c r="F10" s="213"/>
+      <c r="H10" s="216">
+        <v>12</v>
+      </c>
+      <c r="I10" s="225" t="s">
+        <v>499</v>
+      </c>
+      <c r="J10" s="87" t="s">
+        <v>500</v>
+      </c>
+      <c r="K10" s="220"/>
+      <c r="L10" s="213"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="216">
+        <v>13</v>
+      </c>
+      <c r="C11" s="225" t="s">
+        <v>509</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>510</v>
+      </c>
+      <c r="E11" s="220"/>
+      <c r="F11" s="213"/>
+      <c r="H11" s="216">
+        <v>14</v>
+      </c>
+      <c r="I11" s="225" t="s">
+        <v>499</v>
+      </c>
+      <c r="J11" s="87" t="s">
+        <v>500</v>
+      </c>
+      <c r="K11" s="220"/>
+      <c r="L11" s="213"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="216">
+        <v>15</v>
+      </c>
+      <c r="C12" s="225" t="s">
+        <v>511</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>511</v>
+      </c>
+      <c r="E12" s="220"/>
+      <c r="F12" s="213"/>
+      <c r="H12" s="216">
+        <v>16</v>
+      </c>
+      <c r="I12" s="225" t="s">
+        <v>499</v>
+      </c>
+      <c r="J12" s="87" t="s">
+        <v>500</v>
+      </c>
+      <c r="K12" s="220"/>
+      <c r="L12" s="213"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="216">
+        <v>17</v>
+      </c>
+      <c r="C13" s="225" t="s">
+        <v>508</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>508</v>
+      </c>
+      <c r="E13" s="220"/>
+      <c r="F13" s="213"/>
+      <c r="H13" s="216">
+        <v>18</v>
+      </c>
+      <c r="I13" s="225" t="s">
+        <v>499</v>
+      </c>
+      <c r="J13" s="87" t="s">
+        <v>500</v>
+      </c>
+      <c r="K13" s="220"/>
+      <c r="L13" s="213"/>
+    </row>
+    <row r="14" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="217">
+        <v>19</v>
+      </c>
+      <c r="C14" s="226" t="s">
+        <v>512</v>
+      </c>
+      <c r="D14" s="227" t="s">
+        <v>508</v>
+      </c>
+      <c r="E14" s="221"/>
+      <c r="F14" s="214"/>
+      <c r="H14" s="217">
+        <v>20</v>
+      </c>
+      <c r="I14" s="226" t="s">
+        <v>499</v>
+      </c>
+      <c r="J14" s="227" t="s">
+        <v>500</v>
+      </c>
+      <c r="K14" s="221"/>
+      <c r="L14" s="214"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="210" t="s">
         <v>522</v>
-      </c>
-      <c r="H4" s="275"/>
-      <c r="I4" s="223" t="s">
-        <v>303</v>
-      </c>
-      <c r="J4" s="212" t="s">
-        <v>502</v>
-      </c>
-      <c r="K4" s="229" t="s">
-        <v>519</v>
-      </c>
-      <c r="L4" s="230" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="216">
-        <v>1</v>
-      </c>
-      <c r="C5" s="224" t="s">
-        <v>501</v>
-      </c>
-      <c r="D5" s="225" t="s">
-        <v>501</v>
-      </c>
-      <c r="E5" s="219" t="s">
-        <v>523</v>
-      </c>
-      <c r="F5" s="213" t="s">
-        <v>524</v>
-      </c>
-      <c r="H5" s="216">
-        <v>2</v>
-      </c>
-      <c r="I5" s="224" t="s">
-        <v>501</v>
-      </c>
-      <c r="J5" s="225" t="s">
-        <v>501</v>
-      </c>
-      <c r="K5" s="219" t="s">
-        <v>523</v>
-      </c>
-      <c r="L5" s="213" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="217">
-        <v>3</v>
-      </c>
-      <c r="C6" s="226" t="s">
-        <v>503</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>504</v>
-      </c>
-      <c r="E6" s="220" t="s">
-        <v>505</v>
-      </c>
-      <c r="F6" s="87" t="s">
-        <v>505</v>
-      </c>
-      <c r="H6" s="217">
-        <v>4</v>
-      </c>
-      <c r="I6" s="226" t="s">
-        <v>505</v>
-      </c>
-      <c r="J6" s="87" t="s">
-        <v>506</v>
-      </c>
-      <c r="K6" s="220" t="s">
-        <v>505</v>
-      </c>
-      <c r="L6" s="87" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="217">
-        <v>5</v>
-      </c>
-      <c r="C7" s="226" t="s">
-        <v>507</v>
-      </c>
-      <c r="D7" s="87" t="s">
-        <v>504</v>
-      </c>
-      <c r="E7" s="220" t="s">
-        <v>505</v>
-      </c>
-      <c r="F7" s="87" t="s">
-        <v>505</v>
-      </c>
-      <c r="H7" s="217">
-        <v>6</v>
-      </c>
-      <c r="I7" s="226" t="s">
-        <v>505</v>
-      </c>
-      <c r="J7" s="87" t="s">
-        <v>506</v>
-      </c>
-      <c r="K7" s="220" t="s">
-        <v>505</v>
-      </c>
-      <c r="L7" s="87" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="217">
-        <v>7</v>
-      </c>
-      <c r="C8" s="226" t="s">
-        <v>508</v>
-      </c>
-      <c r="D8" s="87" t="s">
-        <v>509</v>
-      </c>
-      <c r="E8" s="220" t="s">
-        <v>509</v>
-      </c>
-      <c r="F8" s="87" t="s">
-        <v>525</v>
-      </c>
-      <c r="H8" s="217">
-        <v>8</v>
-      </c>
-      <c r="I8" s="226" t="s">
-        <v>505</v>
-      </c>
-      <c r="J8" s="87" t="s">
-        <v>506</v>
-      </c>
-      <c r="K8" s="220" t="s">
-        <v>505</v>
-      </c>
-      <c r="L8" s="87" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="217">
-        <v>9</v>
-      </c>
-      <c r="C9" s="226" t="s">
-        <v>512</v>
-      </c>
-      <c r="D9" s="87" t="s">
-        <v>513</v>
-      </c>
-      <c r="E9" s="220" t="s">
-        <v>513</v>
-      </c>
-      <c r="F9" s="87" t="s">
-        <v>526</v>
-      </c>
-      <c r="H9" s="217">
-        <v>10</v>
-      </c>
-      <c r="I9" s="226" t="s">
-        <v>505</v>
-      </c>
-      <c r="J9" s="87" t="s">
-        <v>506</v>
-      </c>
-      <c r="K9" s="220" t="s">
-        <v>505</v>
-      </c>
-      <c r="L9" s="87" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="217">
-        <v>11</v>
-      </c>
-      <c r="C10" s="226" t="s">
-        <v>514</v>
-      </c>
-      <c r="D10" s="87" t="s">
-        <v>514</v>
-      </c>
-      <c r="E10" s="221"/>
-      <c r="F10" s="214"/>
-      <c r="H10" s="217">
-        <v>12</v>
-      </c>
-      <c r="I10" s="226" t="s">
-        <v>505</v>
-      </c>
-      <c r="J10" s="87" t="s">
-        <v>506</v>
-      </c>
-      <c r="K10" s="221"/>
-      <c r="L10" s="214"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="217">
-        <v>13</v>
-      </c>
-      <c r="C11" s="226" t="s">
-        <v>515</v>
-      </c>
-      <c r="D11" s="87" t="s">
-        <v>516</v>
-      </c>
-      <c r="E11" s="221"/>
-      <c r="F11" s="214"/>
-      <c r="H11" s="217">
-        <v>14</v>
-      </c>
-      <c r="I11" s="226" t="s">
-        <v>505</v>
-      </c>
-      <c r="J11" s="87" t="s">
-        <v>506</v>
-      </c>
-      <c r="K11" s="221"/>
-      <c r="L11" s="214"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="217">
-        <v>15</v>
-      </c>
-      <c r="C12" s="226" t="s">
-        <v>517</v>
-      </c>
-      <c r="D12" s="87" t="s">
-        <v>517</v>
-      </c>
-      <c r="E12" s="221"/>
-      <c r="F12" s="214"/>
-      <c r="H12" s="217">
-        <v>16</v>
-      </c>
-      <c r="I12" s="226" t="s">
-        <v>505</v>
-      </c>
-      <c r="J12" s="87" t="s">
-        <v>506</v>
-      </c>
-      <c r="K12" s="221"/>
-      <c r="L12" s="214"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="217">
-        <v>17</v>
-      </c>
-      <c r="C13" s="226" t="s">
-        <v>514</v>
-      </c>
-      <c r="D13" s="87" t="s">
-        <v>514</v>
-      </c>
-      <c r="E13" s="221"/>
-      <c r="F13" s="214"/>
-      <c r="H13" s="217">
-        <v>18</v>
-      </c>
-      <c r="I13" s="226" t="s">
-        <v>505</v>
-      </c>
-      <c r="J13" s="87" t="s">
-        <v>506</v>
-      </c>
-      <c r="K13" s="221"/>
-      <c r="L13" s="214"/>
-    </row>
-    <row r="14" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="218">
-        <v>19</v>
-      </c>
-      <c r="C14" s="227" t="s">
-        <v>518</v>
-      </c>
-      <c r="D14" s="228" t="s">
-        <v>514</v>
-      </c>
-      <c r="E14" s="222"/>
-      <c r="F14" s="215"/>
-      <c r="H14" s="218">
-        <v>20</v>
-      </c>
-      <c r="I14" s="227" t="s">
-        <v>505</v>
-      </c>
-      <c r="J14" s="228" t="s">
-        <v>506</v>
-      </c>
-      <c r="K14" s="222"/>
-      <c r="L14" s="215"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="211" t="s">
-        <v>528</v>
       </c>
       <c r="C15" s="5"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="211" t="s">
-        <v>510</v>
+      <c r="B16" s="210" t="s">
+        <v>504</v>
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="211" t="s">
-        <v>511</v>
+      <c r="B17" s="210" t="s">
+        <v>505</v>
       </c>
       <c r="C17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="211" t="s">
-        <v>527</v>
+      <c r="B18" s="210" t="s">
+        <v>521</v>
       </c>
       <c r="C18" s="5"/>
       <c r="E18" s="5"/>

--- a/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20190429.xlsx
+++ b/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20190429.xlsx
@@ -13,14 +13,14 @@
     <sheet name="JTAG" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pin-map'!$B$15:$S$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pin-map'!$B$15:$W$79</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="605">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2243,6 +2243,171 @@
   </si>
   <si>
     <t>PA6_FAN_PWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3.3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.768KHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA6_FAN_PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDC_IN_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW_IS_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FET_T_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN_PW_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FW_CT_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULSE_OUT1</t>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+  </si>
+  <si>
+    <t>PULSE_OUT2</t>
+  </si>
+  <si>
+    <t>SYS_SWDIO</t>
+  </si>
+  <si>
+    <t>SYS_SWCLK</t>
+  </si>
+  <si>
+    <t>PLA_ON_LED</t>
+  </si>
+  <si>
+    <t>RV_CT_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3_CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C2_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C2_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS_SLEEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH : Power Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH : Reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS_RESET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULL-UP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS_FSYNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO_EXTI12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO_EXTI13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB12_LIMIT_SW_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB13_LIMIT_SW_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JP_BIAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM_LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDT_LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB6_BIAS_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB7_GPIO_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH Active</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2423,7 +2588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -2807,12 +2972,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2838,13 +3034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2922,9 +3112,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2936,9 +3123,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3019,9 +3203,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3094,9 +3275,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3130,9 +3308,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3169,9 +3344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3185,9 +3357,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3205,9 +3374,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3223,9 +3389,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3301,9 +3464,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3364,9 +3524,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3562,10 +3719,61 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3580,9 +3788,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3622,13 +3827,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3652,14 +3851,140 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3688,13 +4013,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>515471</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>107538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>672353</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>133628</xdr:rowOff>
@@ -4201,10 +4526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W95"/>
+  <dimension ref="B1:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4213,3463 +4538,4015 @@
     <col min="2" max="3" width="7.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="24.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="5" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="19.75" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="25.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="24.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="6" max="10" width="18.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="25.25" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="5" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="24.125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="19.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="44.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="25.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="24.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
         <v>523</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="22" t="s">
-        <v>389</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="N2" s="22" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="R2" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="266" t="s">
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="267"/>
+      <c r="C3" s="270"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="2">
+      <c r="L3" s="2">
         <v>48000000</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="M3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="R3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="2">
+      <c r="S3" s="2">
         <v>48000000</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="T3" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="268" t="s">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="271" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="269"/>
+      <c r="C4" s="272"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="259"/>
+      <c r="H4" s="259"/>
+      <c r="I4" s="259"/>
+      <c r="J4" s="259"/>
+      <c r="K4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="30">
-        <f>H3/1</f>
+      <c r="L4" s="28">
+        <f>L3/1</f>
         <v>48000000</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="M4" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="R4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="30">
-        <f>O3/1</f>
+      <c r="S4" s="28">
+        <f>S3/1</f>
         <v>48000000</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="T4" s="10" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="268" t="s">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="269"/>
+      <c r="C5" s="272"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="H5" s="30">
-        <f>H3*1</f>
+      <c r="L5" s="28">
+        <f>L3*1</f>
         <v>48000000</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="M5" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="R5" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="O5" s="30">
-        <f>O3*1</f>
+      <c r="S5" s="28">
+        <f>S3*1</f>
         <v>48000000</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="T5" s="10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="268" t="s">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="271" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="269"/>
+      <c r="C6" s="272"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="259"/>
+      <c r="H6" s="259"/>
+      <c r="I6" s="259"/>
+      <c r="J6" s="259"/>
+      <c r="K6" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="30">
+      <c r="L6" s="28">
         <v>16000000</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="N6" s="13" t="s">
+      <c r="M6" s="10"/>
+      <c r="R6" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="O6" s="30">
+      <c r="S6" s="28">
         <v>16000000</v>
       </c>
-      <c r="P6" s="12"/>
-    </row>
-    <row r="7" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="270" t="s">
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="273" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="271"/>
+      <c r="C7" s="274"/>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="260"/>
+      <c r="H7" s="260"/>
+      <c r="I7" s="260"/>
+      <c r="J7" s="260"/>
+      <c r="K7" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="3">
-        <f>(H5)/H6-1</f>
+      <c r="L7" s="3">
+        <f>(L5)/L6-1</f>
         <v>2</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="M7" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="R7" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="O7" s="3">
-        <f>(O5)/O6-1</f>
+      <c r="S7" s="3">
+        <f>(S5)/S6-1</f>
         <v>2</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="T7" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="E8" s="87" t="s">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="E8" s="82" t="s">
         <v>371</v>
       </c>
       <c r="F8" s="5">
         <v>8</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="K8" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>80000</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="N8" s="13" t="s">
+      <c r="M8" s="10"/>
+      <c r="R8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="O8" s="3">
+      <c r="S8" s="3">
         <v>80000</v>
       </c>
-      <c r="P8" s="12"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="E9" s="87" t="s">
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="E9" s="82" t="s">
         <v>372</v>
       </c>
       <c r="F9" s="5">
         <v>8</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="K9" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="H9" s="32">
-        <f>H6/H8-1</f>
+      <c r="L9" s="30">
+        <f>L6/L8-1</f>
         <v>199</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="M9" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="R9" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O9" s="32">
-        <f>O6/O8-1</f>
+      <c r="S9" s="30">
+        <f>S6/S8-1</f>
         <v>199</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="T9" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="E10" s="87" t="s">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="E10" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="76">
         <v>20</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>50</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="N10" s="13" t="s">
+      <c r="M10" s="10"/>
+      <c r="R10" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="3">
+      <c r="S10" s="3">
         <v>50</v>
       </c>
-      <c r="P10" s="12"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="E11" s="87" t="s">
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="E11" s="82" t="s">
         <v>374</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="76">
         <v>1</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="H11" s="32">
-        <f>H10*H9/100</f>
+      <c r="L11" s="30">
+        <f>L10*L9/100</f>
         <v>99.5</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="N11" s="13" t="s">
+      <c r="M11" s="10"/>
+      <c r="R11" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="32">
-        <f>O10*O9/100</f>
+      <c r="S11" s="30">
+        <f>S10*S9/100</f>
         <v>99.5</v>
       </c>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="88" t="s">
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="76">
         <v>1</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="H12" s="4">
-        <f>1/H8</f>
+      <c r="L12" s="4">
+        <f>1/L8</f>
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="N12" s="33" t="s">
+      <c r="M12" s="22"/>
+      <c r="R12" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O12" s="4">
-        <f>1/O8</f>
+      <c r="S12" s="4">
+        <f>1/S8</f>
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="P12" s="24"/>
-    </row>
-    <row r="13" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="261" t="s">
+      <c r="T12" s="22"/>
+    </row>
+    <row r="13" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="265" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="262"/>
-      <c r="D14" s="262" t="s">
+      <c r="C14" s="266"/>
+      <c r="D14" s="266" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="262" t="s">
+      <c r="E14" s="266" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="282"/>
-      <c r="G14" s="272" t="s">
+      <c r="F14" s="283"/>
+      <c r="G14" s="261" t="s">
+        <v>562</v>
+      </c>
+      <c r="H14" s="262"/>
+      <c r="I14" s="262"/>
+      <c r="J14" s="263"/>
+      <c r="K14" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="H14" s="273"/>
-      <c r="I14" s="272" t="s">
+      <c r="L14" s="276"/>
+      <c r="M14" s="275" t="s">
         <v>400</v>
       </c>
-      <c r="J14" s="274"/>
-      <c r="K14" s="274"/>
-      <c r="L14" s="274"/>
-      <c r="M14" s="275"/>
-      <c r="N14" s="272" t="s">
+      <c r="N14" s="277"/>
+      <c r="O14" s="277"/>
+      <c r="P14" s="277"/>
+      <c r="Q14" s="278"/>
+      <c r="R14" s="275" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="274"/>
-      <c r="P14" s="273" t="s">
+      <c r="S14" s="277"/>
+      <c r="T14" s="276" t="s">
         <v>375</v>
       </c>
-      <c r="Q14" s="276"/>
-      <c r="R14" s="276"/>
-      <c r="S14" s="277"/>
-    </row>
-    <row r="15" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="120" t="s">
+      <c r="U14" s="279"/>
+      <c r="V14" s="279"/>
+      <c r="W14" s="280"/>
+    </row>
+    <row r="15" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="114" t="s">
         <v>377</v>
       </c>
-      <c r="D15" s="263"/>
-      <c r="E15" s="121" t="s">
+      <c r="D15" s="267"/>
+      <c r="E15" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="122" t="s">
+      <c r="F15" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="G15" s="149" t="s">
+      <c r="G15" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="139" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="255" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="138" t="s">
         <v>401</v>
       </c>
-      <c r="H15" s="150" t="s">
+      <c r="L15" s="139" t="s">
         <v>402</v>
       </c>
-      <c r="I15" s="151" t="s">
+      <c r="M15" s="140" t="s">
         <v>403</v>
       </c>
-      <c r="J15" s="152" t="s">
+      <c r="N15" s="141" t="s">
         <v>401</v>
       </c>
-      <c r="K15" s="152" t="s">
+      <c r="O15" s="141" t="s">
         <v>404</v>
       </c>
-      <c r="L15" s="152" t="s">
+      <c r="P15" s="141" t="s">
         <v>405</v>
       </c>
-      <c r="M15" s="153" t="s">
+      <c r="Q15" s="142" t="s">
         <v>406</v>
       </c>
-      <c r="N15" s="123" t="s">
+      <c r="R15" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="O15" s="121" t="s">
+      <c r="S15" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="121" t="s">
+      <c r="T15" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="Q15" s="121" t="s">
+      <c r="U15" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="R15" s="121" t="s">
+      <c r="V15" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="122" t="s">
+      <c r="W15" s="115" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="35">
+    <row r="16" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="33">
         <v>1</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="259" t="s">
+      <c r="E16" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="260"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="54"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="16">
+      <c r="F16" s="290"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="253"/>
+      <c r="I16" s="322" t="s">
+        <v>563</v>
+      </c>
+      <c r="J16" s="254"/>
+      <c r="K16" s="306"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="146"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="50"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B17" s="14">
         <v>2</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="109" t="s">
         <v>379</v>
       </c>
-      <c r="D17" s="99" t="s">
+      <c r="D17" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="291" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="326"/>
+      <c r="H17" s="320"/>
+      <c r="I17" s="320"/>
+      <c r="J17" s="327"/>
+      <c r="K17" s="307" t="s">
         <v>407</v>
       </c>
-      <c r="H17" s="158" t="s">
+      <c r="L17" s="147" t="s">
         <v>408</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="17" t="s">
+      <c r="M17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="S17" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="P17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S17" s="26"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="104">
+      <c r="T17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" s="24"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B18" s="98">
         <v>3</v>
       </c>
-      <c r="C18" s="116" t="s">
+      <c r="C18" s="109" t="s">
         <v>379</v>
       </c>
-      <c r="D18" s="105" t="s">
+      <c r="D18" s="99" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="102" t="s">
+      <c r="F18" s="292" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="98"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99" t="s">
+        <v>564</v>
+      </c>
+      <c r="J18" s="97"/>
+      <c r="K18" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H18" s="158" t="s">
+      <c r="L18" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="98" t="s">
+      <c r="M18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="O18" s="95" t="s">
+      <c r="S18" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="P18" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q18" s="95" t="s">
+      <c r="T18" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="R18" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="S18" s="96"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="104">
+      <c r="V18" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" s="91"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B19" s="98">
         <v>4</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="109" t="s">
         <v>379</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="99" t="s">
         <v>73</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="102" t="s">
+      <c r="F19" s="292" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99" t="s">
+        <v>564</v>
+      </c>
+      <c r="J19" s="97"/>
+      <c r="K19" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H19" s="158" t="s">
+      <c r="L19" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="98" t="s">
+      <c r="M19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="O19" s="95" t="s">
+      <c r="S19" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="P19" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="95" t="s">
+      <c r="T19" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="R19" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="S19" s="96"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="104">
+      <c r="V19" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" s="91"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B20" s="98">
         <v>5</v>
       </c>
-      <c r="C20" s="117" t="s">
+      <c r="C20" s="110" t="s">
         <v>380</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="99" t="s">
+      <c r="E20" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="102" t="s">
+      <c r="F20" s="292" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="98"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99" t="s">
+        <v>565</v>
+      </c>
+      <c r="J20" s="97"/>
+      <c r="K20" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H20" s="158" t="s">
+      <c r="L20" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="98" t="s">
+      <c r="M20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="O20" s="95" t="s">
+      <c r="S20" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="P20" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q20" s="95" t="s">
+      <c r="T20" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="U20" s="90" t="s">
         <v>325</v>
       </c>
-      <c r="R20" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="S20" s="96"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="104">
+      <c r="V20" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" s="91"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B21" s="98">
         <v>6</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="110" t="s">
         <v>380</v>
       </c>
-      <c r="D21" s="105" t="s">
+      <c r="D21" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="99" t="s">
+      <c r="E21" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="102" t="s">
+      <c r="F21" s="292" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="98"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99" t="s">
+        <v>565</v>
+      </c>
+      <c r="J21" s="97"/>
+      <c r="K21" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H21" s="158" t="s">
+      <c r="L21" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="98" t="s">
+      <c r="M21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="O21" s="95" t="s">
+      <c r="S21" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="P21" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" s="95" t="s">
+      <c r="T21" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" s="90" t="s">
         <v>325</v>
       </c>
-      <c r="R21" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="S21" s="96"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="51">
+      <c r="V21" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="W21" s="91"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B22" s="47">
         <v>7</v>
       </c>
-      <c r="C22" s="110" t="s">
+      <c r="C22" s="104" t="s">
         <v>381</v>
       </c>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="264" t="s">
+      <c r="E22" s="268" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="265"/>
-      <c r="G22" s="77" t="s">
+      <c r="F22" s="293"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="256"/>
+      <c r="I22" s="256" t="s">
+        <v>566</v>
+      </c>
+      <c r="J22" s="257"/>
+      <c r="K22" s="308" t="s">
         <v>411</v>
       </c>
-      <c r="H22" s="159" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="160" t="s">
+      <c r="L22" s="148" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="149" t="s">
         <v>411</v>
       </c>
-      <c r="J22" s="161" t="s">
+      <c r="N22" s="150" t="s">
         <v>412</v>
       </c>
-      <c r="K22" s="40" t="s">
+      <c r="O22" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="50" t="s">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="P22" s="110" t="s">
+      <c r="S22" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="Q22" s="110" t="s">
+      <c r="U22" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="R22" s="110" t="s">
+      <c r="V22" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="S22" s="52"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="16">
+      <c r="W22" s="48"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B23" s="14">
         <v>8</v>
       </c>
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="111" t="s">
         <v>382</v>
       </c>
-      <c r="D23" s="99" t="s">
+      <c r="D23" s="94" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="291" t="s">
         <v>541</v>
       </c>
-      <c r="G23" s="162" t="s">
+      <c r="G23" s="332" t="s">
+        <v>541</v>
+      </c>
+      <c r="H23" s="330" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="J23" s="331"/>
+      <c r="K23" s="309" t="s">
         <v>414</v>
       </c>
-      <c r="H23" s="163" t="s">
+      <c r="L23" s="152" t="s">
         <v>415</v>
       </c>
-      <c r="I23" s="164" t="s">
+      <c r="M23" s="153" t="s">
         <v>416</v>
       </c>
-      <c r="J23" s="165" t="s">
+      <c r="N23" s="154" t="s">
         <v>417</v>
       </c>
-      <c r="K23" s="166" t="s">
+      <c r="O23" s="155" t="s">
         <v>418</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="12" t="s">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="N23" s="97" t="s">
+      <c r="R23" s="92" t="s">
         <v>541</v>
       </c>
-      <c r="O23" s="40" t="s">
+      <c r="S23" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="P23" s="40" t="s">
+      <c r="T23" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="Q23" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="R23" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="S23" s="39"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="100">
+      <c r="U23" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" s="36"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B24" s="95">
         <v>9</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="C24" s="111" t="s">
         <v>382</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="291" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="332" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="330" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>570</v>
+      </c>
+      <c r="J24" s="331"/>
+      <c r="K24" s="310" t="s">
         <v>420</v>
       </c>
-      <c r="H24" s="167" t="s">
+      <c r="L24" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="I24" s="160" t="s">
+      <c r="M24" s="149" t="s">
         <v>421</v>
       </c>
-      <c r="J24" s="161" t="s">
+      <c r="N24" s="150" t="s">
         <v>422</v>
       </c>
-      <c r="K24" s="40" t="s">
+      <c r="O24" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="77" t="s">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="O24" s="40" t="s">
+      <c r="S24" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="P24" s="40" t="s">
+      <c r="T24" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="Q24" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="R24" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="S24" s="39"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="100">
+      <c r="U24" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" s="36"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B25" s="95">
         <v>10</v>
       </c>
-      <c r="C25" s="118" t="s">
+      <c r="C25" s="111" t="s">
         <v>382</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="99" t="s">
+      <c r="E25" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="291" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="66" t="s">
+      <c r="G25" s="332" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="330" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="J25" s="331"/>
+      <c r="K25" s="310" t="s">
         <v>420</v>
       </c>
-      <c r="H25" s="167" t="s">
+      <c r="L25" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="I25" s="160" t="s">
+      <c r="M25" s="149" t="s">
         <v>423</v>
       </c>
-      <c r="J25" s="161" t="s">
+      <c r="N25" s="150" t="s">
         <v>424</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="O25" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="77" t="s">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="O25" s="40" t="s">
+      <c r="S25" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="P25" s="40" t="s">
+      <c r="T25" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="Q25" s="80" t="s">
+      <c r="U25" s="75" t="s">
         <v>323</v>
       </c>
-      <c r="R25" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="S25" s="39"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="100">
+      <c r="V25" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="36"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B26" s="95">
         <v>11</v>
       </c>
-      <c r="C26" s="118" t="s">
+      <c r="C26" s="111" t="s">
         <v>382</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="99" t="s">
+      <c r="E26" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="291" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="66" t="s">
+      <c r="G26" s="332" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="330" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="J26" s="331"/>
+      <c r="K26" s="310" t="s">
         <v>420</v>
       </c>
-      <c r="H26" s="167" t="s">
+      <c r="L26" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="I26" s="160" t="s">
+      <c r="M26" s="149" t="s">
         <v>425</v>
       </c>
-      <c r="J26" s="161" t="s">
+      <c r="N26" s="150" t="s">
         <v>426</v>
       </c>
-      <c r="K26" s="40" t="s">
+      <c r="O26" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="77" t="s">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="O26" s="40" t="s">
+      <c r="S26" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="P26" s="40" t="s">
+      <c r="T26" s="37" t="s">
         <v>539</v>
       </c>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="S26" s="234"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="18">
+      <c r="U26" s="37"/>
+      <c r="V26" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="W26" s="221"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B27" s="16">
         <v>12</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="278" t="s">
+      <c r="E27" s="281" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="279"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="28"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="18">
+      <c r="F27" s="294"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249" t="s">
+        <v>567</v>
+      </c>
+      <c r="J27" s="250"/>
+      <c r="K27" s="311"/>
+      <c r="L27" s="157"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="26"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B28" s="16">
         <v>13</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="D28" s="111" t="s">
+      <c r="D28" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="278" t="s">
+      <c r="E28" s="281" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="279"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="28"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="16">
+      <c r="F28" s="294"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="319" t="s">
+        <v>563</v>
+      </c>
+      <c r="J28" s="250"/>
+      <c r="K28" s="311"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="26"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B29" s="14">
         <v>14</v>
       </c>
-      <c r="C29" s="118" t="s">
+      <c r="C29" s="111" t="s">
         <v>382</v>
       </c>
-      <c r="D29" s="99" t="s">
+      <c r="D29" s="94" t="s">
         <v>63</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="291" t="s">
         <v>110</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="332" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="330" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>581</v>
+      </c>
+      <c r="J29" s="331"/>
+      <c r="K29" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H29" s="158" t="s">
+      <c r="L29" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I29" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="17" t="s">
+      <c r="M29" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="S29" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="P29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S29" s="26"/>
-    </row>
-    <row r="30" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B30" s="100">
+      <c r="T29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W29" s="24"/>
+    </row>
+    <row r="30" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="B30" s="95">
         <v>15</v>
       </c>
-      <c r="C30" s="118" t="s">
+      <c r="C30" s="111" t="s">
         <v>382</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="291" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="76" t="s">
+      <c r="G30" s="332" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="330" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>573</v>
+      </c>
+      <c r="J30" s="331"/>
+      <c r="K30" s="312" t="s">
         <v>427</v>
       </c>
-      <c r="H30" s="169" t="s">
+      <c r="L30" s="158" t="s">
         <v>415</v>
       </c>
-      <c r="I30" s="170" t="s">
+      <c r="M30" s="159" t="s">
         <v>428</v>
       </c>
-      <c r="J30" s="171" t="s">
+      <c r="N30" s="160" t="s">
         <v>429</v>
       </c>
-      <c r="K30" s="75" t="s">
+      <c r="O30" s="71" t="s">
         <v>430</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="76" t="s">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="O30" s="169" t="s">
+      <c r="S30" s="158" t="s">
         <v>528</v>
       </c>
-      <c r="P30" s="243" t="s">
+      <c r="T30" s="230" t="s">
         <v>540</v>
       </c>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="234"/>
-    </row>
-    <row r="31" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="124">
+      <c r="U30" s="160"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="221"/>
+    </row>
+    <row r="31" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="117">
         <v>16</v>
       </c>
-      <c r="C31" s="125" t="s">
+      <c r="C31" s="118" t="s">
         <v>382</v>
       </c>
-      <c r="D31" s="126" t="s">
+      <c r="D31" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="127" t="s">
+      <c r="E31" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="128" t="s">
+      <c r="F31" s="295" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="76" t="s">
+      <c r="G31" s="326"/>
+      <c r="H31" s="320"/>
+      <c r="I31" s="320"/>
+      <c r="J31" s="327"/>
+      <c r="K31" s="312" t="s">
         <v>427</v>
       </c>
-      <c r="H31" s="169" t="s">
+      <c r="L31" s="158" t="s">
         <v>415</v>
       </c>
-      <c r="I31" s="170" t="s">
+      <c r="M31" s="159" t="s">
         <v>431</v>
       </c>
-      <c r="J31" s="171" t="s">
+      <c r="N31" s="160" t="s">
         <v>429</v>
       </c>
-      <c r="K31" s="75" t="s">
+      <c r="O31" s="71" t="s">
         <v>430</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="244"/>
-      <c r="O31" s="245"/>
-      <c r="P31" s="246"/>
-      <c r="Q31" s="247"/>
-      <c r="R31" s="248"/>
-      <c r="S31" s="249"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="131">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="231"/>
+      <c r="S31" s="232"/>
+      <c r="T31" s="233"/>
+      <c r="U31" s="234"/>
+      <c r="V31" s="235"/>
+      <c r="W31" s="236"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B32" s="123">
         <v>17</v>
       </c>
-      <c r="C32" s="132" t="s">
+      <c r="C32" s="124" t="s">
         <v>382</v>
       </c>
-      <c r="D32" s="133" t="s">
+      <c r="D32" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="133" t="s">
+      <c r="E32" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="134" t="s">
+      <c r="F32" s="296" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="326"/>
+      <c r="H32" s="320"/>
+      <c r="I32" s="320"/>
+      <c r="J32" s="327"/>
+      <c r="K32" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H32" s="158" t="s">
+      <c r="L32" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I32" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="135" t="s">
+      <c r="M32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="126" t="s">
         <v>240</v>
       </c>
-      <c r="O32" s="136" t="s">
+      <c r="S32" s="127" t="s">
         <v>241</v>
       </c>
-      <c r="P32" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q32" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="R32" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="S32" s="137"/>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="18">
+      <c r="T32" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="U32" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="V32" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="W32" s="128"/>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B33" s="16">
         <v>18</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="D33" s="111" t="s">
+      <c r="D33" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="278" t="s">
+      <c r="E33" s="281" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="279"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="28"/>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="18">
+      <c r="F33" s="294"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="249" t="s">
+        <v>567</v>
+      </c>
+      <c r="J33" s="250"/>
+      <c r="K33" s="311"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="105"/>
+      <c r="W33" s="26"/>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B34" s="16">
         <v>19</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="D34" s="111" t="s">
+      <c r="D34" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="278" t="s">
+      <c r="E34" s="281" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="279"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="168"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="111"/>
-      <c r="R34" s="111"/>
-      <c r="S34" s="28"/>
-    </row>
-    <row r="35" spans="2:23" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="16">
+      <c r="F34" s="294"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="249"/>
+      <c r="I34" s="319" t="s">
+        <v>563</v>
+      </c>
+      <c r="J34" s="250"/>
+      <c r="K34" s="311"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="136"/>
+      <c r="O34" s="136"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
+      <c r="V34" s="105"/>
+      <c r="W34" s="26"/>
+    </row>
+    <row r="35" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="B35" s="14">
         <v>20</v>
       </c>
-      <c r="C35" s="118" t="s">
+      <c r="C35" s="111" t="s">
         <v>382</v>
       </c>
-      <c r="D35" s="99" t="s">
+      <c r="D35" s="94" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="291" t="s">
         <v>115</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="326"/>
+      <c r="H35" s="320"/>
+      <c r="I35" s="320"/>
+      <c r="J35" s="327"/>
+      <c r="K35" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H35" s="158" t="s">
+      <c r="L35" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I35" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="17" t="s">
+      <c r="M35" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="O35" s="6" t="s">
+      <c r="S35" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="P35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S35" s="26"/>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="16">
+      <c r="T35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W35" s="24"/>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B36" s="14">
         <v>21</v>
       </c>
-      <c r="C36" s="118" t="s">
+      <c r="C36" s="111" t="s">
         <v>382</v>
       </c>
-      <c r="D36" s="99" t="s">
+      <c r="D36" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="99" t="s">
+      <c r="E36" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="291" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="326"/>
+      <c r="H36" s="320"/>
+      <c r="I36" s="320"/>
+      <c r="J36" s="327"/>
+      <c r="K36" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H36" s="158" t="s">
+      <c r="L36" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I36" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="17" t="s">
+      <c r="M36" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="O36" s="6" t="s">
+      <c r="S36" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="P36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S36" s="26"/>
-    </row>
-    <row r="37" spans="2:23" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B37" s="241">
+      <c r="T36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W36" s="24"/>
+    </row>
+    <row r="37" spans="2:27" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B37" s="228">
         <v>22</v>
       </c>
-      <c r="C37" s="118" t="s">
+      <c r="C37" s="111" t="s">
         <v>382</v>
       </c>
-      <c r="D37" s="242" t="s">
+      <c r="D37" s="229" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="291" t="s">
         <v>117</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="47" t="s">
+        <v>582</v>
+      </c>
+      <c r="H37" s="181" t="s">
+        <v>446</v>
+      </c>
+      <c r="I37" s="256" t="s">
+        <v>568</v>
+      </c>
+      <c r="J37" s="257"/>
+      <c r="K37" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H37" s="158" t="s">
+      <c r="L37" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I37" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="233" t="s">
+      <c r="M37" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="220" t="s">
         <v>525</v>
       </c>
-      <c r="O37" s="230" t="s">
+      <c r="S37" s="217" t="s">
         <v>242</v>
       </c>
-      <c r="P37" s="289" t="s">
+      <c r="T37" s="246" t="s">
         <v>561</v>
       </c>
-      <c r="Q37" s="231" t="s">
-        <v>36</v>
-      </c>
-      <c r="R37" s="231" t="s">
-        <v>36</v>
-      </c>
-      <c r="S37" s="232" t="s">
+      <c r="U37" s="218" t="s">
+        <v>36</v>
+      </c>
+      <c r="V37" s="218" t="s">
+        <v>36</v>
+      </c>
+      <c r="W37" s="219" t="s">
         <v>536</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="AA37" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="38" spans="2:23" s="114" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B38" s="241">
+    <row r="38" spans="2:27" s="108" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B38" s="228">
         <v>23</v>
       </c>
-      <c r="C38" s="118" t="s">
+      <c r="C38" s="111" t="s">
         <v>382</v>
       </c>
-      <c r="D38" s="242" t="s">
+      <c r="D38" s="229" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="291" t="s">
         <v>118</v>
       </c>
-      <c r="G38" s="172" t="s">
+      <c r="G38" s="326"/>
+      <c r="H38" s="320"/>
+      <c r="I38" s="320"/>
+      <c r="J38" s="327"/>
+      <c r="K38" s="313" t="s">
         <v>432</v>
       </c>
-      <c r="H38" s="173" t="s">
+      <c r="L38" s="161" t="s">
         <v>415</v>
       </c>
-      <c r="I38" s="174" t="s">
+      <c r="M38" s="162" t="s">
         <v>433</v>
       </c>
-      <c r="J38" s="175" t="s">
+      <c r="N38" s="163" t="s">
         <v>434</v>
       </c>
-      <c r="K38" s="176" t="s">
-        <v>36</v>
-      </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="290" t="s">
+      <c r="O38" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="247" t="s">
         <v>527</v>
       </c>
-      <c r="O38" s="119" t="s">
+      <c r="S38" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="P38" s="254"/>
-      <c r="Q38" s="256"/>
-      <c r="R38" s="256"/>
-      <c r="S38" s="257"/>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="16">
+      <c r="T38" s="241"/>
+      <c r="U38" s="243"/>
+      <c r="V38" s="243"/>
+      <c r="W38" s="244"/>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B39" s="14">
         <v>24</v>
       </c>
-      <c r="C39" s="118" t="s">
+      <c r="C39" s="111" t="s">
         <v>382</v>
       </c>
-      <c r="D39" s="99" t="s">
+      <c r="D39" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="99" t="s">
+      <c r="E39" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="291" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="172" t="s">
+      <c r="G39" s="326"/>
+      <c r="H39" s="320"/>
+      <c r="I39" s="320"/>
+      <c r="J39" s="327"/>
+      <c r="K39" s="313" t="s">
         <v>435</v>
       </c>
-      <c r="H39" s="173" t="s">
+      <c r="L39" s="161" t="s">
         <v>415</v>
       </c>
-      <c r="I39" s="174" t="s">
+      <c r="M39" s="162" t="s">
         <v>436</v>
       </c>
-      <c r="J39" s="175" t="s">
+      <c r="N39" s="163" t="s">
         <v>434</v>
       </c>
-      <c r="K39" s="176" t="s">
-        <v>36</v>
-      </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="17" t="s">
+      <c r="O39" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="O39" s="6" t="s">
+      <c r="S39" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="P39" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R39" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S39" s="26"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="16">
+      <c r="T39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W39" s="24"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B40" s="14">
         <v>25</v>
       </c>
-      <c r="C40" s="118" t="s">
+      <c r="C40" s="111" t="s">
         <v>382</v>
       </c>
-      <c r="D40" s="99" t="s">
+      <c r="D40" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="99" t="s">
+      <c r="E40" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="37" t="s">
+      <c r="F40" s="291" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="162" t="s">
+      <c r="G40" s="326"/>
+      <c r="H40" s="320"/>
+      <c r="I40" s="320"/>
+      <c r="J40" s="327"/>
+      <c r="K40" s="309" t="s">
         <v>437</v>
       </c>
-      <c r="H40" s="177" t="s">
+      <c r="L40" s="165" t="s">
         <v>415</v>
       </c>
-      <c r="I40" s="164" t="s">
+      <c r="M40" s="153" t="s">
         <v>438</v>
       </c>
-      <c r="J40" s="165" t="s">
+      <c r="N40" s="154" t="s">
         <v>439</v>
       </c>
-      <c r="K40" s="166" t="s">
+      <c r="O40" s="155" t="s">
         <v>418</v>
       </c>
-      <c r="L40" s="178"/>
-      <c r="M40" s="12" t="s">
+      <c r="P40" s="166"/>
+      <c r="Q40" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="N40" s="17" t="s">
+      <c r="R40" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="O40" s="6" t="s">
+      <c r="S40" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="P40" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R40" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S40" s="26"/>
-    </row>
-    <row r="41" spans="2:23" ht="33" x14ac:dyDescent="0.3">
-      <c r="B41" s="241">
+      <c r="T40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W40" s="24"/>
+    </row>
+    <row r="41" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="B41" s="228">
         <v>26</v>
       </c>
-      <c r="C41" s="118" t="s">
+      <c r="C41" s="111" t="s">
         <v>382</v>
       </c>
-      <c r="D41" s="242" t="s">
+      <c r="D41" s="229" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="F41" s="37" t="s">
+      <c r="F41" s="291" t="s">
         <v>131</v>
       </c>
-      <c r="G41" s="66" t="s">
+      <c r="G41" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="J41" s="333" t="s">
+        <v>588</v>
+      </c>
+      <c r="K41" s="310" t="s">
         <v>420</v>
       </c>
-      <c r="H41" s="167" t="s">
+      <c r="L41" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="I41" s="160" t="s">
+      <c r="M41" s="149" t="s">
         <v>441</v>
       </c>
-      <c r="J41" s="161" t="s">
+      <c r="N41" s="150" t="s">
         <v>442</v>
       </c>
-      <c r="K41" s="40" t="s">
+      <c r="O41" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="L41" s="178"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="252" t="s">
+      <c r="P41" s="166"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="239" t="s">
         <v>17</v>
       </c>
-      <c r="O41" s="40" t="s">
+      <c r="S41" s="37" t="s">
         <v>549</v>
       </c>
-      <c r="P41" s="40" t="s">
+      <c r="T41" s="37" t="s">
         <v>550</v>
       </c>
-      <c r="Q41" s="250" t="s">
-        <v>36</v>
-      </c>
-      <c r="R41" s="80" t="s">
+      <c r="U41" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="V41" s="75" t="s">
         <v>552</v>
       </c>
-      <c r="S41" s="39" t="s">
+      <c r="W41" s="36" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="33" x14ac:dyDescent="0.3">
-      <c r="B42" s="16">
+    <row r="42" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="B42" s="14">
         <v>27</v>
       </c>
-      <c r="C42" s="118" t="s">
+      <c r="C42" s="111" t="s">
         <v>382</v>
       </c>
-      <c r="D42" s="99" t="s">
+      <c r="D42" s="94" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="37" t="s">
+      <c r="F42" s="291" t="s">
         <v>182</v>
       </c>
-      <c r="G42" s="77" t="s">
+      <c r="G42" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="J42" s="333" t="s">
+        <v>589</v>
+      </c>
+      <c r="K42" s="308" t="s">
         <v>427</v>
       </c>
-      <c r="H42" s="167" t="s">
+      <c r="L42" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="I42" s="170" t="s">
+      <c r="M42" s="159" t="s">
         <v>443</v>
       </c>
-      <c r="J42" s="171" t="s">
+      <c r="N42" s="160" t="s">
         <v>444</v>
       </c>
-      <c r="K42" s="179" t="s">
-        <v>36</v>
-      </c>
-      <c r="L42" s="180" t="s">
+      <c r="O42" s="167" t="s">
+        <v>36</v>
+      </c>
+      <c r="P42" s="168" t="s">
         <v>445</v>
       </c>
-      <c r="M42" s="181"/>
-      <c r="N42" s="252" t="s">
+      <c r="Q42" s="169"/>
+      <c r="R42" s="239" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="40" t="s">
+      <c r="S42" s="37" t="s">
         <v>549</v>
       </c>
-      <c r="P42" s="40" t="s">
+      <c r="T42" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="Q42" s="250" t="s">
-        <v>36</v>
-      </c>
-      <c r="R42" s="80" t="s">
+      <c r="U42" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="V42" s="75" t="s">
         <v>552</v>
       </c>
-      <c r="S42" s="39"/>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="16">
+      <c r="W42" s="36"/>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B43" s="14">
         <v>28</v>
       </c>
-      <c r="C43" s="119" t="s">
+      <c r="C43" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D43" s="99" t="s">
+      <c r="D43" s="94" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="156" t="s">
+        <v>592</v>
+      </c>
+      <c r="I43" s="237" t="s">
+        <v>593</v>
+      </c>
+      <c r="J43" s="334" t="s">
+        <v>591</v>
+      </c>
+      <c r="K43" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H43" s="158" t="s">
+      <c r="L43" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I43" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="252" t="s">
+      <c r="M43" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="239" t="s">
         <v>17</v>
       </c>
-      <c r="O43" s="40" t="s">
+      <c r="S43" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="P43" s="40" t="s">
+      <c r="T43" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="Q43" s="250" t="s">
-        <v>36</v>
-      </c>
-      <c r="R43" s="80" t="s">
+      <c r="U43" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="V43" s="75" t="s">
         <v>553</v>
       </c>
-      <c r="S43" s="39"/>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="16">
+      <c r="W43" s="36"/>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B44" s="14">
         <v>29</v>
       </c>
-      <c r="C44" s="119" t="s">
+      <c r="C44" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D44" s="99" t="s">
+      <c r="D44" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="99" t="s">
+      <c r="E44" s="94" t="s">
         <v>543</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="325" t="s">
+        <v>583</v>
+      </c>
+      <c r="H44" s="330" t="s">
+        <v>592</v>
+      </c>
+      <c r="I44" s="44" t="s">
+        <v>585</v>
+      </c>
+      <c r="J44" s="41"/>
+      <c r="K44" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H44" s="158" t="s">
+      <c r="L44" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I44" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="251" t="s">
+      <c r="M44" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="238" t="s">
         <v>544</v>
       </c>
-      <c r="O44" s="80" t="s">
+      <c r="S44" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="P44" s="40" t="s">
+      <c r="T44" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="Q44" s="250" t="s">
-        <v>36</v>
-      </c>
-      <c r="R44" s="250" t="s">
-        <v>36</v>
-      </c>
-      <c r="S44" s="39"/>
-    </row>
-    <row r="45" spans="2:23" ht="33" x14ac:dyDescent="0.3">
-      <c r="B45" s="16">
+      <c r="U44" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="V44" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="W44" s="36"/>
+    </row>
+    <row r="45" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="B45" s="14">
         <v>30</v>
       </c>
-      <c r="C45" s="119" t="s">
+      <c r="C45" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D45" s="99" t="s">
+      <c r="D45" s="94" t="s">
         <v>61</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="325" t="s">
+        <v>584</v>
+      </c>
+      <c r="H45" s="330" t="s">
+        <v>592</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>586</v>
+      </c>
+      <c r="J45" s="41"/>
+      <c r="K45" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H45" s="158" t="s">
+      <c r="L45" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I45" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="251" t="s">
+      <c r="M45" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="238" t="s">
         <v>545</v>
       </c>
-      <c r="O45" s="80" t="s">
+      <c r="S45" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="P45" s="40" t="s">
+      <c r="T45" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="Q45" s="250" t="s">
-        <v>36</v>
-      </c>
-      <c r="R45" s="250" t="s">
-        <v>36</v>
-      </c>
-      <c r="S45" s="39"/>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="18">
+      <c r="U45" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="V45" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="W45" s="36"/>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B46" s="16">
         <v>31</v>
       </c>
-      <c r="C46" s="111" t="s">
+      <c r="C46" s="105" t="s">
         <v>378</v>
       </c>
-      <c r="D46" s="111" t="s">
+      <c r="D46" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="278" t="s">
+      <c r="E46" s="281" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="279"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="147"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="178"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="111"/>
-      <c r="P46" s="111"/>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="111"/>
-      <c r="S46" s="28"/>
-    </row>
-    <row r="47" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="19">
+      <c r="F46" s="294"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="249"/>
+      <c r="I46" s="249" t="s">
+        <v>567</v>
+      </c>
+      <c r="J46" s="250"/>
+      <c r="K46" s="311"/>
+      <c r="L46" s="157"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="136"/>
+      <c r="O46" s="136"/>
+      <c r="P46" s="166"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="105"/>
+      <c r="T46" s="105"/>
+      <c r="U46" s="105"/>
+      <c r="V46" s="105"/>
+      <c r="W46" s="26"/>
+    </row>
+    <row r="47" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="17">
         <v>32</v>
       </c>
-      <c r="C47" s="112" t="s">
+      <c r="C47" s="106" t="s">
         <v>378</v>
       </c>
-      <c r="D47" s="112" t="s">
+      <c r="D47" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="280" t="s">
+      <c r="E47" s="282" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="281"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="168"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="147"/>
-      <c r="K47" s="147"/>
-      <c r="L47" s="178"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="112"/>
-      <c r="P47" s="112"/>
-      <c r="Q47" s="112"/>
-      <c r="R47" s="112"/>
-      <c r="S47" s="38"/>
-    </row>
-    <row r="48" spans="2:23" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B48" s="239">
+      <c r="F47" s="297"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="249"/>
+      <c r="I47" s="319" t="s">
+        <v>563</v>
+      </c>
+      <c r="J47" s="250"/>
+      <c r="K47" s="311"/>
+      <c r="L47" s="157"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="136"/>
+      <c r="O47" s="136"/>
+      <c r="P47" s="166"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="106"/>
+      <c r="T47" s="106"/>
+      <c r="U47" s="106"/>
+      <c r="V47" s="106"/>
+      <c r="W47" s="35"/>
+    </row>
+    <row r="48" spans="2:27" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="226">
         <v>33</v>
       </c>
-      <c r="C48" s="144" t="s">
+      <c r="C48" s="134" t="s">
         <v>380</v>
       </c>
-      <c r="D48" s="240" t="s">
+      <c r="D48" s="227" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="145" t="s">
+      <c r="E48" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="146" t="s">
+      <c r="F48" s="298" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="66" t="s">
+      <c r="G48" s="62" t="s">
+        <v>594</v>
+      </c>
+      <c r="H48" s="156" t="s">
+        <v>592</v>
+      </c>
+      <c r="I48" s="237" t="s">
+        <v>596</v>
+      </c>
+      <c r="J48" s="334" t="s">
+        <v>591</v>
+      </c>
+      <c r="K48" s="310" t="s">
         <v>420</v>
       </c>
-      <c r="H48" s="167" t="s">
+      <c r="L48" s="156" t="s">
         <v>446</v>
       </c>
-      <c r="I48" s="160" t="s">
+      <c r="M48" s="149" t="s">
         <v>447</v>
       </c>
-      <c r="J48" s="161" t="s">
+      <c r="N48" s="150" t="s">
         <v>444</v>
       </c>
-      <c r="K48" s="40" t="s">
+      <c r="O48" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="L48" s="182"/>
-      <c r="M48" s="12" t="s">
+      <c r="P48" s="170"/>
+      <c r="Q48" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="N48" s="97" t="s">
+      <c r="R48" s="92" t="s">
         <v>387</v>
       </c>
-      <c r="O48" s="40" t="s">
+      <c r="S48" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="P48" s="40" t="s">
+      <c r="T48" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="Q48" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="R48" s="80" t="s">
+      <c r="U48" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="V48" s="75" t="s">
         <v>552</v>
       </c>
-      <c r="S48" s="258" t="s">
+      <c r="W48" s="245" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="49" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B49" s="100">
+    <row r="49" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="B49" s="95">
         <v>34</v>
       </c>
-      <c r="C49" s="119" t="s">
+      <c r="C49" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="66" t="s">
+      <c r="G49" s="62" t="s">
+        <v>595</v>
+      </c>
+      <c r="H49" s="156" t="s">
+        <v>592</v>
+      </c>
+      <c r="I49" s="237" t="s">
+        <v>597</v>
+      </c>
+      <c r="J49" s="334" t="s">
+        <v>591</v>
+      </c>
+      <c r="K49" s="310" t="s">
         <v>420</v>
       </c>
-      <c r="H49" s="167" t="s">
+      <c r="L49" s="156" t="s">
         <v>446</v>
       </c>
-      <c r="I49" s="183" t="s">
+      <c r="M49" s="171" t="s">
         <v>449</v>
       </c>
-      <c r="J49" s="184" t="s">
+      <c r="N49" s="172" t="s">
         <v>450</v>
       </c>
-      <c r="K49" s="40" t="s">
+      <c r="O49" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="L49" s="178"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="97" t="s">
+      <c r="P49" s="166"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="O49" s="40" t="s">
+      <c r="S49" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="P49" s="40" t="s">
+      <c r="T49" s="37" t="s">
         <v>556</v>
       </c>
-      <c r="Q49" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="R49" s="80" t="s">
+      <c r="U49" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="V49" s="75" t="s">
         <v>552</v>
       </c>
-      <c r="S49" s="258" t="s">
+      <c r="W49" s="245" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="50" spans="2:19" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B50" s="100">
+    <row r="50" spans="2:23" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B50" s="95">
         <v>35</v>
       </c>
-      <c r="C50" s="119" t="s">
+      <c r="C50" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G50" s="66" t="s">
+      <c r="G50" s="62" t="s">
+        <v>599</v>
+      </c>
+      <c r="H50" s="156" t="s">
+        <v>592</v>
+      </c>
+      <c r="I50" s="237" t="s">
+        <v>598</v>
+      </c>
+      <c r="J50" s="334"/>
+      <c r="K50" s="310" t="s">
         <v>420</v>
       </c>
-      <c r="H50" s="167" t="s">
+      <c r="L50" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="I50" s="185" t="s">
+      <c r="M50" s="173" t="s">
         <v>451</v>
       </c>
-      <c r="J50" s="184" t="s">
+      <c r="N50" s="172" t="s">
         <v>452</v>
       </c>
-      <c r="K50" s="40" t="s">
+      <c r="O50" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="L50" s="178"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="253"/>
-      <c r="O50" s="254"/>
-      <c r="P50" s="254"/>
-      <c r="Q50" s="254"/>
-      <c r="R50" s="254"/>
-      <c r="S50" s="257"/>
-    </row>
-    <row r="51" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B51" s="16">
-        <v>36</v>
-      </c>
-      <c r="C51" s="119" t="s">
+      <c r="P50" s="166"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="240"/>
+      <c r="S50" s="241"/>
+      <c r="T50" s="241"/>
+      <c r="U50" s="241"/>
+      <c r="V50" s="241"/>
+      <c r="W50" s="244"/>
+    </row>
+    <row r="51" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="B51" s="14">
+        <v>36</v>
+      </c>
+      <c r="C51" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D51" s="99" t="s">
+      <c r="D51" s="94" t="s">
         <v>34</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="299" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="66" t="s">
+      <c r="G51" s="323"/>
+      <c r="H51" s="321"/>
+      <c r="I51" s="321"/>
+      <c r="J51" s="324"/>
+      <c r="K51" s="310" t="s">
         <v>420</v>
       </c>
-      <c r="H51" s="167" t="s">
+      <c r="L51" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="I51" s="185" t="s">
+      <c r="M51" s="173" t="s">
         <v>453</v>
       </c>
-      <c r="J51" s="184" t="s">
+      <c r="N51" s="172" t="s">
         <v>454</v>
       </c>
-      <c r="K51" s="40" t="s">
+      <c r="O51" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="L51" s="178"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="255"/>
-      <c r="O51" s="256"/>
-      <c r="P51" s="256"/>
-      <c r="Q51" s="256"/>
-      <c r="R51" s="256"/>
-      <c r="S51" s="257"/>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B52" s="16">
+      <c r="P51" s="166"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="242"/>
+      <c r="S51" s="243"/>
+      <c r="T51" s="243"/>
+      <c r="U51" s="243"/>
+      <c r="V51" s="243"/>
+      <c r="W51" s="244"/>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B52" s="14">
         <v>37</v>
       </c>
-      <c r="C52" s="119" t="s">
+      <c r="C52" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D52" s="99" t="s">
+      <c r="D52" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="99" t="s">
+      <c r="E52" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G52" s="66" t="s">
+      <c r="G52" s="15"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="310" t="s">
         <v>420</v>
       </c>
-      <c r="H52" s="167" t="s">
+      <c r="L52" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="I52" s="185" t="s">
+      <c r="M52" s="173" t="s">
         <v>455</v>
       </c>
-      <c r="J52" s="184" t="s">
+      <c r="N52" s="172" t="s">
         <v>456</v>
       </c>
-      <c r="K52" s="40" t="s">
+      <c r="O52" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="L52" s="178"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="255"/>
-      <c r="O52" s="256"/>
-      <c r="P52" s="256"/>
-      <c r="Q52" s="256"/>
-      <c r="R52" s="256"/>
-      <c r="S52" s="257"/>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B53" s="16">
+      <c r="P52" s="166"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="242"/>
+      <c r="S52" s="243"/>
+      <c r="T52" s="243"/>
+      <c r="U52" s="243"/>
+      <c r="V52" s="243"/>
+      <c r="W52" s="244"/>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B53" s="14">
         <v>38</v>
       </c>
-      <c r="C53" s="119" t="s">
+      <c r="C53" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D53" s="99" t="s">
+      <c r="D53" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="99" t="s">
+      <c r="E53" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G53" s="162" t="s">
+      <c r="G53" s="15"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="309" t="s">
         <v>457</v>
       </c>
-      <c r="H53" s="163" t="s">
+      <c r="L53" s="152" t="s">
         <v>415</v>
       </c>
-      <c r="I53" s="164" t="s">
+      <c r="M53" s="153" t="s">
         <v>458</v>
       </c>
-      <c r="J53" s="165" t="s">
+      <c r="N53" s="154" t="s">
         <v>459</v>
       </c>
-      <c r="K53" s="166" t="s">
+      <c r="O53" s="155" t="s">
         <v>418</v>
       </c>
-      <c r="L53" s="186" t="s">
+      <c r="P53" s="174" t="s">
         <v>427</v>
       </c>
-      <c r="M53" s="12" t="s">
+      <c r="Q53" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="N53" s="255"/>
-      <c r="O53" s="256"/>
-      <c r="P53" s="256"/>
-      <c r="Q53" s="256"/>
-      <c r="R53" s="256"/>
-      <c r="S53" s="257"/>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B54" s="16">
+      <c r="R53" s="242"/>
+      <c r="S53" s="243"/>
+      <c r="T53" s="243"/>
+      <c r="U53" s="243"/>
+      <c r="V53" s="243"/>
+      <c r="W53" s="244"/>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B54" s="14">
         <v>39</v>
       </c>
-      <c r="C54" s="119" t="s">
+      <c r="C54" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D54" s="99" t="s">
+      <c r="D54" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="99" t="s">
+      <c r="E54" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G54" s="15"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H54" s="158" t="s">
+      <c r="L54" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I54" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L54" s="3"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="255"/>
-      <c r="O54" s="256"/>
-      <c r="P54" s="256"/>
-      <c r="Q54" s="256"/>
-      <c r="R54" s="256"/>
-      <c r="S54" s="257"/>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B55" s="16">
+      <c r="M54" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="242"/>
+      <c r="S54" s="243"/>
+      <c r="T54" s="243"/>
+      <c r="U54" s="243"/>
+      <c r="V54" s="243"/>
+      <c r="W54" s="244"/>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B55" s="14">
         <v>40</v>
       </c>
-      <c r="C55" s="119" t="s">
+      <c r="C55" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D55" s="99" t="s">
+      <c r="D55" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="E55" s="99" t="s">
+      <c r="E55" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G55" s="15"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H55" s="158" t="s">
+      <c r="L55" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I55" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="255"/>
-      <c r="O55" s="256"/>
-      <c r="P55" s="256"/>
-      <c r="Q55" s="256"/>
-      <c r="R55" s="256"/>
-      <c r="S55" s="257"/>
-    </row>
-    <row r="56" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B56" s="101">
+      <c r="M55" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="242"/>
+      <c r="S55" s="243"/>
+      <c r="T55" s="243"/>
+      <c r="U55" s="243"/>
+      <c r="V55" s="243"/>
+      <c r="W55" s="244"/>
+    </row>
+    <row r="56" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="B56" s="96">
         <v>41</v>
       </c>
-      <c r="C56" s="119" t="s">
+      <c r="C56" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="41" t="s">
+      <c r="E56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="F56" s="103" t="s">
+      <c r="F56" s="300" t="s">
         <v>101</v>
       </c>
-      <c r="G56" s="78" t="s">
+      <c r="G56" s="15"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="314" t="s">
         <v>460</v>
       </c>
-      <c r="H56" s="187" t="s">
+      <c r="L56" s="175" t="s">
         <v>461</v>
       </c>
-      <c r="I56" s="188" t="s">
+      <c r="M56" s="176" t="s">
         <v>462</v>
       </c>
-      <c r="J56" s="189" t="s">
+      <c r="N56" s="177" t="s">
         <v>463</v>
       </c>
-      <c r="K56" s="79" t="s">
+      <c r="O56" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="L56" s="3"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="291" t="s">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="248" t="s">
         <v>174</v>
       </c>
-      <c r="O56" s="119" t="s">
+      <c r="S56" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="P56" s="119" t="s">
+      <c r="T56" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="Q56" s="119" t="s">
+      <c r="U56" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="R56" s="119" t="s">
+      <c r="V56" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="S56" s="249" t="s">
+      <c r="W56" s="236" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="57" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B57" s="46">
+    <row r="57" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="B57" s="42">
         <v>42</v>
       </c>
-      <c r="C57" s="119" t="s">
+      <c r="C57" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="F57" s="45" t="s">
+      <c r="F57" s="301" t="s">
         <v>101</v>
       </c>
-      <c r="G57" s="47" t="s">
+      <c r="G57" s="325" t="s">
+        <v>575</v>
+      </c>
+      <c r="H57" s="178" t="s">
+        <v>51</v>
+      </c>
+      <c r="I57" s="44" t="s">
+        <v>575</v>
+      </c>
+      <c r="J57" s="41"/>
+      <c r="K57" s="315" t="s">
         <v>464</v>
       </c>
-      <c r="H57" s="190" t="s">
+      <c r="L57" s="178" t="s">
         <v>465</v>
       </c>
-      <c r="I57" s="191" t="s">
+      <c r="M57" s="179" t="s">
         <v>464</v>
       </c>
-      <c r="J57" s="192" t="s">
+      <c r="N57" s="180" t="s">
         <v>466</v>
       </c>
-      <c r="K57" s="48" t="s">
+      <c r="O57" s="44" t="s">
         <v>467</v>
       </c>
-      <c r="L57" s="3"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="47" t="s">
+      <c r="P57" s="3"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="O57" s="43" t="s">
+      <c r="S57" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="P57" s="43" t="s">
+      <c r="T57" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="Q57" s="43" t="s">
+      <c r="U57" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="R57" s="48" t="s">
+      <c r="V57" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="S57" s="235" t="s">
+      <c r="W57" s="222" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="58" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B58" s="46">
+    <row r="58" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="B58" s="42">
         <v>43</v>
       </c>
-      <c r="C58" s="119" t="s">
+      <c r="C58" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D58" s="43" t="s">
+      <c r="D58" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="44" t="s">
+      <c r="E58" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="45" t="s">
+      <c r="F58" s="301" t="s">
         <v>101</v>
       </c>
-      <c r="G58" s="47" t="s">
+      <c r="G58" s="325" t="s">
+        <v>576</v>
+      </c>
+      <c r="H58" s="178" t="s">
+        <v>51</v>
+      </c>
+      <c r="I58" s="44" t="s">
+        <v>576</v>
+      </c>
+      <c r="J58" s="41"/>
+      <c r="K58" s="315" t="s">
         <v>468</v>
       </c>
-      <c r="H58" s="190" t="s">
+      <c r="L58" s="178" t="s">
         <v>465</v>
       </c>
-      <c r="I58" s="191" t="s">
+      <c r="M58" s="179" t="s">
         <v>468</v>
       </c>
-      <c r="J58" s="192" t="s">
+      <c r="N58" s="180" t="s">
         <v>466</v>
       </c>
-      <c r="K58" s="48" t="s">
+      <c r="O58" s="44" t="s">
         <v>467</v>
       </c>
-      <c r="L58" s="3"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="47" t="s">
+      <c r="P58" s="3"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="O58" s="43" t="s">
+      <c r="S58" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="P58" s="43" t="s">
+      <c r="T58" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="Q58" s="43" t="s">
+      <c r="U58" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="R58" s="48" t="s">
+      <c r="V58" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="S58" s="235" t="s">
+      <c r="W58" s="222" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="59" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B59" s="101">
+    <row r="59" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="B59" s="96">
         <v>44</v>
       </c>
-      <c r="C59" s="119" t="s">
+      <c r="C59" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="41" t="s">
+      <c r="E59" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="F59" s="42" t="s">
+      <c r="F59" s="302" t="s">
         <v>146</v>
       </c>
-      <c r="G59" s="78" t="s">
+      <c r="G59" s="326"/>
+      <c r="H59" s="320"/>
+      <c r="I59" s="320" t="s">
+        <v>577</v>
+      </c>
+      <c r="J59" s="327"/>
+      <c r="K59" s="314" t="s">
         <v>469</v>
       </c>
-      <c r="H59" s="187" t="s">
+      <c r="L59" s="175" t="s">
         <v>461</v>
       </c>
-      <c r="I59" s="188" t="s">
+      <c r="M59" s="176" t="s">
         <v>470</v>
       </c>
-      <c r="J59" s="189" t="s">
+      <c r="N59" s="177" t="s">
         <v>463</v>
       </c>
-      <c r="K59" s="79" t="s">
+      <c r="O59" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="L59" s="3"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="291" t="s">
+      <c r="P59" s="3"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="248" t="s">
         <v>175</v>
       </c>
-      <c r="O59" s="119" t="s">
+      <c r="S59" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="P59" s="119" t="s">
+      <c r="T59" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="Q59" s="119" t="s">
+      <c r="U59" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="R59" s="119" t="s">
+      <c r="V59" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="S59" s="249" t="s">
+      <c r="W59" s="236" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="60" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B60" s="16">
+    <row r="60" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="B60" s="14">
         <v>45</v>
       </c>
-      <c r="C60" s="119" t="s">
+      <c r="C60" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D60" s="99" t="s">
+      <c r="D60" s="94" t="s">
         <v>35</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="37" t="s">
+      <c r="F60" s="291" t="s">
         <v>148</v>
       </c>
-      <c r="G60" s="66" t="s">
+      <c r="G60" s="326"/>
+      <c r="H60" s="320"/>
+      <c r="I60" s="320"/>
+      <c r="J60" s="327"/>
+      <c r="K60" s="310" t="s">
         <v>420</v>
       </c>
-      <c r="H60" s="167" t="s">
+      <c r="L60" s="156" t="s">
         <v>446</v>
       </c>
-      <c r="I60" s="160" t="s">
+      <c r="M60" s="149" t="s">
         <v>471</v>
       </c>
-      <c r="J60" s="161" t="s">
+      <c r="N60" s="150" t="s">
         <v>472</v>
       </c>
-      <c r="K60" s="40" t="s">
+      <c r="O60" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="17" t="s">
+      <c r="P60" s="3"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="O60" s="6" t="s">
+      <c r="S60" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="P60" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q60" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R60" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S60" s="26"/>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B61" s="51">
+      <c r="T60" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U60" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V60" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W60" s="24"/>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B61" s="47">
         <v>46</v>
       </c>
-      <c r="C61" s="119" t="s">
+      <c r="C61" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D61" s="110" t="s">
+      <c r="D61" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="E61" s="110" t="s">
+      <c r="E61" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="F61" s="49" t="s">
+      <c r="F61" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="193" t="s">
+      <c r="G61" s="328"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49" t="s">
+        <v>578</v>
+      </c>
+      <c r="J61" s="45"/>
+      <c r="K61" s="316" t="s">
         <v>473</v>
       </c>
-      <c r="H61" s="194" t="s">
+      <c r="L61" s="181" t="s">
         <v>465</v>
       </c>
-      <c r="I61" s="195" t="s">
+      <c r="M61" s="182" t="s">
         <v>473</v>
       </c>
-      <c r="J61" s="196" t="s">
+      <c r="N61" s="183" t="s">
         <v>474</v>
       </c>
-      <c r="K61" s="197" t="s">
+      <c r="O61" s="184" t="s">
         <v>467</v>
       </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="50" t="s">
+      <c r="P61" s="3"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="O61" s="110" t="s">
+      <c r="S61" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="P61" s="110" t="s">
+      <c r="T61" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="Q61" s="110" t="s">
+      <c r="U61" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="R61" s="53" t="s">
+      <c r="V61" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="S61" s="52"/>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B62" s="18">
+      <c r="W61" s="48"/>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B62" s="16">
         <v>47</v>
       </c>
-      <c r="C62" s="111" t="s">
+      <c r="C62" s="105" t="s">
         <v>378</v>
       </c>
-      <c r="D62" s="111" t="s">
+      <c r="D62" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="278" t="s">
+      <c r="E62" s="281" t="s">
         <v>114</v>
       </c>
-      <c r="F62" s="279"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="168"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="147"/>
-      <c r="K62" s="147"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="111"/>
-      <c r="P62" s="111"/>
-      <c r="Q62" s="111"/>
-      <c r="R62" s="111"/>
-      <c r="S62" s="28"/>
-    </row>
-    <row r="63" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="19">
+      <c r="F62" s="294"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="249"/>
+      <c r="I62" s="249" t="s">
+        <v>567</v>
+      </c>
+      <c r="J62" s="250"/>
+      <c r="K62" s="311"/>
+      <c r="L62" s="157"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="136"/>
+      <c r="O62" s="136"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="105"/>
+      <c r="T62" s="105"/>
+      <c r="U62" s="105"/>
+      <c r="V62" s="105"/>
+      <c r="W62" s="26"/>
+    </row>
+    <row r="63" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="17">
         <v>48</v>
       </c>
-      <c r="C63" s="112" t="s">
+      <c r="C63" s="106" t="s">
         <v>378</v>
       </c>
-      <c r="D63" s="112" t="s">
+      <c r="D63" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="280" t="s">
+      <c r="E63" s="282" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="281"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="168"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="147"/>
-      <c r="K63" s="147"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="112"/>
-      <c r="P63" s="112"/>
-      <c r="Q63" s="112"/>
-      <c r="R63" s="112"/>
-      <c r="S63" s="38"/>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B64" s="138">
+      <c r="F63" s="297"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="249"/>
+      <c r="I63" s="319" t="s">
+        <v>563</v>
+      </c>
+      <c r="J63" s="250"/>
+      <c r="K63" s="311"/>
+      <c r="L63" s="157"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="136"/>
+      <c r="O63" s="136"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="106"/>
+      <c r="T63" s="106"/>
+      <c r="U63" s="106"/>
+      <c r="V63" s="106"/>
+      <c r="W63" s="35"/>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B64" s="129">
         <v>49</v>
       </c>
-      <c r="C64" s="130" t="s">
+      <c r="C64" s="122" t="s">
         <v>380</v>
       </c>
-      <c r="D64" s="139" t="s">
+      <c r="D64" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="139" t="s">
+      <c r="E64" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="F64" s="140" t="s">
+      <c r="F64" s="304" t="s">
         <v>101</v>
       </c>
-      <c r="G64" s="193" t="s">
+      <c r="G64" s="328"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49" t="s">
+        <v>579</v>
+      </c>
+      <c r="J64" s="45"/>
+      <c r="K64" s="316" t="s">
         <v>475</v>
       </c>
-      <c r="H64" s="194" t="s">
+      <c r="L64" s="181" t="s">
         <v>465</v>
       </c>
-      <c r="I64" s="195" t="s">
+      <c r="M64" s="182" t="s">
         <v>475</v>
       </c>
-      <c r="J64" s="196" t="s">
+      <c r="N64" s="183" t="s">
         <v>474</v>
       </c>
-      <c r="K64" s="197" t="s">
+      <c r="O64" s="184" t="s">
         <v>476</v>
       </c>
-      <c r="L64" s="3"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="141" t="s">
+      <c r="P64" s="3"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="O64" s="139" t="s">
+      <c r="S64" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="P64" s="139" t="s">
+      <c r="T64" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="Q64" s="139" t="s">
+      <c r="U64" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="R64" s="142" t="s">
+      <c r="V64" s="132" t="s">
         <v>168</v>
       </c>
-      <c r="S64" s="143"/>
-    </row>
-    <row r="65" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B65" s="16">
+      <c r="W64" s="133"/>
+    </row>
+    <row r="65" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="B65" s="14">
         <v>50</v>
       </c>
-      <c r="C65" s="119" t="s">
+      <c r="C65" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G65" s="77" t="s">
+      <c r="G65" s="15"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="308" t="s">
         <v>427</v>
       </c>
-      <c r="H65" s="167" t="s">
+      <c r="L65" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="I65" s="160" t="s">
+      <c r="M65" s="149" t="s">
         <v>477</v>
       </c>
-      <c r="J65" s="161" t="s">
+      <c r="N65" s="150" t="s">
         <v>459</v>
       </c>
-      <c r="K65" s="40" t="s">
+      <c r="O65" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="L65" s="182" t="s">
+      <c r="P65" s="170" t="s">
         <v>478</v>
       </c>
-      <c r="M65" s="12" t="s">
+      <c r="Q65" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="N65" s="17" t="s">
+      <c r="R65" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="O65" s="6" t="s">
+      <c r="S65" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="P65" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q65" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R65" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S65" s="26"/>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B66" s="16">
+      <c r="T65" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U65" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V65" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W65" s="24"/>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B66" s="14">
         <v>51</v>
       </c>
-      <c r="C66" s="119" t="s">
+      <c r="C66" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D66" s="94" t="s">
+      <c r="D66" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="G66" s="15"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H66" s="158" t="s">
+      <c r="L66" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I66" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L66" s="3"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="17" t="s">
+      <c r="M66" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="O66" s="6" t="s">
+      <c r="S66" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="P66" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q66" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R66" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S66" s="26"/>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B67" s="16">
+      <c r="T66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W66" s="24"/>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B67" s="14">
         <v>52</v>
       </c>
-      <c r="C67" s="119" t="s">
+      <c r="C67" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D67" s="94" t="s">
+      <c r="D67" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G67" s="17" t="s">
+      <c r="G67" s="15"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H67" s="158" t="s">
+      <c r="L67" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I67" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L67" s="3"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="17" t="s">
+      <c r="M67" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="O67" s="6" t="s">
+      <c r="S67" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="P67" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q67" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R67" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S67" s="26"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B68" s="16">
+      <c r="T67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W67" s="24"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B68" s="14">
         <v>53</v>
       </c>
-      <c r="C68" s="119" t="s">
+      <c r="C68" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D68" s="99" t="s">
+      <c r="D68" s="94" t="s">
         <v>37</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G68" s="17" t="s">
+      <c r="G68" s="15"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H68" s="158" t="s">
+      <c r="L68" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I68" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L68" s="3"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="17" t="s">
+      <c r="M68" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="O68" s="6" t="s">
+      <c r="S68" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="P68" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q68" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R68" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S68" s="26"/>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B69" s="16">
+      <c r="T68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W68" s="24"/>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B69" s="14">
         <v>54</v>
       </c>
-      <c r="C69" s="119" t="s">
+      <c r="C69" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G69" s="17" t="s">
+      <c r="G69" s="15"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H69" s="158" t="s">
+      <c r="L69" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I69" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L69" s="3"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="17" t="s">
+      <c r="M69" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="O69" s="6" t="s">
+      <c r="S69" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="P69" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q69" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R69" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S69" s="26"/>
-    </row>
-    <row r="70" spans="2:19" s="114" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="16">
+      <c r="T69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W69" s="24"/>
+    </row>
+    <row r="70" spans="2:23" s="108" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="14">
         <v>55</v>
       </c>
-      <c r="C70" s="119" t="s">
+      <c r="C70" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D70" s="99" t="s">
+      <c r="D70" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="E70" s="99" t="s">
+      <c r="E70" s="94" t="s">
         <v>376</v>
       </c>
-      <c r="F70" s="115" t="s">
+      <c r="F70" s="305" t="s">
         <v>101</v>
       </c>
-      <c r="G70" s="17" t="s">
+      <c r="G70" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="156" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="237" t="s">
+        <v>600</v>
+      </c>
+      <c r="J70" s="334" t="s">
+        <v>591</v>
+      </c>
+      <c r="K70" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H70" s="158" t="s">
+      <c r="L70" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I70" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L70" s="3"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="17" t="s">
+      <c r="M70" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="O70" s="6" t="s">
+      <c r="S70" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="P70" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q70" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R70" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S70" s="26"/>
-    </row>
-    <row r="71" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B71" s="16">
+      <c r="T70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W70" s="24"/>
+    </row>
+    <row r="71" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="B71" s="14">
         <v>56</v>
       </c>
-      <c r="C71" s="119" t="s">
+      <c r="C71" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G71" s="198" t="s">
+      <c r="G71" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="156" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="237" t="s">
+        <v>601</v>
+      </c>
+      <c r="J71" s="334" t="s">
+        <v>591</v>
+      </c>
+      <c r="K71" s="317" t="s">
         <v>480</v>
       </c>
-      <c r="H71" s="177" t="s">
+      <c r="L71" s="165" t="s">
         <v>481</v>
       </c>
-      <c r="I71" s="199" t="s">
+      <c r="M71" s="186" t="s">
         <v>482</v>
       </c>
-      <c r="J71" s="200" t="s">
+      <c r="N71" s="187" t="s">
         <v>483</v>
       </c>
-      <c r="K71" s="201" t="s">
+      <c r="O71" s="188" t="s">
         <v>413</v>
       </c>
-      <c r="L71" s="3"/>
-      <c r="M71" s="12" t="s">
+      <c r="P71" s="3"/>
+      <c r="Q71" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="N71" s="17" t="s">
+      <c r="R71" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="O71" s="6" t="s">
+      <c r="S71" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="P71" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q71" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R71" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S71" s="26"/>
-    </row>
-    <row r="72" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B72" s="16">
+      <c r="T71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W71" s="24"/>
+    </row>
+    <row r="72" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="B72" s="14">
         <v>57</v>
       </c>
-      <c r="C72" s="119" t="s">
+      <c r="C72" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="291" t="s">
         <v>160</v>
       </c>
-      <c r="G72" s="17" t="s">
+      <c r="G72" s="326"/>
+      <c r="H72" s="320"/>
+      <c r="I72" s="320"/>
+      <c r="J72" s="327"/>
+      <c r="K72" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H72" s="158" t="s">
+      <c r="L72" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I72" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L72" s="3"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="17" t="s">
+      <c r="M72" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="O72" s="6" t="s">
+      <c r="S72" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="P72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S72" s="26"/>
-    </row>
-    <row r="73" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B73" s="100">
+      <c r="T72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W72" s="24"/>
+    </row>
+    <row r="73" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="B73" s="95">
         <v>58</v>
       </c>
-      <c r="C73" s="119" t="s">
+      <c r="C73" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G73" s="198" t="s">
+      <c r="G73" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="I73" s="237" t="s">
+        <v>602</v>
+      </c>
+      <c r="J73" s="334" t="s">
+        <v>604</v>
+      </c>
+      <c r="K73" s="317" t="s">
         <v>485</v>
       </c>
-      <c r="H73" s="177" t="s">
+      <c r="L73" s="165" t="s">
         <v>481</v>
       </c>
-      <c r="I73" s="199" t="s">
+      <c r="M73" s="186" t="s">
         <v>486</v>
       </c>
-      <c r="J73" s="200" t="s">
+      <c r="N73" s="187" t="s">
         <v>483</v>
       </c>
-      <c r="K73" s="201" t="s">
+      <c r="O73" s="188" t="s">
         <v>413</v>
       </c>
-      <c r="L73" s="3"/>
-      <c r="M73" s="12" t="s">
+      <c r="P73" s="3"/>
+      <c r="Q73" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="N73" s="66" t="s">
+      <c r="R73" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="O73" s="40" t="s">
+      <c r="S73" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="P73" s="40" t="s">
+      <c r="T73" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40" t="s">
+      <c r="U73" s="37"/>
+      <c r="V73" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="S73" s="236"/>
-    </row>
-    <row r="74" spans="2:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="100">
+      <c r="W73" s="223"/>
+    </row>
+    <row r="74" spans="2:23" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="95">
         <v>59</v>
       </c>
-      <c r="C74" s="119" t="s">
+      <c r="C74" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="12" t="s">
         <v>58</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G74" s="17" t="s">
+      <c r="G74" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="156" t="s">
+        <v>592</v>
+      </c>
+      <c r="I74" s="237" t="s">
+        <v>603</v>
+      </c>
+      <c r="J74" s="334" t="s">
+        <v>591</v>
+      </c>
+      <c r="K74" s="307" t="s">
         <v>409</v>
       </c>
-      <c r="H74" s="158" t="s">
+      <c r="L74" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="I74" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L74" s="178"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="66" t="s">
+      <c r="M74" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P74" s="166"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="O74" s="40" t="s">
+      <c r="S74" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="P74" s="129" t="s">
+      <c r="T74" s="121" t="s">
         <v>558</v>
       </c>
-      <c r="Q74" s="129"/>
-      <c r="R74" s="129" t="s">
+      <c r="U74" s="121"/>
+      <c r="V74" s="121" t="s">
         <v>553</v>
       </c>
-      <c r="S74" s="237"/>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B75" s="18">
+      <c r="W74" s="224"/>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B75" s="16">
         <v>60</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="D75" s="34" t="s">
+      <c r="D75" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E75" s="278" t="s">
+      <c r="E75" s="281" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="279"/>
-      <c r="G75" s="18" t="s">
+      <c r="F75" s="294"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="249"/>
+      <c r="I75" s="249" t="s">
+        <v>567</v>
+      </c>
+      <c r="J75" s="250"/>
+      <c r="K75" s="311" t="s">
         <v>487</v>
       </c>
-      <c r="H75" s="168"/>
-      <c r="I75" s="202" t="s">
+      <c r="L75" s="157"/>
+      <c r="M75" s="189" t="s">
         <v>487</v>
       </c>
-      <c r="J75" s="203"/>
-      <c r="K75" s="147"/>
-      <c r="L75" s="178"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="18" t="s">
+      <c r="N75" s="190"/>
+      <c r="O75" s="136"/>
+      <c r="P75" s="166"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="O75" s="92"/>
-      <c r="P75" s="92" t="s">
+      <c r="S75" s="87"/>
+      <c r="T75" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="Q75" s="92"/>
-      <c r="R75" s="92"/>
-      <c r="S75" s="28"/>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B76" s="100">
+      <c r="U75" s="87"/>
+      <c r="V75" s="87"/>
+      <c r="W75" s="26"/>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B76" s="95">
         <v>61</v>
       </c>
-      <c r="C76" s="119" t="s">
+      <c r="C76" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G76" s="66" t="s">
+      <c r="G76" s="15"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="310" t="s">
         <v>420</v>
       </c>
-      <c r="H76" s="167" t="s">
+      <c r="L76" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="I76" s="160" t="s">
+      <c r="M76" s="149" t="s">
         <v>488</v>
       </c>
-      <c r="J76" s="161" t="s">
+      <c r="N76" s="150" t="s">
         <v>489</v>
       </c>
-      <c r="K76" s="40" t="s">
+      <c r="O76" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="L76" s="119" t="s">
+      <c r="P76" s="112" t="s">
         <v>490</v>
       </c>
-      <c r="M76" s="12" t="s">
+      <c r="Q76" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="N76" s="66" t="s">
+      <c r="R76" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="O76" s="40" t="s">
+      <c r="S76" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="P76" s="40" t="s">
+      <c r="T76" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="Q76" s="40" t="s">
+      <c r="U76" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="R76" s="40" t="s">
+      <c r="V76" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="S76" s="234" t="s">
+      <c r="W76" s="221" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="77" spans="2:19" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B77" s="100">
+    <row r="77" spans="2:23" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B77" s="95">
         <v>62</v>
       </c>
-      <c r="C77" s="119" t="s">
+      <c r="C77" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G77" s="198" t="s">
+      <c r="G77" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="156" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="237" t="s">
+        <v>580</v>
+      </c>
+      <c r="J77" s="334" t="s">
+        <v>591</v>
+      </c>
+      <c r="K77" s="317" t="s">
         <v>492</v>
       </c>
-      <c r="H77" s="177" t="s">
+      <c r="L77" s="165" t="s">
         <v>481</v>
       </c>
-      <c r="I77" s="204" t="s">
+      <c r="M77" s="191" t="s">
         <v>493</v>
       </c>
-      <c r="J77" s="205" t="s">
+      <c r="N77" s="192" t="s">
         <v>489</v>
       </c>
-      <c r="K77" s="206" t="s">
+      <c r="O77" s="193" t="s">
         <v>413</v>
       </c>
-      <c r="L77" s="182"/>
-      <c r="M77" s="12" t="s">
+      <c r="P77" s="170"/>
+      <c r="Q77" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="N77" s="66" t="s">
+      <c r="R77" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="O77" s="40" t="s">
+      <c r="S77" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="P77" s="40" t="s">
+      <c r="T77" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="Q77" s="40" t="s">
+      <c r="U77" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="R77" s="40" t="s">
+      <c r="V77" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="S77" s="238" t="s">
+      <c r="W77" s="225" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B78" s="18">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B78" s="16">
         <v>63</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E78" s="278" t="s">
+      <c r="E78" s="281" t="s">
         <v>114</v>
       </c>
-      <c r="F78" s="279"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="168"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="147"/>
-      <c r="K78" s="147"/>
-      <c r="L78" s="207"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="92"/>
-      <c r="P78" s="92"/>
-      <c r="Q78" s="92"/>
-      <c r="R78" s="92"/>
-      <c r="S78" s="28"/>
-    </row>
-    <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="19">
+      <c r="F78" s="294"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="249"/>
+      <c r="I78" s="249" t="s">
+        <v>567</v>
+      </c>
+      <c r="J78" s="250"/>
+      <c r="K78" s="311"/>
+      <c r="L78" s="157"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="136"/>
+      <c r="O78" s="136"/>
+      <c r="P78" s="194"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="87"/>
+      <c r="T78" s="87"/>
+      <c r="U78" s="87"/>
+      <c r="V78" s="87"/>
+      <c r="W78" s="26"/>
+    </row>
+    <row r="79" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="17">
         <v>64</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="D79" s="20" t="s">
+      <c r="D79" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="280" t="s">
+      <c r="E79" s="282" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="281"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="208"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="148"/>
-      <c r="K79" s="148"/>
-      <c r="L79" s="209"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="93"/>
-      <c r="P79" s="93"/>
-      <c r="Q79" s="93"/>
-      <c r="R79" s="93"/>
-      <c r="S79" s="38"/>
-    </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G83" s="162" t="s">
+      <c r="F79" s="297"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="251"/>
+      <c r="I79" s="329" t="s">
+        <v>563</v>
+      </c>
+      <c r="J79" s="252"/>
+      <c r="K79" s="318"/>
+      <c r="L79" s="195"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="137"/>
+      <c r="O79" s="137"/>
+      <c r="P79" s="196"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="88"/>
+      <c r="T79" s="88"/>
+      <c r="U79" s="88"/>
+      <c r="V79" s="88"/>
+      <c r="W79" s="35"/>
+    </row>
+    <row r="83" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="K83" s="151" t="s">
         <v>414</v>
       </c>
-      <c r="H83" s="163" t="s">
+      <c r="L83" s="152" t="s">
         <v>415</v>
       </c>
-      <c r="I83" s="164" t="s">
+      <c r="M83" s="153" t="s">
         <v>416</v>
       </c>
-      <c r="J83" s="165" t="s">
+      <c r="N83" s="154" t="s">
         <v>417</v>
       </c>
-      <c r="K83" s="166" t="s">
+      <c r="O83" s="155" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="198" t="s">
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="185" t="s">
         <v>480</v>
       </c>
-      <c r="H84" s="177" t="s">
+      <c r="L84" s="165" t="s">
         <v>481</v>
       </c>
-      <c r="I84" s="199" t="s">
+      <c r="M84" s="186" t="s">
         <v>482</v>
       </c>
-      <c r="J84" s="200" t="s">
+      <c r="N84" s="187" t="s">
         <v>483</v>
       </c>
-      <c r="K84" s="201" t="s">
+      <c r="O84" s="188" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="162" t="s">
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="151" t="s">
         <v>437</v>
       </c>
-      <c r="H85" s="177" t="s">
+      <c r="L85" s="165" t="s">
         <v>415</v>
       </c>
-      <c r="I85" s="164" t="s">
+      <c r="M85" s="153" t="s">
         <v>438</v>
       </c>
-      <c r="J85" s="165" t="s">
+      <c r="N85" s="154" t="s">
         <v>439</v>
       </c>
-      <c r="K85" s="166" t="s">
+      <c r="O85" s="155" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="198" t="s">
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="185" t="s">
         <v>485</v>
       </c>
-      <c r="H86" s="177" t="s">
+      <c r="L86" s="165" t="s">
         <v>481</v>
       </c>
-      <c r="I86" s="199" t="s">
+      <c r="M86" s="186" t="s">
         <v>486</v>
       </c>
-      <c r="J86" s="200" t="s">
+      <c r="N86" s="187" t="s">
         <v>483</v>
       </c>
-      <c r="K86" s="201" t="s">
+      <c r="O86" s="188" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="162" t="s">
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="151" t="s">
         <v>457</v>
       </c>
-      <c r="H87" s="163" t="s">
+      <c r="L87" s="152" t="s">
         <v>415</v>
       </c>
-      <c r="I87" s="164" t="s">
+      <c r="M87" s="153" t="s">
         <v>458</v>
       </c>
-      <c r="J87" s="165" t="s">
+      <c r="N87" s="154" t="s">
         <v>459</v>
       </c>
-      <c r="K87" s="166" t="s">
+      <c r="O87" s="155" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="198" t="s">
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="185" t="s">
         <v>492</v>
       </c>
-      <c r="H88" s="177" t="s">
+      <c r="L88" s="165" t="s">
         <v>481</v>
       </c>
-      <c r="I88" s="204" t="s">
+      <c r="M88" s="191" t="s">
         <v>493</v>
       </c>
-      <c r="J88" s="205" t="s">
+      <c r="N88" s="192" t="s">
         <v>489</v>
       </c>
-      <c r="K88" s="206" t="s">
+      <c r="O88" s="193" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B15:S79"/>
-  <mergeCells count="25">
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="P14:S14"/>
+  <autoFilter ref="B15:W79"/>
+  <mergeCells count="26">
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="T14:W14"/>
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="E75:F75"/>
@@ -7678,20 +8555,21 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E46:F46"/>
-    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="R14:S14"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E22:F22"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7720,7 +8598,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="61" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7740,332 +8618,332 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="61" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D7" s="56"/>
-      <c r="E7" s="63" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="K7" s="64" t="s">
+      <c r="K7" s="60" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="55">
         <v>8000000</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="55">
         <v>8000000</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="55">
         <v>8000000</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="55">
         <v>8000000</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="55">
         <v>8000000</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="K8" s="60" t="s">
+      <c r="K8" s="56" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="55">
         <v>2</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="55">
         <v>2</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="55">
         <v>2</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="55">
         <v>1</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="55">
         <v>2</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="60"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="55">
         <f>E8/E9</f>
         <v>4000000</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="55">
         <f>F8/F9</f>
         <v>4000000</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="55">
         <f>G8/G9</f>
         <v>4000000</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="55">
         <f>H8/H9</f>
         <v>8000000</v>
       </c>
-      <c r="I10" s="59">
+      <c r="I10" s="55">
         <f>I8/I9</f>
         <v>4000000</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="K10" s="60" t="s">
+      <c r="K10" s="56" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="55">
         <v>12</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="55">
         <v>12</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="55">
         <v>12</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="55">
         <v>6</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I11" s="55">
         <v>12</v>
       </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="55">
         <f>E10*E11</f>
         <v>48000000</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="55">
         <f>F10*F11</f>
         <v>48000000</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="55">
         <f>G10*G11</f>
         <v>48000000</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="55">
         <f>H10*H11</f>
         <v>48000000</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="55">
         <f>I10*I11</f>
         <v>48000000</v>
       </c>
-      <c r="J12" s="59" t="s">
+      <c r="J12" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="K12" s="60" t="s">
+      <c r="K12" s="56" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="55">
         <v>1</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="55">
         <v>1</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="55">
         <v>1</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="55">
         <v>1</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="55">
         <v>1</v>
       </c>
-      <c r="J13" s="59"/>
-      <c r="K13" s="60"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="57">
         <f>E12/E13</f>
         <v>48000000</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="57">
         <f>F12/F13</f>
         <v>48000000</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="57">
         <f>G12/G13</f>
         <v>48000000</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="57">
         <f>H12/H13</f>
         <v>48000000</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="57">
         <f>I12/I13</f>
         <v>48000000</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="K14" s="62"/>
+      <c r="K14" s="58"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="61" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="61" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="53">
         <v>1</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F18" s="53">
         <v>1</v>
       </c>
-      <c r="G18" s="57">
+      <c r="G18" s="53">
         <v>1</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="53">
         <v>4</v>
       </c>
-      <c r="I18" s="57">
+      <c r="I18" s="53">
         <v>1</v>
       </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="55">
         <f>E14/E18</f>
         <v>48000000</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="55">
         <f>F14/F18</f>
         <v>48000000</v>
       </c>
-      <c r="G19" s="59">
+      <c r="G19" s="55">
         <f>G14/G18</f>
         <v>48000000</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="55">
         <f>H14/H18</f>
         <v>12000000</v>
       </c>
-      <c r="I19" s="59">
+      <c r="I19" s="55">
         <f>I14/I18</f>
         <v>48000000</v>
       </c>
-      <c r="J19" s="59" t="s">
+      <c r="J19" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="K19" s="60" t="s">
+      <c r="K19" s="56" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="55">
         <v>1</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="55">
         <v>1</v>
       </c>
-      <c r="G20" s="59">
+      <c r="G20" s="55">
         <v>1</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="55">
         <v>2</v>
       </c>
-      <c r="I20" s="59">
+      <c r="I20" s="55">
         <v>1</v>
       </c>
-      <c r="J20" s="59"/>
-      <c r="K20" s="12" t="s">
+      <c r="J20" s="55"/>
+      <c r="K20" s="10" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="57">
         <f>E19*E20</f>
         <v>48000000</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="57">
         <f>F19*F20</f>
         <v>48000000</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="57">
         <f>G19*G20</f>
         <v>48000000</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21" s="57">
         <f>H19*H20</f>
         <v>24000000</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I21" s="57">
         <f>I19*I20</f>
         <v>48000000</v>
       </c>
-      <c r="J21" s="61" t="s">
+      <c r="J21" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="K21" s="62" t="s">
+      <c r="K21" s="58" t="s">
         <v>199</v>
       </c>
       <c r="L21" t="s">
@@ -8073,250 +8951,250 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="61" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="65"/>
+      <c r="B24" s="61"/>
       <c r="C24" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="61" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="53">
         <v>16000000</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="53">
         <v>16000000</v>
       </c>
-      <c r="G26" s="57">
+      <c r="G26" s="53">
         <v>8000000</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="53">
         <v>8000000</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="53">
         <v>1000000</v>
       </c>
-      <c r="J26" s="57" t="s">
+      <c r="J26" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="K26" s="58" t="s">
+      <c r="K26" s="54" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="57">
         <f>(E21/E26)-1</f>
         <v>2</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="57">
         <f>(F21/F26)-1</f>
         <v>2</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="57">
         <f>(G21/G26)-1</f>
         <v>5</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27" s="57">
         <f>(H21/H26)-1</f>
         <v>2</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27" s="57">
         <f>(I21/I26)-1</f>
         <v>47</v>
       </c>
-      <c r="J27" s="61"/>
-      <c r="K27" s="73" t="s">
+      <c r="J27" s="57"/>
+      <c r="K27" s="69" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D28" s="55"/>
+      <c r="D28" s="51"/>
     </row>
     <row r="29" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="D29" s="55"/>
+      <c r="D29" s="51"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="53">
         <v>24000</v>
       </c>
-      <c r="F30" s="57">
+      <c r="F30" s="53">
         <v>80000</v>
       </c>
-      <c r="G30" s="57">
+      <c r="G30" s="53">
         <v>80000</v>
       </c>
-      <c r="H30" s="57">
+      <c r="H30" s="53">
         <v>80000</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="53">
         <v>80000</v>
       </c>
-      <c r="J30" s="57" t="s">
+      <c r="J30" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="K30" s="58"/>
+      <c r="K30" s="54"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E31" s="55">
         <f>INT(E26/E30-1)</f>
         <v>665</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="55">
         <f>INT(F26/F30-1)</f>
         <v>199</v>
       </c>
-      <c r="G31" s="59">
+      <c r="G31" s="55">
         <f>INT(G26/G30-1)</f>
         <v>99</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H31" s="55">
         <f>INT(H26/H30-1)</f>
         <v>99</v>
       </c>
-      <c r="I31" s="59">
+      <c r="I31" s="55">
         <f>INT(I26/I30-1)</f>
         <v>11</v>
       </c>
-      <c r="J31" s="59"/>
-      <c r="K31" s="74" t="s">
+      <c r="J31" s="55"/>
+      <c r="K31" s="70" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="E32" s="72">
+      <c r="E32" s="68">
         <f>E26/(65535+1)</f>
         <v>244.140625</v>
       </c>
-      <c r="F32" s="72">
+      <c r="F32" s="68">
         <f>F26/(65535+1)</f>
         <v>244.140625</v>
       </c>
-      <c r="G32" s="72">
+      <c r="G32" s="68">
         <f>G26/(65535+1)</f>
         <v>122.0703125</v>
       </c>
-      <c r="H32" s="72">
+      <c r="H32" s="68">
         <f>H26/(65535+1)</f>
         <v>122.0703125</v>
       </c>
-      <c r="I32" s="72">
+      <c r="I32" s="68">
         <f>I26/(65535+1)</f>
         <v>15.2587890625</v>
       </c>
-      <c r="J32" s="59" t="s">
+      <c r="J32" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="K32" s="60" t="s">
+      <c r="K32" s="56" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="E33" s="72">
+      <c r="E33" s="68">
         <f>E26/(0+1)</f>
         <v>16000000</v>
       </c>
-      <c r="F33" s="72">
+      <c r="F33" s="68">
         <f>F26/(0+1)</f>
         <v>16000000</v>
       </c>
-      <c r="G33" s="72">
+      <c r="G33" s="68">
         <f>G26/(0+1)</f>
         <v>8000000</v>
       </c>
-      <c r="H33" s="72">
+      <c r="H33" s="68">
         <f>H26/(0+1)</f>
         <v>8000000</v>
       </c>
-      <c r="I33" s="72">
+      <c r="I33" s="68">
         <f>I26/(0+1)</f>
         <v>1000000</v>
       </c>
-      <c r="J33" s="59" t="s">
+      <c r="J33" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="K33" s="60" t="s">
+      <c r="K33" s="56" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E34" s="55">
         <v>50</v>
       </c>
-      <c r="F34" s="59">
+      <c r="F34" s="55">
         <v>50</v>
       </c>
-      <c r="G34" s="59">
+      <c r="G34" s="55">
         <v>50</v>
       </c>
-      <c r="H34" s="59">
+      <c r="H34" s="55">
         <v>50</v>
       </c>
-      <c r="I34" s="59">
+      <c r="I34" s="55">
         <v>50</v>
       </c>
-      <c r="J34" s="59" t="s">
+      <c r="J34" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="K34" s="60"/>
+      <c r="K34" s="56"/>
     </row>
     <row r="35" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="57">
         <f>INT(E31*E34/100)</f>
         <v>332</v>
       </c>
-      <c r="F35" s="61">
+      <c r="F35" s="57">
         <f>INT(F31*F34/100)</f>
         <v>99</v>
       </c>
-      <c r="G35" s="61">
+      <c r="G35" s="57">
         <f>INT(G31*G34/100)</f>
         <v>49</v>
       </c>
-      <c r="H35" s="61">
+      <c r="H35" s="57">
         <f>INT(H31*H34/100)</f>
         <v>49</v>
       </c>
-      <c r="I35" s="61">
+      <c r="I35" s="57">
         <f>INT(I31*I34/100)</f>
         <v>5</v>
       </c>
-      <c r="J35" s="61"/>
-      <c r="K35" s="73" t="s">
+      <c r="J35" s="57"/>
+      <c r="K35" s="69" t="s">
         <v>225</v>
       </c>
     </row>
@@ -8355,1398 +9233,1398 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" style="82"/>
-    <col min="3" max="3" width="12.75" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="81" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="81" customWidth="1"/>
-    <col min="8" max="8" width="9" style="82"/>
-    <col min="9" max="9" width="11.875" style="81" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="81" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="77"/>
+    <col min="3" max="3" width="12.75" style="76" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="76" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="76" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="76" customWidth="1"/>
+    <col min="8" max="8" width="9" style="77"/>
+    <col min="9" max="9" width="11.875" style="76" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="76" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.625" style="81" customWidth="1"/>
+    <col min="12" max="13" width="12.625" style="76" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="77" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="82" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="106" t="s">
+    <row r="3" spans="2:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="101" t="s">
         <v>327</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="101" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="102" t="s">
         <v>328</v>
       </c>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="103" t="s">
         <v>322</v>
       </c>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="I3" s="107" t="s">
+      <c r="I3" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="J3" s="107" t="s">
+      <c r="J3" s="101" t="s">
         <v>327</v>
       </c>
-      <c r="K3" s="107" t="s">
+      <c r="K3" s="101" t="s">
         <v>322</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="102" t="s">
         <v>328</v>
       </c>
-      <c r="M3" s="109" t="s">
+      <c r="M3" s="103" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="90">
+      <c r="B4" s="85">
         <v>1</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="90">
+      <c r="G4" s="79"/>
+      <c r="H4" s="85">
         <v>2</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="83" t="s">
         <v>244</v>
       </c>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="83" t="s">
+      <c r="K4" s="55"/>
+      <c r="L4" s="78" t="s">
         <v>335</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="79" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="90">
+      <c r="B5" s="85">
         <v>3</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="83" t="s">
         <v>303</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="83" t="s">
         <v>312</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="83" t="s">
         <v>329</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="82" t="s">
         <v>371</v>
       </c>
-      <c r="H5" s="90">
+      <c r="H5" s="85">
         <v>4</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="J5" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="88" t="s">
+      <c r="K5" s="55"/>
+      <c r="L5" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="82" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="90">
+      <c r="B6" s="85">
         <v>5</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="83" t="s">
         <v>304</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88" t="s">
+      <c r="E6" s="83"/>
+      <c r="F6" s="83" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="82" t="s">
         <v>371</v>
       </c>
-      <c r="H6" s="90">
+      <c r="H6" s="85">
         <v>6</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="J6" s="83" t="s">
+      <c r="J6" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K6" s="59"/>
-      <c r="L6" s="88" t="s">
+      <c r="K6" s="55"/>
+      <c r="L6" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="M6" s="87" t="s">
+      <c r="M6" s="82" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="90">
+      <c r="B7" s="85">
         <v>7</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="83" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88" t="s">
+      <c r="E7" s="83"/>
+      <c r="F7" s="83" t="s">
         <v>331</v>
       </c>
-      <c r="G7" s="87" t="s">
+      <c r="G7" s="82" t="s">
         <v>371</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="85">
         <v>8</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="J7" s="83" t="s">
+      <c r="J7" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="88" t="s">
+      <c r="K7" s="55"/>
+      <c r="L7" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="M7" s="87" t="s">
+      <c r="M7" s="82" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="90">
+      <c r="B8" s="85">
         <v>9</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83" t="s">
+      <c r="E8" s="78"/>
+      <c r="F8" s="78" t="s">
         <v>332</v>
       </c>
-      <c r="G8" s="87" t="s">
+      <c r="G8" s="82" t="s">
         <v>371</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H8" s="85">
         <v>10</v>
       </c>
-      <c r="I8" s="88" t="s">
+      <c r="I8" s="83" t="s">
         <v>252</v>
       </c>
-      <c r="J8" s="83" t="s">
+      <c r="J8" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="83" t="s">
+      <c r="K8" s="55"/>
+      <c r="L8" s="78" t="s">
         <v>340</v>
       </c>
-      <c r="M8" s="87" t="s">
+      <c r="M8" s="82" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="90">
+      <c r="B9" s="85">
         <v>11</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83" t="s">
+      <c r="E9" s="78"/>
+      <c r="F9" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="90">
+      <c r="G9" s="79"/>
+      <c r="H9" s="85">
         <v>12</v>
       </c>
-      <c r="I9" s="88" t="s">
+      <c r="I9" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="J9" s="83" t="s">
+      <c r="J9" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K9" s="59"/>
-      <c r="L9" s="83" t="s">
+      <c r="K9" s="55"/>
+      <c r="L9" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M9" s="84"/>
+      <c r="M9" s="79"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="90">
+      <c r="B10" s="85">
         <v>13</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83" t="s">
+      <c r="E10" s="78"/>
+      <c r="F10" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="90">
+      <c r="G10" s="79"/>
+      <c r="H10" s="85">
         <v>14</v>
       </c>
-      <c r="I10" s="88" t="s">
+      <c r="I10" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="J10" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K10" s="59"/>
-      <c r="L10" s="83" t="s">
+      <c r="K10" s="55"/>
+      <c r="L10" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M10" s="84"/>
+      <c r="M10" s="79"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="90">
+      <c r="B11" s="85">
         <v>15</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83" t="s">
+      <c r="E11" s="78"/>
+      <c r="F11" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="90">
+      <c r="G11" s="79"/>
+      <c r="H11" s="85">
         <v>16</v>
       </c>
-      <c r="I11" s="88" t="s">
+      <c r="I11" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="J11" s="83" t="s">
+      <c r="J11" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K11" s="59"/>
-      <c r="L11" s="83" t="s">
+      <c r="K11" s="55"/>
+      <c r="L11" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M11" s="84"/>
+      <c r="M11" s="79"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="90">
+      <c r="B12" s="85">
         <v>17</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83" t="s">
+      <c r="E12" s="78"/>
+      <c r="F12" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="90">
+      <c r="G12" s="79"/>
+      <c r="H12" s="85">
         <v>18</v>
       </c>
-      <c r="I12" s="88" t="s">
+      <c r="I12" s="83" t="s">
         <v>260</v>
       </c>
-      <c r="J12" s="83" t="s">
+      <c r="J12" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K12" s="59"/>
-      <c r="L12" s="83" t="s">
+      <c r="K12" s="55"/>
+      <c r="L12" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M12" s="84"/>
+      <c r="M12" s="79"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="90">
+      <c r="B13" s="85">
         <v>19</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88" t="s">
+      <c r="E13" s="83"/>
+      <c r="F13" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="90">
+      <c r="G13" s="82"/>
+      <c r="H13" s="85">
         <v>20</v>
       </c>
-      <c r="I13" s="88" t="s">
+      <c r="I13" s="83" t="s">
         <v>262</v>
       </c>
-      <c r="J13" s="88" t="s">
+      <c r="J13" s="83" t="s">
         <v>262</v>
       </c>
-      <c r="K13" s="59"/>
-      <c r="L13" s="88" t="s">
+      <c r="K13" s="55"/>
+      <c r="L13" s="83" t="s">
         <v>262</v>
       </c>
-      <c r="M13" s="87"/>
+      <c r="M13" s="82"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="90">
+      <c r="B14" s="85">
         <v>21</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="83" t="s">
+      <c r="E14" s="83"/>
+      <c r="F14" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="90">
+      <c r="G14" s="82"/>
+      <c r="H14" s="85">
         <v>22</v>
       </c>
-      <c r="I14" s="88" t="s">
+      <c r="I14" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="J14" s="83" t="s">
+      <c r="J14" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K14" s="59"/>
-      <c r="L14" s="83" t="s">
+      <c r="K14" s="55"/>
+      <c r="L14" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="M14" s="87" t="s">
+      <c r="M14" s="82" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="90">
+      <c r="B15" s="85">
         <v>23</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="83" t="s">
         <v>265</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="83" t="s">
         <v>306</v>
       </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88" t="s">
+      <c r="E15" s="83"/>
+      <c r="F15" s="83" t="s">
         <v>306</v>
       </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="90">
+      <c r="G15" s="82"/>
+      <c r="H15" s="85">
         <v>24</v>
       </c>
-      <c r="I15" s="88" t="s">
+      <c r="I15" s="83" t="s">
         <v>265</v>
       </c>
-      <c r="J15" s="83" t="s">
+      <c r="J15" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K15" s="59"/>
-      <c r="L15" s="83" t="s">
+      <c r="K15" s="55"/>
+      <c r="L15" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M15" s="87"/>
+      <c r="M15" s="82"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="90">
+      <c r="B16" s="85">
         <v>25</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83" t="s">
+      <c r="E16" s="78"/>
+      <c r="F16" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="90">
+      <c r="G16" s="79"/>
+      <c r="H16" s="85">
         <v>26</v>
       </c>
-      <c r="I16" s="88" t="s">
+      <c r="I16" s="83" t="s">
         <v>273</v>
       </c>
-      <c r="J16" s="83" t="s">
+      <c r="J16" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K16" s="59"/>
-      <c r="L16" s="83" t="s">
+      <c r="K16" s="55"/>
+      <c r="L16" s="78" t="s">
         <v>342</v>
       </c>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="82" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="90">
+      <c r="B17" s="85">
         <v>27</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="83" t="s">
         <v>267</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="83" t="s">
         <v>306</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="88" t="s">
+      <c r="E17" s="78"/>
+      <c r="F17" s="83" t="s">
         <v>306</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="90">
+      <c r="G17" s="79"/>
+      <c r="H17" s="85">
         <v>28</v>
       </c>
-      <c r="I17" s="88" t="s">
+      <c r="I17" s="83" t="s">
         <v>274</v>
       </c>
-      <c r="J17" s="83" t="s">
+      <c r="J17" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="88" t="s">
+      <c r="K17" s="55"/>
+      <c r="L17" s="83" t="s">
         <v>343</v>
       </c>
-      <c r="M17" s="87" t="s">
+      <c r="M17" s="82" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="90">
+      <c r="B18" s="85">
         <v>29</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83" t="s">
+      <c r="E18" s="78"/>
+      <c r="F18" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="G18" s="87" t="s">
+      <c r="G18" s="82" t="s">
         <v>372</v>
       </c>
-      <c r="H18" s="90">
+      <c r="H18" s="85">
         <v>30</v>
       </c>
-      <c r="I18" s="88" t="s">
+      <c r="I18" s="83" t="s">
         <v>275</v>
       </c>
-      <c r="J18" s="83" t="s">
+      <c r="J18" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K18" s="59"/>
-      <c r="L18" s="83" t="s">
+      <c r="K18" s="55"/>
+      <c r="L18" s="78" t="s">
         <v>344</v>
       </c>
-      <c r="M18" s="87" t="s">
+      <c r="M18" s="82" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="90">
+      <c r="B19" s="85">
         <v>31</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83" t="s">
+      <c r="E19" s="78"/>
+      <c r="F19" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="G19" s="87" t="s">
+      <c r="G19" s="82" t="s">
         <v>372</v>
       </c>
-      <c r="H19" s="90">
+      <c r="H19" s="85">
         <v>32</v>
       </c>
-      <c r="I19" s="88" t="s">
+      <c r="I19" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="J19" s="83" t="s">
+      <c r="J19" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K19" s="59"/>
-      <c r="L19" s="83" t="s">
+      <c r="K19" s="55"/>
+      <c r="L19" s="78" t="s">
         <v>345</v>
       </c>
-      <c r="M19" s="87" t="s">
+      <c r="M19" s="82" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="90">
+      <c r="B20" s="85">
         <v>33</v>
       </c>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="D20" s="83" t="s">
+      <c r="D20" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83" t="s">
+      <c r="E20" s="78"/>
+      <c r="F20" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="90">
+      <c r="G20" s="79"/>
+      <c r="H20" s="85">
         <v>34</v>
       </c>
-      <c r="I20" s="88" t="s">
+      <c r="I20" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="J20" s="83" t="s">
+      <c r="J20" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K20" s="59"/>
-      <c r="L20" s="83" t="s">
+      <c r="K20" s="55"/>
+      <c r="L20" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M20" s="84"/>
+      <c r="M20" s="79"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="90">
+      <c r="B21" s="85">
         <v>35</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="D21" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83" t="s">
+      <c r="E21" s="78"/>
+      <c r="F21" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="90">
-        <v>36</v>
-      </c>
-      <c r="I21" s="88" t="s">
+      <c r="G21" s="79"/>
+      <c r="H21" s="85">
+        <v>36</v>
+      </c>
+      <c r="I21" s="83" t="s">
         <v>278</v>
       </c>
-      <c r="J21" s="83" t="s">
+      <c r="J21" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K21" s="59"/>
-      <c r="L21" s="83" t="s">
+      <c r="K21" s="55"/>
+      <c r="L21" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M21" s="84"/>
+      <c r="M21" s="79"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="90">
+      <c r="B22" s="85">
         <v>37</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83" t="s">
+      <c r="E22" s="78"/>
+      <c r="F22" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="90">
+      <c r="G22" s="79"/>
+      <c r="H22" s="85">
         <v>38</v>
       </c>
-      <c r="I22" s="88" t="s">
+      <c r="I22" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="J22" s="83" t="s">
+      <c r="J22" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K22" s="59"/>
-      <c r="L22" s="83" t="s">
+      <c r="K22" s="55"/>
+      <c r="L22" s="78" t="s">
         <v>346</v>
       </c>
-      <c r="M22" s="87" t="s">
+      <c r="M22" s="82" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="91">
+      <c r="B23" s="86">
         <v>39</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85" t="s">
+      <c r="E23" s="80"/>
+      <c r="F23" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="G23" s="86"/>
-      <c r="H23" s="91">
+      <c r="G23" s="81"/>
+      <c r="H23" s="86">
         <v>40</v>
       </c>
-      <c r="I23" s="89" t="s">
+      <c r="I23" s="84" t="s">
         <v>274</v>
       </c>
-      <c r="J23" s="85" t="s">
+      <c r="J23" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="K23" s="61"/>
-      <c r="L23" s="85" t="s">
+      <c r="K23" s="57"/>
+      <c r="L23" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="M23" s="86"/>
+      <c r="M23" s="81"/>
     </row>
     <row r="25" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="77" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="82" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="106" t="s">
+    <row r="26" spans="2:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="C26" s="107" t="s">
+      <c r="C26" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="101" t="s">
         <v>327</v>
       </c>
-      <c r="E26" s="107" t="s">
+      <c r="E26" s="101" t="s">
         <v>322</v>
       </c>
-      <c r="F26" s="108" t="s">
+      <c r="F26" s="102" t="s">
         <v>328</v>
       </c>
-      <c r="G26" s="109" t="s">
+      <c r="G26" s="103" t="s">
         <v>322</v>
       </c>
-      <c r="H26" s="106" t="s">
+      <c r="H26" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="I26" s="107" t="s">
+      <c r="I26" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="J26" s="107" t="s">
+      <c r="J26" s="101" t="s">
         <v>327</v>
       </c>
-      <c r="K26" s="107" t="s">
+      <c r="K26" s="101" t="s">
         <v>322</v>
       </c>
-      <c r="L26" s="108" t="s">
+      <c r="L26" s="102" t="s">
         <v>328</v>
       </c>
-      <c r="M26" s="109" t="s">
+      <c r="M26" s="103" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="90">
+      <c r="B27" s="85">
         <v>1</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="83" t="s">
         <v>313</v>
       </c>
-      <c r="D27" s="113" t="s">
+      <c r="D27" s="107" t="s">
         <v>307</v>
       </c>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="107" t="s">
         <v>318</v>
       </c>
-      <c r="F27" s="88" t="s">
+      <c r="F27" s="83" t="s">
         <v>347</v>
       </c>
-      <c r="G27" s="87" t="s">
+      <c r="G27" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H27" s="90">
+      <c r="H27" s="85">
         <v>2</v>
       </c>
-      <c r="I27" s="88" t="s">
+      <c r="I27" s="83" t="s">
         <v>285</v>
       </c>
-      <c r="J27" s="83" t="s">
+      <c r="J27" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K27" s="59"/>
-      <c r="L27" s="83" t="s">
+      <c r="K27" s="55"/>
+      <c r="L27" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M27" s="87"/>
+      <c r="M27" s="82"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="90">
+      <c r="B28" s="85">
         <v>3</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="83" t="s">
         <v>284</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83" t="s">
+      <c r="E28" s="78"/>
+      <c r="F28" s="78" t="s">
         <v>348</v>
       </c>
-      <c r="G28" s="87" t="s">
+      <c r="G28" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H28" s="90">
+      <c r="H28" s="85">
         <v>4</v>
       </c>
-      <c r="I28" s="88" t="s">
+      <c r="I28" s="83" t="s">
         <v>286</v>
       </c>
-      <c r="J28" s="83" t="s">
+      <c r="J28" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K28" s="59"/>
-      <c r="L28" s="83" t="s">
+      <c r="K28" s="55"/>
+      <c r="L28" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M28" s="84"/>
+      <c r="M28" s="79"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="90">
+      <c r="B29" s="85">
         <v>5</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="83" t="s">
         <v>282</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83" t="s">
+      <c r="E29" s="78"/>
+      <c r="F29" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="G29" s="87" t="s">
+      <c r="G29" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H29" s="90">
+      <c r="H29" s="85">
         <v>6</v>
       </c>
-      <c r="I29" s="88" t="s">
+      <c r="I29" s="83" t="s">
         <v>287</v>
       </c>
-      <c r="J29" s="83" t="s">
+      <c r="J29" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K29" s="59"/>
-      <c r="L29" s="83" t="s">
+      <c r="K29" s="55"/>
+      <c r="L29" s="78" t="s">
         <v>363</v>
       </c>
-      <c r="M29" s="87" t="s">
+      <c r="M29" s="82" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="90">
+      <c r="B30" s="85">
         <v>7</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="83" t="s">
         <v>283</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="D30" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83" t="s">
+      <c r="E30" s="78"/>
+      <c r="F30" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="G30" s="84"/>
-      <c r="H30" s="90">
+      <c r="G30" s="79"/>
+      <c r="H30" s="85">
         <v>8</v>
       </c>
-      <c r="I30" s="88" t="s">
+      <c r="I30" s="83" t="s">
         <v>284</v>
       </c>
-      <c r="J30" s="83" t="s">
+      <c r="J30" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K30" s="59"/>
-      <c r="L30" s="83" t="s">
+      <c r="K30" s="55"/>
+      <c r="L30" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M30" s="84"/>
+      <c r="M30" s="79"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="90">
+      <c r="B31" s="85">
         <v>9</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="D31" s="83" t="s">
+      <c r="D31" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83" t="s">
+      <c r="E31" s="78"/>
+      <c r="F31" s="78" t="s">
         <v>350</v>
       </c>
-      <c r="G31" s="87" t="s">
+      <c r="G31" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H31" s="90">
+      <c r="H31" s="85">
         <v>10</v>
       </c>
-      <c r="I31" s="88" t="s">
+      <c r="I31" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="J31" s="83" t="s">
+      <c r="J31" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K31" s="59"/>
-      <c r="L31" s="83" t="s">
+      <c r="K31" s="55"/>
+      <c r="L31" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M31" s="84"/>
+      <c r="M31" s="79"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="90">
+      <c r="B32" s="85">
         <v>11</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="83" t="s">
         <v>288</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83" t="s">
+      <c r="E32" s="78"/>
+      <c r="F32" s="78" t="s">
         <v>351</v>
       </c>
-      <c r="G32" s="87" t="s">
+      <c r="G32" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H32" s="90">
+      <c r="H32" s="85">
         <v>12</v>
       </c>
-      <c r="I32" s="88" t="s">
+      <c r="I32" s="83" t="s">
         <v>297</v>
       </c>
-      <c r="J32" s="83" t="s">
+      <c r="J32" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K32" s="59"/>
-      <c r="L32" s="83" t="s">
+      <c r="K32" s="55"/>
+      <c r="L32" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M32" s="84"/>
+      <c r="M32" s="79"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="90">
+      <c r="B33" s="85">
         <v>13</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="83" t="s">
         <v>314</v>
       </c>
-      <c r="D33" s="113" t="s">
+      <c r="D33" s="107" t="s">
         <v>308</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="107" t="s">
         <v>319</v>
       </c>
-      <c r="F33" s="88" t="s">
+      <c r="F33" s="83" t="s">
         <v>352</v>
       </c>
-      <c r="G33" s="87" t="s">
+      <c r="G33" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H33" s="90">
+      <c r="H33" s="85">
         <v>14</v>
       </c>
-      <c r="I33" s="88" t="s">
+      <c r="I33" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="J33" s="83" t="s">
+      <c r="J33" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K33" s="59"/>
-      <c r="L33" s="88" t="s">
+      <c r="K33" s="55"/>
+      <c r="L33" s="83" t="s">
         <v>366</v>
       </c>
-      <c r="M33" s="87" t="s">
+      <c r="M33" s="82" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="90">
+      <c r="B34" s="85">
         <v>15</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83" t="s">
+      <c r="E34" s="78"/>
+      <c r="F34" s="78" t="s">
         <v>353</v>
       </c>
-      <c r="G34" s="87" t="s">
+      <c r="G34" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H34" s="90">
+      <c r="H34" s="85">
         <v>16</v>
       </c>
-      <c r="I34" s="88" t="s">
+      <c r="I34" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="J34" s="83" t="s">
+      <c r="J34" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K34" s="59"/>
-      <c r="L34" s="83" t="s">
+      <c r="K34" s="55"/>
+      <c r="L34" s="78" t="s">
         <v>367</v>
       </c>
-      <c r="M34" s="87" t="s">
+      <c r="M34" s="82" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="90">
+      <c r="B35" s="85">
         <v>17</v>
       </c>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="83" t="s">
         <v>286</v>
       </c>
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83" t="s">
+      <c r="E35" s="78"/>
+      <c r="F35" s="78" t="s">
         <v>354</v>
       </c>
-      <c r="G35" s="87" t="s">
+      <c r="G35" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H35" s="90">
+      <c r="H35" s="85">
         <v>18</v>
       </c>
-      <c r="I35" s="88" t="s">
+      <c r="I35" s="83" t="s">
         <v>287</v>
       </c>
-      <c r="J35" s="83" t="s">
+      <c r="J35" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K35" s="59"/>
-      <c r="L35" s="83" t="s">
+      <c r="K35" s="55"/>
+      <c r="L35" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M35" s="84"/>
+      <c r="M35" s="79"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="90">
+      <c r="B36" s="85">
         <v>19</v>
       </c>
-      <c r="C36" s="88" t="s">
+      <c r="C36" s="83" t="s">
         <v>289</v>
       </c>
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83" t="s">
+      <c r="E36" s="78"/>
+      <c r="F36" s="78" t="s">
         <v>355</v>
       </c>
-      <c r="G36" s="87" t="s">
+      <c r="G36" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H36" s="90">
+      <c r="H36" s="85">
         <v>20</v>
       </c>
-      <c r="I36" s="88" t="s">
+      <c r="I36" s="83" t="s">
         <v>294</v>
       </c>
-      <c r="J36" s="83" t="s">
+      <c r="J36" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K36" s="59"/>
-      <c r="L36" s="83" t="s">
+      <c r="K36" s="55"/>
+      <c r="L36" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M36" s="84"/>
+      <c r="M36" s="79"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="90">
+      <c r="B37" s="85">
         <v>21</v>
       </c>
-      <c r="C37" s="88" t="s">
+      <c r="C37" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83" t="s">
+      <c r="E37" s="78"/>
+      <c r="F37" s="78" t="s">
         <v>356</v>
       </c>
-      <c r="G37" s="87" t="s">
+      <c r="G37" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H37" s="90">
+      <c r="H37" s="85">
         <v>22</v>
       </c>
-      <c r="I37" s="88" t="s">
+      <c r="I37" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="J37" s="88" t="s">
+      <c r="J37" s="83" t="s">
         <v>320</v>
       </c>
-      <c r="K37" s="88" t="s">
+      <c r="K37" s="83" t="s">
         <v>309</v>
       </c>
-      <c r="L37" s="83" t="s">
+      <c r="L37" s="78" t="s">
         <v>364</v>
       </c>
-      <c r="M37" s="88" t="s">
+      <c r="M37" s="83" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="90">
+      <c r="B38" s="85">
         <v>23</v>
       </c>
-      <c r="C38" s="88" t="s">
+      <c r="C38" s="83" t="s">
         <v>291</v>
       </c>
-      <c r="D38" s="83" t="s">
+      <c r="D38" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83" t="s">
+      <c r="E38" s="78"/>
+      <c r="F38" s="78" t="s">
         <v>357</v>
       </c>
-      <c r="G38" s="87" t="s">
+      <c r="G38" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H38" s="90">
+      <c r="H38" s="85">
         <v>24</v>
       </c>
-      <c r="I38" s="88" t="s">
+      <c r="I38" s="83" t="s">
         <v>316</v>
       </c>
-      <c r="J38" s="88" t="s">
+      <c r="J38" s="83" t="s">
         <v>321</v>
       </c>
-      <c r="K38" s="88" t="s">
+      <c r="K38" s="83" t="s">
         <v>310</v>
       </c>
-      <c r="L38" s="83" t="s">
+      <c r="L38" s="78" t="s">
         <v>365</v>
       </c>
-      <c r="M38" s="88" t="s">
+      <c r="M38" s="83" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="90">
+      <c r="B39" s="85">
         <v>25</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C39" s="83" t="s">
         <v>289</v>
       </c>
-      <c r="D39" s="83" t="s">
+      <c r="D39" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83" t="s">
+      <c r="E39" s="78"/>
+      <c r="F39" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="G39" s="84"/>
-      <c r="H39" s="90">
+      <c r="G39" s="79"/>
+      <c r="H39" s="85">
         <v>26</v>
       </c>
-      <c r="I39" s="88" t="s">
+      <c r="I39" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="J39" s="83" t="s">
+      <c r="J39" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K39" s="59"/>
-      <c r="L39" s="83" t="s">
+      <c r="K39" s="55"/>
+      <c r="L39" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M39" s="84"/>
+      <c r="M39" s="79"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="90">
+      <c r="B40" s="85">
         <v>27</v>
       </c>
-      <c r="C40" s="88" t="s">
+      <c r="C40" s="83" t="s">
         <v>292</v>
       </c>
-      <c r="D40" s="83" t="s">
+      <c r="D40" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83" t="s">
+      <c r="E40" s="78"/>
+      <c r="F40" s="78" t="s">
         <v>358</v>
       </c>
-      <c r="G40" s="87" t="s">
+      <c r="G40" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H40" s="90">
+      <c r="H40" s="85">
         <v>28</v>
       </c>
-      <c r="I40" s="88" t="s">
+      <c r="I40" s="83" t="s">
         <v>298</v>
       </c>
-      <c r="J40" s="83" t="s">
+      <c r="J40" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K40" s="59"/>
-      <c r="L40" s="83" t="s">
+      <c r="K40" s="55"/>
+      <c r="L40" s="78" t="s">
         <v>368</v>
       </c>
-      <c r="M40" s="87" t="s">
+      <c r="M40" s="82" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="90">
+      <c r="B41" s="85">
         <v>29</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="83" t="s">
         <v>293</v>
       </c>
-      <c r="D41" s="83" t="s">
+      <c r="D41" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83" t="s">
+      <c r="E41" s="78"/>
+      <c r="F41" s="78" t="s">
         <v>359</v>
       </c>
-      <c r="G41" s="87" t="s">
+      <c r="G41" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H41" s="90">
+      <c r="H41" s="85">
         <v>30</v>
       </c>
-      <c r="I41" s="88" t="s">
+      <c r="I41" s="83" t="s">
         <v>299</v>
       </c>
-      <c r="J41" s="88" t="s">
+      <c r="J41" s="83" t="s">
         <v>299</v>
       </c>
-      <c r="K41" s="59"/>
-      <c r="L41" s="83" t="s">
+      <c r="K41" s="55"/>
+      <c r="L41" s="78" t="s">
         <v>369</v>
       </c>
-      <c r="M41" s="87" t="s">
+      <c r="M41" s="82" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="90">
+      <c r="B42" s="85">
         <v>31</v>
       </c>
-      <c r="C42" s="88" t="s">
+      <c r="C42" s="83" t="s">
         <v>294</v>
       </c>
-      <c r="D42" s="83" t="s">
+      <c r="D42" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83" t="s">
+      <c r="E42" s="78"/>
+      <c r="F42" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="G42" s="87" t="s">
+      <c r="G42" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H42" s="90">
+      <c r="H42" s="85">
         <v>32</v>
       </c>
-      <c r="I42" s="88" t="s">
+      <c r="I42" s="83" t="s">
         <v>278</v>
       </c>
-      <c r="J42" s="88" t="s">
+      <c r="J42" s="83" t="s">
         <v>278</v>
       </c>
-      <c r="K42" s="59"/>
-      <c r="L42" s="83" t="s">
+      <c r="K42" s="55"/>
+      <c r="L42" s="78" t="s">
         <v>370</v>
       </c>
-      <c r="M42" s="87" t="s">
+      <c r="M42" s="82" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="90">
+      <c r="B43" s="85">
         <v>33</v>
       </c>
-      <c r="C43" s="88" t="s">
+      <c r="C43" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="D43" s="83" t="s">
+      <c r="D43" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83" t="s">
+      <c r="E43" s="78"/>
+      <c r="F43" s="78" t="s">
         <v>361</v>
       </c>
-      <c r="G43" s="87" t="s">
+      <c r="G43" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H43" s="90">
+      <c r="H43" s="85">
         <v>34</v>
       </c>
-      <c r="I43" s="88" t="s">
+      <c r="I43" s="83" t="s">
         <v>273</v>
       </c>
-      <c r="J43" s="88" t="s">
+      <c r="J43" s="83" t="s">
         <v>273</v>
       </c>
-      <c r="K43" s="88" t="s">
+      <c r="K43" s="83" t="s">
         <v>311</v>
       </c>
-      <c r="L43" s="83" t="s">
+      <c r="L43" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M43" s="84"/>
+      <c r="M43" s="79"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="90">
+      <c r="B44" s="85">
         <v>35</v>
       </c>
-      <c r="C44" s="88" t="s">
+      <c r="C44" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="D44" s="83" t="s">
+      <c r="D44" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83" t="s">
+      <c r="E44" s="78"/>
+      <c r="F44" s="78" t="s">
         <v>362</v>
       </c>
-      <c r="G44" s="87" t="s">
+      <c r="G44" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H44" s="90">
-        <v>36</v>
-      </c>
-      <c r="I44" s="88" t="s">
+      <c r="H44" s="85">
+        <v>36</v>
+      </c>
+      <c r="I44" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="J44" s="83" t="s">
+      <c r="J44" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K44" s="59"/>
-      <c r="L44" s="83" t="s">
+      <c r="K44" s="55"/>
+      <c r="L44" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M44" s="84"/>
+      <c r="M44" s="79"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="90">
+      <c r="B45" s="85">
         <v>37</v>
       </c>
-      <c r="C45" s="88" t="s">
+      <c r="C45" s="83" t="s">
         <v>295</v>
       </c>
-      <c r="D45" s="83" t="s">
+      <c r="D45" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83" t="s">
+      <c r="E45" s="78"/>
+      <c r="F45" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="G45" s="84"/>
-      <c r="H45" s="90">
+      <c r="G45" s="79"/>
+      <c r="H45" s="85">
         <v>38</v>
       </c>
-      <c r="I45" s="88" t="s">
+      <c r="I45" s="83" t="s">
         <v>282</v>
       </c>
-      <c r="J45" s="83" t="s">
+      <c r="J45" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="K45" s="59"/>
-      <c r="L45" s="83" t="s">
+      <c r="K45" s="55"/>
+      <c r="L45" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M45" s="84"/>
+      <c r="M45" s="79"/>
     </row>
     <row r="46" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="91">
+      <c r="B46" s="86">
         <v>39</v>
       </c>
-      <c r="C46" s="89" t="s">
+      <c r="C46" s="84" t="s">
         <v>296</v>
       </c>
-      <c r="D46" s="85" t="s">
+      <c r="D46" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85" t="s">
+      <c r="E46" s="80"/>
+      <c r="F46" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="G46" s="86"/>
-      <c r="H46" s="91">
+      <c r="G46" s="81"/>
+      <c r="H46" s="86">
         <v>40</v>
       </c>
-      <c r="I46" s="89" t="s">
+      <c r="I46" s="84" t="s">
         <v>300</v>
       </c>
-      <c r="J46" s="85" t="s">
+      <c r="J46" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="K46" s="61"/>
-      <c r="L46" s="85" t="s">
+      <c r="K46" s="57"/>
+      <c r="L46" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="M46" s="86"/>
+      <c r="M46" s="81"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9777,360 +10655,360 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="285" t="s">
+      <c r="B3" s="286" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="287" t="s">
+      <c r="C3" s="288" t="s">
         <v>514</v>
       </c>
-      <c r="D3" s="288"/>
-      <c r="E3" s="283" t="s">
+      <c r="D3" s="289"/>
+      <c r="E3" s="284" t="s">
         <v>515</v>
       </c>
-      <c r="F3" s="284"/>
-      <c r="H3" s="285" t="s">
+      <c r="F3" s="285"/>
+      <c r="H3" s="286" t="s">
         <v>317</v>
       </c>
-      <c r="I3" s="287" t="s">
+      <c r="I3" s="288" t="s">
         <v>514</v>
       </c>
-      <c r="J3" s="288"/>
-      <c r="K3" s="283" t="s">
+      <c r="J3" s="289"/>
+      <c r="K3" s="284" t="s">
         <v>515</v>
       </c>
-      <c r="L3" s="284"/>
+      <c r="L3" s="285"/>
     </row>
     <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="286"/>
-      <c r="C4" s="222" t="s">
+      <c r="B4" s="287"/>
+      <c r="C4" s="209" t="s">
         <v>513</v>
       </c>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="198" t="s">
         <v>496</v>
       </c>
-      <c r="E4" s="228" t="s">
+      <c r="E4" s="215" t="s">
         <v>513</v>
       </c>
-      <c r="F4" s="229" t="s">
+      <c r="F4" s="216" t="s">
         <v>516</v>
       </c>
-      <c r="H4" s="286"/>
-      <c r="I4" s="222" t="s">
+      <c r="H4" s="287"/>
+      <c r="I4" s="209" t="s">
         <v>301</v>
       </c>
-      <c r="J4" s="211" t="s">
+      <c r="J4" s="198" t="s">
         <v>496</v>
       </c>
-      <c r="K4" s="228" t="s">
+      <c r="K4" s="215" t="s">
         <v>513</v>
       </c>
-      <c r="L4" s="229" t="s">
+      <c r="L4" s="216" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="215">
+      <c r="B5" s="202">
         <v>1</v>
       </c>
-      <c r="C5" s="223" t="s">
+      <c r="C5" s="210" t="s">
         <v>495</v>
       </c>
-      <c r="D5" s="224" t="s">
+      <c r="D5" s="211" t="s">
         <v>495</v>
       </c>
-      <c r="E5" s="218" t="s">
+      <c r="E5" s="205" t="s">
         <v>517</v>
       </c>
-      <c r="F5" s="212" t="s">
+      <c r="F5" s="199" t="s">
         <v>518</v>
       </c>
-      <c r="H5" s="215">
+      <c r="H5" s="202">
         <v>2</v>
       </c>
-      <c r="I5" s="223" t="s">
+      <c r="I5" s="210" t="s">
         <v>495</v>
       </c>
-      <c r="J5" s="224" t="s">
+      <c r="J5" s="211" t="s">
         <v>495</v>
       </c>
-      <c r="K5" s="218" t="s">
+      <c r="K5" s="205" t="s">
         <v>517</v>
       </c>
-      <c r="L5" s="212" t="s">
+      <c r="L5" s="199" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="216">
+      <c r="B6" s="203">
         <v>3</v>
       </c>
-      <c r="C6" s="225" t="s">
+      <c r="C6" s="212" t="s">
         <v>497</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="82" t="s">
         <v>498</v>
       </c>
-      <c r="E6" s="219" t="s">
+      <c r="E6" s="206" t="s">
         <v>499</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="82" t="s">
         <v>499</v>
       </c>
-      <c r="H6" s="216">
+      <c r="H6" s="203">
         <v>4</v>
       </c>
-      <c r="I6" s="225" t="s">
+      <c r="I6" s="212" t="s">
         <v>499</v>
       </c>
-      <c r="J6" s="87" t="s">
+      <c r="J6" s="82" t="s">
         <v>500</v>
       </c>
-      <c r="K6" s="219" t="s">
+      <c r="K6" s="206" t="s">
         <v>499</v>
       </c>
-      <c r="L6" s="87" t="s">
+      <c r="L6" s="82" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="216">
+      <c r="B7" s="203">
         <v>5</v>
       </c>
-      <c r="C7" s="225" t="s">
+      <c r="C7" s="212" t="s">
         <v>501</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="82" t="s">
         <v>498</v>
       </c>
-      <c r="E7" s="219" t="s">
+      <c r="E7" s="206" t="s">
         <v>499</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="82" t="s">
         <v>499</v>
       </c>
-      <c r="H7" s="216">
+      <c r="H7" s="203">
         <v>6</v>
       </c>
-      <c r="I7" s="225" t="s">
+      <c r="I7" s="212" t="s">
         <v>499</v>
       </c>
-      <c r="J7" s="87" t="s">
+      <c r="J7" s="82" t="s">
         <v>500</v>
       </c>
-      <c r="K7" s="219" t="s">
+      <c r="K7" s="206" t="s">
         <v>499</v>
       </c>
-      <c r="L7" s="87" t="s">
+      <c r="L7" s="82" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="216">
+      <c r="B8" s="203">
         <v>7</v>
       </c>
-      <c r="C8" s="225" t="s">
+      <c r="C8" s="212" t="s">
         <v>502</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="82" t="s">
         <v>503</v>
       </c>
-      <c r="E8" s="219" t="s">
+      <c r="E8" s="206" t="s">
         <v>503</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="82" t="s">
         <v>519</v>
       </c>
-      <c r="H8" s="216">
+      <c r="H8" s="203">
         <v>8</v>
       </c>
-      <c r="I8" s="225" t="s">
+      <c r="I8" s="212" t="s">
         <v>499</v>
       </c>
-      <c r="J8" s="87" t="s">
+      <c r="J8" s="82" t="s">
         <v>500</v>
       </c>
-      <c r="K8" s="219" t="s">
+      <c r="K8" s="206" t="s">
         <v>499</v>
       </c>
-      <c r="L8" s="87" t="s">
+      <c r="L8" s="82" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="216">
+      <c r="B9" s="203">
         <v>9</v>
       </c>
-      <c r="C9" s="225" t="s">
+      <c r="C9" s="212" t="s">
         <v>506</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="82" t="s">
         <v>507</v>
       </c>
-      <c r="E9" s="219" t="s">
+      <c r="E9" s="206" t="s">
         <v>507</v>
       </c>
-      <c r="F9" s="87" t="s">
+      <c r="F9" s="82" t="s">
         <v>520</v>
       </c>
-      <c r="H9" s="216">
+      <c r="H9" s="203">
         <v>10</v>
       </c>
-      <c r="I9" s="225" t="s">
+      <c r="I9" s="212" t="s">
         <v>499</v>
       </c>
-      <c r="J9" s="87" t="s">
+      <c r="J9" s="82" t="s">
         <v>500</v>
       </c>
-      <c r="K9" s="219" t="s">
+      <c r="K9" s="206" t="s">
         <v>499</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="82" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="216">
+      <c r="B10" s="203">
         <v>11</v>
       </c>
-      <c r="C10" s="225" t="s">
+      <c r="C10" s="212" t="s">
         <v>508</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="82" t="s">
         <v>508</v>
       </c>
-      <c r="E10" s="220"/>
-      <c r="F10" s="213"/>
-      <c r="H10" s="216">
+      <c r="E10" s="207"/>
+      <c r="F10" s="200"/>
+      <c r="H10" s="203">
         <v>12</v>
       </c>
-      <c r="I10" s="225" t="s">
+      <c r="I10" s="212" t="s">
         <v>499</v>
       </c>
-      <c r="J10" s="87" t="s">
+      <c r="J10" s="82" t="s">
         <v>500</v>
       </c>
-      <c r="K10" s="220"/>
-      <c r="L10" s="213"/>
+      <c r="K10" s="207"/>
+      <c r="L10" s="200"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="216">
+      <c r="B11" s="203">
         <v>13</v>
       </c>
-      <c r="C11" s="225" t="s">
+      <c r="C11" s="212" t="s">
         <v>509</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="82" t="s">
         <v>510</v>
       </c>
-      <c r="E11" s="220"/>
-      <c r="F11" s="213"/>
-      <c r="H11" s="216">
+      <c r="E11" s="207"/>
+      <c r="F11" s="200"/>
+      <c r="H11" s="203">
         <v>14</v>
       </c>
-      <c r="I11" s="225" t="s">
+      <c r="I11" s="212" t="s">
         <v>499</v>
       </c>
-      <c r="J11" s="87" t="s">
+      <c r="J11" s="82" t="s">
         <v>500</v>
       </c>
-      <c r="K11" s="220"/>
-      <c r="L11" s="213"/>
+      <c r="K11" s="207"/>
+      <c r="L11" s="200"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="216">
+      <c r="B12" s="203">
         <v>15</v>
       </c>
-      <c r="C12" s="225" t="s">
+      <c r="C12" s="212" t="s">
         <v>511</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="82" t="s">
         <v>511</v>
       </c>
-      <c r="E12" s="220"/>
-      <c r="F12" s="213"/>
-      <c r="H12" s="216">
+      <c r="E12" s="207"/>
+      <c r="F12" s="200"/>
+      <c r="H12" s="203">
         <v>16</v>
       </c>
-      <c r="I12" s="225" t="s">
+      <c r="I12" s="212" t="s">
         <v>499</v>
       </c>
-      <c r="J12" s="87" t="s">
+      <c r="J12" s="82" t="s">
         <v>500</v>
       </c>
-      <c r="K12" s="220"/>
-      <c r="L12" s="213"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="200"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="216">
+      <c r="B13" s="203">
         <v>17</v>
       </c>
-      <c r="C13" s="225" t="s">
+      <c r="C13" s="212" t="s">
         <v>508</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="82" t="s">
         <v>508</v>
       </c>
-      <c r="E13" s="220"/>
-      <c r="F13" s="213"/>
-      <c r="H13" s="216">
+      <c r="E13" s="207"/>
+      <c r="F13" s="200"/>
+      <c r="H13" s="203">
         <v>18</v>
       </c>
-      <c r="I13" s="225" t="s">
+      <c r="I13" s="212" t="s">
         <v>499</v>
       </c>
-      <c r="J13" s="87" t="s">
+      <c r="J13" s="82" t="s">
         <v>500</v>
       </c>
-      <c r="K13" s="220"/>
-      <c r="L13" s="213"/>
+      <c r="K13" s="207"/>
+      <c r="L13" s="200"/>
     </row>
     <row r="14" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="217">
+      <c r="B14" s="204">
         <v>19</v>
       </c>
-      <c r="C14" s="226" t="s">
+      <c r="C14" s="213" t="s">
         <v>512</v>
       </c>
-      <c r="D14" s="227" t="s">
+      <c r="D14" s="214" t="s">
         <v>508</v>
       </c>
-      <c r="E14" s="221"/>
-      <c r="F14" s="214"/>
-      <c r="H14" s="217">
+      <c r="E14" s="208"/>
+      <c r="F14" s="201"/>
+      <c r="H14" s="204">
         <v>20</v>
       </c>
-      <c r="I14" s="226" t="s">
+      <c r="I14" s="213" t="s">
         <v>499</v>
       </c>
-      <c r="J14" s="227" t="s">
+      <c r="J14" s="214" t="s">
         <v>500</v>
       </c>
-      <c r="K14" s="221"/>
-      <c r="L14" s="214"/>
+      <c r="K14" s="208"/>
+      <c r="L14" s="201"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="197" t="s">
         <v>522</v>
       </c>
       <c r="C15" s="5"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="210" t="s">
+      <c r="B16" s="197" t="s">
         <v>504</v>
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="210" t="s">
+      <c r="B17" s="197" t="s">
         <v>505</v>
       </c>
       <c r="C17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="210" t="s">
+      <c r="B18" s="197" t="s">
         <v>521</v>
       </c>
       <c r="C18" s="5"/>
@@ -10157,9 +11035,9 @@
       <c r="E22" s="5"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="E27" s="82"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="E27" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20190429.xlsx
+++ b/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20190429.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="609">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2270,10 +2270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PA6_FAN_PWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VDC_IN_AD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2316,10 +2312,6 @@
   </si>
   <si>
     <t>RV_CT_AD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM3_CH1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2408,6 +2400,30 @@
   </si>
   <si>
     <t>HIGH Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM16_CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA6_FAN_PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3_CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC6_PW_PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC7_PWR_ENA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC8_PRE_AMP_ENA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3008,7 +3024,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="335">
+  <cellXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3764,6 +3780,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3776,62 +3969,20 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3851,139 +4002,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4528,8 +4553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4583,10 +4608,10 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="269" t="s">
+      <c r="B3" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="270"/>
+      <c r="C3" s="315"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -4618,10 +4643,10 @@
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="271" t="s">
+      <c r="B4" s="316" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="272"/>
+      <c r="C4" s="317"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -4655,10 +4680,10 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="271" t="s">
+      <c r="B5" s="316" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="272"/>
+      <c r="C5" s="317"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -4694,10 +4719,10 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="271" t="s">
+      <c r="B6" s="316" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="272"/>
+      <c r="C6" s="317"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -4725,10 +4750,10 @@
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="273" t="s">
+      <c r="B7" s="318" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="274"/>
+      <c r="C7" s="319"/>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
@@ -4893,44 +4918,44 @@
     </row>
     <row r="13" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="266"/>
-      <c r="D14" s="266" t="s">
+      <c r="C14" s="312"/>
+      <c r="D14" s="312" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="266" t="s">
+      <c r="E14" s="312" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="283"/>
-      <c r="G14" s="261" t="s">
+      <c r="F14" s="313"/>
+      <c r="G14" s="320" t="s">
         <v>562</v>
       </c>
-      <c r="H14" s="262"/>
-      <c r="I14" s="262"/>
-      <c r="J14" s="263"/>
-      <c r="K14" s="275" t="s">
+      <c r="H14" s="321"/>
+      <c r="I14" s="321"/>
+      <c r="J14" s="322"/>
+      <c r="K14" s="302" t="s">
         <v>399</v>
       </c>
-      <c r="L14" s="276"/>
-      <c r="M14" s="275" t="s">
+      <c r="L14" s="303"/>
+      <c r="M14" s="302" t="s">
         <v>400</v>
       </c>
-      <c r="N14" s="277"/>
-      <c r="O14" s="277"/>
-      <c r="P14" s="277"/>
-      <c r="Q14" s="278"/>
-      <c r="R14" s="275" t="s">
+      <c r="N14" s="304"/>
+      <c r="O14" s="304"/>
+      <c r="P14" s="304"/>
+      <c r="Q14" s="305"/>
+      <c r="R14" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="S14" s="277"/>
-      <c r="T14" s="276" t="s">
+      <c r="S14" s="304"/>
+      <c r="T14" s="303" t="s">
         <v>375</v>
       </c>
-      <c r="U14" s="279"/>
-      <c r="V14" s="279"/>
-      <c r="W14" s="280"/>
+      <c r="U14" s="306"/>
+      <c r="V14" s="306"/>
+      <c r="W14" s="307"/>
     </row>
     <row r="15" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="113" t="s">
@@ -4939,7 +4964,7 @@
       <c r="C15" s="114" t="s">
         <v>377</v>
       </c>
-      <c r="D15" s="267"/>
+      <c r="D15" s="326"/>
       <c r="E15" s="114" t="s">
         <v>162</v>
       </c>
@@ -5008,17 +5033,17 @@
       <c r="D16" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="264" t="s">
+      <c r="E16" s="323" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="290"/>
+      <c r="F16" s="324"/>
       <c r="G16" s="33"/>
       <c r="H16" s="253"/>
-      <c r="I16" s="322" t="s">
+      <c r="I16" s="289" t="s">
         <v>563</v>
       </c>
       <c r="J16" s="254"/>
-      <c r="K16" s="306"/>
+      <c r="K16" s="273"/>
       <c r="L16" s="143"/>
       <c r="M16" s="144"/>
       <c r="N16" s="145"/>
@@ -5045,14 +5070,14 @@
       <c r="E17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="291" t="s">
+      <c r="F17" s="261" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="326"/>
-      <c r="H17" s="320"/>
-      <c r="I17" s="320"/>
-      <c r="J17" s="327"/>
-      <c r="K17" s="307" t="s">
+      <c r="G17" s="293"/>
+      <c r="H17" s="287"/>
+      <c r="I17" s="287"/>
+      <c r="J17" s="294"/>
+      <c r="K17" s="274" t="s">
         <v>407</v>
       </c>
       <c r="L17" s="147" t="s">
@@ -5099,7 +5124,7 @@
       <c r="E18" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="292" t="s">
+      <c r="F18" s="262" t="s">
         <v>87</v>
       </c>
       <c r="G18" s="98"/>
@@ -5108,7 +5133,7 @@
         <v>564</v>
       </c>
       <c r="J18" s="97"/>
-      <c r="K18" s="307" t="s">
+      <c r="K18" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L18" s="147" t="s">
@@ -5155,7 +5180,7 @@
       <c r="E19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="292" t="s">
+      <c r="F19" s="262" t="s">
         <v>88</v>
       </c>
       <c r="G19" s="98"/>
@@ -5164,7 +5189,7 @@
         <v>564</v>
       </c>
       <c r="J19" s="97"/>
-      <c r="K19" s="307" t="s">
+      <c r="K19" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L19" s="147" t="s">
@@ -5211,7 +5236,7 @@
       <c r="E20" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="292" t="s">
+      <c r="F20" s="262" t="s">
         <v>92</v>
       </c>
       <c r="G20" s="98"/>
@@ -5220,7 +5245,7 @@
         <v>565</v>
       </c>
       <c r="J20" s="97"/>
-      <c r="K20" s="307" t="s">
+      <c r="K20" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L20" s="147" t="s">
@@ -5267,7 +5292,7 @@
       <c r="E21" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="292" t="s">
+      <c r="F21" s="262" t="s">
         <v>96</v>
       </c>
       <c r="G21" s="98"/>
@@ -5276,7 +5301,7 @@
         <v>565</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="307" t="s">
+      <c r="K21" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L21" s="147" t="s">
@@ -5320,17 +5345,17 @@
       <c r="D22" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="268" t="s">
+      <c r="E22" s="327" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="293"/>
+      <c r="F22" s="328"/>
       <c r="G22" s="47"/>
       <c r="H22" s="256"/>
       <c r="I22" s="256" t="s">
         <v>566</v>
       </c>
       <c r="J22" s="257"/>
-      <c r="K22" s="308" t="s">
+      <c r="K22" s="275" t="s">
         <v>411</v>
       </c>
       <c r="L22" s="148" t="s">
@@ -5377,20 +5402,20 @@
       <c r="E23" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="291" t="s">
+      <c r="F23" s="261" t="s">
         <v>541</v>
       </c>
-      <c r="G23" s="332" t="s">
+      <c r="G23" s="299" t="s">
         <v>541</v>
       </c>
-      <c r="H23" s="330" t="s">
+      <c r="H23" s="297" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>569</v>
-      </c>
-      <c r="J23" s="331"/>
-      <c r="K23" s="309" t="s">
+        <v>568</v>
+      </c>
+      <c r="J23" s="298"/>
+      <c r="K23" s="276" t="s">
         <v>414</v>
       </c>
       <c r="L23" s="152" t="s">
@@ -5439,20 +5464,20 @@
       <c r="E24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="291" t="s">
+      <c r="F24" s="261" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="332" t="s">
+      <c r="G24" s="299" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="330" t="s">
+      <c r="H24" s="297" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>570</v>
-      </c>
-      <c r="J24" s="331"/>
-      <c r="K24" s="310" t="s">
+        <v>569</v>
+      </c>
+      <c r="J24" s="298"/>
+      <c r="K24" s="277" t="s">
         <v>420</v>
       </c>
       <c r="L24" s="156" t="s">
@@ -5499,20 +5524,20 @@
       <c r="E25" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="291" t="s">
+      <c r="F25" s="261" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="332" t="s">
+      <c r="G25" s="299" t="s">
         <v>103</v>
       </c>
-      <c r="H25" s="330" t="s">
+      <c r="H25" s="297" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>571</v>
-      </c>
-      <c r="J25" s="331"/>
-      <c r="K25" s="310" t="s">
+        <v>570</v>
+      </c>
+      <c r="J25" s="298"/>
+      <c r="K25" s="277" t="s">
         <v>420</v>
       </c>
       <c r="L25" s="156" t="s">
@@ -5559,20 +5584,20 @@
       <c r="E26" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="291" t="s">
+      <c r="F26" s="261" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="332" t="s">
+      <c r="G26" s="299" t="s">
         <v>180</v>
       </c>
-      <c r="H26" s="330" t="s">
+      <c r="H26" s="297" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>572</v>
-      </c>
-      <c r="J26" s="331"/>
-      <c r="K26" s="310" t="s">
+        <v>571</v>
+      </c>
+      <c r="J26" s="298"/>
+      <c r="K26" s="277" t="s">
         <v>420</v>
       </c>
       <c r="L26" s="156" t="s">
@@ -5614,17 +5639,17 @@
       <c r="D27" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="281" t="s">
+      <c r="E27" s="308" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="294"/>
+      <c r="F27" s="309"/>
       <c r="G27" s="16"/>
       <c r="H27" s="249"/>
       <c r="I27" s="249" t="s">
         <v>567</v>
       </c>
       <c r="J27" s="250"/>
-      <c r="K27" s="311"/>
+      <c r="K27" s="278"/>
       <c r="L27" s="157"/>
       <c r="M27" s="16"/>
       <c r="N27" s="136"/>
@@ -5648,17 +5673,17 @@
       <c r="D28" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="281" t="s">
+      <c r="E28" s="308" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="294"/>
+      <c r="F28" s="309"/>
       <c r="G28" s="16"/>
       <c r="H28" s="249"/>
-      <c r="I28" s="319" t="s">
+      <c r="I28" s="286" t="s">
         <v>563</v>
       </c>
       <c r="J28" s="250"/>
-      <c r="K28" s="311"/>
+      <c r="K28" s="278"/>
       <c r="L28" s="157"/>
       <c r="M28" s="16"/>
       <c r="N28" s="136"/>
@@ -5685,20 +5710,20 @@
       <c r="E29" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="291" t="s">
+      <c r="F29" s="261" t="s">
         <v>110</v>
       </c>
-      <c r="G29" s="332" t="s">
+      <c r="G29" s="299" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="330" t="s">
+      <c r="H29" s="297" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>581</v>
-      </c>
-      <c r="J29" s="331"/>
-      <c r="K29" s="307" t="s">
+        <v>580</v>
+      </c>
+      <c r="J29" s="298"/>
+      <c r="K29" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L29" s="147" t="s">
@@ -5745,20 +5770,20 @@
       <c r="E30" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="291" t="s">
+      <c r="F30" s="261" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="332" t="s">
+      <c r="G30" s="299" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="330" t="s">
+      <c r="H30" s="297" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>573</v>
-      </c>
-      <c r="J30" s="331"/>
-      <c r="K30" s="312" t="s">
+        <v>572</v>
+      </c>
+      <c r="J30" s="298"/>
+      <c r="K30" s="279" t="s">
         <v>427</v>
       </c>
       <c r="L30" s="158" t="s">
@@ -5801,14 +5826,14 @@
       <c r="E31" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="295" t="s">
+      <c r="F31" s="263" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="326"/>
-      <c r="H31" s="320"/>
-      <c r="I31" s="320"/>
-      <c r="J31" s="327"/>
-      <c r="K31" s="312" t="s">
+      <c r="G31" s="293"/>
+      <c r="H31" s="287"/>
+      <c r="I31" s="287"/>
+      <c r="J31" s="294"/>
+      <c r="K31" s="279" t="s">
         <v>427</v>
       </c>
       <c r="L31" s="158" t="s">
@@ -5845,14 +5870,14 @@
       <c r="E32" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="296" t="s">
+      <c r="F32" s="264" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="326"/>
-      <c r="H32" s="320"/>
-      <c r="I32" s="320"/>
-      <c r="J32" s="327"/>
-      <c r="K32" s="307" t="s">
+      <c r="G32" s="293"/>
+      <c r="H32" s="287"/>
+      <c r="I32" s="287"/>
+      <c r="J32" s="294"/>
+      <c r="K32" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L32" s="147" t="s">
@@ -5896,17 +5921,17 @@
       <c r="D33" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="281" t="s">
+      <c r="E33" s="308" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="294"/>
+      <c r="F33" s="309"/>
       <c r="G33" s="16"/>
       <c r="H33" s="249"/>
       <c r="I33" s="249" t="s">
         <v>567</v>
       </c>
       <c r="J33" s="250"/>
-      <c r="K33" s="311"/>
+      <c r="K33" s="278"/>
       <c r="L33" s="157"/>
       <c r="M33" s="16"/>
       <c r="N33" s="136"/>
@@ -5930,17 +5955,17 @@
       <c r="D34" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="281" t="s">
+      <c r="E34" s="308" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="294"/>
+      <c r="F34" s="309"/>
       <c r="G34" s="16"/>
       <c r="H34" s="249"/>
-      <c r="I34" s="319" t="s">
+      <c r="I34" s="286" t="s">
         <v>563</v>
       </c>
       <c r="J34" s="250"/>
-      <c r="K34" s="311"/>
+      <c r="K34" s="278"/>
       <c r="L34" s="157"/>
       <c r="M34" s="16"/>
       <c r="N34" s="136"/>
@@ -5967,14 +5992,14 @@
       <c r="E35" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="291" t="s">
+      <c r="F35" s="261" t="s">
         <v>115</v>
       </c>
-      <c r="G35" s="326"/>
-      <c r="H35" s="320"/>
-      <c r="I35" s="320"/>
-      <c r="J35" s="327"/>
-      <c r="K35" s="307" t="s">
+      <c r="G35" s="293"/>
+      <c r="H35" s="287"/>
+      <c r="I35" s="287"/>
+      <c r="J35" s="294"/>
+      <c r="K35" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L35" s="147" t="s">
@@ -6021,14 +6046,14 @@
       <c r="E36" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="291" t="s">
+      <c r="F36" s="261" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="326"/>
-      <c r="H36" s="320"/>
-      <c r="I36" s="320"/>
-      <c r="J36" s="327"/>
-      <c r="K36" s="307" t="s">
+      <c r="G36" s="293"/>
+      <c r="H36" s="287"/>
+      <c r="I36" s="287"/>
+      <c r="J36" s="294"/>
+      <c r="K36" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L36" s="147" t="s">
@@ -6075,20 +6100,20 @@
       <c r="E37" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="F37" s="291" t="s">
+      <c r="F37" s="261" t="s">
         <v>117</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="H37" s="181" t="s">
         <v>446</v>
       </c>
       <c r="I37" s="256" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="J37" s="257"/>
-      <c r="K37" s="307" t="s">
+      <c r="K37" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L37" s="147" t="s">
@@ -6140,14 +6165,14 @@
       <c r="E38" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="F38" s="291" t="s">
+      <c r="F38" s="261" t="s">
         <v>118</v>
       </c>
-      <c r="G38" s="326"/>
-      <c r="H38" s="320"/>
-      <c r="I38" s="320"/>
-      <c r="J38" s="327"/>
-      <c r="K38" s="313" t="s">
+      <c r="G38" s="293"/>
+      <c r="H38" s="287"/>
+      <c r="I38" s="287"/>
+      <c r="J38" s="294"/>
+      <c r="K38" s="280" t="s">
         <v>432</v>
       </c>
       <c r="L38" s="161" t="s">
@@ -6188,14 +6213,14 @@
       <c r="E39" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="291" t="s">
+      <c r="F39" s="261" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="326"/>
-      <c r="H39" s="320"/>
-      <c r="I39" s="320"/>
-      <c r="J39" s="327"/>
-      <c r="K39" s="313" t="s">
+      <c r="G39" s="293"/>
+      <c r="H39" s="287"/>
+      <c r="I39" s="287"/>
+      <c r="J39" s="294"/>
+      <c r="K39" s="280" t="s">
         <v>435</v>
       </c>
       <c r="L39" s="161" t="s">
@@ -6242,14 +6267,14 @@
       <c r="E40" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="291" t="s">
+      <c r="F40" s="261" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="326"/>
-      <c r="H40" s="320"/>
-      <c r="I40" s="320"/>
-      <c r="J40" s="327"/>
-      <c r="K40" s="309" t="s">
+      <c r="G40" s="293"/>
+      <c r="H40" s="287"/>
+      <c r="I40" s="287"/>
+      <c r="J40" s="294"/>
+      <c r="K40" s="276" t="s">
         <v>437</v>
       </c>
       <c r="L40" s="165" t="s">
@@ -6298,7 +6323,7 @@
       <c r="E41" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="F41" s="291" t="s">
+      <c r="F41" s="261" t="s">
         <v>131</v>
       </c>
       <c r="G41" s="62" t="s">
@@ -6308,12 +6333,12 @@
         <v>446</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="J41" s="333" t="s">
-        <v>588</v>
-      </c>
-      <c r="K41" s="310" t="s">
+        <v>585</v>
+      </c>
+      <c r="J41" s="300" t="s">
+        <v>586</v>
+      </c>
+      <c r="K41" s="277" t="s">
         <v>420</v>
       </c>
       <c r="L41" s="156" t="s">
@@ -6362,7 +6387,7 @@
       <c r="E42" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="291" t="s">
+      <c r="F42" s="261" t="s">
         <v>182</v>
       </c>
       <c r="G42" s="62" t="s">
@@ -6372,12 +6397,12 @@
         <v>446</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="J42" s="333" t="s">
-        <v>589</v>
-      </c>
-      <c r="K42" s="308" t="s">
+        <v>588</v>
+      </c>
+      <c r="J42" s="300" t="s">
+        <v>587</v>
+      </c>
+      <c r="K42" s="275" t="s">
         <v>427</v>
       </c>
       <c r="L42" s="156" t="s">
@@ -6433,15 +6458,15 @@
         <v>17</v>
       </c>
       <c r="H43" s="156" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I43" s="237" t="s">
-        <v>593</v>
-      </c>
-      <c r="J43" s="334" t="s">
         <v>591</v>
       </c>
-      <c r="K43" s="307" t="s">
+      <c r="J43" s="301" t="s">
+        <v>589</v>
+      </c>
+      <c r="K43" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L43" s="147" t="s">
@@ -6491,17 +6516,17 @@
       <c r="F44" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="325" t="s">
+      <c r="G44" s="292" t="s">
+        <v>581</v>
+      </c>
+      <c r="H44" s="297" t="s">
+        <v>590</v>
+      </c>
+      <c r="I44" s="44" t="s">
         <v>583</v>
       </c>
-      <c r="H44" s="330" t="s">
-        <v>592</v>
-      </c>
-      <c r="I44" s="44" t="s">
-        <v>585</v>
-      </c>
       <c r="J44" s="41"/>
-      <c r="K44" s="307" t="s">
+      <c r="K44" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L44" s="147" t="s">
@@ -6551,17 +6576,17 @@
       <c r="F45" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G45" s="325" t="s">
+      <c r="G45" s="292" t="s">
+        <v>582</v>
+      </c>
+      <c r="H45" s="297" t="s">
+        <v>590</v>
+      </c>
+      <c r="I45" s="44" t="s">
         <v>584</v>
       </c>
-      <c r="H45" s="330" t="s">
-        <v>592</v>
-      </c>
-      <c r="I45" s="44" t="s">
-        <v>586</v>
-      </c>
       <c r="J45" s="41"/>
-      <c r="K45" s="307" t="s">
+      <c r="K45" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L45" s="147" t="s">
@@ -6605,17 +6630,17 @@
       <c r="D46" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="281" t="s">
+      <c r="E46" s="308" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="294"/>
+      <c r="F46" s="309"/>
       <c r="G46" s="16"/>
       <c r="H46" s="249"/>
       <c r="I46" s="249" t="s">
         <v>567</v>
       </c>
       <c r="J46" s="250"/>
-      <c r="K46" s="311"/>
+      <c r="K46" s="278"/>
       <c r="L46" s="157"/>
       <c r="M46" s="16"/>
       <c r="N46" s="136"/>
@@ -6639,17 +6664,17 @@
       <c r="D47" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="282" t="s">
+      <c r="E47" s="310" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="297"/>
+      <c r="F47" s="311"/>
       <c r="G47" s="16"/>
       <c r="H47" s="249"/>
-      <c r="I47" s="319" t="s">
+      <c r="I47" s="286" t="s">
         <v>563</v>
       </c>
       <c r="J47" s="250"/>
-      <c r="K47" s="311"/>
+      <c r="K47" s="278"/>
       <c r="L47" s="157"/>
       <c r="M47" s="16"/>
       <c r="N47" s="136"/>
@@ -6676,22 +6701,22 @@
       <c r="E48" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="298" t="s">
+      <c r="F48" s="265" t="s">
         <v>101</v>
       </c>
       <c r="G48" s="62" t="s">
+        <v>592</v>
+      </c>
+      <c r="H48" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="I48" s="237" t="s">
         <v>594</v>
       </c>
-      <c r="H48" s="156" t="s">
-        <v>592</v>
-      </c>
-      <c r="I48" s="237" t="s">
-        <v>596</v>
-      </c>
-      <c r="J48" s="334" t="s">
-        <v>591</v>
-      </c>
-      <c r="K48" s="310" t="s">
+      <c r="J48" s="301" t="s">
+        <v>589</v>
+      </c>
+      <c r="K48" s="277" t="s">
         <v>420</v>
       </c>
       <c r="L48" s="156" t="s">
@@ -6746,18 +6771,18 @@
         <v>101</v>
       </c>
       <c r="G49" s="62" t="s">
+        <v>593</v>
+      </c>
+      <c r="H49" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="I49" s="237" t="s">
         <v>595</v>
       </c>
-      <c r="H49" s="156" t="s">
-        <v>592</v>
-      </c>
-      <c r="I49" s="237" t="s">
-        <v>597</v>
-      </c>
-      <c r="J49" s="334" t="s">
-        <v>591</v>
-      </c>
-      <c r="K49" s="310" t="s">
+      <c r="J49" s="301" t="s">
+        <v>589</v>
+      </c>
+      <c r="K49" s="277" t="s">
         <v>420</v>
       </c>
       <c r="L49" s="156" t="s">
@@ -6810,16 +6835,16 @@
         <v>101</v>
       </c>
       <c r="G50" s="62" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H50" s="156" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I50" s="237" t="s">
-        <v>598</v>
-      </c>
-      <c r="J50" s="334"/>
-      <c r="K50" s="310" t="s">
+        <v>596</v>
+      </c>
+      <c r="J50" s="301"/>
+      <c r="K50" s="277" t="s">
         <v>420</v>
       </c>
       <c r="L50" s="156" t="s">
@@ -6856,14 +6881,14 @@
       <c r="E51" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F51" s="299" t="s">
+      <c r="F51" s="266" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="323"/>
-      <c r="H51" s="321"/>
-      <c r="I51" s="321"/>
-      <c r="J51" s="324"/>
-      <c r="K51" s="310" t="s">
+      <c r="G51" s="290"/>
+      <c r="H51" s="288"/>
+      <c r="I51" s="288"/>
+      <c r="J51" s="291"/>
+      <c r="K51" s="277" t="s">
         <v>420</v>
       </c>
       <c r="L51" s="156" t="s">
@@ -6903,11 +6928,17 @@
       <c r="F52" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="310" t="s">
+      <c r="G52" s="295" t="s">
+        <v>605</v>
+      </c>
+      <c r="H52" s="181" t="s">
+        <v>446</v>
+      </c>
+      <c r="I52" s="49" t="s">
+        <v>606</v>
+      </c>
+      <c r="J52" s="45"/>
+      <c r="K52" s="277" t="s">
         <v>420</v>
       </c>
       <c r="L52" s="156" t="s">
@@ -6947,11 +6978,17 @@
       <c r="F53" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G53" s="15"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="309" t="s">
+      <c r="G53" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="I53" s="237" t="s">
+        <v>607</v>
+      </c>
+      <c r="J53" s="301"/>
+      <c r="K53" s="276" t="s">
         <v>457</v>
       </c>
       <c r="L53" s="152" t="s">
@@ -6995,11 +7032,17 @@
       <c r="F54" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="15"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="307" t="s">
+      <c r="G54" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="I54" s="237" t="s">
+        <v>608</v>
+      </c>
+      <c r="J54" s="301"/>
+      <c r="K54" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L54" s="147" t="s">
@@ -7043,7 +7086,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="7"/>
-      <c r="K55" s="307" t="s">
+      <c r="K55" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L55" s="147" t="s">
@@ -7080,16 +7123,16 @@
       <c r="E56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="F56" s="300" t="s">
+      <c r="F56" s="267" t="s">
         <v>101</v>
       </c>
-      <c r="G56" s="15"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="J56" s="7"/>
-      <c r="K56" s="314" t="s">
+      <c r="G56" s="335"/>
+      <c r="H56" s="336"/>
+      <c r="I56" s="336" t="s">
+        <v>573</v>
+      </c>
+      <c r="J56" s="337"/>
+      <c r="K56" s="281" t="s">
         <v>460</v>
       </c>
       <c r="L56" s="175" t="s">
@@ -7138,20 +7181,20 @@
       <c r="E57" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="F57" s="301" t="s">
+      <c r="F57" s="268" t="s">
         <v>101</v>
       </c>
-      <c r="G57" s="325" t="s">
-        <v>575</v>
+      <c r="G57" s="292" t="s">
+        <v>574</v>
       </c>
       <c r="H57" s="178" t="s">
         <v>51</v>
       </c>
       <c r="I57" s="44" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J57" s="41"/>
-      <c r="K57" s="315" t="s">
+      <c r="K57" s="282" t="s">
         <v>464</v>
       </c>
       <c r="L57" s="178" t="s">
@@ -7200,20 +7243,20 @@
       <c r="E58" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="301" t="s">
+      <c r="F58" s="268" t="s">
         <v>101</v>
       </c>
-      <c r="G58" s="325" t="s">
-        <v>576</v>
+      <c r="G58" s="292" t="s">
+        <v>575</v>
       </c>
       <c r="H58" s="178" t="s">
         <v>51</v>
       </c>
       <c r="I58" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J58" s="41"/>
-      <c r="K58" s="315" t="s">
+      <c r="K58" s="282" t="s">
         <v>468</v>
       </c>
       <c r="L58" s="178" t="s">
@@ -7262,16 +7305,16 @@
       <c r="E59" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="F59" s="302" t="s">
+      <c r="F59" s="269" t="s">
         <v>146</v>
       </c>
-      <c r="G59" s="326"/>
-      <c r="H59" s="320"/>
-      <c r="I59" s="320" t="s">
-        <v>577</v>
-      </c>
-      <c r="J59" s="327"/>
-      <c r="K59" s="314" t="s">
+      <c r="G59" s="98"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="99" t="s">
+        <v>576</v>
+      </c>
+      <c r="J59" s="97"/>
+      <c r="K59" s="281" t="s">
         <v>469</v>
       </c>
       <c r="L59" s="175" t="s">
@@ -7320,14 +7363,14 @@
       <c r="E60" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="291" t="s">
+      <c r="F60" s="261" t="s">
         <v>148</v>
       </c>
-      <c r="G60" s="326"/>
-      <c r="H60" s="320"/>
-      <c r="I60" s="320"/>
-      <c r="J60" s="327"/>
-      <c r="K60" s="310" t="s">
+      <c r="G60" s="293"/>
+      <c r="H60" s="287"/>
+      <c r="I60" s="287"/>
+      <c r="J60" s="294"/>
+      <c r="K60" s="277" t="s">
         <v>420</v>
       </c>
       <c r="L60" s="156" t="s">
@@ -7374,16 +7417,16 @@
       <c r="E61" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="F61" s="303" t="s">
+      <c r="F61" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="328"/>
+      <c r="G61" s="295"/>
       <c r="H61" s="49"/>
       <c r="I61" s="49" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J61" s="45"/>
-      <c r="K61" s="316" t="s">
+      <c r="K61" s="283" t="s">
         <v>473</v>
       </c>
       <c r="L61" s="181" t="s">
@@ -7427,17 +7470,17 @@
       <c r="D62" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="281" t="s">
+      <c r="E62" s="308" t="s">
         <v>114</v>
       </c>
-      <c r="F62" s="294"/>
+      <c r="F62" s="309"/>
       <c r="G62" s="16"/>
       <c r="H62" s="249"/>
       <c r="I62" s="249" t="s">
         <v>567</v>
       </c>
       <c r="J62" s="250"/>
-      <c r="K62" s="311"/>
+      <c r="K62" s="278"/>
       <c r="L62" s="157"/>
       <c r="M62" s="16"/>
       <c r="N62" s="136"/>
@@ -7461,17 +7504,17 @@
       <c r="D63" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="282" t="s">
+      <c r="E63" s="310" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="297"/>
+      <c r="F63" s="311"/>
       <c r="G63" s="16"/>
       <c r="H63" s="249"/>
-      <c r="I63" s="319" t="s">
+      <c r="I63" s="286" t="s">
         <v>563</v>
       </c>
       <c r="J63" s="250"/>
-      <c r="K63" s="311"/>
+      <c r="K63" s="278"/>
       <c r="L63" s="157"/>
       <c r="M63" s="16"/>
       <c r="N63" s="136"/>
@@ -7498,16 +7541,16 @@
       <c r="E64" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="F64" s="304" t="s">
+      <c r="F64" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="G64" s="328"/>
+      <c r="G64" s="295"/>
       <c r="H64" s="49"/>
       <c r="I64" s="49" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J64" s="45"/>
-      <c r="K64" s="316" t="s">
+      <c r="K64" s="283" t="s">
         <v>475</v>
       </c>
       <c r="L64" s="181" t="s">
@@ -7561,7 +7604,7 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="7"/>
-      <c r="K65" s="308" t="s">
+      <c r="K65" s="275" t="s">
         <v>427</v>
       </c>
       <c r="L65" s="156" t="s">
@@ -7619,7 +7662,7 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="7"/>
-      <c r="K66" s="307" t="s">
+      <c r="K66" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L66" s="147" t="s">
@@ -7673,7 +7716,7 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="307" t="s">
+      <c r="K67" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L67" s="147" t="s">
@@ -7727,7 +7770,7 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="307" t="s">
+      <c r="K68" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L68" s="147" t="s">
@@ -7781,7 +7824,7 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="7"/>
-      <c r="K69" s="307" t="s">
+      <c r="K69" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L69" s="147" t="s">
@@ -7828,7 +7871,7 @@
       <c r="E70" s="94" t="s">
         <v>376</v>
       </c>
-      <c r="F70" s="305" t="s">
+      <c r="F70" s="272" t="s">
         <v>101</v>
       </c>
       <c r="G70" s="62" t="s">
@@ -7838,12 +7881,12 @@
         <v>18</v>
       </c>
       <c r="I70" s="237" t="s">
-        <v>600</v>
-      </c>
-      <c r="J70" s="334" t="s">
-        <v>591</v>
-      </c>
-      <c r="K70" s="307" t="s">
+        <v>598</v>
+      </c>
+      <c r="J70" s="301" t="s">
+        <v>589</v>
+      </c>
+      <c r="K70" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L70" s="147" t="s">
@@ -7900,12 +7943,12 @@
         <v>18</v>
       </c>
       <c r="I71" s="237" t="s">
-        <v>601</v>
-      </c>
-      <c r="J71" s="334" t="s">
-        <v>591</v>
-      </c>
-      <c r="K71" s="317" t="s">
+        <v>599</v>
+      </c>
+      <c r="J71" s="301" t="s">
+        <v>589</v>
+      </c>
+      <c r="K71" s="284" t="s">
         <v>480</v>
       </c>
       <c r="L71" s="165" t="s">
@@ -7954,14 +7997,14 @@
       <c r="E72" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F72" s="291" t="s">
+      <c r="F72" s="261" t="s">
         <v>160</v>
       </c>
-      <c r="G72" s="326"/>
-      <c r="H72" s="320"/>
-      <c r="I72" s="320"/>
-      <c r="J72" s="327"/>
-      <c r="K72" s="307" t="s">
+      <c r="G72" s="293"/>
+      <c r="H72" s="287"/>
+      <c r="I72" s="287"/>
+      <c r="J72" s="294"/>
+      <c r="K72" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L72" s="147" t="s">
@@ -8018,12 +8061,12 @@
         <v>446</v>
       </c>
       <c r="I73" s="237" t="s">
+        <v>600</v>
+      </c>
+      <c r="J73" s="301" t="s">
         <v>602</v>
       </c>
-      <c r="J73" s="334" t="s">
-        <v>604</v>
-      </c>
-      <c r="K73" s="317" t="s">
+      <c r="K73" s="284" t="s">
         <v>485</v>
       </c>
       <c r="L73" s="165" t="s">
@@ -8077,15 +8120,15 @@
         <v>17</v>
       </c>
       <c r="H74" s="156" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I74" s="237" t="s">
-        <v>603</v>
-      </c>
-      <c r="J74" s="334" t="s">
-        <v>591</v>
-      </c>
-      <c r="K74" s="307" t="s">
+        <v>601</v>
+      </c>
+      <c r="J74" s="301" t="s">
+        <v>589</v>
+      </c>
+      <c r="K74" s="274" t="s">
         <v>409</v>
       </c>
       <c r="L74" s="147" t="s">
@@ -8127,17 +8170,17 @@
       <c r="D75" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E75" s="281" t="s">
+      <c r="E75" s="308" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="294"/>
+      <c r="F75" s="309"/>
       <c r="G75" s="16"/>
       <c r="H75" s="249"/>
       <c r="I75" s="249" t="s">
         <v>567</v>
       </c>
       <c r="J75" s="250"/>
-      <c r="K75" s="311" t="s">
+      <c r="K75" s="278" t="s">
         <v>487</v>
       </c>
       <c r="L75" s="157"/>
@@ -8179,7 +8222,7 @@
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="7"/>
-      <c r="K76" s="310" t="s">
+      <c r="K76" s="277" t="s">
         <v>420</v>
       </c>
       <c r="L76" s="156" t="s">
@@ -8242,12 +8285,12 @@
         <v>18</v>
       </c>
       <c r="I77" s="237" t="s">
-        <v>580</v>
-      </c>
-      <c r="J77" s="334" t="s">
-        <v>591</v>
-      </c>
-      <c r="K77" s="317" t="s">
+        <v>579</v>
+      </c>
+      <c r="J77" s="301" t="s">
+        <v>589</v>
+      </c>
+      <c r="K77" s="284" t="s">
         <v>492</v>
       </c>
       <c r="L77" s="165" t="s">
@@ -8295,17 +8338,17 @@
       <c r="D78" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E78" s="281" t="s">
+      <c r="E78" s="308" t="s">
         <v>114</v>
       </c>
-      <c r="F78" s="294"/>
+      <c r="F78" s="309"/>
       <c r="G78" s="16"/>
       <c r="H78" s="249"/>
       <c r="I78" s="249" t="s">
         <v>567</v>
       </c>
       <c r="J78" s="250"/>
-      <c r="K78" s="311"/>
+      <c r="K78" s="278"/>
       <c r="L78" s="157"/>
       <c r="M78" s="16"/>
       <c r="N78" s="136"/>
@@ -8329,17 +8372,17 @@
       <c r="D79" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="282" t="s">
+      <c r="E79" s="310" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="297"/>
+      <c r="F79" s="311"/>
       <c r="G79" s="17"/>
       <c r="H79" s="251"/>
-      <c r="I79" s="329" t="s">
+      <c r="I79" s="296" t="s">
         <v>563</v>
       </c>
       <c r="J79" s="252"/>
-      <c r="K79" s="318"/>
+      <c r="K79" s="285"/>
       <c r="L79" s="195"/>
       <c r="M79" s="17"/>
       <c r="N79" s="137"/>
@@ -8544,6 +8587,16 @@
   </sheetData>
   <autoFilter ref="B15:W79"/>
   <mergeCells count="26">
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:Q14"/>
     <mergeCell ref="T14:W14"/>
@@ -8560,16 +8613,6 @@
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10655,31 +10698,31 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="286" t="s">
+      <c r="B3" s="331" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="288" t="s">
+      <c r="C3" s="333" t="s">
         <v>514</v>
       </c>
-      <c r="D3" s="289"/>
-      <c r="E3" s="284" t="s">
+      <c r="D3" s="334"/>
+      <c r="E3" s="329" t="s">
         <v>515</v>
       </c>
-      <c r="F3" s="285"/>
-      <c r="H3" s="286" t="s">
+      <c r="F3" s="330"/>
+      <c r="H3" s="331" t="s">
         <v>317</v>
       </c>
-      <c r="I3" s="288" t="s">
+      <c r="I3" s="333" t="s">
         <v>514</v>
       </c>
-      <c r="J3" s="289"/>
-      <c r="K3" s="284" t="s">
+      <c r="J3" s="334"/>
+      <c r="K3" s="329" t="s">
         <v>515</v>
       </c>
-      <c r="L3" s="285"/>
+      <c r="L3" s="330"/>
     </row>
     <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="287"/>
+      <c r="B4" s="332"/>
       <c r="C4" s="209" t="s">
         <v>513</v>
       </c>
@@ -10692,7 +10735,7 @@
       <c r="F4" s="216" t="s">
         <v>516</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="332"/>
       <c r="I4" s="209" t="s">
         <v>301</v>
       </c>

--- a/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20190429.xlsx
+++ b/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20190429.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52317E15-C001-49D1-96F6-F0C2F9F15F7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="12915"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pin-map" sheetId="6" r:id="rId1"/>
@@ -13,14 +14,21 @@
     <sheet name="JTAG" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pin-map'!$B$15:$W$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pin-map'!$B$15:$X$79</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="612">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2274,14 +2282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PW_IS_AD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FET_T_AD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FAN_PW_AD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2424,13 +2424,34 @@
   </si>
   <si>
     <t>PC8_PRE_AMP_ENA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+48 input Voltage monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDC_OUT_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Under INPUT Voltage : 40V 이하
+Over INPUT Voltage : 56V 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Over OUTPUT Voltage : 56V 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buck output Voltage monitor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -2604,7 +2625,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -3019,12 +3040,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3903,87 +3946,99 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4002,19 +4057,58 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 10" xfId="1"/>
+    <cellStyle name="표준 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4038,20 +4132,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>515471</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>107538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>672353</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>133628</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4111,7 +4211,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4166,7 +4272,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4221,7 +4333,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4307,7 +4425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4340,9 +4458,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4375,6 +4510,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4550,42 +4702,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:AB95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="7.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.875" style="5" customWidth="1"/>
-    <col min="6" max="10" width="18.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="25.25" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="5" customWidth="1"/>
-    <col min="13" max="13" width="15.625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="24.125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="19.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="44.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="25.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.125" style="5" customWidth="1"/>
-    <col min="21" max="21" width="24.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="24.8984375" style="5" customWidth="1"/>
+    <col min="6" max="9" width="18.09765625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="26.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="25.19921875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.19921875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="15.59765625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="24.09765625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="11.59765625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="19.69921875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="44.59765625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.09765625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="24.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="20" t="s">
         <v>523</v>
       </c>
@@ -4596,22 +4750,23 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="R2" s="20" t="s">
+      <c r="N2" s="1"/>
+      <c r="S2" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="314" t="s">
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B3" s="316" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="315"/>
+      <c r="C3" s="317"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -4623,30 +4778,31 @@
       <c r="H3" s="258"/>
       <c r="I3" s="258"/>
       <c r="J3" s="258"/>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="258"/>
+      <c r="L3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>48000000</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="N3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="S3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="2">
+      <c r="T3" s="2">
         <v>48000000</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="U3" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="316" t="s">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B4" s="318" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="317"/>
+      <c r="C4" s="319"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -4658,32 +4814,33 @@
       <c r="H4" s="259"/>
       <c r="I4" s="259"/>
       <c r="J4" s="259"/>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="259"/>
+      <c r="L4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="28">
-        <f>L3/1</f>
+      <c r="M4" s="28">
+        <f>M3/1</f>
         <v>48000000</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="S4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="S4" s="28">
-        <f>S3/1</f>
+      <c r="T4" s="28">
+        <f>T3/1</f>
         <v>48000000</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="U4" s="10" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="316" t="s">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B5" s="318" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="317"/>
+      <c r="C5" s="319"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -4697,32 +4854,33 @@
       <c r="H5" s="259"/>
       <c r="I5" s="259"/>
       <c r="J5" s="259"/>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="259"/>
+      <c r="L5" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="L5" s="28">
-        <f>L3*1</f>
+      <c r="M5" s="28">
+        <f>M3*1</f>
         <v>48000000</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="S5" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="S5" s="28">
-        <f>S3*1</f>
+      <c r="T5" s="28">
+        <f>T3*1</f>
         <v>48000000</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="U5" s="10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="316" t="s">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B6" s="318" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="317"/>
+      <c r="C6" s="319"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -4734,26 +4892,27 @@
       <c r="H6" s="259"/>
       <c r="I6" s="259"/>
       <c r="J6" s="259"/>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="259"/>
+      <c r="L6" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="L6" s="28">
+      <c r="M6" s="28">
         <v>16000000</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="R6" s="11" t="s">
+      <c r="N6" s="10"/>
+      <c r="S6" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="S6" s="28">
+      <c r="T6" s="28">
         <v>16000000</v>
       </c>
-      <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="318" t="s">
+      <c r="U6" s="10"/>
+    </row>
+    <row r="7" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="320" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="319"/>
+      <c r="C7" s="321"/>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
@@ -4763,78 +4922,79 @@
       <c r="H7" s="260"/>
       <c r="I7" s="260"/>
       <c r="J7" s="260"/>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="260"/>
+      <c r="L7" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="3">
-        <f>(L5)/L6-1</f>
+      <c r="M7" s="3">
+        <f>(M5)/M6-1</f>
         <v>2</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="N7" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="R7" s="29" t="s">
+      <c r="S7" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="S7" s="3">
-        <f>(S5)/S6-1</f>
+      <c r="T7" s="3">
+        <f>(T5)/T6-1</f>
         <v>2</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="U7" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E8" s="82" t="s">
         <v>371</v>
       </c>
       <c r="F8" s="5">
         <v>8</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>80000</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="R8" s="11" t="s">
+      <c r="N8" s="10"/>
+      <c r="S8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>80000</v>
       </c>
-      <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="U8" s="10"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E9" s="82" t="s">
         <v>372</v>
       </c>
       <c r="F9" s="5">
         <v>8</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="L9" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="L9" s="30">
-        <f>L6/L8-1</f>
+      <c r="M9" s="30">
+        <f>M6/M8-1</f>
         <v>199</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="R9" s="29" t="s">
+      <c r="S9" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="S9" s="30">
-        <f>S6/S8-1</f>
+      <c r="T9" s="30">
+        <f>T6/T8-1</f>
         <v>199</v>
       </c>
-      <c r="T9" s="10" t="s">
+      <c r="U9" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E10" s="82" t="s">
         <v>373</v>
       </c>
@@ -4845,22 +5005,23 @@
       <c r="H10" s="76"/>
       <c r="I10" s="76"/>
       <c r="J10" s="76"/>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="76"/>
+      <c r="L10" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>50</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="R10" s="11" t="s">
+      <c r="N10" s="10"/>
+      <c r="S10" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>50</v>
       </c>
-      <c r="T10" s="10"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="U10" s="10"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E11" s="82" t="s">
         <v>374</v>
       </c>
@@ -4871,24 +5032,25 @@
       <c r="H11" s="76"/>
       <c r="I11" s="76"/>
       <c r="J11" s="76"/>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="76"/>
+      <c r="L11" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="L11" s="30">
-        <f>L10*L9/100</f>
+      <c r="M11" s="30">
+        <f>M10*M9/100</f>
         <v>99.5</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="R11" s="11" t="s">
+      <c r="N11" s="10"/>
+      <c r="S11" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="S11" s="30">
-        <f>S10*S9/100</f>
+      <c r="T11" s="30">
+        <f>T10*T9/100</f>
         <v>99.5</v>
       </c>
-      <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U11" s="10"/>
+    </row>
+    <row r="12" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E12" s="83" t="s">
         <v>171</v>
       </c>
@@ -4899,26 +5061,27 @@
       <c r="H12" s="76"/>
       <c r="I12" s="76"/>
       <c r="J12" s="76"/>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="76"/>
+      <c r="L12" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="L12" s="4">
-        <f>1/L8</f>
+      <c r="M12" s="4">
+        <f>1/M8</f>
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="R12" s="31" t="s">
+      <c r="N12" s="22"/>
+      <c r="S12" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="S12" s="4">
-        <f>1/S8</f>
+      <c r="T12" s="4">
+        <f>1/T8</f>
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="T12" s="22"/>
-    </row>
-    <row r="13" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="325" t="s">
+      <c r="U12" s="22"/>
+    </row>
+    <row r="13" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="311" t="s">
         <v>99</v>
       </c>
       <c r="C14" s="312"/>
@@ -4928,43 +5091,44 @@
       <c r="E14" s="312" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="313"/>
-      <c r="G14" s="320" t="s">
+      <c r="F14" s="332"/>
+      <c r="G14" s="306" t="s">
         <v>562</v>
       </c>
-      <c r="H14" s="321"/>
-      <c r="I14" s="321"/>
-      <c r="J14" s="322"/>
-      <c r="K14" s="302" t="s">
+      <c r="H14" s="307"/>
+      <c r="I14" s="307"/>
+      <c r="J14" s="308"/>
+      <c r="K14" s="302"/>
+      <c r="L14" s="322" t="s">
         <v>399</v>
       </c>
-      <c r="L14" s="303"/>
-      <c r="M14" s="302" t="s">
+      <c r="M14" s="323"/>
+      <c r="N14" s="322" t="s">
         <v>400</v>
       </c>
-      <c r="N14" s="304"/>
-      <c r="O14" s="304"/>
-      <c r="P14" s="304"/>
-      <c r="Q14" s="305"/>
-      <c r="R14" s="302" t="s">
+      <c r="O14" s="324"/>
+      <c r="P14" s="324"/>
+      <c r="Q14" s="324"/>
+      <c r="R14" s="325"/>
+      <c r="S14" s="322" t="s">
         <v>12</v>
       </c>
-      <c r="S14" s="304"/>
-      <c r="T14" s="303" t="s">
+      <c r="T14" s="324"/>
+      <c r="U14" s="323" t="s">
         <v>375</v>
       </c>
-      <c r="U14" s="306"/>
-      <c r="V14" s="306"/>
-      <c r="W14" s="307"/>
-    </row>
-    <row r="15" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V14" s="326"/>
+      <c r="W14" s="326"/>
+      <c r="X14" s="327"/>
+    </row>
+    <row r="15" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="113" t="s">
         <v>100</v>
       </c>
       <c r="C15" s="114" t="s">
         <v>377</v>
       </c>
-      <c r="D15" s="326"/>
+      <c r="D15" s="313"/>
       <c r="E15" s="114" t="s">
         <v>162</v>
       </c>
@@ -4983,47 +5147,48 @@
       <c r="J15" s="255" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="138" t="s">
+      <c r="K15" s="339"/>
+      <c r="L15" s="138" t="s">
         <v>401</v>
       </c>
-      <c r="L15" s="139" t="s">
+      <c r="M15" s="139" t="s">
         <v>402</v>
       </c>
-      <c r="M15" s="140" t="s">
+      <c r="N15" s="140" t="s">
         <v>403</v>
       </c>
-      <c r="N15" s="141" t="s">
+      <c r="O15" s="141" t="s">
         <v>401</v>
       </c>
-      <c r="O15" s="141" t="s">
+      <c r="P15" s="141" t="s">
         <v>404</v>
       </c>
-      <c r="P15" s="141" t="s">
+      <c r="Q15" s="141" t="s">
         <v>405</v>
       </c>
-      <c r="Q15" s="142" t="s">
+      <c r="R15" s="142" t="s">
         <v>406</v>
       </c>
-      <c r="R15" s="116" t="s">
+      <c r="S15" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="S15" s="114" t="s">
+      <c r="T15" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="114" t="s">
+      <c r="U15" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="U15" s="114" t="s">
+      <c r="V15" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="V15" s="114" t="s">
+      <c r="W15" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="W15" s="115" t="s">
+      <c r="X15" s="115" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="33">
         <v>1</v>
       </c>
@@ -5033,31 +5198,32 @@
       <c r="D16" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="323" t="s">
+      <c r="E16" s="309" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="324"/>
+      <c r="F16" s="310"/>
       <c r="G16" s="33"/>
       <c r="H16" s="253"/>
       <c r="I16" s="289" t="s">
         <v>563</v>
       </c>
       <c r="J16" s="254"/>
-      <c r="K16" s="273"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="145"/>
+      <c r="K16" s="340"/>
+      <c r="L16" s="273"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="144"/>
       <c r="O16" s="145"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="34"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="146"/>
+      <c r="S16" s="33"/>
       <c r="T16" s="34"/>
       <c r="U16" s="34"/>
       <c r="V16" s="34"/>
-      <c r="W16" s="50"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W16" s="34"/>
+      <c r="X16" s="50"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B17" s="14">
         <v>2</v>
       </c>
@@ -5077,41 +5243,42 @@
       <c r="H17" s="287"/>
       <c r="I17" s="287"/>
       <c r="J17" s="294"/>
-      <c r="K17" s="274" t="s">
+      <c r="K17" s="341"/>
+      <c r="L17" s="274" t="s">
         <v>407</v>
       </c>
-      <c r="L17" s="147" t="s">
+      <c r="M17" s="147" t="s">
         <v>408</v>
       </c>
-      <c r="M17" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="15" t="s">
+      <c r="P17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="T17" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="T17" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="U17" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W17" s="24"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X17" s="24"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B18" s="98">
         <v>3</v>
       </c>
@@ -5133,41 +5300,42 @@
         <v>564</v>
       </c>
       <c r="J18" s="97"/>
-      <c r="K18" s="274" t="s">
+      <c r="K18" s="342"/>
+      <c r="L18" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L18" s="147" t="s">
+      <c r="M18" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="93" t="s">
+      <c r="P18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="S18" s="90" t="s">
+      <c r="T18" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="T18" s="90" t="s">
-        <v>36</v>
-      </c>
       <c r="U18" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="V18" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="V18" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="W18" s="91"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W18" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="X18" s="91"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B19" s="98">
         <v>4</v>
       </c>
@@ -5189,41 +5357,42 @@
         <v>564</v>
       </c>
       <c r="J19" s="97"/>
-      <c r="K19" s="274" t="s">
+      <c r="K19" s="342"/>
+      <c r="L19" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L19" s="147" t="s">
+      <c r="M19" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="93" t="s">
+      <c r="P19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="S19" s="90" t="s">
+      <c r="T19" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="T19" s="90" t="s">
-        <v>36</v>
-      </c>
       <c r="U19" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="V19" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="W19" s="91"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W19" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19" s="91"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B20" s="98">
         <v>5</v>
       </c>
@@ -5245,41 +5414,42 @@
         <v>565</v>
       </c>
       <c r="J20" s="97"/>
-      <c r="K20" s="274" t="s">
+      <c r="K20" s="342"/>
+      <c r="L20" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L20" s="147" t="s">
+      <c r="M20" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="93" t="s">
+      <c r="P20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="S20" s="90" t="s">
+      <c r="T20" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="T20" s="90" t="s">
-        <v>36</v>
-      </c>
       <c r="U20" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" s="90" t="s">
         <v>325</v>
       </c>
-      <c r="V20" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="W20" s="91"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W20" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" s="91"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B21" s="98">
         <v>6</v>
       </c>
@@ -5301,41 +5471,42 @@
         <v>565</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="274" t="s">
+      <c r="K21" s="342"/>
+      <c r="L21" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L21" s="147" t="s">
+      <c r="M21" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="93" t="s">
+      <c r="P21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="S21" s="90" t="s">
+      <c r="T21" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="T21" s="90" t="s">
-        <v>36</v>
-      </c>
       <c r="U21" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" s="90" t="s">
         <v>325</v>
       </c>
-      <c r="V21" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="W21" s="91"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W21" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="X21" s="91"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B22" s="47">
         <v>7</v>
       </c>
@@ -5345,51 +5516,52 @@
       <c r="D22" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="327" t="s">
+      <c r="E22" s="314" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="328"/>
+      <c r="F22" s="315"/>
       <c r="G22" s="47"/>
       <c r="H22" s="256"/>
       <c r="I22" s="256" t="s">
         <v>566</v>
       </c>
       <c r="J22" s="257"/>
-      <c r="K22" s="275" t="s">
+      <c r="K22" s="343"/>
+      <c r="L22" s="275" t="s">
         <v>411</v>
       </c>
-      <c r="L22" s="148" t="s">
-        <v>36</v>
-      </c>
-      <c r="M22" s="149" t="s">
+      <c r="M22" s="148" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="149" t="s">
         <v>411</v>
       </c>
-      <c r="N22" s="150" t="s">
+      <c r="O22" s="150" t="s">
         <v>412</v>
       </c>
-      <c r="O22" s="37" t="s">
+      <c r="P22" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="46" t="s">
+      <c r="Q22" s="3"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="S22" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="T22" s="104" t="s">
+      <c r="T22" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="U22" s="104" t="s">
+      <c r="V22" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="V22" s="104" t="s">
+      <c r="W22" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="W22" s="48"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="X22" s="48"/>
+    </row>
+    <row r="23" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B23" s="14">
         <v>8</v>
       </c>
@@ -5414,44 +5586,49 @@
       <c r="I23" s="39" t="s">
         <v>568</v>
       </c>
-      <c r="J23" s="298"/>
-      <c r="K23" s="276" t="s">
+      <c r="J23" s="41" t="s">
+        <v>607</v>
+      </c>
+      <c r="K23" s="354" t="s">
+        <v>609</v>
+      </c>
+      <c r="L23" s="276" t="s">
         <v>414</v>
       </c>
-      <c r="L23" s="152" t="s">
+      <c r="M23" s="152" t="s">
         <v>415</v>
       </c>
-      <c r="M23" s="153" t="s">
+      <c r="N23" s="153" t="s">
         <v>416</v>
       </c>
-      <c r="N23" s="154" t="s">
+      <c r="O23" s="154" t="s">
         <v>417</v>
       </c>
-      <c r="O23" s="155" t="s">
+      <c r="P23" s="155" t="s">
         <v>418</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="10" t="s">
+      <c r="Q23" s="3"/>
+      <c r="R23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="R23" s="92" t="s">
+      <c r="S23" s="92" t="s">
         <v>541</v>
       </c>
-      <c r="S23" s="37" t="s">
+      <c r="T23" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T23" s="37" t="s">
+      <c r="U23" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="U23" s="75" t="s">
-        <v>36</v>
-      </c>
       <c r="V23" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="W23" s="36"/>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W23" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="36"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B24" s="95">
         <v>9</v>
       </c>
@@ -5474,44 +5651,49 @@
         <v>18</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>569</v>
-      </c>
-      <c r="J24" s="298"/>
-      <c r="K24" s="277" t="s">
+        <v>608</v>
+      </c>
+      <c r="J24" s="298" t="s">
+        <v>611</v>
+      </c>
+      <c r="K24" s="354" t="s">
+        <v>610</v>
+      </c>
+      <c r="L24" s="277" t="s">
         <v>420</v>
       </c>
-      <c r="L24" s="156" t="s">
+      <c r="M24" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="M24" s="149" t="s">
+      <c r="N24" s="149" t="s">
         <v>421</v>
       </c>
-      <c r="N24" s="150" t="s">
+      <c r="O24" s="150" t="s">
         <v>422</v>
       </c>
-      <c r="O24" s="37" t="s">
+      <c r="P24" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="73" t="s">
+      <c r="Q24" s="3"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="S24" s="37" t="s">
+      <c r="T24" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T24" s="37" t="s">
+      <c r="U24" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="U24" s="75" t="s">
-        <v>36</v>
-      </c>
       <c r="V24" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="W24" s="36"/>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W24" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="X24" s="36"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B25" s="95">
         <v>10</v>
       </c>
@@ -5534,44 +5716,45 @@
         <v>18</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>570</v>
+        <v>537</v>
       </c>
       <c r="J25" s="298"/>
-      <c r="K25" s="277" t="s">
+      <c r="K25" s="344"/>
+      <c r="L25" s="277" t="s">
         <v>420</v>
       </c>
-      <c r="L25" s="156" t="s">
+      <c r="M25" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="M25" s="149" t="s">
+      <c r="N25" s="149" t="s">
         <v>423</v>
       </c>
-      <c r="N25" s="150" t="s">
+      <c r="O25" s="150" t="s">
         <v>424</v>
       </c>
-      <c r="O25" s="37" t="s">
+      <c r="P25" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="73" t="s">
+      <c r="Q25" s="3"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="S25" s="37" t="s">
+      <c r="T25" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T25" s="37" t="s">
+      <c r="U25" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="U25" s="75" t="s">
+      <c r="V25" s="75" t="s">
         <v>323</v>
       </c>
-      <c r="V25" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="W25" s="36"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W25" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="36"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B26" s="95">
         <v>11</v>
       </c>
@@ -5594,42 +5777,43 @@
         <v>18</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J26" s="298"/>
-      <c r="K26" s="277" t="s">
+      <c r="K26" s="344"/>
+      <c r="L26" s="277" t="s">
         <v>420</v>
       </c>
-      <c r="L26" s="156" t="s">
+      <c r="M26" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="M26" s="149" t="s">
+      <c r="N26" s="149" t="s">
         <v>425</v>
       </c>
-      <c r="N26" s="150" t="s">
+      <c r="O26" s="150" t="s">
         <v>426</v>
       </c>
-      <c r="O26" s="37" t="s">
+      <c r="P26" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="73" t="s">
+      <c r="Q26" s="3"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="S26" s="37" t="s">
+      <c r="T26" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T26" s="37" t="s">
+      <c r="U26" s="37" t="s">
         <v>539</v>
       </c>
-      <c r="U26" s="37"/>
-      <c r="V26" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="W26" s="221"/>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="V26" s="37"/>
+      <c r="W26" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" s="221"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B27" s="16">
         <v>12</v>
       </c>
@@ -5639,31 +5823,32 @@
       <c r="D27" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="308" t="s">
+      <c r="E27" s="328" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="309"/>
+      <c r="F27" s="329"/>
       <c r="G27" s="16"/>
       <c r="H27" s="249"/>
       <c r="I27" s="249" t="s">
         <v>567</v>
       </c>
       <c r="J27" s="250"/>
-      <c r="K27" s="278"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="136"/>
+      <c r="K27" s="345"/>
+      <c r="L27" s="278"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="16"/>
       <c r="O27" s="136"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="105"/>
+      <c r="P27" s="136"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="16"/>
       <c r="T27" s="105"/>
       <c r="U27" s="105"/>
       <c r="V27" s="105"/>
-      <c r="W27" s="26"/>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W27" s="105"/>
+      <c r="X27" s="26"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B28" s="16">
         <v>13</v>
       </c>
@@ -5673,31 +5858,32 @@
       <c r="D28" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="308" t="s">
+      <c r="E28" s="328" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="309"/>
+      <c r="F28" s="329"/>
       <c r="G28" s="16"/>
       <c r="H28" s="249"/>
       <c r="I28" s="286" t="s">
         <v>563</v>
       </c>
       <c r="J28" s="250"/>
-      <c r="K28" s="278"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="136"/>
+      <c r="K28" s="345"/>
+      <c r="L28" s="278"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="16"/>
       <c r="O28" s="136"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="105"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="16"/>
       <c r="T28" s="105"/>
       <c r="U28" s="105"/>
       <c r="V28" s="105"/>
-      <c r="W28" s="26"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W28" s="105"/>
+      <c r="X28" s="26"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B29" s="14">
         <v>14</v>
       </c>
@@ -5720,44 +5906,45 @@
         <v>18</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J29" s="298"/>
-      <c r="K29" s="274" t="s">
+      <c r="K29" s="344"/>
+      <c r="L29" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L29" s="147" t="s">
+      <c r="M29" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M29" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N29" s="6" t="s">
+      <c r="N29" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="15" t="s">
+      <c r="P29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="S29" s="6" t="s">
+      <c r="T29" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="T29" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="U29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W29" s="24"/>
-    </row>
-    <row r="30" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="W29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X29" s="24"/>
+    </row>
+    <row r="30" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B30" s="95">
         <v>15</v>
       </c>
@@ -5780,40 +5967,41 @@
         <v>18</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J30" s="298"/>
-      <c r="K30" s="279" t="s">
+      <c r="K30" s="344"/>
+      <c r="L30" s="279" t="s">
         <v>427</v>
       </c>
-      <c r="L30" s="158" t="s">
+      <c r="M30" s="158" t="s">
         <v>415</v>
       </c>
-      <c r="M30" s="159" t="s">
+      <c r="N30" s="159" t="s">
         <v>428</v>
       </c>
-      <c r="N30" s="160" t="s">
+      <c r="O30" s="160" t="s">
         <v>429</v>
       </c>
-      <c r="O30" s="71" t="s">
+      <c r="P30" s="71" t="s">
         <v>430</v>
       </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="72" t="s">
+      <c r="Q30" s="3"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="S30" s="158" t="s">
+      <c r="T30" s="158" t="s">
         <v>528</v>
       </c>
-      <c r="T30" s="230" t="s">
+      <c r="U30" s="230" t="s">
         <v>540</v>
       </c>
-      <c r="U30" s="160"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="221"/>
-    </row>
-    <row r="31" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V30" s="160"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="221"/>
+    </row>
+    <row r="31" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="117">
         <v>16</v>
       </c>
@@ -5830,34 +6018,39 @@
         <v>112</v>
       </c>
       <c r="G31" s="293"/>
-      <c r="H31" s="287"/>
-      <c r="I31" s="287"/>
+      <c r="H31" s="297" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>538</v>
+      </c>
       <c r="J31" s="294"/>
-      <c r="K31" s="279" t="s">
+      <c r="K31" s="341"/>
+      <c r="L31" s="279" t="s">
         <v>427</v>
       </c>
-      <c r="L31" s="158" t="s">
+      <c r="M31" s="158" t="s">
         <v>415</v>
       </c>
-      <c r="M31" s="159" t="s">
+      <c r="N31" s="159" t="s">
         <v>431</v>
       </c>
-      <c r="N31" s="160" t="s">
+      <c r="O31" s="160" t="s">
         <v>429</v>
       </c>
-      <c r="O31" s="71" t="s">
+      <c r="P31" s="71" t="s">
         <v>430</v>
       </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="231"/>
-      <c r="S31" s="232"/>
-      <c r="T31" s="233"/>
-      <c r="U31" s="234"/>
-      <c r="V31" s="235"/>
-      <c r="W31" s="236"/>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="Q31" s="3"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="231"/>
+      <c r="T31" s="232"/>
+      <c r="U31" s="233"/>
+      <c r="V31" s="234"/>
+      <c r="W31" s="235"/>
+      <c r="X31" s="236"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B32" s="123">
         <v>17</v>
       </c>
@@ -5877,41 +6070,42 @@
       <c r="H32" s="287"/>
       <c r="I32" s="287"/>
       <c r="J32" s="294"/>
-      <c r="K32" s="274" t="s">
+      <c r="K32" s="341"/>
+      <c r="L32" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L32" s="147" t="s">
+      <c r="M32" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M32" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N32" s="6" t="s">
+      <c r="N32" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="126" t="s">
+      <c r="P32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="126" t="s">
         <v>240</v>
       </c>
-      <c r="S32" s="127" t="s">
+      <c r="T32" s="127" t="s">
         <v>241</v>
       </c>
-      <c r="T32" s="127" t="s">
-        <v>36</v>
-      </c>
       <c r="U32" s="127" t="s">
         <v>36</v>
       </c>
       <c r="V32" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="W32" s="128"/>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="W32" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="X32" s="128"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B33" s="16">
         <v>18</v>
       </c>
@@ -5921,31 +6115,32 @@
       <c r="D33" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="308" t="s">
+      <c r="E33" s="328" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="309"/>
+      <c r="F33" s="329"/>
       <c r="G33" s="16"/>
       <c r="H33" s="249"/>
       <c r="I33" s="249" t="s">
         <v>567</v>
       </c>
       <c r="J33" s="250"/>
-      <c r="K33" s="278"/>
-      <c r="L33" s="157"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="136"/>
+      <c r="K33" s="345"/>
+      <c r="L33" s="278"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="16"/>
       <c r="O33" s="136"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="105"/>
+      <c r="P33" s="136"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="16"/>
       <c r="T33" s="105"/>
       <c r="U33" s="105"/>
       <c r="V33" s="105"/>
-      <c r="W33" s="26"/>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="W33" s="105"/>
+      <c r="X33" s="26"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B34" s="16">
         <v>19</v>
       </c>
@@ -5955,31 +6150,32 @@
       <c r="D34" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="308" t="s">
+      <c r="E34" s="328" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="309"/>
+      <c r="F34" s="329"/>
       <c r="G34" s="16"/>
       <c r="H34" s="249"/>
       <c r="I34" s="286" t="s">
         <v>563</v>
       </c>
       <c r="J34" s="250"/>
-      <c r="K34" s="278"/>
-      <c r="L34" s="157"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="136"/>
+      <c r="K34" s="345"/>
+      <c r="L34" s="278"/>
+      <c r="M34" s="157"/>
+      <c r="N34" s="16"/>
       <c r="O34" s="136"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="105"/>
+      <c r="P34" s="136"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="16"/>
       <c r="T34" s="105"/>
       <c r="U34" s="105"/>
       <c r="V34" s="105"/>
-      <c r="W34" s="26"/>
-    </row>
-    <row r="35" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="W34" s="105"/>
+      <c r="X34" s="26"/>
+    </row>
+    <row r="35" spans="2:28" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B35" s="14">
         <v>20</v>
       </c>
@@ -5999,41 +6195,42 @@
       <c r="H35" s="287"/>
       <c r="I35" s="287"/>
       <c r="J35" s="294"/>
-      <c r="K35" s="274" t="s">
+      <c r="K35" s="341"/>
+      <c r="L35" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L35" s="147" t="s">
+      <c r="M35" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M35" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N35" s="6" t="s">
+      <c r="N35" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="15" t="s">
+      <c r="P35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="S35" s="6" t="s">
+      <c r="T35" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="T35" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="U35" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W35" s="24"/>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="W35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X35" s="24"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B36" s="14">
         <v>21</v>
       </c>
@@ -6053,41 +6250,42 @@
       <c r="H36" s="287"/>
       <c r="I36" s="287"/>
       <c r="J36" s="294"/>
-      <c r="K36" s="274" t="s">
+      <c r="K36" s="341"/>
+      <c r="L36" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L36" s="147" t="s">
+      <c r="M36" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M36" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N36" s="6" t="s">
+      <c r="N36" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="15" t="s">
+      <c r="P36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="S36" s="6" t="s">
+      <c r="T36" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="T36" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="U36" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W36" s="24"/>
-    </row>
-    <row r="37" spans="2:27" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="W36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X36" s="24"/>
+    </row>
+    <row r="37" spans="2:28" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B37" s="228">
         <v>22</v>
       </c>
@@ -6104,55 +6302,56 @@
         <v>117</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H37" s="181" t="s">
         <v>446</v>
       </c>
       <c r="I37" s="256" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J37" s="257"/>
-      <c r="K37" s="274" t="s">
+      <c r="K37" s="343"/>
+      <c r="L37" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L37" s="147" t="s">
+      <c r="M37" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M37" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N37" s="6" t="s">
+      <c r="N37" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="220" t="s">
+      <c r="P37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="220" t="s">
         <v>525</v>
       </c>
-      <c r="S37" s="217" t="s">
+      <c r="T37" s="217" t="s">
         <v>242</v>
       </c>
-      <c r="T37" s="246" t="s">
+      <c r="U37" s="246" t="s">
         <v>561</v>
       </c>
-      <c r="U37" s="218" t="s">
-        <v>36</v>
-      </c>
       <c r="V37" s="218" t="s">
         <v>36</v>
       </c>
-      <c r="W37" s="219" t="s">
+      <c r="W37" s="218" t="s">
+        <v>36</v>
+      </c>
+      <c r="X37" s="219" t="s">
         <v>536</v>
       </c>
-      <c r="AA37" s="1" t="s">
+      <c r="AB37" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="38" spans="2:27" s="108" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:28" s="108" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B38" s="228">
         <v>23</v>
       </c>
@@ -6172,35 +6371,36 @@
       <c r="H38" s="287"/>
       <c r="I38" s="287"/>
       <c r="J38" s="294"/>
-      <c r="K38" s="280" t="s">
+      <c r="K38" s="341"/>
+      <c r="L38" s="280" t="s">
         <v>432</v>
       </c>
-      <c r="L38" s="161" t="s">
+      <c r="M38" s="161" t="s">
         <v>415</v>
       </c>
-      <c r="M38" s="162" t="s">
+      <c r="N38" s="162" t="s">
         <v>433</v>
       </c>
-      <c r="N38" s="163" t="s">
+      <c r="O38" s="163" t="s">
         <v>434</v>
       </c>
-      <c r="O38" s="164" t="s">
-        <v>36</v>
-      </c>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="247" t="s">
+      <c r="P38" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="247" t="s">
         <v>527</v>
       </c>
-      <c r="S38" s="112" t="s">
+      <c r="T38" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="T38" s="241"/>
-      <c r="U38" s="243"/>
+      <c r="U38" s="241"/>
       <c r="V38" s="243"/>
-      <c r="W38" s="244"/>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="W38" s="243"/>
+      <c r="X38" s="244"/>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B39" s="14">
         <v>24</v>
       </c>
@@ -6220,41 +6420,42 @@
       <c r="H39" s="287"/>
       <c r="I39" s="287"/>
       <c r="J39" s="294"/>
-      <c r="K39" s="280" t="s">
+      <c r="K39" s="341"/>
+      <c r="L39" s="280" t="s">
         <v>435</v>
       </c>
-      <c r="L39" s="161" t="s">
+      <c r="M39" s="161" t="s">
         <v>415</v>
       </c>
-      <c r="M39" s="162" t="s">
+      <c r="N39" s="162" t="s">
         <v>436</v>
       </c>
-      <c r="N39" s="163" t="s">
+      <c r="O39" s="163" t="s">
         <v>434</v>
       </c>
-      <c r="O39" s="164" t="s">
-        <v>36</v>
-      </c>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="15" t="s">
+      <c r="P39" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="S39" s="6" t="s">
+      <c r="T39" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="T39" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="U39" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W39" s="24"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="W39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X39" s="24"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B40" s="14">
         <v>25</v>
       </c>
@@ -6274,43 +6475,44 @@
       <c r="H40" s="287"/>
       <c r="I40" s="287"/>
       <c r="J40" s="294"/>
-      <c r="K40" s="276" t="s">
+      <c r="K40" s="341"/>
+      <c r="L40" s="276" t="s">
         <v>437</v>
       </c>
-      <c r="L40" s="165" t="s">
+      <c r="M40" s="165" t="s">
         <v>415</v>
       </c>
-      <c r="M40" s="153" t="s">
+      <c r="N40" s="153" t="s">
         <v>438</v>
       </c>
-      <c r="N40" s="154" t="s">
+      <c r="O40" s="154" t="s">
         <v>439</v>
       </c>
-      <c r="O40" s="155" t="s">
+      <c r="P40" s="155" t="s">
         <v>418</v>
       </c>
-      <c r="P40" s="166"/>
-      <c r="Q40" s="10" t="s">
+      <c r="Q40" s="166"/>
+      <c r="R40" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="R40" s="15" t="s">
+      <c r="S40" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="S40" s="6" t="s">
+      <c r="T40" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="T40" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="U40" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W40" s="24"/>
-    </row>
-    <row r="41" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="W40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X40" s="24"/>
+    </row>
+    <row r="41" spans="2:28" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B41" s="228">
         <v>26</v>
       </c>
@@ -6333,48 +6535,49 @@
         <v>446</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J41" s="300" t="s">
-        <v>586</v>
-      </c>
-      <c r="K41" s="277" t="s">
+        <v>584</v>
+      </c>
+      <c r="K41" s="346"/>
+      <c r="L41" s="277" t="s">
         <v>420</v>
       </c>
-      <c r="L41" s="156" t="s">
+      <c r="M41" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="M41" s="149" t="s">
+      <c r="N41" s="149" t="s">
         <v>441</v>
       </c>
-      <c r="N41" s="150" t="s">
+      <c r="O41" s="150" t="s">
         <v>442</v>
       </c>
-      <c r="O41" s="37" t="s">
+      <c r="P41" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="P41" s="166"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="239" t="s">
+      <c r="Q41" s="166"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="239" t="s">
         <v>17</v>
       </c>
-      <c r="S41" s="37" t="s">
+      <c r="T41" s="37" t="s">
         <v>549</v>
       </c>
-      <c r="T41" s="37" t="s">
+      <c r="U41" s="37" t="s">
         <v>550</v>
       </c>
-      <c r="U41" s="237" t="s">
-        <v>36</v>
-      </c>
-      <c r="V41" s="75" t="s">
+      <c r="V41" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="W41" s="75" t="s">
         <v>552</v>
       </c>
-      <c r="W41" s="36" t="s">
+      <c r="X41" s="36" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="42" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:28" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B42" s="14">
         <v>27</v>
       </c>
@@ -6397,48 +6600,49 @@
         <v>446</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J42" s="300" t="s">
-        <v>587</v>
-      </c>
-      <c r="K42" s="275" t="s">
+        <v>585</v>
+      </c>
+      <c r="K42" s="346"/>
+      <c r="L42" s="275" t="s">
         <v>427</v>
       </c>
-      <c r="L42" s="156" t="s">
+      <c r="M42" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="M42" s="159" t="s">
+      <c r="N42" s="159" t="s">
         <v>443</v>
       </c>
-      <c r="N42" s="160" t="s">
+      <c r="O42" s="160" t="s">
         <v>444</v>
       </c>
-      <c r="O42" s="167" t="s">
-        <v>36</v>
-      </c>
-      <c r="P42" s="168" t="s">
+      <c r="P42" s="167" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q42" s="168" t="s">
         <v>445</v>
       </c>
-      <c r="Q42" s="169"/>
-      <c r="R42" s="239" t="s">
+      <c r="R42" s="169"/>
+      <c r="S42" s="239" t="s">
         <v>17</v>
       </c>
-      <c r="S42" s="37" t="s">
+      <c r="T42" s="37" t="s">
         <v>549</v>
       </c>
-      <c r="T42" s="37" t="s">
+      <c r="U42" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="U42" s="237" t="s">
-        <v>36</v>
-      </c>
-      <c r="V42" s="75" t="s">
+      <c r="V42" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="W42" s="75" t="s">
         <v>552</v>
       </c>
-      <c r="W42" s="36"/>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="X42" s="36"/>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B43" s="14">
         <v>28</v>
       </c>
@@ -6458,49 +6662,50 @@
         <v>17</v>
       </c>
       <c r="H43" s="156" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I43" s="237" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J43" s="301" t="s">
-        <v>589</v>
-      </c>
-      <c r="K43" s="274" t="s">
+        <v>587</v>
+      </c>
+      <c r="K43" s="347"/>
+      <c r="L43" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L43" s="147" t="s">
+      <c r="M43" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M43" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N43" s="6" t="s">
+      <c r="N43" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O43" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="239" t="s">
+      <c r="P43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="239" t="s">
         <v>17</v>
       </c>
-      <c r="S43" s="37" t="s">
+      <c r="T43" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="T43" s="37" t="s">
+      <c r="U43" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="U43" s="237" t="s">
-        <v>36</v>
-      </c>
-      <c r="V43" s="75" t="s">
+      <c r="V43" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="W43" s="75" t="s">
         <v>553</v>
       </c>
-      <c r="W43" s="36"/>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="X43" s="36"/>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B44" s="14">
         <v>29</v>
       </c>
@@ -6517,50 +6722,51 @@
         <v>101</v>
       </c>
       <c r="G44" s="292" t="s">
+        <v>579</v>
+      </c>
+      <c r="H44" s="297" t="s">
+        <v>588</v>
+      </c>
+      <c r="I44" s="44" t="s">
         <v>581</v>
       </c>
-      <c r="H44" s="297" t="s">
-        <v>590</v>
-      </c>
-      <c r="I44" s="44" t="s">
-        <v>583</v>
-      </c>
       <c r="J44" s="41"/>
-      <c r="K44" s="274" t="s">
+      <c r="K44" s="348"/>
+      <c r="L44" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L44" s="147" t="s">
+      <c r="M44" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M44" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N44" s="6" t="s">
+      <c r="N44" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="238" t="s">
+      <c r="P44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="238" t="s">
         <v>544</v>
       </c>
-      <c r="S44" s="75" t="s">
+      <c r="T44" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="T44" s="37" t="s">
+      <c r="U44" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="U44" s="237" t="s">
-        <v>36</v>
-      </c>
       <c r="V44" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="W44" s="36"/>
-    </row>
-    <row r="45" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="W44" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="X44" s="36"/>
+    </row>
+    <row r="45" spans="2:28" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B45" s="14">
         <v>30</v>
       </c>
@@ -6577,50 +6783,51 @@
         <v>101</v>
       </c>
       <c r="G45" s="292" t="s">
+        <v>580</v>
+      </c>
+      <c r="H45" s="297" t="s">
+        <v>588</v>
+      </c>
+      <c r="I45" s="44" t="s">
         <v>582</v>
       </c>
-      <c r="H45" s="297" t="s">
-        <v>590</v>
-      </c>
-      <c r="I45" s="44" t="s">
-        <v>584</v>
-      </c>
       <c r="J45" s="41"/>
-      <c r="K45" s="274" t="s">
+      <c r="K45" s="348"/>
+      <c r="L45" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L45" s="147" t="s">
+      <c r="M45" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M45" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N45" s="6" t="s">
+      <c r="N45" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="238" t="s">
+      <c r="P45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="238" t="s">
         <v>545</v>
       </c>
-      <c r="S45" s="75" t="s">
+      <c r="T45" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="T45" s="37" t="s">
+      <c r="U45" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="U45" s="237" t="s">
-        <v>36</v>
-      </c>
       <c r="V45" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="W45" s="36"/>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="W45" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="X45" s="36"/>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B46" s="16">
         <v>31</v>
       </c>
@@ -6630,31 +6837,32 @@
       <c r="D46" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="308" t="s">
+      <c r="E46" s="328" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="309"/>
+      <c r="F46" s="329"/>
       <c r="G46" s="16"/>
       <c r="H46" s="249"/>
       <c r="I46" s="249" t="s">
         <v>567</v>
       </c>
       <c r="J46" s="250"/>
-      <c r="K46" s="278"/>
-      <c r="L46" s="157"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="136"/>
+      <c r="K46" s="345"/>
+      <c r="L46" s="278"/>
+      <c r="M46" s="157"/>
+      <c r="N46" s="16"/>
       <c r="O46" s="136"/>
-      <c r="P46" s="166"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="105"/>
+      <c r="P46" s="136"/>
+      <c r="Q46" s="166"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="16"/>
       <c r="T46" s="105"/>
       <c r="U46" s="105"/>
       <c r="V46" s="105"/>
-      <c r="W46" s="26"/>
-    </row>
-    <row r="47" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W46" s="105"/>
+      <c r="X46" s="26"/>
+    </row>
+    <row r="47" spans="2:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B47" s="17">
         <v>32</v>
       </c>
@@ -6664,31 +6872,32 @@
       <c r="D47" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="310" t="s">
+      <c r="E47" s="330" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="311"/>
+      <c r="F47" s="331"/>
       <c r="G47" s="16"/>
       <c r="H47" s="249"/>
       <c r="I47" s="286" t="s">
         <v>563</v>
       </c>
       <c r="J47" s="250"/>
-      <c r="K47" s="278"/>
-      <c r="L47" s="157"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="136"/>
+      <c r="K47" s="345"/>
+      <c r="L47" s="278"/>
+      <c r="M47" s="157"/>
+      <c r="N47" s="16"/>
       <c r="O47" s="136"/>
-      <c r="P47" s="166"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="106"/>
+      <c r="P47" s="136"/>
+      <c r="Q47" s="166"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="17"/>
       <c r="T47" s="106"/>
       <c r="U47" s="106"/>
       <c r="V47" s="106"/>
-      <c r="W47" s="35"/>
-    </row>
-    <row r="48" spans="2:27" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="W47" s="106"/>
+      <c r="X47" s="35"/>
+    </row>
+    <row r="48" spans="2:28" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B48" s="226">
         <v>33</v>
       </c>
@@ -6705,56 +6914,57 @@
         <v>101</v>
       </c>
       <c r="G48" s="62" t="s">
+        <v>590</v>
+      </c>
+      <c r="H48" s="156" t="s">
+        <v>588</v>
+      </c>
+      <c r="I48" s="237" t="s">
         <v>592</v>
       </c>
-      <c r="H48" s="156" t="s">
-        <v>590</v>
-      </c>
-      <c r="I48" s="237" t="s">
-        <v>594</v>
-      </c>
       <c r="J48" s="301" t="s">
-        <v>589</v>
-      </c>
-      <c r="K48" s="277" t="s">
+        <v>587</v>
+      </c>
+      <c r="K48" s="347"/>
+      <c r="L48" s="277" t="s">
         <v>420</v>
       </c>
-      <c r="L48" s="156" t="s">
+      <c r="M48" s="156" t="s">
         <v>446</v>
       </c>
-      <c r="M48" s="149" t="s">
+      <c r="N48" s="149" t="s">
         <v>447</v>
       </c>
-      <c r="N48" s="150" t="s">
+      <c r="O48" s="150" t="s">
         <v>444</v>
       </c>
-      <c r="O48" s="37" t="s">
+      <c r="P48" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="P48" s="170"/>
-      <c r="Q48" s="10" t="s">
+      <c r="Q48" s="170"/>
+      <c r="R48" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="R48" s="92" t="s">
+      <c r="S48" s="92" t="s">
         <v>387</v>
       </c>
-      <c r="S48" s="37" t="s">
+      <c r="T48" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="T48" s="37" t="s">
+      <c r="U48" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="U48" s="75" t="s">
-        <v>36</v>
-      </c>
       <c r="V48" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="W48" s="75" t="s">
         <v>552</v>
       </c>
-      <c r="W48" s="245" t="s">
+      <c r="X48" s="245" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="49" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B49" s="95">
         <v>34</v>
       </c>
@@ -6771,54 +6981,55 @@
         <v>101</v>
       </c>
       <c r="G49" s="62" t="s">
+        <v>591</v>
+      </c>
+      <c r="H49" s="156" t="s">
+        <v>588</v>
+      </c>
+      <c r="I49" s="237" t="s">
         <v>593</v>
       </c>
-      <c r="H49" s="156" t="s">
-        <v>590</v>
-      </c>
-      <c r="I49" s="237" t="s">
-        <v>595</v>
-      </c>
       <c r="J49" s="301" t="s">
-        <v>589</v>
-      </c>
-      <c r="K49" s="277" t="s">
+        <v>587</v>
+      </c>
+      <c r="K49" s="347"/>
+      <c r="L49" s="277" t="s">
         <v>420</v>
       </c>
-      <c r="L49" s="156" t="s">
+      <c r="M49" s="156" t="s">
         <v>446</v>
       </c>
-      <c r="M49" s="171" t="s">
+      <c r="N49" s="171" t="s">
         <v>449</v>
       </c>
-      <c r="N49" s="172" t="s">
+      <c r="O49" s="172" t="s">
         <v>450</v>
       </c>
-      <c r="O49" s="37" t="s">
+      <c r="P49" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="P49" s="166"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="92" t="s">
+      <c r="Q49" s="166"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="S49" s="37" t="s">
+      <c r="T49" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="T49" s="37" t="s">
+      <c r="U49" s="37" t="s">
         <v>556</v>
       </c>
-      <c r="U49" s="75" t="s">
-        <v>36</v>
-      </c>
       <c r="V49" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="W49" s="75" t="s">
         <v>552</v>
       </c>
-      <c r="W49" s="245" t="s">
+      <c r="X49" s="245" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="50" spans="2:23" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B50" s="95">
         <v>35</v>
       </c>
@@ -6835,40 +7046,41 @@
         <v>101</v>
       </c>
       <c r="G50" s="62" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H50" s="156" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I50" s="237" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J50" s="301"/>
-      <c r="K50" s="277" t="s">
+      <c r="K50" s="347"/>
+      <c r="L50" s="277" t="s">
         <v>420</v>
       </c>
-      <c r="L50" s="156" t="s">
+      <c r="M50" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="M50" s="173" t="s">
+      <c r="N50" s="173" t="s">
         <v>451</v>
       </c>
-      <c r="N50" s="172" t="s">
+      <c r="O50" s="172" t="s">
         <v>452</v>
       </c>
-      <c r="O50" s="37" t="s">
+      <c r="P50" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="P50" s="166"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="240"/>
-      <c r="S50" s="241"/>
+      <c r="Q50" s="166"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="240"/>
       <c r="T50" s="241"/>
       <c r="U50" s="241"/>
       <c r="V50" s="241"/>
-      <c r="W50" s="244"/>
-    </row>
-    <row r="51" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="W50" s="241"/>
+      <c r="X50" s="244"/>
+    </row>
+    <row r="51" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B51" s="14">
         <v>36</v>
       </c>
@@ -6888,31 +7100,32 @@
       <c r="H51" s="288"/>
       <c r="I51" s="288"/>
       <c r="J51" s="291"/>
-      <c r="K51" s="277" t="s">
+      <c r="K51" s="349"/>
+      <c r="L51" s="277" t="s">
         <v>420</v>
       </c>
-      <c r="L51" s="156" t="s">
+      <c r="M51" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="M51" s="173" t="s">
+      <c r="N51" s="173" t="s">
         <v>453</v>
       </c>
-      <c r="N51" s="172" t="s">
+      <c r="O51" s="172" t="s">
         <v>454</v>
       </c>
-      <c r="O51" s="37" t="s">
+      <c r="P51" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="P51" s="166"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="242"/>
-      <c r="S51" s="243"/>
+      <c r="Q51" s="166"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="242"/>
       <c r="T51" s="243"/>
       <c r="U51" s="243"/>
       <c r="V51" s="243"/>
-      <c r="W51" s="244"/>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W51" s="243"/>
+      <c r="X51" s="244"/>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B52" s="14">
         <v>37</v>
       </c>
@@ -6929,40 +7142,41 @@
         <v>101</v>
       </c>
       <c r="G52" s="295" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H52" s="181" t="s">
         <v>446</v>
       </c>
       <c r="I52" s="49" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J52" s="45"/>
-      <c r="K52" s="277" t="s">
+      <c r="K52" s="350"/>
+      <c r="L52" s="277" t="s">
         <v>420</v>
       </c>
-      <c r="L52" s="156" t="s">
+      <c r="M52" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="M52" s="173" t="s">
+      <c r="N52" s="173" t="s">
         <v>455</v>
       </c>
-      <c r="N52" s="172" t="s">
+      <c r="O52" s="172" t="s">
         <v>456</v>
       </c>
-      <c r="O52" s="37" t="s">
+      <c r="P52" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="P52" s="166"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="242"/>
-      <c r="S52" s="243"/>
+      <c r="Q52" s="166"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="242"/>
       <c r="T52" s="243"/>
       <c r="U52" s="243"/>
       <c r="V52" s="243"/>
-      <c r="W52" s="244"/>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W52" s="243"/>
+      <c r="X52" s="244"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B53" s="14">
         <v>38</v>
       </c>
@@ -6985,38 +7199,39 @@
         <v>446</v>
       </c>
       <c r="I53" s="237" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J53" s="301"/>
-      <c r="K53" s="276" t="s">
+      <c r="K53" s="347"/>
+      <c r="L53" s="276" t="s">
         <v>457</v>
       </c>
-      <c r="L53" s="152" t="s">
+      <c r="M53" s="152" t="s">
         <v>415</v>
       </c>
-      <c r="M53" s="153" t="s">
+      <c r="N53" s="153" t="s">
         <v>458</v>
       </c>
-      <c r="N53" s="154" t="s">
+      <c r="O53" s="154" t="s">
         <v>459</v>
       </c>
-      <c r="O53" s="155" t="s">
+      <c r="P53" s="155" t="s">
         <v>418</v>
       </c>
-      <c r="P53" s="174" t="s">
+      <c r="Q53" s="174" t="s">
         <v>427</v>
       </c>
-      <c r="Q53" s="10" t="s">
+      <c r="R53" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="R53" s="242"/>
-      <c r="S53" s="243"/>
+      <c r="S53" s="242"/>
       <c r="T53" s="243"/>
       <c r="U53" s="243"/>
       <c r="V53" s="243"/>
-      <c r="W53" s="244"/>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W53" s="243"/>
+      <c r="X53" s="244"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B54" s="14">
         <v>39</v>
       </c>
@@ -7039,34 +7254,35 @@
         <v>446</v>
       </c>
       <c r="I54" s="237" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J54" s="301"/>
-      <c r="K54" s="274" t="s">
+      <c r="K54" s="347"/>
+      <c r="L54" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L54" s="147" t="s">
+      <c r="M54" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M54" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N54" s="6" t="s">
+      <c r="N54" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O54" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="242"/>
-      <c r="S54" s="243"/>
+      <c r="P54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="242"/>
       <c r="T54" s="243"/>
       <c r="U54" s="243"/>
       <c r="V54" s="243"/>
-      <c r="W54" s="244"/>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W54" s="243"/>
+      <c r="X54" s="244"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B55" s="14">
         <v>40</v>
       </c>
@@ -7086,31 +7302,32 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="7"/>
-      <c r="K55" s="274" t="s">
+      <c r="K55" s="351"/>
+      <c r="L55" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L55" s="147" t="s">
+      <c r="M55" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M55" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N55" s="6" t="s">
+      <c r="N55" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="242"/>
-      <c r="S55" s="243"/>
+      <c r="P55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="242"/>
       <c r="T55" s="243"/>
       <c r="U55" s="243"/>
       <c r="V55" s="243"/>
-      <c r="W55" s="244"/>
-    </row>
-    <row r="56" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="W55" s="243"/>
+      <c r="X55" s="244"/>
+    </row>
+    <row r="56" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B56" s="96">
         <v>41</v>
       </c>
@@ -7126,49 +7343,50 @@
       <c r="F56" s="267" t="s">
         <v>101</v>
       </c>
-      <c r="G56" s="335"/>
-      <c r="H56" s="336"/>
-      <c r="I56" s="336" t="s">
-        <v>573</v>
-      </c>
-      <c r="J56" s="337"/>
-      <c r="K56" s="281" t="s">
+      <c r="G56" s="303"/>
+      <c r="H56" s="304"/>
+      <c r="I56" s="304" t="s">
+        <v>571</v>
+      </c>
+      <c r="J56" s="305"/>
+      <c r="K56" s="352"/>
+      <c r="L56" s="281" t="s">
         <v>460</v>
       </c>
-      <c r="L56" s="175" t="s">
+      <c r="M56" s="175" t="s">
         <v>461</v>
       </c>
-      <c r="M56" s="176" t="s">
+      <c r="N56" s="176" t="s">
         <v>462</v>
       </c>
-      <c r="N56" s="177" t="s">
+      <c r="O56" s="177" t="s">
         <v>463</v>
       </c>
-      <c r="O56" s="74" t="s">
+      <c r="P56" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="248" t="s">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="248" t="s">
         <v>174</v>
       </c>
-      <c r="S56" s="112" t="s">
+      <c r="T56" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="T56" s="112" t="s">
+      <c r="U56" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="U56" s="112" t="s">
+      <c r="V56" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="V56" s="112" t="s">
+      <c r="W56" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="W56" s="236" t="s">
+      <c r="X56" s="236" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="57" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B57" s="42">
         <v>42</v>
       </c>
@@ -7185,52 +7403,53 @@
         <v>101</v>
       </c>
       <c r="G57" s="292" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H57" s="178" t="s">
         <v>51</v>
       </c>
       <c r="I57" s="44" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J57" s="41"/>
-      <c r="K57" s="282" t="s">
+      <c r="K57" s="348"/>
+      <c r="L57" s="282" t="s">
         <v>464</v>
       </c>
-      <c r="L57" s="178" t="s">
+      <c r="M57" s="178" t="s">
         <v>465</v>
       </c>
-      <c r="M57" s="179" t="s">
+      <c r="N57" s="179" t="s">
         <v>464</v>
       </c>
-      <c r="N57" s="180" t="s">
+      <c r="O57" s="180" t="s">
         <v>466</v>
       </c>
-      <c r="O57" s="44" t="s">
+      <c r="P57" s="44" t="s">
         <v>467</v>
       </c>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="43" t="s">
+      <c r="Q57" s="3"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="S57" s="39" t="s">
+      <c r="T57" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="T57" s="39" t="s">
+      <c r="U57" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="U57" s="39" t="s">
+      <c r="V57" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="V57" s="44" t="s">
+      <c r="W57" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="W57" s="222" t="s">
+      <c r="X57" s="222" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="58" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B58" s="42">
         <v>43</v>
       </c>
@@ -7247,52 +7466,53 @@
         <v>101</v>
       </c>
       <c r="G58" s="292" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H58" s="178" t="s">
         <v>51</v>
       </c>
       <c r="I58" s="44" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J58" s="41"/>
-      <c r="K58" s="282" t="s">
+      <c r="K58" s="348"/>
+      <c r="L58" s="282" t="s">
         <v>468</v>
       </c>
-      <c r="L58" s="178" t="s">
+      <c r="M58" s="178" t="s">
         <v>465</v>
       </c>
-      <c r="M58" s="179" t="s">
+      <c r="N58" s="179" t="s">
         <v>468</v>
       </c>
-      <c r="N58" s="180" t="s">
+      <c r="O58" s="180" t="s">
         <v>466</v>
       </c>
-      <c r="O58" s="44" t="s">
+      <c r="P58" s="44" t="s">
         <v>467</v>
       </c>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="43" t="s">
+      <c r="Q58" s="3"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="S58" s="39" t="s">
+      <c r="T58" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="T58" s="39" t="s">
+      <c r="U58" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="U58" s="39" t="s">
+      <c r="V58" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="V58" s="44" t="s">
+      <c r="W58" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="W58" s="222" t="s">
+      <c r="X58" s="222" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="59" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B59" s="96">
         <v>44</v>
       </c>
@@ -7311,46 +7531,47 @@
       <c r="G59" s="98"/>
       <c r="H59" s="99"/>
       <c r="I59" s="99" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J59" s="97"/>
-      <c r="K59" s="281" t="s">
+      <c r="K59" s="342"/>
+      <c r="L59" s="281" t="s">
         <v>469</v>
       </c>
-      <c r="L59" s="175" t="s">
+      <c r="M59" s="175" t="s">
         <v>461</v>
       </c>
-      <c r="M59" s="176" t="s">
+      <c r="N59" s="176" t="s">
         <v>470</v>
       </c>
-      <c r="N59" s="177" t="s">
+      <c r="O59" s="177" t="s">
         <v>463</v>
       </c>
-      <c r="O59" s="74" t="s">
+      <c r="P59" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="248" t="s">
+      <c r="Q59" s="3"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="248" t="s">
         <v>175</v>
       </c>
-      <c r="S59" s="112" t="s">
+      <c r="T59" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="T59" s="112" t="s">
+      <c r="U59" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="U59" s="112" t="s">
+      <c r="V59" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="V59" s="112" t="s">
+      <c r="W59" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="W59" s="236" t="s">
+      <c r="X59" s="236" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="60" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B60" s="14">
         <v>45</v>
       </c>
@@ -7370,41 +7591,42 @@
       <c r="H60" s="287"/>
       <c r="I60" s="287"/>
       <c r="J60" s="294"/>
-      <c r="K60" s="277" t="s">
+      <c r="K60" s="341"/>
+      <c r="L60" s="277" t="s">
         <v>420</v>
       </c>
-      <c r="L60" s="156" t="s">
+      <c r="M60" s="156" t="s">
         <v>446</v>
       </c>
-      <c r="M60" s="149" t="s">
+      <c r="N60" s="149" t="s">
         <v>471</v>
       </c>
-      <c r="N60" s="150" t="s">
+      <c r="O60" s="150" t="s">
         <v>472</v>
       </c>
-      <c r="O60" s="37" t="s">
+      <c r="P60" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="15" t="s">
+      <c r="Q60" s="3"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="S60" s="6" t="s">
+      <c r="T60" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="T60" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="U60" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V60" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W60" s="24"/>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W60" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X60" s="24"/>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B61" s="47">
         <v>46</v>
       </c>
@@ -7423,44 +7645,45 @@
       <c r="G61" s="295"/>
       <c r="H61" s="49"/>
       <c r="I61" s="49" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="J61" s="45"/>
-      <c r="K61" s="283" t="s">
+      <c r="K61" s="350"/>
+      <c r="L61" s="283" t="s">
         <v>473</v>
       </c>
-      <c r="L61" s="181" t="s">
+      <c r="M61" s="181" t="s">
         <v>465</v>
       </c>
-      <c r="M61" s="182" t="s">
+      <c r="N61" s="182" t="s">
         <v>473</v>
       </c>
-      <c r="N61" s="183" t="s">
+      <c r="O61" s="183" t="s">
         <v>474</v>
       </c>
-      <c r="O61" s="184" t="s">
+      <c r="P61" s="184" t="s">
         <v>467</v>
       </c>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="46" t="s">
+      <c r="Q61" s="3"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="S61" s="104" t="s">
+      <c r="T61" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="T61" s="104" t="s">
+      <c r="U61" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="U61" s="104" t="s">
+      <c r="V61" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="V61" s="49" t="s">
+      <c r="W61" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="W61" s="48"/>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="X61" s="48"/>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B62" s="16">
         <v>47</v>
       </c>
@@ -7470,31 +7693,32 @@
       <c r="D62" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="308" t="s">
+      <c r="E62" s="328" t="s">
         <v>114</v>
       </c>
-      <c r="F62" s="309"/>
+      <c r="F62" s="329"/>
       <c r="G62" s="16"/>
       <c r="H62" s="249"/>
       <c r="I62" s="249" t="s">
         <v>567</v>
       </c>
       <c r="J62" s="250"/>
-      <c r="K62" s="278"/>
-      <c r="L62" s="157"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="136"/>
+      <c r="K62" s="345"/>
+      <c r="L62" s="278"/>
+      <c r="M62" s="157"/>
+      <c r="N62" s="16"/>
       <c r="O62" s="136"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="105"/>
+      <c r="P62" s="136"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="16"/>
       <c r="T62" s="105"/>
       <c r="U62" s="105"/>
       <c r="V62" s="105"/>
-      <c r="W62" s="26"/>
-    </row>
-    <row r="63" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W62" s="105"/>
+      <c r="X62" s="26"/>
+    </row>
+    <row r="63" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B63" s="17">
         <v>48</v>
       </c>
@@ -7504,31 +7728,32 @@
       <c r="D63" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="310" t="s">
+      <c r="E63" s="330" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="311"/>
+      <c r="F63" s="331"/>
       <c r="G63" s="16"/>
       <c r="H63" s="249"/>
       <c r="I63" s="286" t="s">
         <v>563</v>
       </c>
       <c r="J63" s="250"/>
-      <c r="K63" s="278"/>
-      <c r="L63" s="157"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="136"/>
+      <c r="K63" s="345"/>
+      <c r="L63" s="278"/>
+      <c r="M63" s="157"/>
+      <c r="N63" s="16"/>
       <c r="O63" s="136"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="106"/>
+      <c r="P63" s="136"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="17"/>
       <c r="T63" s="106"/>
       <c r="U63" s="106"/>
       <c r="V63" s="106"/>
-      <c r="W63" s="35"/>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W63" s="106"/>
+      <c r="X63" s="35"/>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B64" s="129">
         <v>49</v>
       </c>
@@ -7547,44 +7772,45 @@
       <c r="G64" s="295"/>
       <c r="H64" s="49"/>
       <c r="I64" s="49" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J64" s="45"/>
-      <c r="K64" s="283" t="s">
+      <c r="K64" s="350"/>
+      <c r="L64" s="283" t="s">
         <v>475</v>
       </c>
-      <c r="L64" s="181" t="s">
+      <c r="M64" s="181" t="s">
         <v>465</v>
       </c>
-      <c r="M64" s="182" t="s">
+      <c r="N64" s="182" t="s">
         <v>475</v>
       </c>
-      <c r="N64" s="183" t="s">
+      <c r="O64" s="183" t="s">
         <v>474</v>
       </c>
-      <c r="O64" s="184" t="s">
+      <c r="P64" s="184" t="s">
         <v>476</v>
       </c>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="131" t="s">
+      <c r="Q64" s="3"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="S64" s="130" t="s">
+      <c r="T64" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="T64" s="130" t="s">
+      <c r="U64" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="U64" s="130" t="s">
+      <c r="V64" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="V64" s="132" t="s">
+      <c r="W64" s="132" t="s">
         <v>168</v>
       </c>
-      <c r="W64" s="133"/>
-    </row>
-    <row r="65" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="X64" s="133"/>
+    </row>
+    <row r="65" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B65" s="14">
         <v>50</v>
       </c>
@@ -7604,45 +7830,46 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="7"/>
-      <c r="K65" s="275" t="s">
+      <c r="K65" s="351"/>
+      <c r="L65" s="275" t="s">
         <v>427</v>
       </c>
-      <c r="L65" s="156" t="s">
+      <c r="M65" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="M65" s="149" t="s">
+      <c r="N65" s="149" t="s">
         <v>477</v>
       </c>
-      <c r="N65" s="150" t="s">
+      <c r="O65" s="150" t="s">
         <v>459</v>
       </c>
-      <c r="O65" s="37" t="s">
+      <c r="P65" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="P65" s="170" t="s">
+      <c r="Q65" s="170" t="s">
         <v>478</v>
       </c>
-      <c r="Q65" s="10" t="s">
+      <c r="R65" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="R65" s="15" t="s">
+      <c r="S65" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="S65" s="6" t="s">
+      <c r="T65" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="T65" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="U65" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V65" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W65" s="24"/>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W65" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X65" s="24"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B66" s="14">
         <v>51</v>
       </c>
@@ -7662,41 +7889,42 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="7"/>
-      <c r="K66" s="274" t="s">
+      <c r="K66" s="351"/>
+      <c r="L66" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L66" s="147" t="s">
+      <c r="M66" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M66" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N66" s="6" t="s">
+      <c r="N66" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O66" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="15" t="s">
+      <c r="P66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="S66" s="6" t="s">
+      <c r="T66" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="T66" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="U66" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V66" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W66" s="24"/>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X66" s="24"/>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B67" s="14">
         <v>52</v>
       </c>
@@ -7716,41 +7944,42 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="274" t="s">
+      <c r="K67" s="351"/>
+      <c r="L67" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L67" s="147" t="s">
+      <c r="M67" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M67" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N67" s="6" t="s">
+      <c r="N67" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O67" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="15" t="s">
+      <c r="P67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="S67" s="6" t="s">
+      <c r="T67" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="T67" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="U67" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V67" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W67" s="24"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X67" s="24"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B68" s="14">
         <v>53</v>
       </c>
@@ -7770,41 +7999,42 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="274" t="s">
+      <c r="K68" s="351"/>
+      <c r="L68" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L68" s="147" t="s">
+      <c r="M68" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M68" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N68" s="6" t="s">
+      <c r="N68" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O68" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="15" t="s">
+      <c r="P68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="S68" s="6" t="s">
+      <c r="T68" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="T68" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="U68" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V68" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W68" s="24"/>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X68" s="24"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B69" s="14">
         <v>54</v>
       </c>
@@ -7824,41 +8054,42 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="7"/>
-      <c r="K69" s="274" t="s">
+      <c r="K69" s="351"/>
+      <c r="L69" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L69" s="147" t="s">
+      <c r="M69" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M69" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N69" s="6" t="s">
+      <c r="N69" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="15" t="s">
+      <c r="P69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="S69" s="6" t="s">
+      <c r="T69" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="T69" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="U69" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V69" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W69" s="24"/>
-    </row>
-    <row r="70" spans="2:23" s="108" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X69" s="24"/>
+    </row>
+    <row r="70" spans="2:24" s="108" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B70" s="14">
         <v>55</v>
       </c>
@@ -7881,46 +8112,47 @@
         <v>18</v>
       </c>
       <c r="I70" s="237" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J70" s="301" t="s">
-        <v>589</v>
-      </c>
-      <c r="K70" s="274" t="s">
+        <v>587</v>
+      </c>
+      <c r="K70" s="347"/>
+      <c r="L70" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L70" s="147" t="s">
+      <c r="M70" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M70" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N70" s="6" t="s">
+      <c r="N70" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O70" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="15" t="s">
+      <c r="P70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="S70" s="6" t="s">
+      <c r="T70" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="T70" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="U70" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V70" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W70" s="24"/>
-    </row>
-    <row r="71" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="W70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X70" s="24"/>
+    </row>
+    <row r="71" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B71" s="14">
         <v>56</v>
       </c>
@@ -7943,48 +8175,49 @@
         <v>18</v>
       </c>
       <c r="I71" s="237" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J71" s="301" t="s">
-        <v>589</v>
-      </c>
-      <c r="K71" s="284" t="s">
+        <v>587</v>
+      </c>
+      <c r="K71" s="347"/>
+      <c r="L71" s="284" t="s">
         <v>480</v>
       </c>
-      <c r="L71" s="165" t="s">
+      <c r="M71" s="165" t="s">
         <v>481</v>
       </c>
-      <c r="M71" s="186" t="s">
+      <c r="N71" s="186" t="s">
         <v>482</v>
       </c>
-      <c r="N71" s="187" t="s">
+      <c r="O71" s="187" t="s">
         <v>483</v>
       </c>
-      <c r="O71" s="188" t="s">
+      <c r="P71" s="188" t="s">
         <v>413</v>
       </c>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="10" t="s">
+      <c r="Q71" s="3"/>
+      <c r="R71" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="R71" s="15" t="s">
+      <c r="S71" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="S71" s="6" t="s">
+      <c r="T71" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="T71" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="U71" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V71" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W71" s="24"/>
-    </row>
-    <row r="72" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="W71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X71" s="24"/>
+    </row>
+    <row r="72" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B72" s="14">
         <v>57</v>
       </c>
@@ -8004,41 +8237,42 @@
       <c r="H72" s="287"/>
       <c r="I72" s="287"/>
       <c r="J72" s="294"/>
-      <c r="K72" s="274" t="s">
+      <c r="K72" s="341"/>
+      <c r="L72" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L72" s="147" t="s">
+      <c r="M72" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M72" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N72" s="6" t="s">
+      <c r="N72" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O72" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="15" t="s">
+      <c r="P72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="S72" s="6" t="s">
+      <c r="T72" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="T72" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="U72" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V72" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="24"/>
-    </row>
-    <row r="73" spans="2:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="W72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X72" s="24"/>
+    </row>
+    <row r="73" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B73" s="95">
         <v>58</v>
       </c>
@@ -8061,46 +8295,47 @@
         <v>446</v>
       </c>
       <c r="I73" s="237" t="s">
+        <v>598</v>
+      </c>
+      <c r="J73" s="301" t="s">
         <v>600</v>
       </c>
-      <c r="J73" s="301" t="s">
-        <v>602</v>
-      </c>
-      <c r="K73" s="284" t="s">
+      <c r="K73" s="347"/>
+      <c r="L73" s="284" t="s">
         <v>485</v>
       </c>
-      <c r="L73" s="165" t="s">
+      <c r="M73" s="165" t="s">
         <v>481</v>
       </c>
-      <c r="M73" s="186" t="s">
+      <c r="N73" s="186" t="s">
         <v>486</v>
       </c>
-      <c r="N73" s="187" t="s">
+      <c r="O73" s="187" t="s">
         <v>483</v>
       </c>
-      <c r="O73" s="188" t="s">
+      <c r="P73" s="188" t="s">
         <v>413</v>
       </c>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="10" t="s">
+      <c r="Q73" s="3"/>
+      <c r="R73" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="R73" s="62" t="s">
+      <c r="S73" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="S73" s="37" t="s">
+      <c r="T73" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="T73" s="37" t="s">
+      <c r="U73" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37" t="s">
+      <c r="V73" s="37"/>
+      <c r="W73" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="W73" s="223"/>
-    </row>
-    <row r="74" spans="2:23" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X73" s="223"/>
+    </row>
+    <row r="74" spans="2:24" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B74" s="95">
         <v>59</v>
       </c>
@@ -8120,47 +8355,48 @@
         <v>17</v>
       </c>
       <c r="H74" s="156" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I74" s="237" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J74" s="301" t="s">
-        <v>589</v>
-      </c>
-      <c r="K74" s="274" t="s">
+        <v>587</v>
+      </c>
+      <c r="K74" s="347"/>
+      <c r="L74" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="L74" s="147" t="s">
+      <c r="M74" s="147" t="s">
         <v>410</v>
       </c>
-      <c r="M74" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N74" s="6" t="s">
+      <c r="N74" s="15" t="s">
         <v>36</v>
       </c>
       <c r="O74" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P74" s="166"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="62" t="s">
+      <c r="P74" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q74" s="166"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="S74" s="37" t="s">
+      <c r="T74" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="T74" s="121" t="s">
+      <c r="U74" s="121" t="s">
         <v>558</v>
       </c>
-      <c r="U74" s="121"/>
-      <c r="V74" s="121" t="s">
+      <c r="V74" s="121"/>
+      <c r="W74" s="121" t="s">
         <v>553</v>
       </c>
-      <c r="W74" s="224"/>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="X74" s="224"/>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B75" s="16">
         <v>60</v>
       </c>
@@ -8170,39 +8406,40 @@
       <c r="D75" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E75" s="308" t="s">
+      <c r="E75" s="328" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="309"/>
+      <c r="F75" s="329"/>
       <c r="G75" s="16"/>
       <c r="H75" s="249"/>
       <c r="I75" s="249" t="s">
         <v>567</v>
       </c>
       <c r="J75" s="250"/>
-      <c r="K75" s="278" t="s">
+      <c r="K75" s="345"/>
+      <c r="L75" s="278" t="s">
         <v>487</v>
       </c>
-      <c r="L75" s="157"/>
-      <c r="M75" s="189" t="s">
+      <c r="M75" s="157"/>
+      <c r="N75" s="189" t="s">
         <v>487</v>
       </c>
-      <c r="N75" s="190"/>
-      <c r="O75" s="136"/>
-      <c r="P75" s="166"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="16" t="s">
+      <c r="O75" s="190"/>
+      <c r="P75" s="136"/>
+      <c r="Q75" s="166"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="S75" s="87"/>
-      <c r="T75" s="87" t="s">
+      <c r="T75" s="87"/>
+      <c r="U75" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="U75" s="87"/>
       <c r="V75" s="87"/>
-      <c r="W75" s="26"/>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W75" s="87"/>
+      <c r="X75" s="26"/>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B76" s="95">
         <v>61</v>
       </c>
@@ -8222,47 +8459,48 @@
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="7"/>
-      <c r="K76" s="277" t="s">
+      <c r="K76" s="351"/>
+      <c r="L76" s="277" t="s">
         <v>420</v>
       </c>
-      <c r="L76" s="156" t="s">
+      <c r="M76" s="156" t="s">
         <v>415</v>
       </c>
-      <c r="M76" s="149" t="s">
+      <c r="N76" s="149" t="s">
         <v>488</v>
       </c>
-      <c r="N76" s="150" t="s">
+      <c r="O76" s="150" t="s">
         <v>489</v>
       </c>
-      <c r="O76" s="37" t="s">
+      <c r="P76" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="P76" s="112" t="s">
+      <c r="Q76" s="112" t="s">
         <v>490</v>
       </c>
-      <c r="Q76" s="10" t="s">
+      <c r="R76" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="R76" s="62" t="s">
+      <c r="S76" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="S76" s="37" t="s">
+      <c r="T76" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="T76" s="37" t="s">
+      <c r="U76" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="U76" s="37" t="s">
+      <c r="V76" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="V76" s="37" t="s">
+      <c r="W76" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="W76" s="221" t="s">
+      <c r="X76" s="221" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="77" spans="2:23" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B77" s="95">
         <v>62</v>
       </c>
@@ -8285,50 +8523,51 @@
         <v>18</v>
       </c>
       <c r="I77" s="237" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J77" s="301" t="s">
-        <v>589</v>
-      </c>
-      <c r="K77" s="284" t="s">
+        <v>587</v>
+      </c>
+      <c r="K77" s="347"/>
+      <c r="L77" s="284" t="s">
         <v>492</v>
       </c>
-      <c r="L77" s="165" t="s">
+      <c r="M77" s="165" t="s">
         <v>481</v>
       </c>
-      <c r="M77" s="191" t="s">
+      <c r="N77" s="191" t="s">
         <v>493</v>
       </c>
-      <c r="N77" s="192" t="s">
+      <c r="O77" s="192" t="s">
         <v>489</v>
       </c>
-      <c r="O77" s="193" t="s">
+      <c r="P77" s="193" t="s">
         <v>413</v>
       </c>
-      <c r="P77" s="170"/>
-      <c r="Q77" s="10" t="s">
+      <c r="Q77" s="170"/>
+      <c r="R77" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="R77" s="62" t="s">
+      <c r="S77" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="S77" s="37" t="s">
+      <c r="T77" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="T77" s="37" t="s">
+      <c r="U77" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="U77" s="37" t="s">
+      <c r="V77" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="V77" s="37" t="s">
+      <c r="W77" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="W77" s="225" t="s">
+      <c r="X77" s="225" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B78" s="16">
         <v>63</v>
       </c>
@@ -8338,31 +8577,32 @@
       <c r="D78" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E78" s="308" t="s">
+      <c r="E78" s="328" t="s">
         <v>114</v>
       </c>
-      <c r="F78" s="309"/>
+      <c r="F78" s="329"/>
       <c r="G78" s="16"/>
       <c r="H78" s="249"/>
       <c r="I78" s="249" t="s">
         <v>567</v>
       </c>
       <c r="J78" s="250"/>
-      <c r="K78" s="278"/>
-      <c r="L78" s="157"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="136"/>
+      <c r="K78" s="345"/>
+      <c r="L78" s="278"/>
+      <c r="M78" s="157"/>
+      <c r="N78" s="16"/>
       <c r="O78" s="136"/>
-      <c r="P78" s="194"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="87"/>
+      <c r="P78" s="136"/>
+      <c r="Q78" s="194"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="16"/>
       <c r="T78" s="87"/>
       <c r="U78" s="87"/>
       <c r="V78" s="87"/>
-      <c r="W78" s="26"/>
-    </row>
-    <row r="79" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W78" s="87"/>
+      <c r="X78" s="26"/>
+    </row>
+    <row r="79" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B79" s="17">
         <v>64</v>
       </c>
@@ -8372,234 +8612,237 @@
       <c r="D79" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="310" t="s">
+      <c r="E79" s="330" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="311"/>
+      <c r="F79" s="331"/>
       <c r="G79" s="17"/>
       <c r="H79" s="251"/>
       <c r="I79" s="296" t="s">
         <v>563</v>
       </c>
       <c r="J79" s="252"/>
-      <c r="K79" s="285"/>
-      <c r="L79" s="195"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="137"/>
+      <c r="K79" s="353"/>
+      <c r="L79" s="285"/>
+      <c r="M79" s="195"/>
+      <c r="N79" s="17"/>
       <c r="O79" s="137"/>
-      <c r="P79" s="196"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="17"/>
-      <c r="S79" s="88"/>
+      <c r="P79" s="137"/>
+      <c r="Q79" s="196"/>
+      <c r="R79" s="22"/>
+      <c r="S79" s="17"/>
       <c r="T79" s="88"/>
       <c r="U79" s="88"/>
       <c r="V79" s="88"/>
-      <c r="W79" s="35"/>
-    </row>
-    <row r="83" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="K83" s="151" t="s">
+      <c r="W79" s="88"/>
+      <c r="X79" s="35"/>
+    </row>
+    <row r="83" spans="5:16" x14ac:dyDescent="0.4">
+      <c r="L83" s="151" t="s">
         <v>414</v>
       </c>
-      <c r="L83" s="152" t="s">
+      <c r="M83" s="152" t="s">
         <v>415</v>
       </c>
-      <c r="M83" s="153" t="s">
+      <c r="N83" s="153" t="s">
         <v>416</v>
       </c>
-      <c r="N83" s="154" t="s">
+      <c r="O83" s="154" t="s">
         <v>417</v>
       </c>
-      <c r="O83" s="155" t="s">
+      <c r="P83" s="155" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="84" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="185" t="s">
+      <c r="K84" s="1"/>
+      <c r="L84" s="185" t="s">
         <v>480</v>
       </c>
-      <c r="L84" s="165" t="s">
+      <c r="M84" s="165" t="s">
         <v>481</v>
       </c>
-      <c r="M84" s="186" t="s">
+      <c r="N84" s="186" t="s">
         <v>482</v>
       </c>
-      <c r="N84" s="187" t="s">
+      <c r="O84" s="187" t="s">
         <v>483</v>
       </c>
-      <c r="O84" s="188" t="s">
+      <c r="P84" s="188" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="85" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-      <c r="K85" s="151" t="s">
+      <c r="K85" s="1"/>
+      <c r="L85" s="151" t="s">
         <v>437</v>
       </c>
-      <c r="L85" s="165" t="s">
+      <c r="M85" s="165" t="s">
         <v>415</v>
       </c>
-      <c r="M85" s="153" t="s">
+      <c r="N85" s="153" t="s">
         <v>438</v>
       </c>
-      <c r="N85" s="154" t="s">
+      <c r="O85" s="154" t="s">
         <v>439</v>
       </c>
-      <c r="O85" s="155" t="s">
+      <c r="P85" s="155" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="86" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
-      <c r="K86" s="185" t="s">
+      <c r="K86" s="1"/>
+      <c r="L86" s="185" t="s">
         <v>485</v>
       </c>
-      <c r="L86" s="165" t="s">
+      <c r="M86" s="165" t="s">
         <v>481</v>
       </c>
-      <c r="M86" s="186" t="s">
+      <c r="N86" s="186" t="s">
         <v>486</v>
       </c>
-      <c r="N86" s="187" t="s">
+      <c r="O86" s="187" t="s">
         <v>483</v>
       </c>
-      <c r="O86" s="188" t="s">
+      <c r="P86" s="188" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="87" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
-      <c r="K87" s="151" t="s">
+      <c r="K87" s="1"/>
+      <c r="L87" s="151" t="s">
         <v>457</v>
       </c>
-      <c r="L87" s="152" t="s">
+      <c r="M87" s="152" t="s">
         <v>415</v>
       </c>
-      <c r="M87" s="153" t="s">
+      <c r="N87" s="153" t="s">
         <v>458</v>
       </c>
-      <c r="N87" s="154" t="s">
+      <c r="O87" s="154" t="s">
         <v>459</v>
       </c>
-      <c r="O87" s="155" t="s">
+      <c r="P87" s="155" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="88" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
-      <c r="K88" s="185" t="s">
+      <c r="K88" s="1"/>
+      <c r="L88" s="185" t="s">
         <v>492</v>
       </c>
-      <c r="L88" s="165" t="s">
+      <c r="M88" s="165" t="s">
         <v>481</v>
       </c>
-      <c r="M88" s="191" t="s">
+      <c r="N88" s="191" t="s">
         <v>493</v>
       </c>
-      <c r="N88" s="192" t="s">
+      <c r="O88" s="192" t="s">
         <v>489</v>
       </c>
-      <c r="O88" s="193" t="s">
+      <c r="P88" s="193" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B15:W79"/>
+  <autoFilter ref="B15:X79" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="26">
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="U14:X14"/>
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="E75:F75"/>
@@ -8608,11 +8851,21 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E46:F46"/>
-    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="S14:T14"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8622,50 +8875,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="6.125" customWidth="1"/>
-    <col min="11" max="11" width="90.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" customWidth="1"/>
+    <col min="3" max="3" width="7.8984375" customWidth="1"/>
+    <col min="4" max="4" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13.59765625" customWidth="1"/>
+    <col min="10" max="10" width="6.09765625" customWidth="1"/>
+    <col min="11" max="11" width="90.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="61" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C6" s="61" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D7" s="52"/>
       <c r="E7" s="59" t="s">
         <v>210</v>
@@ -8689,7 +8942,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D8" s="65" t="s">
         <v>184</v>
       </c>
@@ -8715,7 +8968,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D9" s="65" t="s">
         <v>185</v>
       </c>
@@ -8737,7 +8990,7 @@
       <c r="J9" s="55"/>
       <c r="K9" s="56"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D10" s="65" t="s">
         <v>187</v>
       </c>
@@ -8768,7 +9021,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D11" s="65" t="s">
         <v>186</v>
       </c>
@@ -8790,7 +9043,7 @@
       <c r="J11" s="55"/>
       <c r="K11" s="56"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D12" s="65" t="s">
         <v>188</v>
       </c>
@@ -8821,7 +9074,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D13" s="65" t="s">
         <v>189</v>
       </c>
@@ -8843,7 +9096,7 @@
       <c r="J13" s="55"/>
       <c r="K13" s="56"/>
     </row>
-    <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D14" s="66" t="s">
         <v>190</v>
       </c>
@@ -8872,17 +9125,17 @@
       </c>
       <c r="K14" s="58"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C16" s="61" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C17" s="61" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D18" s="63" t="s">
         <v>183</v>
       </c>
@@ -8904,7 +9157,7 @@
       <c r="J18" s="53"/>
       <c r="K18" s="54"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D19" s="64" t="s">
         <v>191</v>
       </c>
@@ -8935,7 +9188,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D20" s="65" t="s">
         <v>192</v>
       </c>
@@ -8959,7 +9212,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D21" s="66" t="s">
         <v>230</v>
       </c>
@@ -8993,23 +9246,23 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" s="61" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="61"/>
       <c r="C24" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C25" s="61" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D26" s="63" t="s">
         <v>195</v>
       </c>
@@ -9035,7 +9288,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D27" s="67" t="s">
         <v>197</v>
       </c>
@@ -9064,16 +9317,16 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D28" s="51"/>
     </row>
-    <row r="29" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C29" s="61" t="s">
         <v>218</v>
       </c>
       <c r="D29" s="51"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D30" s="63" t="s">
         <v>200</v>
       </c>
@@ -9097,7 +9350,7 @@
       </c>
       <c r="K30" s="54"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D31" s="64" t="s">
         <v>220</v>
       </c>
@@ -9126,7 +9379,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D32" s="64" t="s">
         <v>221</v>
       </c>
@@ -9157,7 +9410,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D33" s="64" t="s">
         <v>223</v>
       </c>
@@ -9188,7 +9441,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D34" s="64" t="s">
         <v>201</v>
       </c>
@@ -9212,7 +9465,7 @@
       </c>
       <c r="K34" s="56"/>
     </row>
-    <row r="35" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D35" s="67" t="s">
         <v>81</v>
       </c>
@@ -9241,19 +9494,19 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.4">
       <c r="F36">
         <f>1/F30*1000</f>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.4">
       <c r="F39">
         <f>1/F8*1000</f>
         <v>1.25E-4</v>
       </c>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.4">
       <c r="F41">
         <f>F36/F39</f>
         <v>100</v>
@@ -9267,34 +9520,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9" style="77"/>
-    <col min="3" max="3" width="12.75" style="76" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="76" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="76" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="76" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="76" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="76" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" style="76" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" style="76" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="76" customWidth="1"/>
     <col min="8" max="8" width="9" style="77"/>
-    <col min="9" max="9" width="11.875" style="76" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="76" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.625" style="76" customWidth="1"/>
+    <col min="9" max="9" width="11.8984375" style="76" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" style="76" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.59765625" style="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="77" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" s="77" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="100" t="s">
         <v>317</v>
       </c>
@@ -9332,7 +9585,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" s="85">
         <v>1</v>
       </c>
@@ -9364,7 +9617,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" s="85">
         <v>3</v>
       </c>
@@ -9400,7 +9653,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="85">
         <v>5</v>
       </c>
@@ -9434,7 +9687,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="85">
         <v>7</v>
       </c>
@@ -9468,7 +9721,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="85">
         <v>9</v>
       </c>
@@ -9502,7 +9755,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="85">
         <v>11</v>
       </c>
@@ -9532,7 +9785,7 @@
       </c>
       <c r="M9" s="79"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="85">
         <v>13</v>
       </c>
@@ -9562,7 +9815,7 @@
       </c>
       <c r="M10" s="79"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="85">
         <v>15</v>
       </c>
@@ -9592,7 +9845,7 @@
       </c>
       <c r="M11" s="79"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="85">
         <v>17</v>
       </c>
@@ -9622,7 +9875,7 @@
       </c>
       <c r="M12" s="79"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="85">
         <v>19</v>
       </c>
@@ -9652,7 +9905,7 @@
       </c>
       <c r="M13" s="82"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="85">
         <v>21</v>
       </c>
@@ -9684,7 +9937,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" s="85">
         <v>23</v>
       </c>
@@ -9714,7 +9967,7 @@
       </c>
       <c r="M15" s="82"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="85">
         <v>25</v>
       </c>
@@ -9746,7 +9999,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="85">
         <v>27</v>
       </c>
@@ -9778,7 +10031,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" s="85">
         <v>29</v>
       </c>
@@ -9812,7 +10065,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B19" s="85">
         <v>31</v>
       </c>
@@ -9846,7 +10099,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="85">
         <v>33</v>
       </c>
@@ -9876,7 +10129,7 @@
       </c>
       <c r="M20" s="79"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" s="85">
         <v>35</v>
       </c>
@@ -9906,7 +10159,7 @@
       </c>
       <c r="M21" s="79"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="85">
         <v>37</v>
       </c>
@@ -9938,7 +10191,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="86">
         <v>39</v>
       </c>
@@ -9968,12 +10221,12 @@
       </c>
       <c r="M23" s="81"/>
     </row>
-    <row r="25" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="77" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="77" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="100" t="s">
         <v>317</v>
       </c>
@@ -10011,7 +10264,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B27" s="85">
         <v>1</v>
       </c>
@@ -10045,7 +10298,7 @@
       </c>
       <c r="M27" s="82"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B28" s="85">
         <v>3</v>
       </c>
@@ -10077,7 +10330,7 @@
       </c>
       <c r="M28" s="79"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B29" s="85">
         <v>5</v>
       </c>
@@ -10111,7 +10364,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B30" s="85">
         <v>7</v>
       </c>
@@ -10141,7 +10394,7 @@
       </c>
       <c r="M30" s="79"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B31" s="85">
         <v>9</v>
       </c>
@@ -10173,7 +10426,7 @@
       </c>
       <c r="M31" s="79"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B32" s="85">
         <v>11</v>
       </c>
@@ -10205,7 +10458,7 @@
       </c>
       <c r="M32" s="79"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B33" s="85">
         <v>13</v>
       </c>
@@ -10241,7 +10494,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B34" s="85">
         <v>15</v>
       </c>
@@ -10275,7 +10528,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B35" s="85">
         <v>17</v>
       </c>
@@ -10307,7 +10560,7 @@
       </c>
       <c r="M35" s="79"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B36" s="85">
         <v>19</v>
       </c>
@@ -10339,7 +10592,7 @@
       </c>
       <c r="M36" s="79"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B37" s="85">
         <v>21</v>
       </c>
@@ -10375,7 +10628,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B38" s="85">
         <v>23</v>
       </c>
@@ -10411,7 +10664,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B39" s="85">
         <v>25</v>
       </c>
@@ -10441,7 +10694,7 @@
       </c>
       <c r="M39" s="79"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B40" s="85">
         <v>27</v>
       </c>
@@ -10475,7 +10728,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B41" s="85">
         <v>29</v>
       </c>
@@ -10509,7 +10762,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B42" s="85">
         <v>31</v>
       </c>
@@ -10543,7 +10796,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B43" s="85">
         <v>33</v>
       </c>
@@ -10577,7 +10830,7 @@
       </c>
       <c r="M43" s="79"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B44" s="85">
         <v>35</v>
       </c>
@@ -10609,7 +10862,7 @@
       </c>
       <c r="M44" s="79"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B45" s="85">
         <v>37</v>
       </c>
@@ -10639,7 +10892,7 @@
       </c>
       <c r="M45" s="79"/>
     </row>
-    <row r="46" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="86">
         <v>39</v>
       </c>
@@ -10677,52 +10930,52 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="3.625" customWidth="1"/>
-    <col min="9" max="12" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="6" width="15.59765625" customWidth="1"/>
+    <col min="7" max="7" width="3.59765625" customWidth="1"/>
+    <col min="9" max="12" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="331" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="335" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="333" t="s">
+      <c r="C3" s="337" t="s">
         <v>514</v>
       </c>
-      <c r="D3" s="334"/>
-      <c r="E3" s="329" t="s">
+      <c r="D3" s="338"/>
+      <c r="E3" s="333" t="s">
         <v>515</v>
       </c>
-      <c r="F3" s="330"/>
-      <c r="H3" s="331" t="s">
+      <c r="F3" s="334"/>
+      <c r="H3" s="335" t="s">
         <v>317</v>
       </c>
-      <c r="I3" s="333" t="s">
+      <c r="I3" s="337" t="s">
         <v>514</v>
       </c>
-      <c r="J3" s="334"/>
-      <c r="K3" s="329" t="s">
+      <c r="J3" s="338"/>
+      <c r="K3" s="333" t="s">
         <v>515</v>
       </c>
-      <c r="L3" s="330"/>
-    </row>
-    <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="332"/>
+      <c r="L3" s="334"/>
+    </row>
+    <row r="4" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="336"/>
       <c r="C4" s="209" t="s">
         <v>513</v>
       </c>
@@ -10735,7 +10988,7 @@
       <c r="F4" s="216" t="s">
         <v>516</v>
       </c>
-      <c r="H4" s="332"/>
+      <c r="H4" s="336"/>
       <c r="I4" s="209" t="s">
         <v>301</v>
       </c>
@@ -10749,7 +11002,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="202">
         <v>1</v>
       </c>
@@ -10781,7 +11034,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="203">
         <v>3</v>
       </c>
@@ -10813,7 +11066,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="203">
         <v>5</v>
       </c>
@@ -10845,7 +11098,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="203">
         <v>7</v>
       </c>
@@ -10877,7 +11130,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="203">
         <v>9</v>
       </c>
@@ -10909,7 +11162,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="203">
         <v>11</v>
       </c>
@@ -10933,7 +11186,7 @@
       <c r="K10" s="207"/>
       <c r="L10" s="200"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="203">
         <v>13</v>
       </c>
@@ -10957,7 +11210,7 @@
       <c r="K11" s="207"/>
       <c r="L11" s="200"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="203">
         <v>15</v>
       </c>
@@ -10981,7 +11234,7 @@
       <c r="K12" s="207"/>
       <c r="L12" s="200"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="203">
         <v>17</v>
       </c>
@@ -11005,7 +11258,7 @@
       <c r="K13" s="207"/>
       <c r="L13" s="200"/>
     </row>
-    <row r="14" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="204">
         <v>19</v>
       </c>
@@ -11029,55 +11282,55 @@
       <c r="K14" s="208"/>
       <c r="L14" s="201"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="197" t="s">
         <v>522</v>
       </c>
       <c r="C15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="197" t="s">
         <v>504</v>
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="197" t="s">
         <v>505</v>
       </c>
       <c r="C17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="197" t="s">
         <v>521</v>
       </c>
       <c r="C18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="77"/>
       <c r="C27" s="77"/>
       <c r="E27" s="77"/>

--- a/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20190429.xlsx
+++ b/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20190429.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52317E15-C001-49D1-96F6-F0C2F9F15F7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329CA47E-A5D1-4E5B-87C1-F570004C4048}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="626">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2391,14 +2391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PB6_BIAS_ON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB7_GPIO_ON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HIGH Active</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2446,6 +2438,66 @@
   <si>
     <t>Buck output Voltage monitor</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과전류 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW_IS_AD : 2.01V 이상(ADC : 2496)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN 동작 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN_PW_AD : 0.51V 이하(ADC : 634)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward Power monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reflected Power monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Transistor Over(65℃) temp 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Temperature</t>
+  </si>
+  <si>
+    <t>25KHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN 동작 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Cable detect error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case detect error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50KHz</t>
+  </si>
+  <si>
+    <t>LCD와 통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF PCB의 Bias control</t>
+  </si>
+  <si>
+    <t>RF 48V 전원 control</t>
   </si>
 </sst>
 </file>
@@ -3067,7 +3119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3958,6 +4010,108 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3976,9 +4130,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3987,57 +4138,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4057,53 +4157,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4705,8 +4766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4763,10 +4824,10 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B3" s="316" t="s">
+      <c r="B3" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="317"/>
+      <c r="C3" s="335"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -4799,10 +4860,10 @@
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B4" s="318" t="s">
+      <c r="B4" s="336" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="319"/>
+      <c r="C4" s="337"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -4837,10 +4898,10 @@
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B5" s="318" t="s">
+      <c r="B5" s="336" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="319"/>
+      <c r="C5" s="337"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -4877,10 +4938,10 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B6" s="318" t="s">
+      <c r="B6" s="336" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="319"/>
+      <c r="C6" s="337"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -4909,10 +4970,10 @@
       <c r="U6" s="10"/>
     </row>
     <row r="7" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="320" t="s">
+      <c r="B7" s="338" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="321"/>
+      <c r="C7" s="339"/>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
@@ -5081,23 +5142,23 @@
     </row>
     <row r="13" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="311" t="s">
+      <c r="B14" s="345" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="312"/>
-      <c r="D14" s="312" t="s">
+      <c r="C14" s="332"/>
+      <c r="D14" s="332" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="312" t="s">
+      <c r="E14" s="332" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="332"/>
-      <c r="G14" s="306" t="s">
+      <c r="F14" s="333"/>
+      <c r="G14" s="340" t="s">
         <v>562</v>
       </c>
-      <c r="H14" s="307"/>
-      <c r="I14" s="307"/>
-      <c r="J14" s="308"/>
+      <c r="H14" s="341"/>
+      <c r="I14" s="341"/>
+      <c r="J14" s="342"/>
       <c r="K14" s="302"/>
       <c r="L14" s="322" t="s">
         <v>399</v>
@@ -5128,7 +5189,7 @@
       <c r="C15" s="114" t="s">
         <v>377</v>
       </c>
-      <c r="D15" s="313"/>
+      <c r="D15" s="346"/>
       <c r="E15" s="114" t="s">
         <v>162</v>
       </c>
@@ -5147,7 +5208,7 @@
       <c r="J15" s="255" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="339"/>
+      <c r="K15" s="306"/>
       <c r="L15" s="138" t="s">
         <v>401</v>
       </c>
@@ -5198,17 +5259,17 @@
       <c r="D16" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="309" t="s">
+      <c r="E16" s="343" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="310"/>
+      <c r="F16" s="344"/>
       <c r="G16" s="33"/>
       <c r="H16" s="253"/>
       <c r="I16" s="289" t="s">
         <v>563</v>
       </c>
       <c r="J16" s="254"/>
-      <c r="K16" s="340"/>
+      <c r="K16" s="307"/>
       <c r="L16" s="273"/>
       <c r="M16" s="143"/>
       <c r="N16" s="144"/>
@@ -5243,7 +5304,7 @@
       <c r="H17" s="287"/>
       <c r="I17" s="287"/>
       <c r="J17" s="294"/>
-      <c r="K17" s="341"/>
+      <c r="K17" s="308"/>
       <c r="L17" s="274" t="s">
         <v>407</v>
       </c>
@@ -5300,7 +5361,7 @@
         <v>564</v>
       </c>
       <c r="J18" s="97"/>
-      <c r="K18" s="342"/>
+      <c r="K18" s="309"/>
       <c r="L18" s="274" t="s">
         <v>409</v>
       </c>
@@ -5357,7 +5418,7 @@
         <v>564</v>
       </c>
       <c r="J19" s="97"/>
-      <c r="K19" s="342"/>
+      <c r="K19" s="309"/>
       <c r="L19" s="274" t="s">
         <v>409</v>
       </c>
@@ -5414,7 +5475,7 @@
         <v>565</v>
       </c>
       <c r="J20" s="97"/>
-      <c r="K20" s="342"/>
+      <c r="K20" s="309"/>
       <c r="L20" s="274" t="s">
         <v>409</v>
       </c>
@@ -5471,7 +5532,7 @@
         <v>565</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="342"/>
+      <c r="K21" s="309"/>
       <c r="L21" s="274" t="s">
         <v>409</v>
       </c>
@@ -5516,17 +5577,17 @@
       <c r="D22" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="314" t="s">
+      <c r="E22" s="347" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="315"/>
+      <c r="F22" s="348"/>
       <c r="G22" s="47"/>
       <c r="H22" s="256"/>
       <c r="I22" s="256" t="s">
         <v>566</v>
       </c>
       <c r="J22" s="257"/>
-      <c r="K22" s="343"/>
+      <c r="K22" s="310"/>
       <c r="L22" s="275" t="s">
         <v>411</v>
       </c>
@@ -5587,10 +5648,10 @@
         <v>568</v>
       </c>
       <c r="J23" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="K23" s="321" t="s">
         <v>607</v>
-      </c>
-      <c r="K23" s="354" t="s">
-        <v>609</v>
       </c>
       <c r="L23" s="276" t="s">
         <v>414</v>
@@ -5651,13 +5712,13 @@
         <v>18</v>
       </c>
       <c r="I24" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="J24" s="298" t="s">
+        <v>609</v>
+      </c>
+      <c r="K24" s="321" t="s">
         <v>608</v>
-      </c>
-      <c r="J24" s="298" t="s">
-        <v>611</v>
-      </c>
-      <c r="K24" s="354" t="s">
-        <v>610</v>
       </c>
       <c r="L24" s="277" t="s">
         <v>420</v>
@@ -5718,8 +5779,12 @@
       <c r="I25" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="J25" s="298"/>
-      <c r="K25" s="344"/>
+      <c r="J25" s="298" t="s">
+        <v>610</v>
+      </c>
+      <c r="K25" s="355" t="s">
+        <v>611</v>
+      </c>
       <c r="L25" s="277" t="s">
         <v>420</v>
       </c>
@@ -5779,8 +5844,12 @@
       <c r="I26" s="39" t="s">
         <v>569</v>
       </c>
-      <c r="J26" s="298"/>
-      <c r="K26" s="344"/>
+      <c r="J26" s="298" t="s">
+        <v>612</v>
+      </c>
+      <c r="K26" s="355" t="s">
+        <v>613</v>
+      </c>
       <c r="L26" s="277" t="s">
         <v>420</v>
       </c>
@@ -5833,7 +5902,7 @@
         <v>567</v>
       </c>
       <c r="J27" s="250"/>
-      <c r="K27" s="345"/>
+      <c r="K27" s="356"/>
       <c r="L27" s="278"/>
       <c r="M27" s="157"/>
       <c r="N27" s="16"/>
@@ -5868,7 +5937,7 @@
         <v>563</v>
       </c>
       <c r="J28" s="250"/>
-      <c r="K28" s="345"/>
+      <c r="K28" s="312"/>
       <c r="L28" s="278"/>
       <c r="M28" s="157"/>
       <c r="N28" s="16"/>
@@ -5908,8 +5977,10 @@
       <c r="I29" s="39" t="s">
         <v>578</v>
       </c>
-      <c r="J29" s="298"/>
-      <c r="K29" s="344"/>
+      <c r="J29" s="298" t="s">
+        <v>615</v>
+      </c>
+      <c r="K29" s="311"/>
       <c r="L29" s="274" t="s">
         <v>409</v>
       </c>
@@ -5969,8 +6040,10 @@
       <c r="I30" s="39" t="s">
         <v>570</v>
       </c>
-      <c r="J30" s="298"/>
-      <c r="K30" s="344"/>
+      <c r="J30" s="298" t="s">
+        <v>614</v>
+      </c>
+      <c r="K30" s="311"/>
       <c r="L30" s="279" t="s">
         <v>427</v>
       </c>
@@ -6017,15 +6090,21 @@
       <c r="F31" s="263" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="293"/>
+      <c r="G31" s="357" t="s">
+        <v>112</v>
+      </c>
       <c r="H31" s="297" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="J31" s="294"/>
-      <c r="K31" s="341"/>
+      <c r="J31" s="298" t="s">
+        <v>617</v>
+      </c>
+      <c r="K31" s="311" t="s">
+        <v>616</v>
+      </c>
       <c r="L31" s="279" t="s">
         <v>427</v>
       </c>
@@ -6070,7 +6149,7 @@
       <c r="H32" s="287"/>
       <c r="I32" s="287"/>
       <c r="J32" s="294"/>
-      <c r="K32" s="341"/>
+      <c r="K32" s="308"/>
       <c r="L32" s="274" t="s">
         <v>409</v>
       </c>
@@ -6125,7 +6204,7 @@
         <v>567</v>
       </c>
       <c r="J33" s="250"/>
-      <c r="K33" s="345"/>
+      <c r="K33" s="312"/>
       <c r="L33" s="278"/>
       <c r="M33" s="157"/>
       <c r="N33" s="16"/>
@@ -6160,7 +6239,7 @@
         <v>563</v>
       </c>
       <c r="J34" s="250"/>
-      <c r="K34" s="345"/>
+      <c r="K34" s="312"/>
       <c r="L34" s="278"/>
       <c r="M34" s="157"/>
       <c r="N34" s="16"/>
@@ -6195,7 +6274,7 @@
       <c r="H35" s="287"/>
       <c r="I35" s="287"/>
       <c r="J35" s="294"/>
-      <c r="K35" s="341"/>
+      <c r="K35" s="308"/>
       <c r="L35" s="274" t="s">
         <v>409</v>
       </c>
@@ -6250,7 +6329,7 @@
       <c r="H36" s="287"/>
       <c r="I36" s="287"/>
       <c r="J36" s="294"/>
-      <c r="K36" s="341"/>
+      <c r="K36" s="308"/>
       <c r="L36" s="274" t="s">
         <v>409</v>
       </c>
@@ -6302,16 +6381,20 @@
         <v>117</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H37" s="181" t="s">
         <v>446</v>
       </c>
       <c r="I37" s="256" t="s">
-        <v>602</v>
-      </c>
-      <c r="J37" s="257"/>
-      <c r="K37" s="343"/>
+        <v>600</v>
+      </c>
+      <c r="J37" s="310" t="s">
+        <v>618</v>
+      </c>
+      <c r="K37" s="257" t="s">
+        <v>619</v>
+      </c>
       <c r="L37" s="274" t="s">
         <v>409</v>
       </c>
@@ -6371,7 +6454,7 @@
       <c r="H38" s="287"/>
       <c r="I38" s="287"/>
       <c r="J38" s="294"/>
-      <c r="K38" s="341"/>
+      <c r="K38" s="308"/>
       <c r="L38" s="280" t="s">
         <v>432</v>
       </c>
@@ -6420,7 +6503,7 @@
       <c r="H39" s="287"/>
       <c r="I39" s="287"/>
       <c r="J39" s="294"/>
-      <c r="K39" s="341"/>
+      <c r="K39" s="308"/>
       <c r="L39" s="280" t="s">
         <v>435</v>
       </c>
@@ -6475,7 +6558,7 @@
       <c r="H40" s="287"/>
       <c r="I40" s="287"/>
       <c r="J40" s="294"/>
-      <c r="K40" s="341"/>
+      <c r="K40" s="308"/>
       <c r="L40" s="276" t="s">
         <v>437</v>
       </c>
@@ -6540,7 +6623,7 @@
       <c r="J41" s="300" t="s">
         <v>584</v>
       </c>
-      <c r="K41" s="346"/>
+      <c r="K41" s="313"/>
       <c r="L41" s="277" t="s">
         <v>420</v>
       </c>
@@ -6605,7 +6688,7 @@
       <c r="J42" s="300" t="s">
         <v>585</v>
       </c>
-      <c r="K42" s="346"/>
+      <c r="K42" s="313"/>
       <c r="L42" s="275" t="s">
         <v>427</v>
       </c>
@@ -6670,7 +6753,7 @@
       <c r="J43" s="301" t="s">
         <v>587</v>
       </c>
-      <c r="K43" s="347"/>
+      <c r="K43" s="314"/>
       <c r="L43" s="274" t="s">
         <v>409</v>
       </c>
@@ -6731,7 +6814,7 @@
         <v>581</v>
       </c>
       <c r="J44" s="41"/>
-      <c r="K44" s="348"/>
+      <c r="K44" s="315"/>
       <c r="L44" s="274" t="s">
         <v>409</v>
       </c>
@@ -6792,7 +6875,7 @@
         <v>582</v>
       </c>
       <c r="J45" s="41"/>
-      <c r="K45" s="348"/>
+      <c r="K45" s="315"/>
       <c r="L45" s="274" t="s">
         <v>409</v>
       </c>
@@ -6847,7 +6930,7 @@
         <v>567</v>
       </c>
       <c r="J46" s="250"/>
-      <c r="K46" s="345"/>
+      <c r="K46" s="312"/>
       <c r="L46" s="278"/>
       <c r="M46" s="157"/>
       <c r="N46" s="16"/>
@@ -6882,7 +6965,7 @@
         <v>563</v>
       </c>
       <c r="J47" s="250"/>
-      <c r="K47" s="345"/>
+      <c r="K47" s="312"/>
       <c r="L47" s="278"/>
       <c r="M47" s="157"/>
       <c r="N47" s="16"/>
@@ -6925,7 +7008,9 @@
       <c r="J48" s="301" t="s">
         <v>587</v>
       </c>
-      <c r="K48" s="347"/>
+      <c r="K48" s="314" t="s">
+        <v>620</v>
+      </c>
       <c r="L48" s="277" t="s">
         <v>420</v>
       </c>
@@ -6992,7 +7077,9 @@
       <c r="J49" s="301" t="s">
         <v>587</v>
       </c>
-      <c r="K49" s="347"/>
+      <c r="K49" s="314" t="s">
+        <v>621</v>
+      </c>
       <c r="L49" s="277" t="s">
         <v>420</v>
       </c>
@@ -7055,7 +7142,7 @@
         <v>594</v>
       </c>
       <c r="J50" s="301"/>
-      <c r="K50" s="347"/>
+      <c r="K50" s="314"/>
       <c r="L50" s="277" t="s">
         <v>420</v>
       </c>
@@ -7100,7 +7187,7 @@
       <c r="H51" s="288"/>
       <c r="I51" s="288"/>
       <c r="J51" s="291"/>
-      <c r="K51" s="349"/>
+      <c r="K51" s="316"/>
       <c r="L51" s="277" t="s">
         <v>420</v>
       </c>
@@ -7142,16 +7229,18 @@
         <v>101</v>
       </c>
       <c r="G52" s="295" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H52" s="181" t="s">
         <v>446</v>
       </c>
       <c r="I52" s="49" t="s">
-        <v>604</v>
-      </c>
-      <c r="J52" s="45"/>
-      <c r="K52" s="350"/>
+        <v>602</v>
+      </c>
+      <c r="J52" s="45" t="s">
+        <v>622</v>
+      </c>
+      <c r="K52" s="317"/>
       <c r="L52" s="277" t="s">
         <v>420</v>
       </c>
@@ -7199,10 +7288,12 @@
         <v>446</v>
       </c>
       <c r="I53" s="237" t="s">
-        <v>605</v>
-      </c>
-      <c r="J53" s="301"/>
-      <c r="K53" s="347"/>
+        <v>603</v>
+      </c>
+      <c r="J53" s="301" t="s">
+        <v>625</v>
+      </c>
+      <c r="K53" s="314"/>
       <c r="L53" s="276" t="s">
         <v>457</v>
       </c>
@@ -7254,10 +7345,12 @@
         <v>446</v>
       </c>
       <c r="I54" s="237" t="s">
-        <v>606</v>
-      </c>
-      <c r="J54" s="301"/>
-      <c r="K54" s="347"/>
+        <v>604</v>
+      </c>
+      <c r="J54" s="301" t="s">
+        <v>624</v>
+      </c>
+      <c r="K54" s="314"/>
       <c r="L54" s="274" t="s">
         <v>409</v>
       </c>
@@ -7302,7 +7395,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="7"/>
-      <c r="K55" s="351"/>
+      <c r="K55" s="318"/>
       <c r="L55" s="274" t="s">
         <v>409</v>
       </c>
@@ -7349,7 +7442,7 @@
         <v>571</v>
       </c>
       <c r="J56" s="305"/>
-      <c r="K56" s="352"/>
+      <c r="K56" s="319"/>
       <c r="L56" s="281" t="s">
         <v>460</v>
       </c>
@@ -7411,8 +7504,10 @@
       <c r="I57" s="44" t="s">
         <v>572</v>
       </c>
-      <c r="J57" s="41"/>
-      <c r="K57" s="348"/>
+      <c r="J57" s="41" t="s">
+        <v>623</v>
+      </c>
+      <c r="K57" s="315"/>
       <c r="L57" s="282" t="s">
         <v>464</v>
       </c>
@@ -7474,8 +7569,10 @@
       <c r="I58" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="J58" s="41"/>
-      <c r="K58" s="348"/>
+      <c r="J58" s="41" t="s">
+        <v>623</v>
+      </c>
+      <c r="K58" s="315"/>
       <c r="L58" s="282" t="s">
         <v>468</v>
       </c>
@@ -7534,7 +7631,7 @@
         <v>574</v>
       </c>
       <c r="J59" s="97"/>
-      <c r="K59" s="342"/>
+      <c r="K59" s="309"/>
       <c r="L59" s="281" t="s">
         <v>469</v>
       </c>
@@ -7591,7 +7688,7 @@
       <c r="H60" s="287"/>
       <c r="I60" s="287"/>
       <c r="J60" s="294"/>
-      <c r="K60" s="341"/>
+      <c r="K60" s="308"/>
       <c r="L60" s="277" t="s">
         <v>420</v>
       </c>
@@ -7648,7 +7745,7 @@
         <v>575</v>
       </c>
       <c r="J61" s="45"/>
-      <c r="K61" s="350"/>
+      <c r="K61" s="317"/>
       <c r="L61" s="283" t="s">
         <v>473</v>
       </c>
@@ -7703,7 +7800,7 @@
         <v>567</v>
       </c>
       <c r="J62" s="250"/>
-      <c r="K62" s="345"/>
+      <c r="K62" s="312"/>
       <c r="L62" s="278"/>
       <c r="M62" s="157"/>
       <c r="N62" s="16"/>
@@ -7738,7 +7835,7 @@
         <v>563</v>
       </c>
       <c r="J63" s="250"/>
-      <c r="K63" s="345"/>
+      <c r="K63" s="312"/>
       <c r="L63" s="278"/>
       <c r="M63" s="157"/>
       <c r="N63" s="16"/>
@@ -7775,7 +7872,7 @@
         <v>576</v>
       </c>
       <c r="J64" s="45"/>
-      <c r="K64" s="350"/>
+      <c r="K64" s="317"/>
       <c r="L64" s="283" t="s">
         <v>475</v>
       </c>
@@ -7830,7 +7927,7 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="7"/>
-      <c r="K65" s="351"/>
+      <c r="K65" s="318"/>
       <c r="L65" s="275" t="s">
         <v>427</v>
       </c>
@@ -7889,7 +7986,7 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="7"/>
-      <c r="K66" s="351"/>
+      <c r="K66" s="318"/>
       <c r="L66" s="274" t="s">
         <v>409</v>
       </c>
@@ -7944,7 +8041,7 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="351"/>
+      <c r="K67" s="318"/>
       <c r="L67" s="274" t="s">
         <v>409</v>
       </c>
@@ -7999,7 +8096,7 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="351"/>
+      <c r="K68" s="318"/>
       <c r="L68" s="274" t="s">
         <v>409</v>
       </c>
@@ -8054,7 +8151,7 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="7"/>
-      <c r="K69" s="351"/>
+      <c r="K69" s="318"/>
       <c r="L69" s="274" t="s">
         <v>409</v>
       </c>
@@ -8117,7 +8214,7 @@
       <c r="J70" s="301" t="s">
         <v>587</v>
       </c>
-      <c r="K70" s="347"/>
+      <c r="K70" s="314"/>
       <c r="L70" s="274" t="s">
         <v>409</v>
       </c>
@@ -8180,7 +8277,7 @@
       <c r="J71" s="301" t="s">
         <v>587</v>
       </c>
-      <c r="K71" s="347"/>
+      <c r="K71" s="314"/>
       <c r="L71" s="284" t="s">
         <v>480</v>
       </c>
@@ -8237,7 +8334,7 @@
       <c r="H72" s="287"/>
       <c r="I72" s="287"/>
       <c r="J72" s="294"/>
-      <c r="K72" s="341"/>
+      <c r="K72" s="308"/>
       <c r="L72" s="274" t="s">
         <v>409</v>
       </c>
@@ -8295,12 +8392,12 @@
         <v>446</v>
       </c>
       <c r="I73" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="J73" s="301" t="s">
         <v>598</v>
       </c>
-      <c r="J73" s="301" t="s">
-        <v>600</v>
-      </c>
-      <c r="K73" s="347"/>
+      <c r="K73" s="314"/>
       <c r="L73" s="284" t="s">
         <v>485</v>
       </c>
@@ -8358,12 +8455,12 @@
         <v>588</v>
       </c>
       <c r="I74" s="237" t="s">
-        <v>599</v>
+        <v>558</v>
       </c>
       <c r="J74" s="301" t="s">
         <v>587</v>
       </c>
-      <c r="K74" s="347"/>
+      <c r="K74" s="314"/>
       <c r="L74" s="274" t="s">
         <v>409</v>
       </c>
@@ -8416,7 +8513,7 @@
         <v>567</v>
       </c>
       <c r="J75" s="250"/>
-      <c r="K75" s="345"/>
+      <c r="K75" s="312"/>
       <c r="L75" s="278" t="s">
         <v>487</v>
       </c>
@@ -8459,7 +8556,7 @@
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="7"/>
-      <c r="K76" s="351"/>
+      <c r="K76" s="318"/>
       <c r="L76" s="277" t="s">
         <v>420</v>
       </c>
@@ -8528,7 +8625,7 @@
       <c r="J77" s="301" t="s">
         <v>587</v>
       </c>
-      <c r="K77" s="347"/>
+      <c r="K77" s="314"/>
       <c r="L77" s="284" t="s">
         <v>492</v>
       </c>
@@ -8587,7 +8684,7 @@
         <v>567</v>
       </c>
       <c r="J78" s="250"/>
-      <c r="K78" s="345"/>
+      <c r="K78" s="312"/>
       <c r="L78" s="278"/>
       <c r="M78" s="157"/>
       <c r="N78" s="16"/>
@@ -8622,7 +8719,7 @@
         <v>563</v>
       </c>
       <c r="J79" s="252"/>
-      <c r="K79" s="353"/>
+      <c r="K79" s="320"/>
       <c r="L79" s="285"/>
       <c r="M79" s="195"/>
       <c r="N79" s="17"/>
@@ -8840,6 +8937,16 @@
   </sheetData>
   <autoFilter ref="B15:X79" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="26">
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:R14"/>
     <mergeCell ref="U14:X14"/>
@@ -8856,16 +8963,6 @@
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10951,31 +11048,31 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="335" t="s">
+      <c r="B3" s="351" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="337" t="s">
+      <c r="C3" s="353" t="s">
         <v>514</v>
       </c>
-      <c r="D3" s="338"/>
-      <c r="E3" s="333" t="s">
+      <c r="D3" s="354"/>
+      <c r="E3" s="349" t="s">
         <v>515</v>
       </c>
-      <c r="F3" s="334"/>
-      <c r="H3" s="335" t="s">
+      <c r="F3" s="350"/>
+      <c r="H3" s="351" t="s">
         <v>317</v>
       </c>
-      <c r="I3" s="337" t="s">
+      <c r="I3" s="353" t="s">
         <v>514</v>
       </c>
-      <c r="J3" s="338"/>
-      <c r="K3" s="333" t="s">
+      <c r="J3" s="354"/>
+      <c r="K3" s="349" t="s">
         <v>515</v>
       </c>
-      <c r="L3" s="334"/>
+      <c r="L3" s="350"/>
     </row>
     <row r="4" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="336"/>
+      <c r="B4" s="352"/>
       <c r="C4" s="209" t="s">
         <v>513</v>
       </c>
@@ -10988,7 +11085,7 @@
       <c r="F4" s="216" t="s">
         <v>516</v>
       </c>
-      <c r="H4" s="336"/>
+      <c r="H4" s="352"/>
       <c r="I4" s="209" t="s">
         <v>301</v>
       </c>

--- a/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20190429.xlsx
+++ b/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20190429.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329CA47E-A5D1-4E5B-87C1-F570004C4048}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98944486-6E06-4D2F-A00F-C433E69908F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pin-map" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="627">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2432,10 +2432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Over OUTPUT Voltage : 56V 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Buck output Voltage monitor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2444,18 +2440,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PW_IS_AD : 2.01V 이상(ADC : 2496)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FAN 동작 상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FAN_PW_AD : 0.51V 이하(ADC : 634)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Forward Power monitor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2498,6 +2486,22 @@
   </si>
   <si>
     <t>RF 48V 전원 control</t>
+  </si>
+  <si>
+    <t>8MHz OSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Over OUTPUT Voltage : 48V 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW_IS_AD : 1.81V 이상(ADC : 2246)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN_PW_AD : 0.83V 이하(ADC : 1029)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3119,7 +3123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4055,90 +4059,93 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4157,14 +4164,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4766,8 +4779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4824,10 +4837,10 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B3" s="334" t="s">
+      <c r="B3" s="333" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="335"/>
+      <c r="C3" s="334"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -4860,10 +4873,10 @@
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B4" s="336" t="s">
+      <c r="B4" s="335" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="337"/>
+      <c r="C4" s="336"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -4898,10 +4911,10 @@
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B5" s="336" t="s">
+      <c r="B5" s="335" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="337"/>
+      <c r="C5" s="336"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -4938,10 +4951,10 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B6" s="336" t="s">
+      <c r="B6" s="335" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="337"/>
+      <c r="C6" s="336"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -4970,10 +4983,10 @@
       <c r="U6" s="10"/>
     </row>
     <row r="7" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="338" t="s">
+      <c r="B7" s="337" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="339"/>
+      <c r="C7" s="338"/>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
@@ -5142,45 +5155,45 @@
     </row>
     <row r="13" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="345" t="s">
+      <c r="B14" s="328" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="332"/>
-      <c r="D14" s="332" t="s">
+      <c r="C14" s="329"/>
+      <c r="D14" s="329" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="332" t="s">
+      <c r="E14" s="329" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="333"/>
-      <c r="G14" s="340" t="s">
+      <c r="F14" s="349"/>
+      <c r="G14" s="323" t="s">
         <v>562</v>
       </c>
-      <c r="H14" s="341"/>
-      <c r="I14" s="341"/>
-      <c r="J14" s="342"/>
+      <c r="H14" s="324"/>
+      <c r="I14" s="324"/>
+      <c r="J14" s="325"/>
       <c r="K14" s="302"/>
-      <c r="L14" s="322" t="s">
+      <c r="L14" s="339" t="s">
         <v>399</v>
       </c>
-      <c r="M14" s="323"/>
-      <c r="N14" s="322" t="s">
+      <c r="M14" s="340"/>
+      <c r="N14" s="339" t="s">
         <v>400</v>
       </c>
-      <c r="O14" s="324"/>
-      <c r="P14" s="324"/>
-      <c r="Q14" s="324"/>
-      <c r="R14" s="325"/>
-      <c r="S14" s="322" t="s">
+      <c r="O14" s="341"/>
+      <c r="P14" s="341"/>
+      <c r="Q14" s="341"/>
+      <c r="R14" s="342"/>
+      <c r="S14" s="339" t="s">
         <v>12</v>
       </c>
-      <c r="T14" s="324"/>
-      <c r="U14" s="323" t="s">
+      <c r="T14" s="341"/>
+      <c r="U14" s="340" t="s">
         <v>375</v>
       </c>
-      <c r="V14" s="326"/>
-      <c r="W14" s="326"/>
-      <c r="X14" s="327"/>
+      <c r="V14" s="343"/>
+      <c r="W14" s="343"/>
+      <c r="X14" s="344"/>
     </row>
     <row r="15" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="113" t="s">
@@ -5189,7 +5202,7 @@
       <c r="C15" s="114" t="s">
         <v>377</v>
       </c>
-      <c r="D15" s="346"/>
+      <c r="D15" s="330"/>
       <c r="E15" s="114" t="s">
         <v>162</v>
       </c>
@@ -5259,10 +5272,10 @@
       <c r="D16" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="343" t="s">
+      <c r="E16" s="326" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="344"/>
+      <c r="F16" s="327"/>
       <c r="G16" s="33"/>
       <c r="H16" s="253"/>
       <c r="I16" s="289" t="s">
@@ -5340,28 +5353,28 @@
       <c r="X17" s="24"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B18" s="98">
+      <c r="B18" s="293">
         <v>3</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="356" t="s">
         <v>379</v>
       </c>
-      <c r="D18" s="99" t="s">
+      <c r="D18" s="287" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="262" t="s">
+      <c r="F18" s="357" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99" t="s">
+      <c r="G18" s="293"/>
+      <c r="H18" s="287"/>
+      <c r="I18" s="287" t="s">
         <v>564</v>
       </c>
-      <c r="J18" s="97"/>
-      <c r="K18" s="309"/>
+      <c r="J18" s="294"/>
+      <c r="K18" s="308"/>
       <c r="L18" s="274" t="s">
         <v>409</v>
       </c>
@@ -5397,28 +5410,28 @@
       <c r="X18" s="91"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B19" s="98">
+      <c r="B19" s="293">
         <v>4</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="356" t="s">
         <v>379</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="287" t="s">
         <v>73</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="262" t="s">
+      <c r="F19" s="357" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99" t="s">
+      <c r="G19" s="293"/>
+      <c r="H19" s="287"/>
+      <c r="I19" s="287" t="s">
         <v>564</v>
       </c>
-      <c r="J19" s="97"/>
-      <c r="K19" s="309"/>
+      <c r="J19" s="294"/>
+      <c r="K19" s="308"/>
       <c r="L19" s="274" t="s">
         <v>409</v>
       </c>
@@ -5474,7 +5487,9 @@
       <c r="I20" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="J20" s="97"/>
+      <c r="J20" s="97" t="s">
+        <v>623</v>
+      </c>
       <c r="K20" s="309"/>
       <c r="L20" s="274" t="s">
         <v>409</v>
@@ -5511,28 +5526,28 @@
       <c r="X20" s="91"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B21" s="98">
+      <c r="B21" s="293">
         <v>6</v>
       </c>
-      <c r="C21" s="110" t="s">
+      <c r="C21" s="358" t="s">
         <v>380</v>
       </c>
-      <c r="D21" s="99" t="s">
+      <c r="D21" s="287" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="94" t="s">
+      <c r="E21" s="287" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="262" t="s">
+      <c r="F21" s="357" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99" t="s">
+      <c r="G21" s="293"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="287" t="s">
         <v>565</v>
       </c>
-      <c r="J21" s="97"/>
-      <c r="K21" s="309"/>
+      <c r="J21" s="294"/>
+      <c r="K21" s="308"/>
       <c r="L21" s="274" t="s">
         <v>409</v>
       </c>
@@ -5577,10 +5592,10 @@
       <c r="D22" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="347" t="s">
+      <c r="E22" s="331" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="348"/>
+      <c r="F22" s="332"/>
       <c r="G22" s="47"/>
       <c r="H22" s="256"/>
       <c r="I22" s="256" t="s">
@@ -5650,7 +5665,7 @@
       <c r="J23" s="41" t="s">
         <v>605</v>
       </c>
-      <c r="K23" s="321" t="s">
+      <c r="K23" s="359" t="s">
         <v>607</v>
       </c>
       <c r="L23" s="276" t="s">
@@ -5715,10 +5730,10 @@
         <v>606</v>
       </c>
       <c r="J24" s="298" t="s">
-        <v>609</v>
-      </c>
-      <c r="K24" s="321" t="s">
         <v>608</v>
+      </c>
+      <c r="K24" s="359" t="s">
+        <v>624</v>
       </c>
       <c r="L24" s="277" t="s">
         <v>420</v>
@@ -5780,10 +5795,10 @@
         <v>537</v>
       </c>
       <c r="J25" s="298" t="s">
-        <v>610</v>
-      </c>
-      <c r="K25" s="355" t="s">
-        <v>611</v>
+        <v>609</v>
+      </c>
+      <c r="K25" s="360" t="s">
+        <v>625</v>
       </c>
       <c r="L25" s="277" t="s">
         <v>420</v>
@@ -5845,10 +5860,10 @@
         <v>569</v>
       </c>
       <c r="J26" s="298" t="s">
-        <v>612</v>
-      </c>
-      <c r="K26" s="355" t="s">
-        <v>613</v>
+        <v>610</v>
+      </c>
+      <c r="K26" s="360" t="s">
+        <v>626</v>
       </c>
       <c r="L26" s="277" t="s">
         <v>420</v>
@@ -5892,17 +5907,17 @@
       <c r="D27" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="328" t="s">
+      <c r="E27" s="345" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="329"/>
+      <c r="F27" s="346"/>
       <c r="G27" s="16"/>
       <c r="H27" s="249"/>
       <c r="I27" s="249" t="s">
         <v>567</v>
       </c>
       <c r="J27" s="250"/>
-      <c r="K27" s="356"/>
+      <c r="K27" s="321"/>
       <c r="L27" s="278"/>
       <c r="M27" s="157"/>
       <c r="N27" s="16"/>
@@ -5927,10 +5942,10 @@
       <c r="D28" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="328" t="s">
+      <c r="E28" s="345" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="329"/>
+      <c r="F28" s="346"/>
       <c r="G28" s="16"/>
       <c r="H28" s="249"/>
       <c r="I28" s="286" t="s">
@@ -5978,7 +5993,7 @@
         <v>578</v>
       </c>
       <c r="J29" s="298" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K29" s="311"/>
       <c r="L29" s="274" t="s">
@@ -6041,7 +6056,7 @@
         <v>570</v>
       </c>
       <c r="J30" s="298" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="K30" s="311"/>
       <c r="L30" s="279" t="s">
@@ -6090,7 +6105,7 @@
       <c r="F31" s="263" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="357" t="s">
+      <c r="G31" s="322" t="s">
         <v>112</v>
       </c>
       <c r="H31" s="297" t="s">
@@ -6100,10 +6115,10 @@
         <v>538</v>
       </c>
       <c r="J31" s="298" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K31" s="311" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="L31" s="279" t="s">
         <v>427</v>
@@ -6194,10 +6209,10 @@
       <c r="D33" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="328" t="s">
+      <c r="E33" s="345" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="329"/>
+      <c r="F33" s="346"/>
       <c r="G33" s="16"/>
       <c r="H33" s="249"/>
       <c r="I33" s="249" t="s">
@@ -6229,10 +6244,10 @@
       <c r="D34" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="328" t="s">
+      <c r="E34" s="345" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="329"/>
+      <c r="F34" s="346"/>
       <c r="G34" s="16"/>
       <c r="H34" s="249"/>
       <c r="I34" s="286" t="s">
@@ -6390,10 +6405,10 @@
         <v>600</v>
       </c>
       <c r="J37" s="310" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="K37" s="257" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="L37" s="274" t="s">
         <v>409</v>
@@ -6920,10 +6935,10 @@
       <c r="D46" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="328" t="s">
+      <c r="E46" s="345" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="329"/>
+      <c r="F46" s="346"/>
       <c r="G46" s="16"/>
       <c r="H46" s="249"/>
       <c r="I46" s="249" t="s">
@@ -6955,10 +6970,10 @@
       <c r="D47" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="330" t="s">
+      <c r="E47" s="347" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="331"/>
+      <c r="F47" s="348"/>
       <c r="G47" s="16"/>
       <c r="H47" s="249"/>
       <c r="I47" s="286" t="s">
@@ -7009,7 +7024,7 @@
         <v>587</v>
       </c>
       <c r="K48" s="314" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L48" s="277" t="s">
         <v>420</v>
@@ -7078,7 +7093,7 @@
         <v>587</v>
       </c>
       <c r="K49" s="314" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="L49" s="277" t="s">
         <v>420</v>
@@ -7238,7 +7253,7 @@
         <v>602</v>
       </c>
       <c r="J52" s="45" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K52" s="317"/>
       <c r="L52" s="277" t="s">
@@ -7291,7 +7306,7 @@
         <v>603</v>
       </c>
       <c r="J53" s="301" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="K53" s="314"/>
       <c r="L53" s="276" t="s">
@@ -7348,7 +7363,7 @@
         <v>604</v>
       </c>
       <c r="J54" s="301" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K54" s="314"/>
       <c r="L54" s="274" t="s">
@@ -7505,7 +7520,7 @@
         <v>572</v>
       </c>
       <c r="J57" s="41" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K57" s="315"/>
       <c r="L57" s="282" t="s">
@@ -7570,7 +7585,7 @@
         <v>573</v>
       </c>
       <c r="J58" s="41" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K58" s="315"/>
       <c r="L58" s="282" t="s">
@@ -7790,10 +7805,10 @@
       <c r="D62" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="328" t="s">
+      <c r="E62" s="345" t="s">
         <v>114</v>
       </c>
-      <c r="F62" s="329"/>
+      <c r="F62" s="346"/>
       <c r="G62" s="16"/>
       <c r="H62" s="249"/>
       <c r="I62" s="249" t="s">
@@ -7825,10 +7840,10 @@
       <c r="D63" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="330" t="s">
+      <c r="E63" s="347" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="331"/>
+      <c r="F63" s="348"/>
       <c r="G63" s="16"/>
       <c r="H63" s="249"/>
       <c r="I63" s="286" t="s">
@@ -8503,10 +8518,10 @@
       <c r="D75" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E75" s="328" t="s">
+      <c r="E75" s="345" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="329"/>
+      <c r="F75" s="346"/>
       <c r="G75" s="16"/>
       <c r="H75" s="249"/>
       <c r="I75" s="249" t="s">
@@ -8674,10 +8689,10 @@
       <c r="D78" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E78" s="328" t="s">
+      <c r="E78" s="345" t="s">
         <v>114</v>
       </c>
-      <c r="F78" s="329"/>
+      <c r="F78" s="346"/>
       <c r="G78" s="16"/>
       <c r="H78" s="249"/>
       <c r="I78" s="249" t="s">
@@ -8709,10 +8724,10 @@
       <c r="D79" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="330" t="s">
+      <c r="E79" s="347" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="331"/>
+      <c r="F79" s="348"/>
       <c r="G79" s="17"/>
       <c r="H79" s="251"/>
       <c r="I79" s="296" t="s">
@@ -8937,16 +8952,6 @@
   </sheetData>
   <autoFilter ref="B15:X79" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="26">
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:R14"/>
     <mergeCell ref="U14:X14"/>
@@ -8963,6 +8968,16 @@
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11048,31 +11063,31 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="351" t="s">
+      <c r="B3" s="352" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="353" t="s">
+      <c r="C3" s="354" t="s">
         <v>514</v>
       </c>
-      <c r="D3" s="354"/>
-      <c r="E3" s="349" t="s">
+      <c r="D3" s="355"/>
+      <c r="E3" s="350" t="s">
         <v>515</v>
       </c>
-      <c r="F3" s="350"/>
-      <c r="H3" s="351" t="s">
+      <c r="F3" s="351"/>
+      <c r="H3" s="352" t="s">
         <v>317</v>
       </c>
-      <c r="I3" s="353" t="s">
+      <c r="I3" s="354" t="s">
         <v>514</v>
       </c>
-      <c r="J3" s="354"/>
-      <c r="K3" s="349" t="s">
+      <c r="J3" s="355"/>
+      <c r="K3" s="350" t="s">
         <v>515</v>
       </c>
-      <c r="L3" s="350"/>
+      <c r="L3" s="351"/>
     </row>
     <row r="4" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="352"/>
+      <c r="B4" s="353"/>
       <c r="C4" s="209" t="s">
         <v>513</v>
       </c>
@@ -11085,7 +11100,7 @@
       <c r="F4" s="216" t="s">
         <v>516</v>
       </c>
-      <c r="H4" s="352"/>
+      <c r="H4" s="353"/>
       <c r="I4" s="209" t="s">
         <v>301</v>
       </c>

--- a/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20190429.xlsx
+++ b/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20190429.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98944486-6E06-4D2F-A00F-C433E69908F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7016DBAA-B1B5-421E-A200-AEC5B6DDA2CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4065,6 +4066,75 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4083,9 +4153,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4094,57 +4161,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4163,21 +4179,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4779,8 +4780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4837,10 +4838,10 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B3" s="333" t="s">
+      <c r="B3" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="334"/>
+      <c r="C3" s="341"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -4873,10 +4874,10 @@
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B4" s="335" t="s">
+      <c r="B4" s="342" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="336"/>
+      <c r="C4" s="343"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -4911,10 +4912,10 @@
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B5" s="335" t="s">
+      <c r="B5" s="342" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="336"/>
+      <c r="C5" s="343"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -4951,10 +4952,10 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B6" s="335" t="s">
+      <c r="B6" s="342" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="336"/>
+      <c r="C6" s="343"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -4983,10 +4984,10 @@
       <c r="U6" s="10"/>
     </row>
     <row r="7" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="337" t="s">
+      <c r="B7" s="344" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="338"/>
+      <c r="C7" s="345"/>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
@@ -5155,45 +5156,45 @@
     </row>
     <row r="13" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="328" t="s">
+      <c r="B14" s="351" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="329"/>
-      <c r="D14" s="329" t="s">
+      <c r="C14" s="338"/>
+      <c r="D14" s="338" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="329" t="s">
+      <c r="E14" s="338" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="349"/>
-      <c r="G14" s="323" t="s">
+      <c r="F14" s="339"/>
+      <c r="G14" s="346" t="s">
         <v>562</v>
       </c>
-      <c r="H14" s="324"/>
-      <c r="I14" s="324"/>
-      <c r="J14" s="325"/>
+      <c r="H14" s="347"/>
+      <c r="I14" s="347"/>
+      <c r="J14" s="348"/>
       <c r="K14" s="302"/>
-      <c r="L14" s="339" t="s">
+      <c r="L14" s="328" t="s">
         <v>399</v>
       </c>
-      <c r="M14" s="340"/>
-      <c r="N14" s="339" t="s">
+      <c r="M14" s="329"/>
+      <c r="N14" s="328" t="s">
         <v>400</v>
       </c>
-      <c r="O14" s="341"/>
-      <c r="P14" s="341"/>
-      <c r="Q14" s="341"/>
-      <c r="R14" s="342"/>
-      <c r="S14" s="339" t="s">
+      <c r="O14" s="330"/>
+      <c r="P14" s="330"/>
+      <c r="Q14" s="330"/>
+      <c r="R14" s="331"/>
+      <c r="S14" s="328" t="s">
         <v>12</v>
       </c>
-      <c r="T14" s="341"/>
-      <c r="U14" s="340" t="s">
+      <c r="T14" s="330"/>
+      <c r="U14" s="329" t="s">
         <v>375</v>
       </c>
-      <c r="V14" s="343"/>
-      <c r="W14" s="343"/>
-      <c r="X14" s="344"/>
+      <c r="V14" s="332"/>
+      <c r="W14" s="332"/>
+      <c r="X14" s="333"/>
     </row>
     <row r="15" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="113" t="s">
@@ -5202,7 +5203,7 @@
       <c r="C15" s="114" t="s">
         <v>377</v>
       </c>
-      <c r="D15" s="330"/>
+      <c r="D15" s="352"/>
       <c r="E15" s="114" t="s">
         <v>162</v>
       </c>
@@ -5272,10 +5273,10 @@
       <c r="D16" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="326" t="s">
+      <c r="E16" s="349" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="327"/>
+      <c r="F16" s="350"/>
       <c r="G16" s="33"/>
       <c r="H16" s="253"/>
       <c r="I16" s="289" t="s">
@@ -5356,7 +5357,7 @@
       <c r="B18" s="293">
         <v>3</v>
       </c>
-      <c r="C18" s="356" t="s">
+      <c r="C18" s="323" t="s">
         <v>379</v>
       </c>
       <c r="D18" s="287" t="s">
@@ -5365,7 +5366,7 @@
       <c r="E18" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="357" t="s">
+      <c r="F18" s="324" t="s">
         <v>87</v>
       </c>
       <c r="G18" s="293"/>
@@ -5413,7 +5414,7 @@
       <c r="B19" s="293">
         <v>4</v>
       </c>
-      <c r="C19" s="356" t="s">
+      <c r="C19" s="323" t="s">
         <v>379</v>
       </c>
       <c r="D19" s="287" t="s">
@@ -5422,7 +5423,7 @@
       <c r="E19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="357" t="s">
+      <c r="F19" s="324" t="s">
         <v>88</v>
       </c>
       <c r="G19" s="293"/>
@@ -5529,7 +5530,7 @@
       <c r="B21" s="293">
         <v>6</v>
       </c>
-      <c r="C21" s="358" t="s">
+      <c r="C21" s="325" t="s">
         <v>380</v>
       </c>
       <c r="D21" s="287" t="s">
@@ -5538,7 +5539,7 @@
       <c r="E21" s="287" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="357" t="s">
+      <c r="F21" s="324" t="s">
         <v>96</v>
       </c>
       <c r="G21" s="293"/>
@@ -5592,10 +5593,10 @@
       <c r="D22" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="331" t="s">
+      <c r="E22" s="353" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="332"/>
+      <c r="F22" s="354"/>
       <c r="G22" s="47"/>
       <c r="H22" s="256"/>
       <c r="I22" s="256" t="s">
@@ -5665,7 +5666,7 @@
       <c r="J23" s="41" t="s">
         <v>605</v>
       </c>
-      <c r="K23" s="359" t="s">
+      <c r="K23" s="326" t="s">
         <v>607</v>
       </c>
       <c r="L23" s="276" t="s">
@@ -5732,7 +5733,7 @@
       <c r="J24" s="298" t="s">
         <v>608</v>
       </c>
-      <c r="K24" s="359" t="s">
+      <c r="K24" s="326" t="s">
         <v>624</v>
       </c>
       <c r="L24" s="277" t="s">
@@ -5797,7 +5798,7 @@
       <c r="J25" s="298" t="s">
         <v>609</v>
       </c>
-      <c r="K25" s="360" t="s">
+      <c r="K25" s="327" t="s">
         <v>625</v>
       </c>
       <c r="L25" s="277" t="s">
@@ -5862,7 +5863,7 @@
       <c r="J26" s="298" t="s">
         <v>610</v>
       </c>
-      <c r="K26" s="360" t="s">
+      <c r="K26" s="327" t="s">
         <v>626</v>
       </c>
       <c r="L26" s="277" t="s">
@@ -5907,10 +5908,10 @@
       <c r="D27" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="345" t="s">
+      <c r="E27" s="334" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="346"/>
+      <c r="F27" s="335"/>
       <c r="G27" s="16"/>
       <c r="H27" s="249"/>
       <c r="I27" s="249" t="s">
@@ -5942,10 +5943,10 @@
       <c r="D28" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="345" t="s">
+      <c r="E28" s="334" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="346"/>
+      <c r="F28" s="335"/>
       <c r="G28" s="16"/>
       <c r="H28" s="249"/>
       <c r="I28" s="286" t="s">
@@ -6209,10 +6210,10 @@
       <c r="D33" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="345" t="s">
+      <c r="E33" s="334" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="346"/>
+      <c r="F33" s="335"/>
       <c r="G33" s="16"/>
       <c r="H33" s="249"/>
       <c r="I33" s="249" t="s">
@@ -6244,10 +6245,10 @@
       <c r="D34" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="345" t="s">
+      <c r="E34" s="334" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="346"/>
+      <c r="F34" s="335"/>
       <c r="G34" s="16"/>
       <c r="H34" s="249"/>
       <c r="I34" s="286" t="s">
@@ -6935,10 +6936,10 @@
       <c r="D46" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="345" t="s">
+      <c r="E46" s="334" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="346"/>
+      <c r="F46" s="335"/>
       <c r="G46" s="16"/>
       <c r="H46" s="249"/>
       <c r="I46" s="249" t="s">
@@ -6970,10 +6971,10 @@
       <c r="D47" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="347" t="s">
+      <c r="E47" s="336" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="348"/>
+      <c r="F47" s="337"/>
       <c r="G47" s="16"/>
       <c r="H47" s="249"/>
       <c r="I47" s="286" t="s">
@@ -7805,10 +7806,10 @@
       <c r="D62" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="345" t="s">
+      <c r="E62" s="334" t="s">
         <v>114</v>
       </c>
-      <c r="F62" s="346"/>
+      <c r="F62" s="335"/>
       <c r="G62" s="16"/>
       <c r="H62" s="249"/>
       <c r="I62" s="249" t="s">
@@ -7840,10 +7841,10 @@
       <c r="D63" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="347" t="s">
+      <c r="E63" s="336" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="348"/>
+      <c r="F63" s="337"/>
       <c r="G63" s="16"/>
       <c r="H63" s="249"/>
       <c r="I63" s="286" t="s">
@@ -8518,10 +8519,10 @@
       <c r="D75" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E75" s="345" t="s">
+      <c r="E75" s="334" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="346"/>
+      <c r="F75" s="335"/>
       <c r="G75" s="16"/>
       <c r="H75" s="249"/>
       <c r="I75" s="249" t="s">
@@ -8689,10 +8690,10 @@
       <c r="D78" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E78" s="345" t="s">
+      <c r="E78" s="334" t="s">
         <v>114</v>
       </c>
-      <c r="F78" s="346"/>
+      <c r="F78" s="335"/>
       <c r="G78" s="16"/>
       <c r="H78" s="249"/>
       <c r="I78" s="249" t="s">
@@ -8724,10 +8725,10 @@
       <c r="D79" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="347" t="s">
+      <c r="E79" s="336" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="348"/>
+      <c r="F79" s="337"/>
       <c r="G79" s="17"/>
       <c r="H79" s="251"/>
       <c r="I79" s="296" t="s">
@@ -8952,6 +8953,16 @@
   </sheetData>
   <autoFilter ref="B15:X79" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="26">
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:R14"/>
     <mergeCell ref="U14:X14"/>
@@ -8968,16 +8979,6 @@
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11063,31 +11064,31 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="352" t="s">
+      <c r="B3" s="357" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="354" t="s">
+      <c r="C3" s="359" t="s">
         <v>514</v>
       </c>
-      <c r="D3" s="355"/>
-      <c r="E3" s="350" t="s">
+      <c r="D3" s="360"/>
+      <c r="E3" s="355" t="s">
         <v>515</v>
       </c>
-      <c r="F3" s="351"/>
-      <c r="H3" s="352" t="s">
+      <c r="F3" s="356"/>
+      <c r="H3" s="357" t="s">
         <v>317</v>
       </c>
-      <c r="I3" s="354" t="s">
+      <c r="I3" s="359" t="s">
         <v>514</v>
       </c>
-      <c r="J3" s="355"/>
-      <c r="K3" s="350" t="s">
+      <c r="J3" s="360"/>
+      <c r="K3" s="355" t="s">
         <v>515</v>
       </c>
-      <c r="L3" s="351"/>
+      <c r="L3" s="356"/>
     </row>
     <row r="4" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="353"/>
+      <c r="B4" s="358"/>
       <c r="C4" s="209" t="s">
         <v>513</v>
       </c>
@@ -11100,7 +11101,7 @@
       <c r="F4" s="216" t="s">
         <v>516</v>
       </c>
-      <c r="H4" s="353"/>
+      <c r="H4" s="358"/>
       <c r="I4" s="209" t="s">
         <v>301</v>
       </c>
